--- a/data/UserList.xlsx
+++ b/data/UserList.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Part Time Studies\OOP_Proj\data\"/>
     </mc:Choice>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="441">
   <si>
     <t>Staff ID</t>
   </si>
@@ -1322,12 +1322,34 @@
   </si>
   <si>
     <t>user100@example.com</t>
+  </si>
+  <si>
+    <t>newPwd</t>
+  </si>
+  <si>
+    <t>Pwd124</t>
+  </si>
+  <si>
+    <t>Pwd125</t>
+  </si>
+  <si>
+    <t>Pwd126</t>
+  </si>
+  <si>
+    <t>Pwd127</t>
+  </si>
+  <si>
+    <t>Pwd128</t>
+  </si>
+  <si>
+    <t>Pwd129</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1708,11 +1730,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="24.7109375" customWidth="1"/>
-    <col min="3" max="3" width="30.42578125" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" customWidth="1"/>
-    <col min="8" max="8" width="35.42578125" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" width="24.7109375"/>
+    <col min="3" max="3" customWidth="true" width="30.42578125"/>
+    <col min="6" max="6" customWidth="true" width="16.42578125"/>
+    <col min="7" max="7" customWidth="true" width="15.85546875"/>
+    <col min="8" max="8" customWidth="true" width="35.42578125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -1745,3018 +1767,3018 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="0">
         <v>45</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="G2" t="s">
-        <v>22</v>
+      <c r="G2" t="s" s="0">
+        <v>440</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="0">
         <v>12345678</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3">
+      <c r="D3" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E3" s="0">
         <v>38</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" t="s" s="0">
         <v>22</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="0">
         <v>12345679</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="0">
         <v>29</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" t="s" s="0">
         <v>22</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="0">
         <v>12345680</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5">
+      <c r="D5" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E5" s="0">
         <v>40</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" t="s" s="0">
         <v>22</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="0">
         <v>12345681</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" t="s" s="0">
         <v>32</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="0">
         <v>65</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" t="s" s="0">
         <v>33</v>
       </c>
-      <c r="G6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="G6" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="H6" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="0">
         <v>9458008</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>35</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" t="s" s="0">
         <v>36</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="0">
         <v>57</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" t="s" s="0">
         <v>37</v>
       </c>
-      <c r="G7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="G7" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="H7" t="s" s="0">
         <v>38</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="0">
         <v>5406679</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" t="s" s="0">
         <v>40</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="0">
         <v>39</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="G8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H8" t="s">
+      <c r="G8" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="H8" t="s" s="0">
         <v>42</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="0">
         <v>8020791</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>43</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" t="s" s="0">
         <v>44</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="D9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9">
+      <c r="D9" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E9" s="0">
         <v>32</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" t="s" s="0">
         <v>45</v>
       </c>
-      <c r="G9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="G9" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="H9" t="s" s="0">
         <v>46</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="0">
         <v>5720360</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>47</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="D10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10">
+      <c r="D10" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E10" s="0">
         <v>45</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="G10" t="s">
-        <v>22</v>
-      </c>
-      <c r="H10" t="s">
+      <c r="G10" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="H10" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="0">
         <v>9507728</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="D11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11">
+      <c r="D11" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E11" s="0">
         <v>56</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" t="s" s="0">
         <v>53</v>
       </c>
-      <c r="G11" t="s">
-        <v>22</v>
-      </c>
-      <c r="H11" t="s">
+      <c r="G11" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="H11" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="0">
         <v>6810352</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12">
+      <c r="D12" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E12" s="0">
         <v>27</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="G12" t="s">
-        <v>22</v>
-      </c>
-      <c r="H12" t="s">
+      <c r="G12" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="H12" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="0">
         <v>5980041</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" t="s" s="0">
         <v>59</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" t="s" s="0">
         <v>60</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" t="s" s="0">
         <v>61</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="0">
         <v>29</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" t="s" s="0">
         <v>62</v>
       </c>
-      <c r="G13" t="s">
-        <v>22</v>
-      </c>
-      <c r="H13" t="s">
+      <c r="G13" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="H13" t="s" s="0">
         <v>63</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="0">
         <v>5130769</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" t="s" s="0">
         <v>64</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" t="s" s="0">
         <v>65</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="0">
         <v>34</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" t="s" s="0">
         <v>66</v>
       </c>
-      <c r="G14" t="s">
-        <v>22</v>
-      </c>
-      <c r="H14" t="s">
+      <c r="G14" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="H14" t="s" s="0">
         <v>67</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="0">
         <v>4446176</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" t="s" s="0">
         <v>68</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" t="s" s="0">
         <v>69</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="D15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15">
+      <c r="D15" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E15" s="0">
         <v>52</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" t="s" s="0">
         <v>71</v>
       </c>
-      <c r="G15" t="s">
-        <v>22</v>
-      </c>
-      <c r="H15" t="s">
+      <c r="G15" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="H15" t="s" s="0">
         <v>72</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="0">
         <v>3504139</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" t="s" s="0">
         <v>73</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" t="s" s="0">
         <v>74</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="0">
         <v>43</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" t="s" s="0">
         <v>75</v>
       </c>
-      <c r="G16" t="s">
-        <v>22</v>
-      </c>
-      <c r="H16" t="s">
+      <c r="G16" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="H16" t="s" s="0">
         <v>76</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="0">
         <v>3882465</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" t="s" s="0">
         <v>77</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" t="s" s="0">
         <v>78</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="D17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17">
+      <c r="D17" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E17" s="0">
         <v>38</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" t="s" s="0">
         <v>79</v>
       </c>
-      <c r="G17" t="s">
-        <v>22</v>
-      </c>
-      <c r="H17" t="s">
+      <c r="G17" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="H17" t="s" s="0">
         <v>80</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="0">
         <v>6209898</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" t="s" s="0">
         <v>81</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" t="s" s="0">
         <v>82</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="D18" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18">
+      <c r="D18" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E18" s="0">
         <v>55</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" t="s" s="0">
         <v>83</v>
       </c>
-      <c r="G18" t="s">
-        <v>22</v>
-      </c>
-      <c r="H18" t="s">
+      <c r="G18" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="H18" t="s" s="0">
         <v>84</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="0">
         <v>9214791</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" t="s" s="0">
         <v>85</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" t="s" s="0">
         <v>86</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="0">
         <v>53</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" t="s" s="0">
         <v>87</v>
       </c>
-      <c r="G19" t="s">
-        <v>22</v>
-      </c>
-      <c r="H19" t="s">
+      <c r="G19" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="H19" t="s" s="0">
         <v>88</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="0">
         <v>8179935</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20" t="s" s="0">
         <v>89</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" t="s" s="0">
         <v>90</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="0">
         <v>25</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" t="s" s="0">
         <v>91</v>
       </c>
-      <c r="G20" t="s">
-        <v>22</v>
-      </c>
-      <c r="H20" t="s">
+      <c r="G20" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="H20" t="s" s="0">
         <v>92</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="0">
         <v>3023232</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="A21" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" t="s" s="0">
         <v>94</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="D21" t="s">
-        <v>13</v>
-      </c>
-      <c r="E21">
+      <c r="D21" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E21" s="0">
         <v>58</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" t="s" s="0">
         <v>95</v>
       </c>
-      <c r="G21" t="s">
-        <v>22</v>
-      </c>
-      <c r="H21" t="s">
+      <c r="G21" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="H21" t="s" s="0">
         <v>96</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="0">
         <v>6607521</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="A22" t="s" s="0">
         <v>97</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" t="s" s="0">
         <v>98</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" t="s" s="0">
         <v>61</v>
       </c>
-      <c r="D22" t="s">
-        <v>13</v>
-      </c>
-      <c r="E22">
+      <c r="D22" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E22" s="0">
         <v>47</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" t="s" s="0">
         <v>99</v>
       </c>
-      <c r="G22" t="s">
-        <v>22</v>
-      </c>
-      <c r="H22" t="s">
+      <c r="G22" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="H22" t="s" s="0">
         <v>100</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="0">
         <v>4855587</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="A23" t="s" s="0">
         <v>101</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" t="s" s="0">
         <v>102</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D23" t="s">
-        <v>13</v>
-      </c>
-      <c r="E23">
+      <c r="D23" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E23" s="0">
         <v>27</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" t="s" s="0">
         <v>103</v>
       </c>
-      <c r="G23" t="s">
-        <v>22</v>
-      </c>
-      <c r="H23" t="s">
+      <c r="G23" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="H23" t="s" s="0">
         <v>104</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="0">
         <v>5043744</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="A24" t="s" s="0">
         <v>105</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" t="s" s="0">
         <v>106</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="0">
         <v>23</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" t="s" s="0">
         <v>107</v>
       </c>
-      <c r="G24" t="s">
-        <v>22</v>
-      </c>
-      <c r="H24" t="s">
+      <c r="G24" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="H24" t="s" s="0">
         <v>108</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="0">
         <v>6914894</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="A25" t="s" s="0">
         <v>109</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" t="s" s="0">
         <v>110</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="0">
         <v>65</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" t="s" s="0">
         <v>111</v>
       </c>
-      <c r="G25" t="s">
-        <v>22</v>
-      </c>
-      <c r="H25" t="s">
+      <c r="G25" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="H25" t="s" s="0">
         <v>112</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="0">
         <v>5176574</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="A26" t="s" s="0">
         <v>113</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" t="s" s="0">
         <v>114</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" t="s" s="0">
         <v>32</v>
       </c>
-      <c r="D26" t="s">
-        <v>13</v>
-      </c>
-      <c r="E26">
+      <c r="D26" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E26" s="0">
         <v>38</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" t="s" s="0">
         <v>115</v>
       </c>
-      <c r="G26" t="s">
-        <v>22</v>
-      </c>
-      <c r="H26" t="s">
+      <c r="G26" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="H26" t="s" s="0">
         <v>116</v>
       </c>
-      <c r="I26">
+      <c r="I26" s="0">
         <v>5994982</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="A27" t="s" s="0">
         <v>117</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" t="s" s="0">
         <v>118</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" t="s" s="0">
         <v>119</v>
       </c>
-      <c r="D27" t="s">
-        <v>13</v>
-      </c>
-      <c r="E27">
+      <c r="D27" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E27" s="0">
         <v>29</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" t="s" s="0">
         <v>120</v>
       </c>
-      <c r="G27" t="s">
-        <v>22</v>
-      </c>
-      <c r="H27" t="s">
+      <c r="G27" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="H27" t="s" s="0">
         <v>121</v>
       </c>
-      <c r="I27">
+      <c r="I27" s="0">
         <v>2026262</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="A28" t="s" s="0">
         <v>122</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" t="s" s="0">
         <v>123</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="D28" t="s">
-        <v>13</v>
-      </c>
-      <c r="E28">
+      <c r="D28" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E28" s="0">
         <v>28</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" t="s" s="0">
         <v>124</v>
       </c>
-      <c r="G28" t="s">
-        <v>22</v>
-      </c>
-      <c r="H28" t="s">
+      <c r="G28" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="H28" t="s" s="0">
         <v>125</v>
       </c>
-      <c r="I28">
+      <c r="I28" s="0">
         <v>5788254</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="A29" t="s" s="0">
         <v>126</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" t="s" s="0">
         <v>127</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" t="s" s="0">
         <v>61</v>
       </c>
-      <c r="D29" t="s">
-        <v>13</v>
-      </c>
-      <c r="E29">
+      <c r="D29" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E29" s="0">
         <v>54</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" t="s" s="0">
         <v>128</v>
       </c>
-      <c r="G29" t="s">
-        <v>22</v>
-      </c>
-      <c r="H29" t="s">
+      <c r="G29" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="H29" t="s" s="0">
         <v>129</v>
       </c>
-      <c r="I29">
+      <c r="I29" s="0">
         <v>3073034</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="A30" t="s" s="0">
         <v>130</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" t="s" s="0">
         <v>131</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="E30">
-        <v>22</v>
-      </c>
-      <c r="F30" t="s">
+      <c r="E30" s="0">
+        <v>22</v>
+      </c>
+      <c r="F30" t="s" s="0">
         <v>132</v>
       </c>
-      <c r="G30" t="s">
-        <v>22</v>
-      </c>
-      <c r="H30" t="s">
+      <c r="G30" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="H30" t="s" s="0">
         <v>133</v>
       </c>
-      <c r="I30">
+      <c r="I30" s="0">
         <v>3512882</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="A31" t="s" s="0">
         <v>134</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" t="s" s="0">
         <v>135</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" t="s" s="0">
         <v>61</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="0">
         <v>31</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" t="s" s="0">
         <v>136</v>
       </c>
-      <c r="G31" t="s">
-        <v>22</v>
-      </c>
-      <c r="H31" t="s">
+      <c r="G31" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="H31" t="s" s="0">
         <v>137</v>
       </c>
-      <c r="I31">
+      <c r="I31" s="0">
         <v>3869738</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="A32" t="s" s="0">
         <v>138</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" t="s" s="0">
         <v>139</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="D32" t="s">
-        <v>13</v>
-      </c>
-      <c r="E32">
+      <c r="D32" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E32" s="0">
         <v>28</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" t="s" s="0">
         <v>140</v>
       </c>
-      <c r="G32" t="s">
-        <v>22</v>
-      </c>
-      <c r="H32" t="s">
+      <c r="G32" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="H32" t="s" s="0">
         <v>141</v>
       </c>
-      <c r="I32">
+      <c r="I32" s="0">
         <v>1222647</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="A33" t="s" s="0">
         <v>142</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" t="s" s="0">
         <v>143</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D33" t="s">
-        <v>13</v>
-      </c>
-      <c r="E33">
+      <c r="D33" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E33" s="0">
         <v>60</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33" t="s" s="0">
         <v>144</v>
       </c>
-      <c r="G33" t="s">
-        <v>22</v>
-      </c>
-      <c r="H33" t="s">
+      <c r="G33" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="H33" t="s" s="0">
         <v>145</v>
       </c>
-      <c r="I33">
+      <c r="I33" s="0">
         <v>7437675</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="A34" t="s" s="0">
         <v>146</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" t="s" s="0">
         <v>147</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" t="s" s="0">
         <v>119</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="0">
         <v>51</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F34" t="s" s="0">
         <v>148</v>
       </c>
-      <c r="G34" t="s">
-        <v>22</v>
-      </c>
-      <c r="H34" t="s">
+      <c r="G34" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="H34" t="s" s="0">
         <v>149</v>
       </c>
-      <c r="I34">
+      <c r="I34" s="0">
         <v>5991621</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="A35" t="s" s="0">
         <v>150</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" t="s" s="0">
         <v>151</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="D35" t="s">
-        <v>13</v>
-      </c>
-      <c r="E35">
+      <c r="D35" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E35" s="0">
         <v>57</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F35" t="s" s="0">
         <v>152</v>
       </c>
-      <c r="G35" t="s">
-        <v>22</v>
-      </c>
-      <c r="H35" t="s">
+      <c r="G35" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="H35" t="s" s="0">
         <v>153</v>
       </c>
-      <c r="I35">
+      <c r="I35" s="0">
         <v>2673449</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="A36" t="s" s="0">
         <v>154</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" t="s" s="0">
         <v>155</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D36" t="s">
-        <v>13</v>
-      </c>
-      <c r="E36">
+      <c r="D36" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E36" s="0">
         <v>41</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F36" t="s" s="0">
         <v>156</v>
       </c>
-      <c r="G36" t="s">
-        <v>22</v>
-      </c>
-      <c r="H36" t="s">
+      <c r="G36" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="H36" t="s" s="0">
         <v>157</v>
       </c>
-      <c r="I36">
+      <c r="I36" s="0">
         <v>5414099</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="A37" t="s" s="0">
         <v>158</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" t="s" s="0">
         <v>159</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" t="s" s="0">
         <v>32</v>
       </c>
-      <c r="D37" t="s">
-        <v>13</v>
-      </c>
-      <c r="E37">
+      <c r="D37" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E37" s="0">
         <v>65</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F37" t="s" s="0">
         <v>160</v>
       </c>
-      <c r="G37" t="s">
-        <v>22</v>
-      </c>
-      <c r="H37" t="s">
+      <c r="G37" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="H37" t="s" s="0">
         <v>161</v>
       </c>
-      <c r="I37">
+      <c r="I37" s="0">
         <v>1591806</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="A38" t="s" s="0">
         <v>162</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" t="s" s="0">
         <v>163</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="0">
         <v>34</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F38" t="s" s="0">
         <v>164</v>
       </c>
-      <c r="G38" t="s">
-        <v>22</v>
-      </c>
-      <c r="H38" t="s">
+      <c r="G38" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="H38" t="s" s="0">
         <v>165</v>
       </c>
-      <c r="I38">
+      <c r="I38" s="0">
         <v>5440842</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="A39" t="s" s="0">
         <v>166</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" t="s" s="0">
         <v>167</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" t="s" s="0">
         <v>119</v>
       </c>
-      <c r="D39" t="s">
-        <v>13</v>
-      </c>
-      <c r="E39">
+      <c r="D39" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E39" s="0">
         <v>39</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F39" t="s" s="0">
         <v>168</v>
       </c>
-      <c r="G39" t="s">
-        <v>22</v>
-      </c>
-      <c r="H39" t="s">
+      <c r="G39" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="H39" t="s" s="0">
         <v>169</v>
       </c>
-      <c r="I39">
+      <c r="I39" s="0">
         <v>5123903</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="A40" t="s" s="0">
         <v>170</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" t="s" s="0">
         <v>171</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" t="s" s="0">
         <v>119</v>
       </c>
-      <c r="D40" t="s">
-        <v>13</v>
-      </c>
-      <c r="E40">
+      <c r="D40" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E40" s="0">
         <v>30</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F40" t="s" s="0">
         <v>172</v>
       </c>
-      <c r="G40" t="s">
-        <v>22</v>
-      </c>
-      <c r="H40" t="s">
+      <c r="G40" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="H40" t="s" s="0">
         <v>173</v>
       </c>
-      <c r="I40">
+      <c r="I40" s="0">
         <v>8419913</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="A41" t="s" s="0">
         <v>174</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" t="s" s="0">
         <v>175</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="0">
         <v>53</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F41" t="s" s="0">
         <v>176</v>
       </c>
-      <c r="G41" t="s">
-        <v>22</v>
-      </c>
-      <c r="H41" t="s">
+      <c r="G41" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="H41" t="s" s="0">
         <v>177</v>
       </c>
-      <c r="I41">
+      <c r="I41" s="0">
         <v>2541769</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="A42" t="s" s="0">
         <v>178</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" t="s" s="0">
         <v>179</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" t="s" s="0">
         <v>119</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="0">
         <v>42</v>
       </c>
-      <c r="F42" t="s">
+      <c r="F42" t="s" s="0">
         <v>180</v>
       </c>
-      <c r="G42" t="s">
-        <v>22</v>
-      </c>
-      <c r="H42" t="s">
+      <c r="G42" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="H42" t="s" s="0">
         <v>181</v>
       </c>
-      <c r="I42">
+      <c r="I42" s="0">
         <v>3301311</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="A43" t="s" s="0">
         <v>182</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" t="s" s="0">
         <v>183</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="0">
         <v>61</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F43" t="s" s="0">
         <v>184</v>
       </c>
-      <c r="G43" t="s">
-        <v>22</v>
-      </c>
-      <c r="H43" t="s">
+      <c r="G43" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="H43" t="s" s="0">
         <v>185</v>
       </c>
-      <c r="I43">
+      <c r="I43" s="0">
         <v>3901307</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="A44" t="s" s="0">
         <v>186</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" t="s" s="0">
         <v>187</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="D44" t="s">
-        <v>13</v>
-      </c>
-      <c r="E44">
+      <c r="D44" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E44" s="0">
         <v>45</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F44" t="s" s="0">
         <v>188</v>
       </c>
-      <c r="G44" t="s">
-        <v>22</v>
-      </c>
-      <c r="H44" t="s">
+      <c r="G44" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="H44" t="s" s="0">
         <v>189</v>
       </c>
-      <c r="I44">
+      <c r="I44" s="0">
         <v>8507627</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="A45" t="s" s="0">
         <v>190</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" t="s" s="0">
         <v>191</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="D45" t="s">
-        <v>13</v>
-      </c>
-      <c r="E45">
-        <v>22</v>
-      </c>
-      <c r="F45" t="s">
+      <c r="D45" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E45" s="0">
+        <v>22</v>
+      </c>
+      <c r="F45" t="s" s="0">
         <v>192</v>
       </c>
-      <c r="G45" t="s">
-        <v>22</v>
-      </c>
-      <c r="H45" t="s">
+      <c r="G45" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="H45" t="s" s="0">
         <v>193</v>
       </c>
-      <c r="I45">
+      <c r="I45" s="0">
         <v>6247756</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="A46" t="s" s="0">
         <v>194</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" t="s" s="0">
         <v>195</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" t="s" s="0">
         <v>119</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="0">
         <v>62</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F46" t="s" s="0">
         <v>196</v>
       </c>
-      <c r="G46" t="s">
-        <v>22</v>
-      </c>
-      <c r="H46" t="s">
+      <c r="G46" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="H46" t="s" s="0">
         <v>197</v>
       </c>
-      <c r="I46">
+      <c r="I46" s="0">
         <v>7799558</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="A47" t="s" s="0">
         <v>198</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" t="s" s="0">
         <v>199</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" t="s" s="0">
         <v>119</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="0">
         <v>57</v>
       </c>
-      <c r="F47" t="s">
+      <c r="F47" t="s" s="0">
         <v>200</v>
       </c>
-      <c r="G47" t="s">
-        <v>22</v>
-      </c>
-      <c r="H47" t="s">
+      <c r="G47" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="H47" t="s" s="0">
         <v>201</v>
       </c>
-      <c r="I47">
+      <c r="I47" s="0">
         <v>6846085</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="A48" t="s" s="0">
         <v>202</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" t="s" s="0">
         <v>203</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="E48">
+      <c r="E48" s="0">
         <v>64</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F48" t="s" s="0">
         <v>204</v>
       </c>
-      <c r="G48" t="s">
-        <v>22</v>
-      </c>
-      <c r="H48" t="s">
+      <c r="G48" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="H48" t="s" s="0">
         <v>205</v>
       </c>
-      <c r="I48">
+      <c r="I48" s="0">
         <v>3002894</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="A49" t="s" s="0">
         <v>206</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" t="s" s="0">
         <v>207</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="D49" t="s">
-        <v>13</v>
-      </c>
-      <c r="E49">
+      <c r="D49" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E49" s="0">
         <v>65</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F49" t="s" s="0">
         <v>208</v>
       </c>
-      <c r="G49" t="s">
-        <v>22</v>
-      </c>
-      <c r="H49" t="s">
+      <c r="G49" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="H49" t="s" s="0">
         <v>209</v>
       </c>
-      <c r="I49">
+      <c r="I49" s="0">
         <v>8576374</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="A50" t="s" s="0">
         <v>210</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" t="s" s="0">
         <v>211</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" t="s" s="0">
         <v>119</v>
       </c>
-      <c r="D50" t="s">
-        <v>13</v>
-      </c>
-      <c r="E50">
+      <c r="D50" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E50" s="0">
         <v>50</v>
       </c>
-      <c r="F50" t="s">
+      <c r="F50" t="s" s="0">
         <v>212</v>
       </c>
-      <c r="G50" t="s">
-        <v>22</v>
-      </c>
-      <c r="H50" t="s">
+      <c r="G50" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="H50" t="s" s="0">
         <v>213</v>
       </c>
-      <c r="I50">
+      <c r="I50" s="0">
         <v>6839229</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="A51" t="s" s="0">
         <v>214</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" t="s" s="0">
         <v>215</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D51" t="s">
-        <v>13</v>
-      </c>
-      <c r="E51">
+      <c r="D51" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E51" s="0">
         <v>46</v>
       </c>
-      <c r="F51" t="s">
+      <c r="F51" t="s" s="0">
         <v>216</v>
       </c>
-      <c r="G51" t="s">
-        <v>22</v>
-      </c>
-      <c r="H51" t="s">
+      <c r="G51" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="H51" t="s" s="0">
         <v>217</v>
       </c>
-      <c r="I51">
+      <c r="I51" s="0">
         <v>1833341</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+      <c r="A52" t="s" s="0">
         <v>218</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" t="s" s="0">
         <v>219</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" t="s" s="0">
         <v>119</v>
       </c>
-      <c r="D52" t="s">
-        <v>13</v>
-      </c>
-      <c r="E52">
+      <c r="D52" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E52" s="0">
         <v>52</v>
       </c>
-      <c r="F52" t="s">
+      <c r="F52" t="s" s="0">
         <v>220</v>
       </c>
-      <c r="G52" t="s">
-        <v>22</v>
-      </c>
-      <c r="H52" t="s">
+      <c r="G52" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="H52" t="s" s="0">
         <v>221</v>
       </c>
-      <c r="I52">
+      <c r="I52" s="0">
         <v>5945914</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="A53" t="s" s="0">
         <v>222</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" t="s" s="0">
         <v>223</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" t="s" s="0">
         <v>32</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="E53">
+      <c r="E53" s="0">
         <v>44</v>
       </c>
-      <c r="F53" t="s">
+      <c r="F53" t="s" s="0">
         <v>224</v>
       </c>
-      <c r="G53" t="s">
-        <v>22</v>
-      </c>
-      <c r="H53" t="s">
+      <c r="G53" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="H53" t="s" s="0">
         <v>225</v>
       </c>
-      <c r="I53">
+      <c r="I53" s="0">
         <v>3101456</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="A54" t="s" s="0">
         <v>226</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" t="s" s="0">
         <v>227</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D54" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="E54">
+      <c r="E54" s="0">
         <v>59</v>
       </c>
-      <c r="F54" t="s">
+      <c r="F54" t="s" s="0">
         <v>228</v>
       </c>
-      <c r="G54" t="s">
-        <v>22</v>
-      </c>
-      <c r="H54" t="s">
+      <c r="G54" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="H54" t="s" s="0">
         <v>229</v>
       </c>
-      <c r="I54">
+      <c r="I54" s="0">
         <v>8790582</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+      <c r="A55" t="s" s="0">
         <v>230</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" t="s" s="0">
         <v>231</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D55" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="E55">
+      <c r="E55" s="0">
         <v>41</v>
       </c>
-      <c r="F55" t="s">
+      <c r="F55" t="s" s="0">
         <v>232</v>
       </c>
-      <c r="G55" t="s">
-        <v>22</v>
-      </c>
-      <c r="H55" t="s">
+      <c r="G55" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="H55" t="s" s="0">
         <v>233</v>
       </c>
-      <c r="I55">
+      <c r="I55" s="0">
         <v>7076399</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+      <c r="A56" t="s" s="0">
         <v>234</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" t="s" s="0">
         <v>235</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D56" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="E56">
+      <c r="E56" s="0">
         <v>23</v>
       </c>
-      <c r="F56" t="s">
+      <c r="F56" t="s" s="0">
         <v>236</v>
       </c>
-      <c r="G56" t="s">
-        <v>22</v>
-      </c>
-      <c r="H56" t="s">
+      <c r="G56" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="H56" t="s" s="0">
         <v>237</v>
       </c>
-      <c r="I56">
+      <c r="I56" s="0">
         <v>5581452</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+      <c r="A57" t="s" s="0">
         <v>238</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" t="s" s="0">
         <v>239</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="D57" t="s">
-        <v>13</v>
-      </c>
-      <c r="E57">
-        <v>22</v>
-      </c>
-      <c r="F57" t="s">
+      <c r="D57" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E57" s="0">
+        <v>22</v>
+      </c>
+      <c r="F57" t="s" s="0">
         <v>240</v>
       </c>
-      <c r="G57" t="s">
-        <v>22</v>
-      </c>
-      <c r="H57" t="s">
+      <c r="G57" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="H57" t="s" s="0">
         <v>241</v>
       </c>
-      <c r="I57">
+      <c r="I57" s="0">
         <v>3474559</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+      <c r="A58" t="s" s="0">
         <v>242</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" t="s" s="0">
         <v>243</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D58" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="E58">
+      <c r="E58" s="0">
         <v>28</v>
       </c>
-      <c r="F58" t="s">
+      <c r="F58" t="s" s="0">
         <v>244</v>
       </c>
-      <c r="G58" t="s">
-        <v>22</v>
-      </c>
-      <c r="H58" t="s">
+      <c r="G58" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="H58" t="s" s="0">
         <v>245</v>
       </c>
-      <c r="I58">
+      <c r="I58" s="0">
         <v>3873886</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+      <c r="A59" t="s" s="0">
         <v>246</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" t="s" s="0">
         <v>247</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="D59" t="s">
-        <v>13</v>
-      </c>
-      <c r="E59">
+      <c r="D59" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E59" s="0">
         <v>30</v>
       </c>
-      <c r="F59" t="s">
+      <c r="F59" t="s" s="0">
         <v>248</v>
       </c>
-      <c r="G59" t="s">
-        <v>22</v>
-      </c>
-      <c r="H59" t="s">
+      <c r="G59" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="H59" t="s" s="0">
         <v>249</v>
       </c>
-      <c r="I59">
+      <c r="I59" s="0">
         <v>3607945</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+      <c r="A60" t="s" s="0">
         <v>250</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" t="s" s="0">
         <v>251</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="D60" t="s">
-        <v>13</v>
-      </c>
-      <c r="E60">
+      <c r="D60" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E60" s="0">
         <v>55</v>
       </c>
-      <c r="F60" t="s">
+      <c r="F60" t="s" s="0">
         <v>252</v>
       </c>
-      <c r="G60" t="s">
-        <v>22</v>
-      </c>
-      <c r="H60" t="s">
+      <c r="G60" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="H60" t="s" s="0">
         <v>253</v>
       </c>
-      <c r="I60">
+      <c r="I60" s="0">
         <v>5903486</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+      <c r="A61" t="s" s="0">
         <v>254</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" t="s" s="0">
         <v>255</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="D61" t="s">
-        <v>13</v>
-      </c>
-      <c r="E61">
+      <c r="D61" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E61" s="0">
         <v>31</v>
       </c>
-      <c r="F61" t="s">
+      <c r="F61" t="s" s="0">
         <v>256</v>
       </c>
-      <c r="G61" t="s">
-        <v>22</v>
-      </c>
-      <c r="H61" t="s">
+      <c r="G61" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="H61" t="s" s="0">
         <v>257</v>
       </c>
-      <c r="I61">
+      <c r="I61" s="0">
         <v>6280079</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+      <c r="A62" t="s" s="0">
         <v>258</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" t="s" s="0">
         <v>259</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" t="s" s="0">
         <v>61</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D62" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="E62">
+      <c r="E62" s="0">
         <v>34</v>
       </c>
-      <c r="F62" t="s">
+      <c r="F62" t="s" s="0">
         <v>260</v>
       </c>
-      <c r="G62" t="s">
-        <v>22</v>
-      </c>
-      <c r="H62" t="s">
+      <c r="G62" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="H62" t="s" s="0">
         <v>261</v>
       </c>
-      <c r="I62">
+      <c r="I62" s="0">
         <v>9217628</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+      <c r="A63" t="s" s="0">
         <v>262</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" t="s" s="0">
         <v>263</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" t="s" s="0">
         <v>61</v>
       </c>
-      <c r="D63" t="s">
-        <v>13</v>
-      </c>
-      <c r="E63">
+      <c r="D63" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E63" s="0">
         <v>55</v>
       </c>
-      <c r="F63" t="s">
+      <c r="F63" t="s" s="0">
         <v>264</v>
       </c>
-      <c r="G63" t="s">
-        <v>22</v>
-      </c>
-      <c r="H63" t="s">
+      <c r="G63" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="H63" t="s" s="0">
         <v>265</v>
       </c>
-      <c r="I63">
+      <c r="I63" s="0">
         <v>1894489</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+      <c r="A64" t="s" s="0">
         <v>266</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" t="s" s="0">
         <v>267</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D64" t="s">
-        <v>13</v>
-      </c>
-      <c r="E64">
+      <c r="D64" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E64" s="0">
         <v>65</v>
       </c>
-      <c r="F64" t="s">
+      <c r="F64" t="s" s="0">
         <v>268</v>
       </c>
-      <c r="G64" t="s">
-        <v>22</v>
-      </c>
-      <c r="H64" t="s">
+      <c r="G64" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="H64" t="s" s="0">
         <v>269</v>
       </c>
-      <c r="I64">
+      <c r="I64" s="0">
         <v>7076473</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+      <c r="A65" t="s" s="0">
         <v>270</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" t="s" s="0">
         <v>271</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C65" t="s" s="0">
         <v>61</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D65" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="E65">
+      <c r="E65" s="0">
         <v>56</v>
       </c>
-      <c r="F65" t="s">
+      <c r="F65" t="s" s="0">
         <v>272</v>
       </c>
-      <c r="G65" t="s">
-        <v>22</v>
-      </c>
-      <c r="H65" t="s">
+      <c r="G65" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="H65" t="s" s="0">
         <v>273</v>
       </c>
-      <c r="I65">
+      <c r="I65" s="0">
         <v>8890120</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+      <c r="A66" t="s" s="0">
         <v>274</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" t="s" s="0">
         <v>275</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" t="s" s="0">
         <v>32</v>
       </c>
-      <c r="D66" t="s">
-        <v>13</v>
-      </c>
-      <c r="E66">
+      <c r="D66" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E66" s="0">
         <v>34</v>
       </c>
-      <c r="F66" t="s">
+      <c r="F66" t="s" s="0">
         <v>276</v>
       </c>
-      <c r="G66" t="s">
-        <v>22</v>
-      </c>
-      <c r="H66" t="s">
+      <c r="G66" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="H66" t="s" s="0">
         <v>277</v>
       </c>
-      <c r="I66">
+      <c r="I66" s="0">
         <v>1822054</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+      <c r="A67" t="s" s="0">
         <v>278</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" t="s" s="0">
         <v>279</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C67" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D67" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="E67">
+      <c r="E67" s="0">
         <v>63</v>
       </c>
-      <c r="F67" t="s">
+      <c r="F67" t="s" s="0">
         <v>280</v>
       </c>
-      <c r="G67" t="s">
-        <v>22</v>
-      </c>
-      <c r="H67" t="s">
+      <c r="G67" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="H67" t="s" s="0">
         <v>281</v>
       </c>
-      <c r="I67">
+      <c r="I67" s="0">
         <v>3713226</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+      <c r="A68" t="s" s="0">
         <v>282</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" t="s" s="0">
         <v>283</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C68" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="D68" t="s">
-        <v>13</v>
-      </c>
-      <c r="E68">
+      <c r="D68" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E68" s="0">
         <v>49</v>
       </c>
-      <c r="F68" t="s">
+      <c r="F68" t="s" s="0">
         <v>284</v>
       </c>
-      <c r="G68" t="s">
-        <v>22</v>
-      </c>
-      <c r="H68" t="s">
+      <c r="G68" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="H68" t="s" s="0">
         <v>285</v>
       </c>
-      <c r="I68">
+      <c r="I68" s="0">
         <v>4900839</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+      <c r="A69" t="s" s="0">
         <v>286</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" t="s" s="0">
         <v>287</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C69" t="s" s="0">
         <v>119</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D69" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="E69">
-        <v>22</v>
-      </c>
-      <c r="F69" t="s">
+      <c r="E69" s="0">
+        <v>22</v>
+      </c>
+      <c r="F69" t="s" s="0">
         <v>288</v>
       </c>
-      <c r="G69" t="s">
-        <v>22</v>
-      </c>
-      <c r="H69" t="s">
+      <c r="G69" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="H69" t="s" s="0">
         <v>289</v>
       </c>
-      <c r="I69">
+      <c r="I69" s="0">
         <v>8613278</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+      <c r="A70" t="s" s="0">
         <v>290</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" t="s" s="0">
         <v>291</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C70" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D70" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="E70">
+      <c r="E70" s="0">
         <v>57</v>
       </c>
-      <c r="F70" t="s">
+      <c r="F70" t="s" s="0">
         <v>292</v>
       </c>
-      <c r="G70" t="s">
-        <v>22</v>
-      </c>
-      <c r="H70" t="s">
+      <c r="G70" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="H70" t="s" s="0">
         <v>293</v>
       </c>
-      <c r="I70">
+      <c r="I70" s="0">
         <v>1890269</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+      <c r="A71" t="s" s="0">
         <v>294</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" t="s" s="0">
         <v>295</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C71" t="s" s="0">
         <v>61</v>
       </c>
-      <c r="D71" t="s">
-        <v>13</v>
-      </c>
-      <c r="E71">
+      <c r="D71" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E71" s="0">
         <v>29</v>
       </c>
-      <c r="F71" t="s">
+      <c r="F71" t="s" s="0">
         <v>296</v>
       </c>
-      <c r="G71" t="s">
-        <v>22</v>
-      </c>
-      <c r="H71" t="s">
+      <c r="G71" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="H71" t="s" s="0">
         <v>297</v>
       </c>
-      <c r="I71">
+      <c r="I71" s="0">
         <v>2552925</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+      <c r="A72" t="s" s="0">
         <v>298</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" t="s" s="0">
         <v>299</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C72" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="D72" t="s">
-        <v>13</v>
-      </c>
-      <c r="E72">
+      <c r="D72" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E72" s="0">
         <v>60</v>
       </c>
-      <c r="F72" t="s">
+      <c r="F72" t="s" s="0">
         <v>300</v>
       </c>
-      <c r="G72" t="s">
-        <v>22</v>
-      </c>
-      <c r="H72" t="s">
+      <c r="G72" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="H72" t="s" s="0">
         <v>301</v>
       </c>
-      <c r="I72">
+      <c r="I72" s="0">
         <v>6822517</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+      <c r="A73" t="s" s="0">
         <v>302</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" t="s" s="0">
         <v>303</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C73" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="D73" t="s">
-        <v>13</v>
-      </c>
-      <c r="E73">
+      <c r="D73" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E73" s="0">
         <v>44</v>
       </c>
-      <c r="F73" t="s">
+      <c r="F73" t="s" s="0">
         <v>304</v>
       </c>
-      <c r="G73" t="s">
-        <v>22</v>
-      </c>
-      <c r="H73" t="s">
+      <c r="G73" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="H73" t="s" s="0">
         <v>305</v>
       </c>
-      <c r="I73">
+      <c r="I73" s="0">
         <v>7665699</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+      <c r="A74" t="s" s="0">
         <v>306</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" t="s" s="0">
         <v>307</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C74" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="D74" t="s">
-        <v>13</v>
-      </c>
-      <c r="E74">
+      <c r="D74" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E74" s="0">
         <v>43</v>
       </c>
-      <c r="F74" t="s">
+      <c r="F74" t="s" s="0">
         <v>308</v>
       </c>
-      <c r="G74" t="s">
-        <v>22</v>
-      </c>
-      <c r="H74" t="s">
+      <c r="G74" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="H74" t="s" s="0">
         <v>309</v>
       </c>
-      <c r="I74">
+      <c r="I74" s="0">
         <v>5533098</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+      <c r="A75" t="s" s="0">
         <v>310</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" t="s" s="0">
         <v>311</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C75" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D75" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="E75">
+      <c r="E75" s="0">
         <v>48</v>
       </c>
-      <c r="F75" t="s">
+      <c r="F75" t="s" s="0">
         <v>312</v>
       </c>
-      <c r="G75" t="s">
-        <v>22</v>
-      </c>
-      <c r="H75" t="s">
+      <c r="G75" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="H75" t="s" s="0">
         <v>313</v>
       </c>
-      <c r="I75">
+      <c r="I75" s="0">
         <v>2818715</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+      <c r="A76" t="s" s="0">
         <v>314</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" t="s" s="0">
         <v>315</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C76" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D76" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="E76">
+      <c r="E76" s="0">
         <v>55</v>
       </c>
-      <c r="F76" t="s">
+      <c r="F76" t="s" s="0">
         <v>316</v>
       </c>
-      <c r="G76" t="s">
-        <v>22</v>
-      </c>
-      <c r="H76" t="s">
+      <c r="G76" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="H76" t="s" s="0">
         <v>317</v>
       </c>
-      <c r="I76">
+      <c r="I76" s="0">
         <v>6021521</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+      <c r="A77" t="s" s="0">
         <v>318</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" t="s" s="0">
         <v>319</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C77" t="s" s="0">
         <v>61</v>
       </c>
-      <c r="D77" t="s">
+      <c r="D77" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="E77">
+      <c r="E77" s="0">
         <v>62</v>
       </c>
-      <c r="F77" t="s">
+      <c r="F77" t="s" s="0">
         <v>320</v>
       </c>
-      <c r="G77" t="s">
-        <v>22</v>
-      </c>
-      <c r="H77" t="s">
+      <c r="G77" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="H77" t="s" s="0">
         <v>321</v>
       </c>
-      <c r="I77">
+      <c r="I77" s="0">
         <v>6574157</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+      <c r="A78" t="s" s="0">
         <v>322</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" t="s" s="0">
         <v>323</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C78" t="s" s="0">
         <v>32</v>
       </c>
-      <c r="D78" t="s">
-        <v>13</v>
-      </c>
-      <c r="E78">
+      <c r="D78" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E78" s="0">
         <v>50</v>
       </c>
-      <c r="F78" t="s">
+      <c r="F78" t="s" s="0">
         <v>324</v>
       </c>
-      <c r="G78" t="s">
-        <v>22</v>
-      </c>
-      <c r="H78" t="s">
+      <c r="G78" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="H78" t="s" s="0">
         <v>325</v>
       </c>
-      <c r="I78">
+      <c r="I78" s="0">
         <v>2683176</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+      <c r="A79" t="s" s="0">
         <v>326</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" t="s" s="0">
         <v>327</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C79" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="D79" t="s">
-        <v>13</v>
-      </c>
-      <c r="E79">
-        <v>22</v>
-      </c>
-      <c r="F79" t="s">
+      <c r="D79" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E79" s="0">
+        <v>22</v>
+      </c>
+      <c r="F79" t="s" s="0">
         <v>328</v>
       </c>
-      <c r="G79" t="s">
-        <v>22</v>
-      </c>
-      <c r="H79" t="s">
+      <c r="G79" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="H79" t="s" s="0">
         <v>329</v>
       </c>
-      <c r="I79">
+      <c r="I79" s="0">
         <v>7083693</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+      <c r="A80" t="s" s="0">
         <v>330</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" t="s" s="0">
         <v>331</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C80" t="s" s="0">
         <v>61</v>
       </c>
-      <c r="D80" t="s">
-        <v>13</v>
-      </c>
-      <c r="E80">
+      <c r="D80" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E80" s="0">
         <v>46</v>
       </c>
-      <c r="F80" t="s">
+      <c r="F80" t="s" s="0">
         <v>332</v>
       </c>
-      <c r="G80" t="s">
-        <v>22</v>
-      </c>
-      <c r="H80" t="s">
+      <c r="G80" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="H80" t="s" s="0">
         <v>333</v>
       </c>
-      <c r="I80">
+      <c r="I80" s="0">
         <v>5228382</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+      <c r="A81" t="s" s="0">
         <v>334</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" t="s" s="0">
         <v>335</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C81" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D81" t="s">
-        <v>13</v>
-      </c>
-      <c r="E81">
+      <c r="D81" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E81" s="0">
         <v>40</v>
       </c>
-      <c r="F81" t="s">
+      <c r="F81" t="s" s="0">
         <v>336</v>
       </c>
-      <c r="G81" t="s">
-        <v>22</v>
-      </c>
-      <c r="H81" t="s">
+      <c r="G81" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="H81" t="s" s="0">
         <v>337</v>
       </c>
-      <c r="I81">
+      <c r="I81" s="0">
         <v>2740643</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+      <c r="A82" t="s" s="0">
         <v>338</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" t="s" s="0">
         <v>339</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C82" t="s" s="0">
         <v>119</v>
       </c>
-      <c r="D82" t="s">
+      <c r="D82" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="E82">
+      <c r="E82" s="0">
         <v>54</v>
       </c>
-      <c r="F82" t="s">
+      <c r="F82" t="s" s="0">
         <v>340</v>
       </c>
-      <c r="G82" t="s">
-        <v>22</v>
-      </c>
-      <c r="H82" t="s">
+      <c r="G82" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="H82" t="s" s="0">
         <v>341</v>
       </c>
-      <c r="I82">
+      <c r="I82" s="0">
         <v>7961296</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+      <c r="A83" t="s" s="0">
         <v>342</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" t="s" s="0">
         <v>343</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C83" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="D83" t="s">
+      <c r="D83" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="E83">
+      <c r="E83" s="0">
         <v>33</v>
       </c>
-      <c r="F83" t="s">
+      <c r="F83" t="s" s="0">
         <v>344</v>
       </c>
-      <c r="G83" t="s">
-        <v>22</v>
-      </c>
-      <c r="H83" t="s">
+      <c r="G83" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="H83" t="s" s="0">
         <v>345</v>
       </c>
-      <c r="I83">
+      <c r="I83" s="0">
         <v>9737290</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+      <c r="A84" t="s" s="0">
         <v>346</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" t="s" s="0">
         <v>347</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C84" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="D84" t="s">
-        <v>13</v>
-      </c>
-      <c r="E84">
+      <c r="D84" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E84" s="0">
         <v>28</v>
       </c>
-      <c r="F84" t="s">
+      <c r="F84" t="s" s="0">
         <v>348</v>
       </c>
-      <c r="G84" t="s">
-        <v>22</v>
-      </c>
-      <c r="H84" t="s">
+      <c r="G84" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="H84" t="s" s="0">
         <v>349</v>
       </c>
-      <c r="I84">
+      <c r="I84" s="0">
         <v>3253337</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+      <c r="A85" t="s" s="0">
         <v>350</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" t="s" s="0">
         <v>351</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C85" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="D85" t="s">
-        <v>13</v>
-      </c>
-      <c r="E85">
+      <c r="D85" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E85" s="0">
         <v>57</v>
       </c>
-      <c r="F85" t="s">
+      <c r="F85" t="s" s="0">
         <v>352</v>
       </c>
-      <c r="G85" t="s">
-        <v>22</v>
-      </c>
-      <c r="H85" t="s">
+      <c r="G85" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="H85" t="s" s="0">
         <v>353</v>
       </c>
-      <c r="I85">
+      <c r="I85" s="0">
         <v>3477827</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+      <c r="A86" t="s" s="0">
         <v>354</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" t="s" s="0">
         <v>355</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C86" t="s" s="0">
         <v>119</v>
       </c>
-      <c r="D86" t="s">
-        <v>13</v>
-      </c>
-      <c r="E86">
+      <c r="D86" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E86" s="0">
         <v>23</v>
       </c>
-      <c r="F86" t="s">
+      <c r="F86" t="s" s="0">
         <v>356</v>
       </c>
-      <c r="G86" t="s">
-        <v>22</v>
-      </c>
-      <c r="H86" t="s">
+      <c r="G86" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="H86" t="s" s="0">
         <v>357</v>
       </c>
-      <c r="I86">
+      <c r="I86" s="0">
         <v>6484201</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
+      <c r="A87" t="s" s="0">
         <v>358</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" t="s" s="0">
         <v>359</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C87" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D87" t="s">
-        <v>13</v>
-      </c>
-      <c r="E87">
+      <c r="D87" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E87" s="0">
         <v>26</v>
       </c>
-      <c r="F87" t="s">
+      <c r="F87" t="s" s="0">
         <v>360</v>
       </c>
-      <c r="G87" t="s">
-        <v>22</v>
-      </c>
-      <c r="H87" t="s">
+      <c r="G87" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="H87" t="s" s="0">
         <v>361</v>
       </c>
-      <c r="I87">
+      <c r="I87" s="0">
         <v>2137184</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+      <c r="A88" t="s" s="0">
         <v>362</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" t="s" s="0">
         <v>363</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C88" t="s" s="0">
         <v>32</v>
       </c>
-      <c r="D88" t="s">
+      <c r="D88" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="E88">
+      <c r="E88" s="0">
         <v>43</v>
       </c>
-      <c r="F88" t="s">
+      <c r="F88" t="s" s="0">
         <v>364</v>
       </c>
-      <c r="G88" t="s">
-        <v>22</v>
-      </c>
-      <c r="H88" t="s">
+      <c r="G88" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="H88" t="s" s="0">
         <v>365</v>
       </c>
-      <c r="I88">
+      <c r="I88" s="0">
         <v>5828649</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
+      <c r="A89" t="s" s="0">
         <v>366</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89" t="s" s="0">
         <v>367</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C89" t="s" s="0">
         <v>61</v>
       </c>
-      <c r="D89" t="s">
+      <c r="D89" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="E89">
+      <c r="E89" s="0">
         <v>35</v>
       </c>
-      <c r="F89" t="s">
+      <c r="F89" t="s" s="0">
         <v>368</v>
       </c>
-      <c r="G89" t="s">
-        <v>22</v>
-      </c>
-      <c r="H89" t="s">
+      <c r="G89" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="H89" t="s" s="0">
         <v>369</v>
       </c>
-      <c r="I89">
+      <c r="I89" s="0">
         <v>9314586</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+      <c r="A90" t="s" s="0">
         <v>370</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90" t="s" s="0">
         <v>371</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C90" t="s" s="0">
         <v>61</v>
       </c>
-      <c r="D90" t="s">
+      <c r="D90" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="E90">
+      <c r="E90" s="0">
         <v>52</v>
       </c>
-      <c r="F90" t="s">
+      <c r="F90" t="s" s="0">
         <v>372</v>
       </c>
-      <c r="G90" t="s">
-        <v>22</v>
-      </c>
-      <c r="H90" t="s">
+      <c r="G90" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="H90" t="s" s="0">
         <v>373</v>
       </c>
-      <c r="I90">
+      <c r="I90" s="0">
         <v>5930324</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
+      <c r="A91" t="s" s="0">
         <v>374</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91" t="s" s="0">
         <v>375</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C91" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="D91" t="s">
-        <v>13</v>
-      </c>
-      <c r="E91">
+      <c r="D91" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E91" s="0">
         <v>42</v>
       </c>
-      <c r="F91" t="s">
+      <c r="F91" t="s" s="0">
         <v>376</v>
       </c>
-      <c r="G91" t="s">
-        <v>22</v>
-      </c>
-      <c r="H91" t="s">
+      <c r="G91" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="H91" t="s" s="0">
         <v>377</v>
       </c>
-      <c r="I91">
+      <c r="I91" s="0">
         <v>4353913</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
+      <c r="A92" t="s" s="0">
         <v>378</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" t="s" s="0">
         <v>379</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C92" t="s" s="0">
         <v>119</v>
       </c>
-      <c r="D92" t="s">
+      <c r="D92" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="E92">
+      <c r="E92" s="0">
         <v>37</v>
       </c>
-      <c r="F92" t="s">
+      <c r="F92" t="s" s="0">
         <v>380</v>
       </c>
-      <c r="G92" t="s">
-        <v>22</v>
-      </c>
-      <c r="H92" t="s">
+      <c r="G92" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="H92" t="s" s="0">
         <v>381</v>
       </c>
-      <c r="I92">
+      <c r="I92" s="0">
         <v>3044136</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
+      <c r="A93" t="s" s="0">
         <v>382</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" t="s" s="0">
         <v>383</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C93" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="D93" t="s">
+      <c r="D93" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="E93">
+      <c r="E93" s="0">
         <v>39</v>
       </c>
-      <c r="F93" t="s">
+      <c r="F93" t="s" s="0">
         <v>384</v>
       </c>
-      <c r="G93" t="s">
-        <v>22</v>
-      </c>
-      <c r="H93" t="s">
+      <c r="G93" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="H93" t="s" s="0">
         <v>385</v>
       </c>
-      <c r="I93">
+      <c r="I93" s="0">
         <v>5228200</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
+      <c r="A94" t="s" s="0">
         <v>386</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" t="s" s="0">
         <v>387</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C94" t="s" s="0">
         <v>119</v>
       </c>
-      <c r="D94" t="s">
-        <v>13</v>
-      </c>
-      <c r="E94">
+      <c r="D94" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E94" s="0">
         <v>21</v>
       </c>
-      <c r="F94" t="s">
+      <c r="F94" t="s" s="0">
         <v>388</v>
       </c>
-      <c r="G94" t="s">
-        <v>22</v>
-      </c>
-      <c r="H94" t="s">
+      <c r="G94" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="H94" t="s" s="0">
         <v>389</v>
       </c>
-      <c r="I94">
+      <c r="I94" s="0">
         <v>9912130</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
+      <c r="A95" t="s" s="0">
         <v>390</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B95" t="s" s="0">
         <v>391</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C95" t="s" s="0">
         <v>61</v>
       </c>
-      <c r="D95" t="s">
-        <v>13</v>
-      </c>
-      <c r="E95">
+      <c r="D95" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E95" s="0">
         <v>61</v>
       </c>
-      <c r="F95" t="s">
+      <c r="F95" t="s" s="0">
         <v>392</v>
       </c>
-      <c r="G95" t="s">
-        <v>22</v>
-      </c>
-      <c r="H95" t="s">
+      <c r="G95" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="H95" t="s" s="0">
         <v>393</v>
       </c>
-      <c r="I95">
+      <c r="I95" s="0">
         <v>7542700</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
+      <c r="A96" t="s" s="0">
         <v>394</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B96" t="s" s="0">
         <v>395</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C96" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="D96" t="s">
+      <c r="D96" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="E96">
+      <c r="E96" s="0">
         <v>62</v>
       </c>
-      <c r="F96" t="s">
+      <c r="F96" t="s" s="0">
         <v>396</v>
       </c>
-      <c r="G96" t="s">
-        <v>22</v>
-      </c>
-      <c r="H96" t="s">
+      <c r="G96" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="H96" t="s" s="0">
         <v>397</v>
       </c>
-      <c r="I96">
+      <c r="I96" s="0">
         <v>8296226</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
+      <c r="A97" t="s" s="0">
         <v>398</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97" t="s" s="0">
         <v>399</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C97" t="s" s="0">
         <v>119</v>
       </c>
-      <c r="D97" t="s">
-        <v>13</v>
-      </c>
-      <c r="E97">
+      <c r="D97" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E97" s="0">
         <v>51</v>
       </c>
-      <c r="F97" t="s">
+      <c r="F97" t="s" s="0">
         <v>400</v>
       </c>
-      <c r="G97" t="s">
-        <v>22</v>
-      </c>
-      <c r="H97" t="s">
+      <c r="G97" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="H97" t="s" s="0">
         <v>401</v>
       </c>
-      <c r="I97">
+      <c r="I97" s="0">
         <v>3368363</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
+      <c r="A98" t="s" s="0">
         <v>402</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B98" t="s" s="0">
         <v>403</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C98" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="D98" t="s">
-        <v>13</v>
-      </c>
-      <c r="E98">
+      <c r="D98" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E98" s="0">
         <v>37</v>
       </c>
-      <c r="F98" t="s">
+      <c r="F98" t="s" s="0">
         <v>404</v>
       </c>
-      <c r="G98" t="s">
-        <v>22</v>
-      </c>
-      <c r="H98" t="s">
+      <c r="G98" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="H98" t="s" s="0">
         <v>405</v>
       </c>
-      <c r="I98">
+      <c r="I98" s="0">
         <v>8573375</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
+      <c r="A99" t="s" s="0">
         <v>406</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B99" t="s" s="0">
         <v>407</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C99" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="D99" t="s">
-        <v>13</v>
-      </c>
-      <c r="E99">
+      <c r="D99" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E99" s="0">
         <v>56</v>
       </c>
-      <c r="F99" t="s">
+      <c r="F99" t="s" s="0">
         <v>408</v>
       </c>
-      <c r="G99" t="s">
-        <v>22</v>
-      </c>
-      <c r="H99" t="s">
+      <c r="G99" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="H99" t="s" s="0">
         <v>409</v>
       </c>
-      <c r="I99">
+      <c r="I99" s="0">
         <v>6580060</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
+      <c r="A100" t="s" s="0">
         <v>410</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B100" t="s" s="0">
         <v>411</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C100" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D100" t="s">
+      <c r="D100" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="E100">
+      <c r="E100" s="0">
         <v>52</v>
       </c>
-      <c r="F100" t="s">
+      <c r="F100" t="s" s="0">
         <v>412</v>
       </c>
-      <c r="G100" t="s">
-        <v>22</v>
-      </c>
-      <c r="H100" t="s">
+      <c r="G100" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="H100" t="s" s="0">
         <v>413</v>
       </c>
-      <c r="I100">
+      <c r="I100" s="0">
         <v>2209714</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
+      <c r="A101" t="s" s="0">
         <v>414</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B101" t="s" s="0">
         <v>415</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C101" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="D101" t="s">
+      <c r="D101" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="E101">
+      <c r="E101" s="0">
         <v>51</v>
       </c>
-      <c r="F101" t="s">
+      <c r="F101" t="s" s="0">
         <v>416</v>
       </c>
-      <c r="G101" t="s">
-        <v>22</v>
-      </c>
-      <c r="H101" t="s">
+      <c r="G101" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="H101" t="s" s="0">
         <v>417</v>
       </c>
-      <c r="I101">
+      <c r="I101" s="0">
         <v>9295610</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
+      <c r="A102" t="s" s="0">
         <v>418</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B102" t="s" s="0">
         <v>419</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C102" t="s" s="0">
         <v>32</v>
       </c>
-      <c r="D102" t="s">
-        <v>13</v>
-      </c>
-      <c r="E102">
+      <c r="D102" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E102" s="0">
         <v>27</v>
       </c>
-      <c r="F102" t="s">
+      <c r="F102" t="s" s="0">
         <v>420</v>
       </c>
-      <c r="G102" t="s">
-        <v>22</v>
-      </c>
-      <c r="H102" t="s">
+      <c r="G102" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="H102" t="s" s="0">
         <v>421</v>
       </c>
-      <c r="I102">
+      <c r="I102" s="0">
         <v>5821986</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
+      <c r="A103" t="s" s="0">
         <v>422</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B103" t="s" s="0">
         <v>423</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C103" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="D103" t="s">
-        <v>13</v>
-      </c>
-      <c r="E103">
+      <c r="D103" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E103" s="0">
         <v>58</v>
       </c>
-      <c r="F103" t="s">
+      <c r="F103" t="s" s="0">
         <v>424</v>
       </c>
-      <c r="G103" t="s">
-        <v>22</v>
-      </c>
-      <c r="H103" t="s">
+      <c r="G103" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="H103" t="s" s="0">
         <v>425</v>
       </c>
-      <c r="I103">
+      <c r="I103" s="0">
         <v>8124730</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
+      <c r="A104" t="s" s="0">
         <v>426</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B104" t="s" s="0">
         <v>427</v>
       </c>
-      <c r="C104" t="s">
+      <c r="C104" t="s" s="0">
         <v>32</v>
       </c>
-      <c r="D104" t="s">
-        <v>13</v>
-      </c>
-      <c r="E104">
+      <c r="D104" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E104" s="0">
         <v>29</v>
       </c>
-      <c r="F104" t="s">
+      <c r="F104" t="s" s="0">
         <v>428</v>
       </c>
-      <c r="G104" t="s">
-        <v>22</v>
-      </c>
-      <c r="H104" t="s">
+      <c r="G104" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="H104" t="s" s="0">
         <v>429</v>
       </c>
-      <c r="I104">
+      <c r="I104" s="0">
         <v>9429253</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
+      <c r="A105" t="s" s="0">
         <v>430</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B105" t="s" s="0">
         <v>431</v>
       </c>
-      <c r="C105" t="s">
+      <c r="C105" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D105" t="s">
+      <c r="D105" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="E105">
+      <c r="E105" s="0">
         <v>57</v>
       </c>
-      <c r="F105" t="s">
+      <c r="F105" t="s" s="0">
         <v>432</v>
       </c>
-      <c r="G105" t="s">
-        <v>22</v>
-      </c>
-      <c r="H105" t="s">
+      <c r="G105" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="H105" t="s" s="0">
         <v>433</v>
       </c>
-      <c r="I105">
+      <c r="I105" s="0">
         <v>7085811</v>
       </c>
     </row>

--- a/data/UserList.xlsx
+++ b/data/UserList.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="442">
   <si>
     <t>Staff ID</t>
   </si>
@@ -1343,6 +1343,9 @@
   </si>
   <si>
     <t>Pwd129</t>
+  </si>
+  <si>
+    <t>Pwd122</t>
   </si>
 </sst>
 </file>

--- a/data/UserList.xlsx
+++ b/data/UserList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Part Time Studies\OOP_Proj\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1D595E9-C94B-42B9-B2A2-B46113783756}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B6FC79C-5EE1-4081-89D6-E853C3F3B790}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="442">
-  <si>
-    <t>Staff ID</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="441">
   <si>
     <t>Name</t>
   </si>
@@ -1324,28 +1321,28 @@
     <t>user100@example.com</t>
   </si>
   <si>
-    <t>newPwd</t>
+    <t>Pwd129</t>
+  </si>
+  <si>
+    <t>HospitalID</t>
+  </si>
+  <si>
+    <t>TEST111</t>
+  </si>
+  <si>
+    <t>TESTING</t>
+  </si>
+  <si>
+    <t>Test21</t>
+  </si>
+  <si>
+    <t>Test123</t>
+  </si>
+  <si>
+    <t>test@test.com</t>
   </si>
   <si>
     <t>Pwd124</t>
-  </si>
-  <si>
-    <t>Pwd125</t>
-  </si>
-  <si>
-    <t>Pwd126</t>
-  </si>
-  <si>
-    <t>Pwd127</t>
-  </si>
-  <si>
-    <t>Pwd128</t>
-  </si>
-  <si>
-    <t>Pwd129</t>
-  </si>
-  <si>
-    <t>Pwd122</t>
   </si>
 </sst>
 </file>
@@ -1725,14 +1722,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I105"/>
+  <dimension ref="A1:I106"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" customWidth="true" width="10.42578125"/>
     <col min="2" max="2" customWidth="true" width="24.7109375"/>
     <col min="3" max="3" customWidth="true" width="30.42578125"/>
     <col min="6" max="6" customWidth="true" width="16.42578125"/>
@@ -1742,57 +1740,57 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="F1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="I1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s" s="0">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E2" s="0">
         <v>45</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G2" t="s" s="0">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I2" s="0">
         <v>12345678</v>
@@ -1800,28 +1798,28 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s" s="0">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E3" s="0">
         <v>38</v>
       </c>
       <c r="F3" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="G3" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="G3" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="I3" s="0">
         <v>12345679</v>
@@ -1829,28 +1827,28 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s" s="0">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E4" s="0">
         <v>29</v>
       </c>
       <c r="F4" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="G4" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="G4" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="I4" s="0">
         <v>12345680</v>
@@ -1858,28 +1856,28 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s" s="0">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E5" s="0">
         <v>40</v>
       </c>
       <c r="F5" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="G5" t="s" s="0">
+        <v>440</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="G5" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="I5" s="0">
         <v>12345681</v>
@@ -1887,28 +1885,28 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s" s="0">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="C6" t="s" s="0">
-        <v>32</v>
-      </c>
       <c r="D6" t="s" s="0">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E6" s="0">
         <v>65</v>
       </c>
       <c r="F6" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="G6" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="H6" t="s" s="0">
         <v>33</v>
-      </c>
-      <c r="G6" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="H6" t="s" s="0">
-        <v>34</v>
       </c>
       <c r="I6" s="0">
         <v>9458008</v>
@@ -1916,28 +1914,28 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s" s="0">
         <v>35</v>
       </c>
-      <c r="B7" t="s" s="0">
-        <v>36</v>
-      </c>
       <c r="C7" t="s" s="0">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E7" s="0">
         <v>57</v>
       </c>
       <c r="F7" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="G7" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="H7" t="s" s="0">
         <v>37</v>
-      </c>
-      <c r="G7" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="H7" t="s" s="0">
-        <v>38</v>
       </c>
       <c r="I7" s="0">
         <v>5406679</v>
@@ -1945,28 +1943,28 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="B8" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="B8" t="s" s="0">
-        <v>40</v>
-      </c>
       <c r="C8" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s" s="0">
         <v>11</v>
-      </c>
-      <c r="D8" t="s" s="0">
-        <v>12</v>
       </c>
       <c r="E8" s="0">
         <v>39</v>
       </c>
       <c r="F8" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="G8" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="H8" t="s" s="0">
         <v>41</v>
-      </c>
-      <c r="G8" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="H8" t="s" s="0">
-        <v>42</v>
       </c>
       <c r="I8" s="0">
         <v>8020791</v>
@@ -1974,28 +1972,28 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="B9" t="s" s="0">
         <v>43</v>
       </c>
-      <c r="B9" t="s" s="0">
-        <v>44</v>
-      </c>
       <c r="C9" t="s" s="0">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E9" s="0">
         <v>32</v>
       </c>
       <c r="F9" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="G9" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="H9" t="s" s="0">
         <v>45</v>
-      </c>
-      <c r="G9" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="H9" t="s" s="0">
-        <v>46</v>
       </c>
       <c r="I9" s="0">
         <v>5720360</v>
@@ -2003,28 +2001,28 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="B10" t="s" s="0">
         <v>47</v>
       </c>
-      <c r="B10" t="s" s="0">
-        <v>48</v>
-      </c>
       <c r="C10" t="s" s="0">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E10" s="0">
         <v>45</v>
       </c>
       <c r="F10" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="G10" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="H10" t="s" s="0">
         <v>49</v>
-      </c>
-      <c r="G10" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="H10" t="s" s="0">
-        <v>50</v>
       </c>
       <c r="I10" s="0">
         <v>9507728</v>
@@ -2032,28 +2030,28 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="B11" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="B11" t="s" s="0">
-        <v>52</v>
-      </c>
       <c r="C11" t="s" s="0">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E11" s="0">
         <v>56</v>
       </c>
       <c r="F11" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="G11" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="H11" t="s" s="0">
         <v>53</v>
-      </c>
-      <c r="G11" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="H11" t="s" s="0">
-        <v>54</v>
       </c>
       <c r="I11" s="0">
         <v>6810352</v>
@@ -2061,28 +2059,28 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B12" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="B12" t="s" s="0">
-        <v>56</v>
-      </c>
       <c r="C12" t="s" s="0">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E12" s="0">
         <v>27</v>
       </c>
       <c r="F12" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="G12" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="H12" t="s" s="0">
         <v>57</v>
-      </c>
-      <c r="G12" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="H12" t="s" s="0">
-        <v>58</v>
       </c>
       <c r="I12" s="0">
         <v>5980041</v>
@@ -2090,28 +2088,28 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="B13" t="s" s="0">
         <v>59</v>
       </c>
-      <c r="B13" t="s" s="0">
+      <c r="C13" t="s" s="0">
         <v>60</v>
       </c>
-      <c r="C13" t="s" s="0">
-        <v>61</v>
-      </c>
       <c r="D13" t="s" s="0">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E13" s="0">
         <v>29</v>
       </c>
       <c r="F13" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="G13" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="H13" t="s" s="0">
         <v>62</v>
-      </c>
-      <c r="G13" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="H13" t="s" s="0">
-        <v>63</v>
       </c>
       <c r="I13" s="0">
         <v>5130769</v>
@@ -2119,28 +2117,28 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="B14" t="s" s="0">
         <v>64</v>
       </c>
-      <c r="B14" t="s" s="0">
-        <v>65</v>
-      </c>
       <c r="C14" t="s" s="0">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E14" s="0">
         <v>34</v>
       </c>
       <c r="F14" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="G14" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="H14" t="s" s="0">
         <v>66</v>
-      </c>
-      <c r="G14" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="H14" t="s" s="0">
-        <v>67</v>
       </c>
       <c r="I14" s="0">
         <v>4446176</v>
@@ -2148,28 +2146,28 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="B15" t="s" s="0">
         <v>68</v>
       </c>
-      <c r="B15" t="s" s="0">
+      <c r="C15" t="s" s="0">
         <v>69</v>
       </c>
-      <c r="C15" t="s" s="0">
-        <v>70</v>
-      </c>
       <c r="D15" t="s" s="0">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E15" s="0">
         <v>52</v>
       </c>
       <c r="F15" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="G15" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="H15" t="s" s="0">
         <v>71</v>
-      </c>
-      <c r="G15" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="H15" t="s" s="0">
-        <v>72</v>
       </c>
       <c r="I15" s="0">
         <v>3504139</v>
@@ -2177,28 +2175,28 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="B16" t="s" s="0">
         <v>73</v>
       </c>
-      <c r="B16" t="s" s="0">
-        <v>74</v>
-      </c>
       <c r="C16" t="s" s="0">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E16" s="0">
         <v>43</v>
       </c>
       <c r="F16" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="G16" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="H16" t="s" s="0">
         <v>75</v>
-      </c>
-      <c r="G16" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="H16" t="s" s="0">
-        <v>76</v>
       </c>
       <c r="I16" s="0">
         <v>3882465</v>
@@ -2206,28 +2204,28 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="B17" t="s" s="0">
         <v>77</v>
       </c>
-      <c r="B17" t="s" s="0">
-        <v>78</v>
-      </c>
       <c r="C17" t="s" s="0">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E17" s="0">
         <v>38</v>
       </c>
       <c r="F17" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="G17" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="H17" t="s" s="0">
         <v>79</v>
-      </c>
-      <c r="G17" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="H17" t="s" s="0">
-        <v>80</v>
       </c>
       <c r="I17" s="0">
         <v>6209898</v>
@@ -2235,28 +2233,28 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="B18" t="s" s="0">
         <v>81</v>
       </c>
-      <c r="B18" t="s" s="0">
-        <v>82</v>
-      </c>
       <c r="C18" t="s" s="0">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E18" s="0">
         <v>55</v>
       </c>
       <c r="F18" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="G18" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="H18" t="s" s="0">
         <v>83</v>
-      </c>
-      <c r="G18" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="H18" t="s" s="0">
-        <v>84</v>
       </c>
       <c r="I18" s="0">
         <v>9214791</v>
@@ -2264,28 +2262,28 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="B19" t="s" s="0">
         <v>85</v>
       </c>
-      <c r="B19" t="s" s="0">
-        <v>86</v>
-      </c>
       <c r="C19" t="s" s="0">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E19" s="0">
         <v>53</v>
       </c>
       <c r="F19" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="G19" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="H19" t="s" s="0">
         <v>87</v>
-      </c>
-      <c r="G19" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="H19" t="s" s="0">
-        <v>88</v>
       </c>
       <c r="I19" s="0">
         <v>8179935</v>
@@ -2293,28 +2291,28 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="B20" t="s" s="0">
         <v>89</v>
       </c>
-      <c r="B20" t="s" s="0">
-        <v>90</v>
-      </c>
       <c r="C20" t="s" s="0">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E20" s="0">
         <v>25</v>
       </c>
       <c r="F20" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="G20" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="H20" t="s" s="0">
         <v>91</v>
-      </c>
-      <c r="G20" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="H20" t="s" s="0">
-        <v>92</v>
       </c>
       <c r="I20" s="0">
         <v>3023232</v>
@@ -2322,28 +2320,28 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B21" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="B21" t="s" s="0">
-        <v>94</v>
-      </c>
       <c r="C21" t="s" s="0">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E21" s="0">
         <v>58</v>
       </c>
       <c r="F21" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="G21" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="H21" t="s" s="0">
         <v>95</v>
-      </c>
-      <c r="G21" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="H21" t="s" s="0">
-        <v>96</v>
       </c>
       <c r="I21" s="0">
         <v>6607521</v>
@@ -2351,28 +2349,28 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="B22" t="s" s="0">
         <v>97</v>
       </c>
-      <c r="B22" t="s" s="0">
-        <v>98</v>
-      </c>
       <c r="C22" t="s" s="0">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E22" s="0">
         <v>47</v>
       </c>
       <c r="F22" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="G22" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="H22" t="s" s="0">
         <v>99</v>
-      </c>
-      <c r="G22" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="H22" t="s" s="0">
-        <v>100</v>
       </c>
       <c r="I22" s="0">
         <v>4855587</v>
@@ -2380,28 +2378,28 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="B23" t="s" s="0">
         <v>101</v>
       </c>
-      <c r="B23" t="s" s="0">
-        <v>102</v>
-      </c>
       <c r="C23" t="s" s="0">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E23" s="0">
         <v>27</v>
       </c>
       <c r="F23" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="G23" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="H23" t="s" s="0">
         <v>103</v>
-      </c>
-      <c r="G23" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="H23" t="s" s="0">
-        <v>104</v>
       </c>
       <c r="I23" s="0">
         <v>5043744</v>
@@ -2409,28 +2407,28 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="B24" t="s" s="0">
         <v>105</v>
       </c>
-      <c r="B24" t="s" s="0">
-        <v>106</v>
-      </c>
       <c r="C24" t="s" s="0">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E24" s="0">
         <v>23</v>
       </c>
       <c r="F24" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="G24" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="H24" t="s" s="0">
         <v>107</v>
-      </c>
-      <c r="G24" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="H24" t="s" s="0">
-        <v>108</v>
       </c>
       <c r="I24" s="0">
         <v>6914894</v>
@@ -2438,28 +2436,28 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="B25" t="s" s="0">
         <v>109</v>
       </c>
-      <c r="B25" t="s" s="0">
-        <v>110</v>
-      </c>
       <c r="C25" t="s" s="0">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E25" s="0">
         <v>65</v>
       </c>
       <c r="F25" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="G25" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="H25" t="s" s="0">
         <v>111</v>
-      </c>
-      <c r="G25" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="H25" t="s" s="0">
-        <v>112</v>
       </c>
       <c r="I25" s="0">
         <v>5176574</v>
@@ -2467,28 +2465,28 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s" s="0">
+        <v>112</v>
+      </c>
+      <c r="B26" t="s" s="0">
         <v>113</v>
       </c>
-      <c r="B26" t="s" s="0">
-        <v>114</v>
-      </c>
       <c r="C26" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E26" s="0">
         <v>38</v>
       </c>
       <c r="F26" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="G26" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="H26" t="s" s="0">
         <v>115</v>
-      </c>
-      <c r="G26" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="H26" t="s" s="0">
-        <v>116</v>
       </c>
       <c r="I26" s="0">
         <v>5994982</v>
@@ -2496,28 +2494,28 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="B27" t="s" s="0">
         <v>117</v>
       </c>
-      <c r="B27" t="s" s="0">
+      <c r="C27" t="s" s="0">
         <v>118</v>
       </c>
-      <c r="C27" t="s" s="0">
-        <v>119</v>
-      </c>
       <c r="D27" t="s" s="0">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E27" s="0">
         <v>29</v>
       </c>
       <c r="F27" t="s" s="0">
+        <v>119</v>
+      </c>
+      <c r="G27" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="H27" t="s" s="0">
         <v>120</v>
-      </c>
-      <c r="G27" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="H27" t="s" s="0">
-        <v>121</v>
       </c>
       <c r="I27" s="0">
         <v>2026262</v>
@@ -2525,28 +2523,28 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="B28" t="s" s="0">
         <v>122</v>
       </c>
-      <c r="B28" t="s" s="0">
-        <v>123</v>
-      </c>
       <c r="C28" t="s" s="0">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s" s="0">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E28" s="0">
         <v>28</v>
       </c>
       <c r="F28" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="G28" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="H28" t="s" s="0">
         <v>124</v>
-      </c>
-      <c r="G28" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="H28" t="s" s="0">
-        <v>125</v>
       </c>
       <c r="I28" s="0">
         <v>5788254</v>
@@ -2554,28 +2552,28 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="B29" t="s" s="0">
         <v>126</v>
       </c>
-      <c r="B29" t="s" s="0">
-        <v>127</v>
-      </c>
       <c r="C29" t="s" s="0">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D29" t="s" s="0">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E29" s="0">
         <v>54</v>
       </c>
       <c r="F29" t="s" s="0">
+        <v>127</v>
+      </c>
+      <c r="G29" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="H29" t="s" s="0">
         <v>128</v>
-      </c>
-      <c r="G29" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="H29" t="s" s="0">
-        <v>129</v>
       </c>
       <c r="I29" s="0">
         <v>3073034</v>
@@ -2583,28 +2581,28 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s" s="0">
+        <v>129</v>
+      </c>
+      <c r="B30" t="s" s="0">
         <v>130</v>
       </c>
-      <c r="B30" t="s" s="0">
-        <v>131</v>
-      </c>
       <c r="C30" t="s" s="0">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s" s="0">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E30" s="0">
         <v>22</v>
       </c>
       <c r="F30" t="s" s="0">
+        <v>131</v>
+      </c>
+      <c r="G30" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="H30" t="s" s="0">
         <v>132</v>
-      </c>
-      <c r="G30" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="H30" t="s" s="0">
-        <v>133</v>
       </c>
       <c r="I30" s="0">
         <v>3512882</v>
@@ -2612,28 +2610,28 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="B31" t="s" s="0">
         <v>134</v>
       </c>
-      <c r="B31" t="s" s="0">
-        <v>135</v>
-      </c>
       <c r="C31" t="s" s="0">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D31" t="s" s="0">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E31" s="0">
         <v>31</v>
       </c>
       <c r="F31" t="s" s="0">
+        <v>135</v>
+      </c>
+      <c r="G31" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="H31" t="s" s="0">
         <v>136</v>
-      </c>
-      <c r="G31" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="H31" t="s" s="0">
-        <v>137</v>
       </c>
       <c r="I31" s="0">
         <v>3869738</v>
@@ -2641,28 +2639,28 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s" s="0">
+        <v>137</v>
+      </c>
+      <c r="B32" t="s" s="0">
         <v>138</v>
       </c>
-      <c r="B32" t="s" s="0">
-        <v>139</v>
-      </c>
       <c r="C32" t="s" s="0">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D32" t="s" s="0">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E32" s="0">
         <v>28</v>
       </c>
       <c r="F32" t="s" s="0">
+        <v>139</v>
+      </c>
+      <c r="G32" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="H32" t="s" s="0">
         <v>140</v>
-      </c>
-      <c r="G32" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="H32" t="s" s="0">
-        <v>141</v>
       </c>
       <c r="I32" s="0">
         <v>1222647</v>
@@ -2670,28 +2668,28 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s" s="0">
+        <v>141</v>
+      </c>
+      <c r="B33" t="s" s="0">
         <v>142</v>
       </c>
-      <c r="B33" t="s" s="0">
-        <v>143</v>
-      </c>
       <c r="C33" t="s" s="0">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s" s="0">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E33" s="0">
         <v>60</v>
       </c>
       <c r="F33" t="s" s="0">
+        <v>143</v>
+      </c>
+      <c r="G33" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="H33" t="s" s="0">
         <v>144</v>
-      </c>
-      <c r="G33" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="H33" t="s" s="0">
-        <v>145</v>
       </c>
       <c r="I33" s="0">
         <v>7437675</v>
@@ -2699,28 +2697,28 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s" s="0">
+        <v>145</v>
+      </c>
+      <c r="B34" t="s" s="0">
         <v>146</v>
       </c>
-      <c r="B34" t="s" s="0">
-        <v>147</v>
-      </c>
       <c r="C34" t="s" s="0">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D34" t="s" s="0">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E34" s="0">
         <v>51</v>
       </c>
       <c r="F34" t="s" s="0">
+        <v>147</v>
+      </c>
+      <c r="G34" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="H34" t="s" s="0">
         <v>148</v>
-      </c>
-      <c r="G34" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="H34" t="s" s="0">
-        <v>149</v>
       </c>
       <c r="I34" s="0">
         <v>5991621</v>
@@ -2728,28 +2726,28 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="B35" t="s" s="0">
         <v>150</v>
       </c>
-      <c r="B35" t="s" s="0">
-        <v>151</v>
-      </c>
       <c r="C35" t="s" s="0">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s" s="0">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E35" s="0">
         <v>57</v>
       </c>
       <c r="F35" t="s" s="0">
+        <v>151</v>
+      </c>
+      <c r="G35" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="H35" t="s" s="0">
         <v>152</v>
-      </c>
-      <c r="G35" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="H35" t="s" s="0">
-        <v>153</v>
       </c>
       <c r="I35" s="0">
         <v>2673449</v>
@@ -2757,28 +2755,28 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s" s="0">
+        <v>153</v>
+      </c>
+      <c r="B36" t="s" s="0">
         <v>154</v>
       </c>
-      <c r="B36" t="s" s="0">
-        <v>155</v>
-      </c>
       <c r="C36" t="s" s="0">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s" s="0">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E36" s="0">
         <v>41</v>
       </c>
       <c r="F36" t="s" s="0">
+        <v>155</v>
+      </c>
+      <c r="G36" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="H36" t="s" s="0">
         <v>156</v>
-      </c>
-      <c r="G36" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="H36" t="s" s="0">
-        <v>157</v>
       </c>
       <c r="I36" s="0">
         <v>5414099</v>
@@ -2786,28 +2784,28 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s" s="0">
+        <v>157</v>
+      </c>
+      <c r="B37" t="s" s="0">
         <v>158</v>
       </c>
-      <c r="B37" t="s" s="0">
-        <v>159</v>
-      </c>
       <c r="C37" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D37" t="s" s="0">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E37" s="0">
         <v>65</v>
       </c>
       <c r="F37" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="G37" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="H37" t="s" s="0">
         <v>160</v>
-      </c>
-      <c r="G37" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="H37" t="s" s="0">
-        <v>161</v>
       </c>
       <c r="I37" s="0">
         <v>1591806</v>
@@ -2815,28 +2813,28 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s" s="0">
+        <v>161</v>
+      </c>
+      <c r="B38" t="s" s="0">
         <v>162</v>
       </c>
-      <c r="B38" t="s" s="0">
-        <v>163</v>
-      </c>
       <c r="C38" t="s" s="0">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s" s="0">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E38" s="0">
         <v>34</v>
       </c>
       <c r="F38" t="s" s="0">
+        <v>163</v>
+      </c>
+      <c r="G38" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="H38" t="s" s="0">
         <v>164</v>
-      </c>
-      <c r="G38" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="H38" t="s" s="0">
-        <v>165</v>
       </c>
       <c r="I38" s="0">
         <v>5440842</v>
@@ -2844,28 +2842,28 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s" s="0">
+        <v>165</v>
+      </c>
+      <c r="B39" t="s" s="0">
         <v>166</v>
       </c>
-      <c r="B39" t="s" s="0">
-        <v>167</v>
-      </c>
       <c r="C39" t="s" s="0">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D39" t="s" s="0">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E39" s="0">
         <v>39</v>
       </c>
       <c r="F39" t="s" s="0">
+        <v>167</v>
+      </c>
+      <c r="G39" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="H39" t="s" s="0">
         <v>168</v>
-      </c>
-      <c r="G39" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="H39" t="s" s="0">
-        <v>169</v>
       </c>
       <c r="I39" s="0">
         <v>5123903</v>
@@ -2873,28 +2871,28 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s" s="0">
+        <v>169</v>
+      </c>
+      <c r="B40" t="s" s="0">
         <v>170</v>
       </c>
-      <c r="B40" t="s" s="0">
-        <v>171</v>
-      </c>
       <c r="C40" t="s" s="0">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D40" t="s" s="0">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E40" s="0">
         <v>30</v>
       </c>
       <c r="F40" t="s" s="0">
+        <v>171</v>
+      </c>
+      <c r="G40" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="H40" t="s" s="0">
         <v>172</v>
-      </c>
-      <c r="G40" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="H40" t="s" s="0">
-        <v>173</v>
       </c>
       <c r="I40" s="0">
         <v>8419913</v>
@@ -2902,28 +2900,28 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s" s="0">
+        <v>173</v>
+      </c>
+      <c r="B41" t="s" s="0">
         <v>174</v>
       </c>
-      <c r="B41" t="s" s="0">
-        <v>175</v>
-      </c>
       <c r="C41" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D41" t="s" s="0">
         <v>11</v>
-      </c>
-      <c r="D41" t="s" s="0">
-        <v>12</v>
       </c>
       <c r="E41" s="0">
         <v>53</v>
       </c>
       <c r="F41" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="G41" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="H41" t="s" s="0">
         <v>176</v>
-      </c>
-      <c r="G41" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="H41" t="s" s="0">
-        <v>177</v>
       </c>
       <c r="I41" s="0">
         <v>2541769</v>
@@ -2931,28 +2929,28 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s" s="0">
+        <v>177</v>
+      </c>
+      <c r="B42" t="s" s="0">
         <v>178</v>
       </c>
-      <c r="B42" t="s" s="0">
-        <v>179</v>
-      </c>
       <c r="C42" t="s" s="0">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D42" t="s" s="0">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E42" s="0">
         <v>42</v>
       </c>
       <c r="F42" t="s" s="0">
+        <v>179</v>
+      </c>
+      <c r="G42" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="H42" t="s" s="0">
         <v>180</v>
-      </c>
-      <c r="G42" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="H42" t="s" s="0">
-        <v>181</v>
       </c>
       <c r="I42" s="0">
         <v>3301311</v>
@@ -2960,28 +2958,28 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s" s="0">
+        <v>181</v>
+      </c>
+      <c r="B43" t="s" s="0">
         <v>182</v>
       </c>
-      <c r="B43" t="s" s="0">
-        <v>183</v>
-      </c>
       <c r="C43" t="s" s="0">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D43" t="s" s="0">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E43" s="0">
         <v>61</v>
       </c>
       <c r="F43" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="G43" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="H43" t="s" s="0">
         <v>184</v>
-      </c>
-      <c r="G43" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="H43" t="s" s="0">
-        <v>185</v>
       </c>
       <c r="I43" s="0">
         <v>3901307</v>
@@ -2989,28 +2987,28 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s" s="0">
+        <v>185</v>
+      </c>
+      <c r="B44" t="s" s="0">
         <v>186</v>
       </c>
-      <c r="B44" t="s" s="0">
-        <v>187</v>
-      </c>
       <c r="C44" t="s" s="0">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D44" t="s" s="0">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E44" s="0">
         <v>45</v>
       </c>
       <c r="F44" t="s" s="0">
+        <v>187</v>
+      </c>
+      <c r="G44" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="H44" t="s" s="0">
         <v>188</v>
-      </c>
-      <c r="G44" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="H44" t="s" s="0">
-        <v>189</v>
       </c>
       <c r="I44" s="0">
         <v>8507627</v>
@@ -3018,28 +3016,28 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s" s="0">
+        <v>189</v>
+      </c>
+      <c r="B45" t="s" s="0">
         <v>190</v>
       </c>
-      <c r="B45" t="s" s="0">
-        <v>191</v>
-      </c>
       <c r="C45" t="s" s="0">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s" s="0">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E45" s="0">
         <v>22</v>
       </c>
       <c r="F45" t="s" s="0">
+        <v>191</v>
+      </c>
+      <c r="G45" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="H45" t="s" s="0">
         <v>192</v>
-      </c>
-      <c r="G45" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="H45" t="s" s="0">
-        <v>193</v>
       </c>
       <c r="I45" s="0">
         <v>6247756</v>
@@ -3047,28 +3045,28 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s" s="0">
+        <v>193</v>
+      </c>
+      <c r="B46" t="s" s="0">
         <v>194</v>
       </c>
-      <c r="B46" t="s" s="0">
-        <v>195</v>
-      </c>
       <c r="C46" t="s" s="0">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D46" t="s" s="0">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E46" s="0">
         <v>62</v>
       </c>
       <c r="F46" t="s" s="0">
+        <v>195</v>
+      </c>
+      <c r="G46" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="H46" t="s" s="0">
         <v>196</v>
-      </c>
-      <c r="G46" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="H46" t="s" s="0">
-        <v>197</v>
       </c>
       <c r="I46" s="0">
         <v>7799558</v>
@@ -3076,28 +3074,28 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s" s="0">
+        <v>197</v>
+      </c>
+      <c r="B47" t="s" s="0">
         <v>198</v>
       </c>
-      <c r="B47" t="s" s="0">
-        <v>199</v>
-      </c>
       <c r="C47" t="s" s="0">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D47" t="s" s="0">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E47" s="0">
         <v>57</v>
       </c>
       <c r="F47" t="s" s="0">
+        <v>199</v>
+      </c>
+      <c r="G47" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="H47" t="s" s="0">
         <v>200</v>
-      </c>
-      <c r="G47" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="H47" t="s" s="0">
-        <v>201</v>
       </c>
       <c r="I47" s="0">
         <v>6846085</v>
@@ -3105,28 +3103,28 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s" s="0">
+        <v>201</v>
+      </c>
+      <c r="B48" t="s" s="0">
         <v>202</v>
       </c>
-      <c r="B48" t="s" s="0">
-        <v>203</v>
-      </c>
       <c r="C48" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D48" t="s" s="0">
         <v>11</v>
-      </c>
-      <c r="D48" t="s" s="0">
-        <v>12</v>
       </c>
       <c r="E48" s="0">
         <v>64</v>
       </c>
       <c r="F48" t="s" s="0">
+        <v>203</v>
+      </c>
+      <c r="G48" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="H48" t="s" s="0">
         <v>204</v>
-      </c>
-      <c r="G48" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="H48" t="s" s="0">
-        <v>205</v>
       </c>
       <c r="I48" s="0">
         <v>3002894</v>
@@ -3134,28 +3132,28 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s" s="0">
+        <v>205</v>
+      </c>
+      <c r="B49" t="s" s="0">
         <v>206</v>
       </c>
-      <c r="B49" t="s" s="0">
-        <v>207</v>
-      </c>
       <c r="C49" t="s" s="0">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D49" t="s" s="0">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E49" s="0">
         <v>65</v>
       </c>
       <c r="F49" t="s" s="0">
+        <v>207</v>
+      </c>
+      <c r="G49" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="H49" t="s" s="0">
         <v>208</v>
-      </c>
-      <c r="G49" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="H49" t="s" s="0">
-        <v>209</v>
       </c>
       <c r="I49" s="0">
         <v>8576374</v>
@@ -3163,28 +3161,28 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s" s="0">
+        <v>209</v>
+      </c>
+      <c r="B50" t="s" s="0">
         <v>210</v>
       </c>
-      <c r="B50" t="s" s="0">
-        <v>211</v>
-      </c>
       <c r="C50" t="s" s="0">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D50" t="s" s="0">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E50" s="0">
         <v>50</v>
       </c>
       <c r="F50" t="s" s="0">
+        <v>211</v>
+      </c>
+      <c r="G50" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="H50" t="s" s="0">
         <v>212</v>
-      </c>
-      <c r="G50" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="H50" t="s" s="0">
-        <v>213</v>
       </c>
       <c r="I50" s="0">
         <v>6839229</v>
@@ -3192,28 +3190,28 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s" s="0">
+        <v>213</v>
+      </c>
+      <c r="B51" t="s" s="0">
         <v>214</v>
       </c>
-      <c r="B51" t="s" s="0">
-        <v>215</v>
-      </c>
       <c r="C51" t="s" s="0">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s" s="0">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E51" s="0">
         <v>46</v>
       </c>
       <c r="F51" t="s" s="0">
+        <v>215</v>
+      </c>
+      <c r="G51" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="H51" t="s" s="0">
         <v>216</v>
-      </c>
-      <c r="G51" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="H51" t="s" s="0">
-        <v>217</v>
       </c>
       <c r="I51" s="0">
         <v>1833341</v>
@@ -3221,28 +3219,28 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s" s="0">
+        <v>217</v>
+      </c>
+      <c r="B52" t="s" s="0">
         <v>218</v>
       </c>
-      <c r="B52" t="s" s="0">
-        <v>219</v>
-      </c>
       <c r="C52" t="s" s="0">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D52" t="s" s="0">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E52" s="0">
         <v>52</v>
       </c>
       <c r="F52" t="s" s="0">
+        <v>219</v>
+      </c>
+      <c r="G52" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="H52" t="s" s="0">
         <v>220</v>
-      </c>
-      <c r="G52" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="H52" t="s" s="0">
-        <v>221</v>
       </c>
       <c r="I52" s="0">
         <v>5945914</v>
@@ -3250,28 +3248,28 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s" s="0">
+        <v>221</v>
+      </c>
+      <c r="B53" t="s" s="0">
         <v>222</v>
       </c>
-      <c r="B53" t="s" s="0">
-        <v>223</v>
-      </c>
       <c r="C53" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D53" t="s" s="0">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E53" s="0">
         <v>44</v>
       </c>
       <c r="F53" t="s" s="0">
+        <v>223</v>
+      </c>
+      <c r="G53" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="H53" t="s" s="0">
         <v>224</v>
-      </c>
-      <c r="G53" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="H53" t="s" s="0">
-        <v>225</v>
       </c>
       <c r="I53" s="0">
         <v>3101456</v>
@@ -3279,28 +3277,28 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s" s="0">
+        <v>225</v>
+      </c>
+      <c r="B54" t="s" s="0">
         <v>226</v>
       </c>
-      <c r="B54" t="s" s="0">
-        <v>227</v>
-      </c>
       <c r="C54" t="s" s="0">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D54" t="s" s="0">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E54" s="0">
         <v>59</v>
       </c>
       <c r="F54" t="s" s="0">
+        <v>227</v>
+      </c>
+      <c r="G54" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="H54" t="s" s="0">
         <v>228</v>
-      </c>
-      <c r="G54" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="H54" t="s" s="0">
-        <v>229</v>
       </c>
       <c r="I54" s="0">
         <v>8790582</v>
@@ -3308,28 +3306,28 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s" s="0">
+        <v>229</v>
+      </c>
+      <c r="B55" t="s" s="0">
         <v>230</v>
       </c>
-      <c r="B55" t="s" s="0">
-        <v>231</v>
-      </c>
       <c r="C55" t="s" s="0">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s" s="0">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E55" s="0">
         <v>41</v>
       </c>
       <c r="F55" t="s" s="0">
+        <v>231</v>
+      </c>
+      <c r="G55" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="H55" t="s" s="0">
         <v>232</v>
-      </c>
-      <c r="G55" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="H55" t="s" s="0">
-        <v>233</v>
       </c>
       <c r="I55" s="0">
         <v>7076399</v>
@@ -3337,28 +3335,28 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s" s="0">
+        <v>233</v>
+      </c>
+      <c r="B56" t="s" s="0">
         <v>234</v>
       </c>
-      <c r="B56" t="s" s="0">
-        <v>235</v>
-      </c>
       <c r="C56" t="s" s="0">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D56" t="s" s="0">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E56" s="0">
         <v>23</v>
       </c>
       <c r="F56" t="s" s="0">
+        <v>235</v>
+      </c>
+      <c r="G56" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="H56" t="s" s="0">
         <v>236</v>
-      </c>
-      <c r="G56" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="H56" t="s" s="0">
-        <v>237</v>
       </c>
       <c r="I56" s="0">
         <v>5581452</v>
@@ -3366,28 +3364,28 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s" s="0">
+        <v>237</v>
+      </c>
+      <c r="B57" t="s" s="0">
         <v>238</v>
       </c>
-      <c r="B57" t="s" s="0">
-        <v>239</v>
-      </c>
       <c r="C57" t="s" s="0">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D57" t="s" s="0">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E57" s="0">
         <v>22</v>
       </c>
       <c r="F57" t="s" s="0">
+        <v>239</v>
+      </c>
+      <c r="G57" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="H57" t="s" s="0">
         <v>240</v>
-      </c>
-      <c r="G57" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="H57" t="s" s="0">
-        <v>241</v>
       </c>
       <c r="I57" s="0">
         <v>3474559</v>
@@ -3395,28 +3393,28 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s" s="0">
+        <v>241</v>
+      </c>
+      <c r="B58" t="s" s="0">
         <v>242</v>
       </c>
-      <c r="B58" t="s" s="0">
-        <v>243</v>
-      </c>
       <c r="C58" t="s" s="0">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D58" t="s" s="0">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E58" s="0">
         <v>28</v>
       </c>
       <c r="F58" t="s" s="0">
+        <v>243</v>
+      </c>
+      <c r="G58" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="H58" t="s" s="0">
         <v>244</v>
-      </c>
-      <c r="G58" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="H58" t="s" s="0">
-        <v>245</v>
       </c>
       <c r="I58" s="0">
         <v>3873886</v>
@@ -3424,28 +3422,28 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s" s="0">
+        <v>245</v>
+      </c>
+      <c r="B59" t="s" s="0">
         <v>246</v>
       </c>
-      <c r="B59" t="s" s="0">
-        <v>247</v>
-      </c>
       <c r="C59" t="s" s="0">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D59" t="s" s="0">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E59" s="0">
         <v>30</v>
       </c>
       <c r="F59" t="s" s="0">
+        <v>247</v>
+      </c>
+      <c r="G59" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="H59" t="s" s="0">
         <v>248</v>
-      </c>
-      <c r="G59" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="H59" t="s" s="0">
-        <v>249</v>
       </c>
       <c r="I59" s="0">
         <v>3607945</v>
@@ -3453,28 +3451,28 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s" s="0">
+        <v>249</v>
+      </c>
+      <c r="B60" t="s" s="0">
         <v>250</v>
       </c>
-      <c r="B60" t="s" s="0">
-        <v>251</v>
-      </c>
       <c r="C60" t="s" s="0">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s" s="0">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E60" s="0">
         <v>55</v>
       </c>
       <c r="F60" t="s" s="0">
+        <v>251</v>
+      </c>
+      <c r="G60" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="H60" t="s" s="0">
         <v>252</v>
-      </c>
-      <c r="G60" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="H60" t="s" s="0">
-        <v>253</v>
       </c>
       <c r="I60" s="0">
         <v>5903486</v>
@@ -3482,28 +3480,28 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s" s="0">
+        <v>253</v>
+      </c>
+      <c r="B61" t="s" s="0">
         <v>254</v>
       </c>
-      <c r="B61" t="s" s="0">
-        <v>255</v>
-      </c>
       <c r="C61" t="s" s="0">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D61" t="s" s="0">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E61" s="0">
         <v>31</v>
       </c>
       <c r="F61" t="s" s="0">
+        <v>255</v>
+      </c>
+      <c r="G61" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="H61" t="s" s="0">
         <v>256</v>
-      </c>
-      <c r="G61" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="H61" t="s" s="0">
-        <v>257</v>
       </c>
       <c r="I61" s="0">
         <v>6280079</v>
@@ -3511,28 +3509,28 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s" s="0">
+        <v>257</v>
+      </c>
+      <c r="B62" t="s" s="0">
         <v>258</v>
       </c>
-      <c r="B62" t="s" s="0">
-        <v>259</v>
-      </c>
       <c r="C62" t="s" s="0">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D62" t="s" s="0">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E62" s="0">
         <v>34</v>
       </c>
       <c r="F62" t="s" s="0">
+        <v>259</v>
+      </c>
+      <c r="G62" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="H62" t="s" s="0">
         <v>260</v>
-      </c>
-      <c r="G62" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="H62" t="s" s="0">
-        <v>261</v>
       </c>
       <c r="I62" s="0">
         <v>9217628</v>
@@ -3540,28 +3538,28 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s" s="0">
+        <v>261</v>
+      </c>
+      <c r="B63" t="s" s="0">
         <v>262</v>
       </c>
-      <c r="B63" t="s" s="0">
-        <v>263</v>
-      </c>
       <c r="C63" t="s" s="0">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D63" t="s" s="0">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E63" s="0">
         <v>55</v>
       </c>
       <c r="F63" t="s" s="0">
+        <v>263</v>
+      </c>
+      <c r="G63" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="H63" t="s" s="0">
         <v>264</v>
-      </c>
-      <c r="G63" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="H63" t="s" s="0">
-        <v>265</v>
       </c>
       <c r="I63" s="0">
         <v>1894489</v>
@@ -3569,28 +3567,28 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s" s="0">
+        <v>265</v>
+      </c>
+      <c r="B64" t="s" s="0">
         <v>266</v>
       </c>
-      <c r="B64" t="s" s="0">
-        <v>267</v>
-      </c>
       <c r="C64" t="s" s="0">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s" s="0">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E64" s="0">
         <v>65</v>
       </c>
       <c r="F64" t="s" s="0">
+        <v>267</v>
+      </c>
+      <c r="G64" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="H64" t="s" s="0">
         <v>268</v>
-      </c>
-      <c r="G64" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="H64" t="s" s="0">
-        <v>269</v>
       </c>
       <c r="I64" s="0">
         <v>7076473</v>
@@ -3598,28 +3596,28 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s" s="0">
+        <v>269</v>
+      </c>
+      <c r="B65" t="s" s="0">
         <v>270</v>
       </c>
-      <c r="B65" t="s" s="0">
-        <v>271</v>
-      </c>
       <c r="C65" t="s" s="0">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D65" t="s" s="0">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E65" s="0">
         <v>56</v>
       </c>
       <c r="F65" t="s" s="0">
+        <v>271</v>
+      </c>
+      <c r="G65" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="H65" t="s" s="0">
         <v>272</v>
-      </c>
-      <c r="G65" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="H65" t="s" s="0">
-        <v>273</v>
       </c>
       <c r="I65" s="0">
         <v>8890120</v>
@@ -3627,28 +3625,28 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s" s="0">
+        <v>273</v>
+      </c>
+      <c r="B66" t="s" s="0">
         <v>274</v>
       </c>
-      <c r="B66" t="s" s="0">
-        <v>275</v>
-      </c>
       <c r="C66" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D66" t="s" s="0">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E66" s="0">
         <v>34</v>
       </c>
       <c r="F66" t="s" s="0">
+        <v>275</v>
+      </c>
+      <c r="G66" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="H66" t="s" s="0">
         <v>276</v>
-      </c>
-      <c r="G66" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="H66" t="s" s="0">
-        <v>277</v>
       </c>
       <c r="I66" s="0">
         <v>1822054</v>
@@ -3656,28 +3654,28 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s" s="0">
+        <v>277</v>
+      </c>
+      <c r="B67" t="s" s="0">
         <v>278</v>
       </c>
-      <c r="B67" t="s" s="0">
-        <v>279</v>
-      </c>
       <c r="C67" t="s" s="0">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D67" t="s" s="0">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E67" s="0">
         <v>63</v>
       </c>
       <c r="F67" t="s" s="0">
+        <v>279</v>
+      </c>
+      <c r="G67" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="H67" t="s" s="0">
         <v>280</v>
-      </c>
-      <c r="G67" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="H67" t="s" s="0">
-        <v>281</v>
       </c>
       <c r="I67" s="0">
         <v>3713226</v>
@@ -3685,28 +3683,28 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s" s="0">
+        <v>281</v>
+      </c>
+      <c r="B68" t="s" s="0">
         <v>282</v>
       </c>
-      <c r="B68" t="s" s="0">
-        <v>283</v>
-      </c>
       <c r="C68" t="s" s="0">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D68" t="s" s="0">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E68" s="0">
         <v>49</v>
       </c>
       <c r="F68" t="s" s="0">
+        <v>283</v>
+      </c>
+      <c r="G68" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="H68" t="s" s="0">
         <v>284</v>
-      </c>
-      <c r="G68" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="H68" t="s" s="0">
-        <v>285</v>
       </c>
       <c r="I68" s="0">
         <v>4900839</v>
@@ -3714,28 +3712,28 @@
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s" s="0">
+        <v>285</v>
+      </c>
+      <c r="B69" t="s" s="0">
         <v>286</v>
       </c>
-      <c r="B69" t="s" s="0">
-        <v>287</v>
-      </c>
       <c r="C69" t="s" s="0">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D69" t="s" s="0">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E69" s="0">
         <v>22</v>
       </c>
       <c r="F69" t="s" s="0">
+        <v>287</v>
+      </c>
+      <c r="G69" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="H69" t="s" s="0">
         <v>288</v>
-      </c>
-      <c r="G69" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="H69" t="s" s="0">
-        <v>289</v>
       </c>
       <c r="I69" s="0">
         <v>8613278</v>
@@ -3743,28 +3741,28 @@
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s" s="0">
+        <v>289</v>
+      </c>
+      <c r="B70" t="s" s="0">
         <v>290</v>
       </c>
-      <c r="B70" t="s" s="0">
-        <v>291</v>
-      </c>
       <c r="C70" t="s" s="0">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D70" t="s" s="0">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E70" s="0">
         <v>57</v>
       </c>
       <c r="F70" t="s" s="0">
+        <v>291</v>
+      </c>
+      <c r="G70" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="H70" t="s" s="0">
         <v>292</v>
-      </c>
-      <c r="G70" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="H70" t="s" s="0">
-        <v>293</v>
       </c>
       <c r="I70" s="0">
         <v>1890269</v>
@@ -3772,28 +3770,28 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s" s="0">
+        <v>293</v>
+      </c>
+      <c r="B71" t="s" s="0">
         <v>294</v>
       </c>
-      <c r="B71" t="s" s="0">
-        <v>295</v>
-      </c>
       <c r="C71" t="s" s="0">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D71" t="s" s="0">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E71" s="0">
         <v>29</v>
       </c>
       <c r="F71" t="s" s="0">
+        <v>295</v>
+      </c>
+      <c r="G71" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="H71" t="s" s="0">
         <v>296</v>
-      </c>
-      <c r="G71" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="H71" t="s" s="0">
-        <v>297</v>
       </c>
       <c r="I71" s="0">
         <v>2552925</v>
@@ -3801,28 +3799,28 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s" s="0">
+        <v>297</v>
+      </c>
+      <c r="B72" t="s" s="0">
         <v>298</v>
       </c>
-      <c r="B72" t="s" s="0">
-        <v>299</v>
-      </c>
       <c r="C72" t="s" s="0">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D72" t="s" s="0">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E72" s="0">
         <v>60</v>
       </c>
       <c r="F72" t="s" s="0">
+        <v>299</v>
+      </c>
+      <c r="G72" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="H72" t="s" s="0">
         <v>300</v>
-      </c>
-      <c r="G72" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="H72" t="s" s="0">
-        <v>301</v>
       </c>
       <c r="I72" s="0">
         <v>6822517</v>
@@ -3830,28 +3828,28 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s" s="0">
+        <v>301</v>
+      </c>
+      <c r="B73" t="s" s="0">
         <v>302</v>
       </c>
-      <c r="B73" t="s" s="0">
-        <v>303</v>
-      </c>
       <c r="C73" t="s" s="0">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s" s="0">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E73" s="0">
         <v>44</v>
       </c>
       <c r="F73" t="s" s="0">
+        <v>303</v>
+      </c>
+      <c r="G73" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="H73" t="s" s="0">
         <v>304</v>
-      </c>
-      <c r="G73" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="H73" t="s" s="0">
-        <v>305</v>
       </c>
       <c r="I73" s="0">
         <v>7665699</v>
@@ -3859,28 +3857,28 @@
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s" s="0">
+        <v>305</v>
+      </c>
+      <c r="B74" t="s" s="0">
         <v>306</v>
       </c>
-      <c r="B74" t="s" s="0">
-        <v>307</v>
-      </c>
       <c r="C74" t="s" s="0">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D74" t="s" s="0">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E74" s="0">
         <v>43</v>
       </c>
       <c r="F74" t="s" s="0">
+        <v>307</v>
+      </c>
+      <c r="G74" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="H74" t="s" s="0">
         <v>308</v>
-      </c>
-      <c r="G74" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="H74" t="s" s="0">
-        <v>309</v>
       </c>
       <c r="I74" s="0">
         <v>5533098</v>
@@ -3888,28 +3886,28 @@
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s" s="0">
+        <v>309</v>
+      </c>
+      <c r="B75" t="s" s="0">
         <v>310</v>
       </c>
-      <c r="B75" t="s" s="0">
-        <v>311</v>
-      </c>
       <c r="C75" t="s" s="0">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s" s="0">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E75" s="0">
         <v>48</v>
       </c>
       <c r="F75" t="s" s="0">
+        <v>311</v>
+      </c>
+      <c r="G75" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="H75" t="s" s="0">
         <v>312</v>
-      </c>
-      <c r="G75" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="H75" t="s" s="0">
-        <v>313</v>
       </c>
       <c r="I75" s="0">
         <v>2818715</v>
@@ -3917,28 +3915,28 @@
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s" s="0">
+        <v>313</v>
+      </c>
+      <c r="B76" t="s" s="0">
         <v>314</v>
       </c>
-      <c r="B76" t="s" s="0">
-        <v>315</v>
-      </c>
       <c r="C76" t="s" s="0">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D76" t="s" s="0">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E76" s="0">
         <v>55</v>
       </c>
       <c r="F76" t="s" s="0">
+        <v>315</v>
+      </c>
+      <c r="G76" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="H76" t="s" s="0">
         <v>316</v>
-      </c>
-      <c r="G76" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="H76" t="s" s="0">
-        <v>317</v>
       </c>
       <c r="I76" s="0">
         <v>6021521</v>
@@ -3946,28 +3944,28 @@
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s" s="0">
+        <v>317</v>
+      </c>
+      <c r="B77" t="s" s="0">
         <v>318</v>
       </c>
-      <c r="B77" t="s" s="0">
-        <v>319</v>
-      </c>
       <c r="C77" t="s" s="0">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D77" t="s" s="0">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E77" s="0">
         <v>62</v>
       </c>
       <c r="F77" t="s" s="0">
+        <v>319</v>
+      </c>
+      <c r="G77" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="H77" t="s" s="0">
         <v>320</v>
-      </c>
-      <c r="G77" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="H77" t="s" s="0">
-        <v>321</v>
       </c>
       <c r="I77" s="0">
         <v>6574157</v>
@@ -3975,28 +3973,28 @@
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s" s="0">
+        <v>321</v>
+      </c>
+      <c r="B78" t="s" s="0">
         <v>322</v>
       </c>
-      <c r="B78" t="s" s="0">
-        <v>323</v>
-      </c>
       <c r="C78" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D78" t="s" s="0">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E78" s="0">
         <v>50</v>
       </c>
       <c r="F78" t="s" s="0">
+        <v>323</v>
+      </c>
+      <c r="G78" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="H78" t="s" s="0">
         <v>324</v>
-      </c>
-      <c r="G78" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="H78" t="s" s="0">
-        <v>325</v>
       </c>
       <c r="I78" s="0">
         <v>2683176</v>
@@ -4004,28 +4002,28 @@
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s" s="0">
+        <v>325</v>
+      </c>
+      <c r="B79" t="s" s="0">
         <v>326</v>
       </c>
-      <c r="B79" t="s" s="0">
-        <v>327</v>
-      </c>
       <c r="C79" t="s" s="0">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s" s="0">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E79" s="0">
         <v>22</v>
       </c>
       <c r="F79" t="s" s="0">
+        <v>327</v>
+      </c>
+      <c r="G79" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="H79" t="s" s="0">
         <v>328</v>
-      </c>
-      <c r="G79" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="H79" t="s" s="0">
-        <v>329</v>
       </c>
       <c r="I79" s="0">
         <v>7083693</v>
@@ -4033,28 +4031,28 @@
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s" s="0">
+        <v>329</v>
+      </c>
+      <c r="B80" t="s" s="0">
         <v>330</v>
       </c>
-      <c r="B80" t="s" s="0">
-        <v>331</v>
-      </c>
       <c r="C80" t="s" s="0">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D80" t="s" s="0">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E80" s="0">
         <v>46</v>
       </c>
       <c r="F80" t="s" s="0">
+        <v>331</v>
+      </c>
+      <c r="G80" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="H80" t="s" s="0">
         <v>332</v>
-      </c>
-      <c r="G80" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="H80" t="s" s="0">
-        <v>333</v>
       </c>
       <c r="I80" s="0">
         <v>5228382</v>
@@ -4062,28 +4060,28 @@
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s" s="0">
+        <v>333</v>
+      </c>
+      <c r="B81" t="s" s="0">
         <v>334</v>
       </c>
-      <c r="B81" t="s" s="0">
-        <v>335</v>
-      </c>
       <c r="C81" t="s" s="0">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s" s="0">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E81" s="0">
         <v>40</v>
       </c>
       <c r="F81" t="s" s="0">
+        <v>335</v>
+      </c>
+      <c r="G81" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="H81" t="s" s="0">
         <v>336</v>
-      </c>
-      <c r="G81" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="H81" t="s" s="0">
-        <v>337</v>
       </c>
       <c r="I81" s="0">
         <v>2740643</v>
@@ -4091,28 +4089,28 @@
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s" s="0">
+        <v>337</v>
+      </c>
+      <c r="B82" t="s" s="0">
         <v>338</v>
       </c>
-      <c r="B82" t="s" s="0">
-        <v>339</v>
-      </c>
       <c r="C82" t="s" s="0">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D82" t="s" s="0">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E82" s="0">
         <v>54</v>
       </c>
       <c r="F82" t="s" s="0">
+        <v>339</v>
+      </c>
+      <c r="G82" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="H82" t="s" s="0">
         <v>340</v>
-      </c>
-      <c r="G82" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="H82" t="s" s="0">
-        <v>341</v>
       </c>
       <c r="I82" s="0">
         <v>7961296</v>
@@ -4120,28 +4118,28 @@
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s" s="0">
+        <v>341</v>
+      </c>
+      <c r="B83" t="s" s="0">
         <v>342</v>
       </c>
-      <c r="B83" t="s" s="0">
-        <v>343</v>
-      </c>
       <c r="C83" t="s" s="0">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s" s="0">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E83" s="0">
         <v>33</v>
       </c>
       <c r="F83" t="s" s="0">
+        <v>343</v>
+      </c>
+      <c r="G83" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="H83" t="s" s="0">
         <v>344</v>
-      </c>
-      <c r="G83" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="H83" t="s" s="0">
-        <v>345</v>
       </c>
       <c r="I83" s="0">
         <v>9737290</v>
@@ -4149,28 +4147,28 @@
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" t="s" s="0">
+        <v>345</v>
+      </c>
+      <c r="B84" t="s" s="0">
         <v>346</v>
       </c>
-      <c r="B84" t="s" s="0">
-        <v>347</v>
-      </c>
       <c r="C84" t="s" s="0">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s" s="0">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E84" s="0">
         <v>28</v>
       </c>
       <c r="F84" t="s" s="0">
+        <v>347</v>
+      </c>
+      <c r="G84" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="H84" t="s" s="0">
         <v>348</v>
-      </c>
-      <c r="G84" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="H84" t="s" s="0">
-        <v>349</v>
       </c>
       <c r="I84" s="0">
         <v>3253337</v>
@@ -4178,28 +4176,28 @@
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="s" s="0">
+        <v>349</v>
+      </c>
+      <c r="B85" t="s" s="0">
         <v>350</v>
       </c>
-      <c r="B85" t="s" s="0">
-        <v>351</v>
-      </c>
       <c r="C85" t="s" s="0">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s" s="0">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E85" s="0">
         <v>57</v>
       </c>
       <c r="F85" t="s" s="0">
+        <v>351</v>
+      </c>
+      <c r="G85" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="H85" t="s" s="0">
         <v>352</v>
-      </c>
-      <c r="G85" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="H85" t="s" s="0">
-        <v>353</v>
       </c>
       <c r="I85" s="0">
         <v>3477827</v>
@@ -4207,28 +4205,28 @@
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="s" s="0">
+        <v>353</v>
+      </c>
+      <c r="B86" t="s" s="0">
         <v>354</v>
       </c>
-      <c r="B86" t="s" s="0">
-        <v>355</v>
-      </c>
       <c r="C86" t="s" s="0">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D86" t="s" s="0">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E86" s="0">
         <v>23</v>
       </c>
       <c r="F86" t="s" s="0">
+        <v>355</v>
+      </c>
+      <c r="G86" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="H86" t="s" s="0">
         <v>356</v>
-      </c>
-      <c r="G86" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="H86" t="s" s="0">
-        <v>357</v>
       </c>
       <c r="I86" s="0">
         <v>6484201</v>
@@ -4236,28 +4234,28 @@
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="B87" t="s" s="0">
         <v>358</v>
       </c>
-      <c r="B87" t="s" s="0">
-        <v>359</v>
-      </c>
       <c r="C87" t="s" s="0">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s" s="0">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E87" s="0">
         <v>26</v>
       </c>
       <c r="F87" t="s" s="0">
+        <v>359</v>
+      </c>
+      <c r="G87" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="H87" t="s" s="0">
         <v>360</v>
-      </c>
-      <c r="G87" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="H87" t="s" s="0">
-        <v>361</v>
       </c>
       <c r="I87" s="0">
         <v>2137184</v>
@@ -4265,28 +4263,28 @@
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s" s="0">
+        <v>361</v>
+      </c>
+      <c r="B88" t="s" s="0">
         <v>362</v>
       </c>
-      <c r="B88" t="s" s="0">
-        <v>363</v>
-      </c>
       <c r="C88" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D88" t="s" s="0">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E88" s="0">
         <v>43</v>
       </c>
       <c r="F88" t="s" s="0">
+        <v>363</v>
+      </c>
+      <c r="G88" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="H88" t="s" s="0">
         <v>364</v>
-      </c>
-      <c r="G88" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="H88" t="s" s="0">
-        <v>365</v>
       </c>
       <c r="I88" s="0">
         <v>5828649</v>
@@ -4294,28 +4292,28 @@
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s" s="0">
+        <v>365</v>
+      </c>
+      <c r="B89" t="s" s="0">
         <v>366</v>
       </c>
-      <c r="B89" t="s" s="0">
-        <v>367</v>
-      </c>
       <c r="C89" t="s" s="0">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D89" t="s" s="0">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E89" s="0">
         <v>35</v>
       </c>
       <c r="F89" t="s" s="0">
+        <v>367</v>
+      </c>
+      <c r="G89" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="H89" t="s" s="0">
         <v>368</v>
-      </c>
-      <c r="G89" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="H89" t="s" s="0">
-        <v>369</v>
       </c>
       <c r="I89" s="0">
         <v>9314586</v>
@@ -4323,28 +4321,28 @@
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" t="s" s="0">
+        <v>369</v>
+      </c>
+      <c r="B90" t="s" s="0">
         <v>370</v>
       </c>
-      <c r="B90" t="s" s="0">
-        <v>371</v>
-      </c>
       <c r="C90" t="s" s="0">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D90" t="s" s="0">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E90" s="0">
         <v>52</v>
       </c>
       <c r="F90" t="s" s="0">
+        <v>371</v>
+      </c>
+      <c r="G90" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="H90" t="s" s="0">
         <v>372</v>
-      </c>
-      <c r="G90" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="H90" t="s" s="0">
-        <v>373</v>
       </c>
       <c r="I90" s="0">
         <v>5930324</v>
@@ -4352,28 +4350,28 @@
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" t="s" s="0">
+        <v>373</v>
+      </c>
+      <c r="B91" t="s" s="0">
         <v>374</v>
       </c>
-      <c r="B91" t="s" s="0">
-        <v>375</v>
-      </c>
       <c r="C91" t="s" s="0">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D91" t="s" s="0">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E91" s="0">
         <v>42</v>
       </c>
       <c r="F91" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="G91" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="H91" t="s" s="0">
         <v>376</v>
-      </c>
-      <c r="G91" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="H91" t="s" s="0">
-        <v>377</v>
       </c>
       <c r="I91" s="0">
         <v>4353913</v>
@@ -4381,28 +4379,28 @@
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" t="s" s="0">
+        <v>377</v>
+      </c>
+      <c r="B92" t="s" s="0">
         <v>378</v>
       </c>
-      <c r="B92" t="s" s="0">
-        <v>379</v>
-      </c>
       <c r="C92" t="s" s="0">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D92" t="s" s="0">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E92" s="0">
         <v>37</v>
       </c>
       <c r="F92" t="s" s="0">
+        <v>379</v>
+      </c>
+      <c r="G92" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="H92" t="s" s="0">
         <v>380</v>
-      </c>
-      <c r="G92" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="H92" t="s" s="0">
-        <v>381</v>
       </c>
       <c r="I92" s="0">
         <v>3044136</v>
@@ -4410,28 +4408,28 @@
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" t="s" s="0">
+        <v>381</v>
+      </c>
+      <c r="B93" t="s" s="0">
         <v>382</v>
       </c>
-      <c r="B93" t="s" s="0">
-        <v>383</v>
-      </c>
       <c r="C93" t="s" s="0">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D93" t="s" s="0">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E93" s="0">
         <v>39</v>
       </c>
       <c r="F93" t="s" s="0">
+        <v>383</v>
+      </c>
+      <c r="G93" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="H93" t="s" s="0">
         <v>384</v>
-      </c>
-      <c r="G93" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="H93" t="s" s="0">
-        <v>385</v>
       </c>
       <c r="I93" s="0">
         <v>5228200</v>
@@ -4439,28 +4437,28 @@
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s" s="0">
+        <v>385</v>
+      </c>
+      <c r="B94" t="s" s="0">
         <v>386</v>
       </c>
-      <c r="B94" t="s" s="0">
+      <c r="C94" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="D94" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E94" s="0">
+        <v>21</v>
+      </c>
+      <c r="F94" t="s" s="0">
         <v>387</v>
       </c>
-      <c r="C94" t="s" s="0">
-        <v>119</v>
-      </c>
-      <c r="D94" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="E94" s="0">
-        <v>21</v>
-      </c>
-      <c r="F94" t="s" s="0">
+      <c r="G94" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="H94" t="s" s="0">
         <v>388</v>
-      </c>
-      <c r="G94" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="H94" t="s" s="0">
-        <v>389</v>
       </c>
       <c r="I94" s="0">
         <v>9912130</v>
@@ -4468,28 +4466,28 @@
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" t="s" s="0">
+        <v>389</v>
+      </c>
+      <c r="B95" t="s" s="0">
         <v>390</v>
       </c>
-      <c r="B95" t="s" s="0">
-        <v>391</v>
-      </c>
       <c r="C95" t="s" s="0">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D95" t="s" s="0">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E95" s="0">
         <v>61</v>
       </c>
       <c r="F95" t="s" s="0">
+        <v>391</v>
+      </c>
+      <c r="G95" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="H95" t="s" s="0">
         <v>392</v>
-      </c>
-      <c r="G95" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="H95" t="s" s="0">
-        <v>393</v>
       </c>
       <c r="I95" s="0">
         <v>7542700</v>
@@ -4497,28 +4495,28 @@
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" t="s" s="0">
+        <v>393</v>
+      </c>
+      <c r="B96" t="s" s="0">
         <v>394</v>
       </c>
-      <c r="B96" t="s" s="0">
-        <v>395</v>
-      </c>
       <c r="C96" t="s" s="0">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D96" t="s" s="0">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E96" s="0">
         <v>62</v>
       </c>
       <c r="F96" t="s" s="0">
+        <v>395</v>
+      </c>
+      <c r="G96" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="H96" t="s" s="0">
         <v>396</v>
-      </c>
-      <c r="G96" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="H96" t="s" s="0">
-        <v>397</v>
       </c>
       <c r="I96" s="0">
         <v>8296226</v>
@@ -4526,28 +4524,28 @@
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s" s="0">
+        <v>397</v>
+      </c>
+      <c r="B97" t="s" s="0">
         <v>398</v>
       </c>
-      <c r="B97" t="s" s="0">
-        <v>399</v>
-      </c>
       <c r="C97" t="s" s="0">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D97" t="s" s="0">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E97" s="0">
         <v>51</v>
       </c>
       <c r="F97" t="s" s="0">
+        <v>399</v>
+      </c>
+      <c r="G97" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="H97" t="s" s="0">
         <v>400</v>
-      </c>
-      <c r="G97" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="H97" t="s" s="0">
-        <v>401</v>
       </c>
       <c r="I97" s="0">
         <v>3368363</v>
@@ -4555,28 +4553,28 @@
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s" s="0">
+        <v>401</v>
+      </c>
+      <c r="B98" t="s" s="0">
         <v>402</v>
       </c>
-      <c r="B98" t="s" s="0">
-        <v>403</v>
-      </c>
       <c r="C98" t="s" s="0">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D98" t="s" s="0">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E98" s="0">
         <v>37</v>
       </c>
       <c r="F98" t="s" s="0">
+        <v>403</v>
+      </c>
+      <c r="G98" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="H98" t="s" s="0">
         <v>404</v>
-      </c>
-      <c r="G98" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="H98" t="s" s="0">
-        <v>405</v>
       </c>
       <c r="I98" s="0">
         <v>8573375</v>
@@ -4584,28 +4582,28 @@
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s" s="0">
+        <v>405</v>
+      </c>
+      <c r="B99" t="s" s="0">
         <v>406</v>
       </c>
-      <c r="B99" t="s" s="0">
-        <v>407</v>
-      </c>
       <c r="C99" t="s" s="0">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D99" t="s" s="0">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E99" s="0">
         <v>56</v>
       </c>
       <c r="F99" t="s" s="0">
+        <v>407</v>
+      </c>
+      <c r="G99" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="H99" t="s" s="0">
         <v>408</v>
-      </c>
-      <c r="G99" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="H99" t="s" s="0">
-        <v>409</v>
       </c>
       <c r="I99" s="0">
         <v>6580060</v>
@@ -4613,28 +4611,28 @@
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s" s="0">
+        <v>409</v>
+      </c>
+      <c r="B100" t="s" s="0">
         <v>410</v>
       </c>
-      <c r="B100" t="s" s="0">
-        <v>411</v>
-      </c>
       <c r="C100" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D100" t="s" s="0">
         <v>11</v>
-      </c>
-      <c r="D100" t="s" s="0">
-        <v>12</v>
       </c>
       <c r="E100" s="0">
         <v>52</v>
       </c>
       <c r="F100" t="s" s="0">
+        <v>411</v>
+      </c>
+      <c r="G100" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="H100" t="s" s="0">
         <v>412</v>
-      </c>
-      <c r="G100" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="H100" t="s" s="0">
-        <v>413</v>
       </c>
       <c r="I100" s="0">
         <v>2209714</v>
@@ -4642,28 +4640,28 @@
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s" s="0">
+        <v>413</v>
+      </c>
+      <c r="B101" t="s" s="0">
         <v>414</v>
       </c>
-      <c r="B101" t="s" s="0">
-        <v>415</v>
-      </c>
       <c r="C101" t="s" s="0">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D101" t="s" s="0">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E101" s="0">
         <v>51</v>
       </c>
       <c r="F101" t="s" s="0">
+        <v>415</v>
+      </c>
+      <c r="G101" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="H101" t="s" s="0">
         <v>416</v>
-      </c>
-      <c r="G101" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="H101" t="s" s="0">
-        <v>417</v>
       </c>
       <c r="I101" s="0">
         <v>9295610</v>
@@ -4671,28 +4669,28 @@
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s" s="0">
+        <v>417</v>
+      </c>
+      <c r="B102" t="s" s="0">
         <v>418</v>
       </c>
-      <c r="B102" t="s" s="0">
-        <v>419</v>
-      </c>
       <c r="C102" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D102" t="s" s="0">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E102" s="0">
         <v>27</v>
       </c>
       <c r="F102" t="s" s="0">
+        <v>419</v>
+      </c>
+      <c r="G102" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="H102" t="s" s="0">
         <v>420</v>
-      </c>
-      <c r="G102" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="H102" t="s" s="0">
-        <v>421</v>
       </c>
       <c r="I102" s="0">
         <v>5821986</v>
@@ -4700,28 +4698,28 @@
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s" s="0">
+        <v>421</v>
+      </c>
+      <c r="B103" t="s" s="0">
         <v>422</v>
       </c>
-      <c r="B103" t="s" s="0">
-        <v>423</v>
-      </c>
       <c r="C103" t="s" s="0">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s" s="0">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E103" s="0">
         <v>58</v>
       </c>
       <c r="F103" t="s" s="0">
+        <v>423</v>
+      </c>
+      <c r="G103" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="H103" t="s" s="0">
         <v>424</v>
-      </c>
-      <c r="G103" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="H103" t="s" s="0">
-        <v>425</v>
       </c>
       <c r="I103" s="0">
         <v>8124730</v>
@@ -4729,28 +4727,28 @@
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s" s="0">
+        <v>425</v>
+      </c>
+      <c r="B104" t="s" s="0">
         <v>426</v>
       </c>
-      <c r="B104" t="s" s="0">
-        <v>427</v>
-      </c>
       <c r="C104" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D104" t="s" s="0">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E104" s="0">
         <v>29</v>
       </c>
       <c r="F104" t="s" s="0">
+        <v>427</v>
+      </c>
+      <c r="G104" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="H104" t="s" s="0">
         <v>428</v>
-      </c>
-      <c r="G104" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="H104" t="s" s="0">
-        <v>429</v>
       </c>
       <c r="I104" s="0">
         <v>9429253</v>
@@ -4758,31 +4756,60 @@
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s" s="0">
+        <v>429</v>
+      </c>
+      <c r="B105" t="s" s="0">
         <v>430</v>
       </c>
-      <c r="B105" t="s" s="0">
-        <v>431</v>
-      </c>
       <c r="C105" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D105" t="s" s="0">
         <v>11</v>
-      </c>
-      <c r="D105" t="s" s="0">
-        <v>12</v>
       </c>
       <c r="E105" s="0">
         <v>57</v>
       </c>
       <c r="F105" t="s" s="0">
+        <v>431</v>
+      </c>
+      <c r="G105" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="H105" t="s" s="0">
         <v>432</v>
-      </c>
-      <c r="G105" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="H105" t="s" s="0">
-        <v>433</v>
       </c>
       <c r="I105" s="0">
         <v>7085811</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s" s="0">
+        <v>435</v>
+      </c>
+      <c r="B106" t="s" s="0">
+        <v>436</v>
+      </c>
+      <c r="C106" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D106" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E106" t="n" s="0">
+        <v>21.0</v>
+      </c>
+      <c r="F106" t="s" s="0">
+        <v>437</v>
+      </c>
+      <c r="G106" t="s" s="0">
+        <v>438</v>
+      </c>
+      <c r="H106" t="s" s="0">
+        <v>439</v>
+      </c>
+      <c r="I106" t="n" s="0">
+        <v>1.2341234E7</v>
       </c>
     </row>
   </sheetData>

--- a/data/UserList.xlsx
+++ b/data/UserList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Part Time Studies\OOP_Proj\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B6FC79C-5EE1-4081-89D6-E853C3F3B790}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC6C19D8-6339-434D-9E95-7203550289BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="447">
   <si>
     <t>Name</t>
   </si>
@@ -34,18 +34,6 @@
     <t>Age</t>
   </si>
   <si>
-    <t>D001</t>
-  </si>
-  <si>
-    <t>D002</t>
-  </si>
-  <si>
-    <t>P001</t>
-  </si>
-  <si>
-    <t>A001</t>
-  </si>
-  <si>
     <t>Doctor</t>
   </si>
   <si>
@@ -124,9 +112,6 @@
     <t>user1@example.com</t>
   </si>
   <si>
-    <t>P002</t>
-  </si>
-  <si>
     <t>User2</t>
   </si>
   <si>
@@ -136,9 +121,6 @@
     <t>user2@example.com</t>
   </si>
   <si>
-    <t>A003</t>
-  </si>
-  <si>
     <t>User3</t>
   </si>
   <si>
@@ -148,9 +130,6 @@
     <t>user3@example.com</t>
   </si>
   <si>
-    <t>P004</t>
-  </si>
-  <si>
     <t>User4</t>
   </si>
   <si>
@@ -160,9 +139,6 @@
     <t>user4@example.com</t>
   </si>
   <si>
-    <t>P005</t>
-  </si>
-  <si>
     <t>User5</t>
   </si>
   <si>
@@ -172,9 +148,6 @@
     <t>user5@example.com</t>
   </si>
   <si>
-    <t>D006</t>
-  </si>
-  <si>
     <t>User6</t>
   </si>
   <si>
@@ -184,9 +157,6 @@
     <t>user6@example.com</t>
   </si>
   <si>
-    <t>A007</t>
-  </si>
-  <si>
     <t>User7</t>
   </si>
   <si>
@@ -196,9 +166,6 @@
     <t>user7@example.com</t>
   </si>
   <si>
-    <t>J008</t>
-  </si>
-  <si>
     <t>User8</t>
   </si>
   <si>
@@ -211,9 +178,6 @@
     <t>user8@example.com</t>
   </si>
   <si>
-    <t>P009</t>
-  </si>
-  <si>
     <t>User9</t>
   </si>
   <si>
@@ -223,9 +187,6 @@
     <t>user9@example.com</t>
   </si>
   <si>
-    <t>S010</t>
-  </si>
-  <si>
     <t>User10</t>
   </si>
   <si>
@@ -238,9 +199,6 @@
     <t>user10@example.com</t>
   </si>
   <si>
-    <t>S011</t>
-  </si>
-  <si>
     <t>User11</t>
   </si>
   <si>
@@ -250,9 +208,6 @@
     <t>user11@example.com</t>
   </si>
   <si>
-    <t>D012</t>
-  </si>
-  <si>
     <t>User12</t>
   </si>
   <si>
@@ -262,9 +217,6 @@
     <t>user12@example.com</t>
   </si>
   <si>
-    <t>P013</t>
-  </si>
-  <si>
     <t>User13</t>
   </si>
   <si>
@@ -274,9 +226,6 @@
     <t>user13@example.com</t>
   </si>
   <si>
-    <t>P014</t>
-  </si>
-  <si>
     <t>User14</t>
   </si>
   <si>
@@ -286,9 +235,6 @@
     <t>user14@example.com</t>
   </si>
   <si>
-    <t>D015</t>
-  </si>
-  <si>
     <t>User15</t>
   </si>
   <si>
@@ -298,9 +244,6 @@
     <t>user15@example.com</t>
   </si>
   <si>
-    <t>S016</t>
-  </si>
-  <si>
     <t>User16</t>
   </si>
   <si>
@@ -310,9 +253,6 @@
     <t>user16@example.com</t>
   </si>
   <si>
-    <t>J017</t>
-  </si>
-  <si>
     <t>User17</t>
   </si>
   <si>
@@ -322,9 +262,6 @@
     <t>user17@example.com</t>
   </si>
   <si>
-    <t>A018</t>
-  </si>
-  <si>
     <t>User18</t>
   </si>
   <si>
@@ -334,9 +271,6 @@
     <t>user18@example.com</t>
   </si>
   <si>
-    <t>P019</t>
-  </si>
-  <si>
     <t>User19</t>
   </si>
   <si>
@@ -346,9 +280,6 @@
     <t>user19@example.com</t>
   </si>
   <si>
-    <t>P020</t>
-  </si>
-  <si>
     <t>User20</t>
   </si>
   <si>
@@ -358,9 +289,6 @@
     <t>user20@example.com</t>
   </si>
   <si>
-    <t>P021</t>
-  </si>
-  <si>
     <t>User21</t>
   </si>
   <si>
@@ -370,9 +298,6 @@
     <t>user21@example.com</t>
   </si>
   <si>
-    <t>N022</t>
-  </si>
-  <si>
     <t>User22</t>
   </si>
   <si>
@@ -385,9 +310,6 @@
     <t>user22@example.com</t>
   </si>
   <si>
-    <t>P023</t>
-  </si>
-  <si>
     <t>User23</t>
   </si>
   <si>
@@ -397,9 +319,6 @@
     <t>user23@example.com</t>
   </si>
   <si>
-    <t>J024</t>
-  </si>
-  <si>
     <t>User24</t>
   </si>
   <si>
@@ -409,9 +328,6 @@
     <t>user24@example.com</t>
   </si>
   <si>
-    <t>P025</t>
-  </si>
-  <si>
     <t>User25</t>
   </si>
   <si>
@@ -421,9 +337,6 @@
     <t>user25@example.com</t>
   </si>
   <si>
-    <t>J026</t>
-  </si>
-  <si>
     <t>User26</t>
   </si>
   <si>
@@ -433,9 +346,6 @@
     <t>user26@example.com</t>
   </si>
   <si>
-    <t>D027</t>
-  </si>
-  <si>
     <t>User27</t>
   </si>
   <si>
@@ -445,9 +355,6 @@
     <t>user27@example.com</t>
   </si>
   <si>
-    <t>A028</t>
-  </si>
-  <si>
     <t>User28</t>
   </si>
   <si>
@@ -457,9 +364,6 @@
     <t>user28@example.com</t>
   </si>
   <si>
-    <t>N029</t>
-  </si>
-  <si>
     <t>User29</t>
   </si>
   <si>
@@ -469,9 +373,6 @@
     <t>user29@example.com</t>
   </si>
   <si>
-    <t>P030</t>
-  </si>
-  <si>
     <t>User30</t>
   </si>
   <si>
@@ -481,9 +382,6 @@
     <t>user30@example.com</t>
   </si>
   <si>
-    <t>A031</t>
-  </si>
-  <si>
     <t>User31</t>
   </si>
   <si>
@@ -493,9 +391,6 @@
     <t>user31@example.com</t>
   </si>
   <si>
-    <t>P032</t>
-  </si>
-  <si>
     <t>User32</t>
   </si>
   <si>
@@ -505,9 +400,6 @@
     <t>user32@example.com</t>
   </si>
   <si>
-    <t>P033</t>
-  </si>
-  <si>
     <t>User33</t>
   </si>
   <si>
@@ -517,9 +409,6 @@
     <t>user33@example.com</t>
   </si>
   <si>
-    <t>N034</t>
-  </si>
-  <si>
     <t>User34</t>
   </si>
   <si>
@@ -529,9 +418,6 @@
     <t>user34@example.com</t>
   </si>
   <si>
-    <t>N035</t>
-  </si>
-  <si>
     <t>User35</t>
   </si>
   <si>
@@ -541,9 +427,6 @@
     <t>user35@example.com</t>
   </si>
   <si>
-    <t>A036</t>
-  </si>
-  <si>
     <t>User36</t>
   </si>
   <si>
@@ -553,9 +436,6 @@
     <t>user36@example.com</t>
   </si>
   <si>
-    <t>N037</t>
-  </si>
-  <si>
     <t>User37</t>
   </si>
   <si>
@@ -565,9 +445,6 @@
     <t>user37@example.com</t>
   </si>
   <si>
-    <t>S038</t>
-  </si>
-  <si>
     <t>User38</t>
   </si>
   <si>
@@ -577,9 +454,6 @@
     <t>user38@example.com</t>
   </si>
   <si>
-    <t>S039</t>
-  </si>
-  <si>
     <t>User39</t>
   </si>
   <si>
@@ -589,9 +463,6 @@
     <t>user39@example.com</t>
   </si>
   <si>
-    <t>P040</t>
-  </si>
-  <si>
     <t>User40</t>
   </si>
   <si>
@@ -601,9 +472,6 @@
     <t>user40@example.com</t>
   </si>
   <si>
-    <t>N041</t>
-  </si>
-  <si>
     <t>User41</t>
   </si>
   <si>
@@ -613,9 +481,6 @@
     <t>user41@example.com</t>
   </si>
   <si>
-    <t>N042</t>
-  </si>
-  <si>
     <t>User42</t>
   </si>
   <si>
@@ -625,9 +490,6 @@
     <t>user42@example.com</t>
   </si>
   <si>
-    <t>A043</t>
-  </si>
-  <si>
     <t>User43</t>
   </si>
   <si>
@@ -637,9 +499,6 @@
     <t>user43@example.com</t>
   </si>
   <si>
-    <t>D044</t>
-  </si>
-  <si>
     <t>User44</t>
   </si>
   <si>
@@ -649,9 +508,6 @@
     <t>user44@example.com</t>
   </si>
   <si>
-    <t>N045</t>
-  </si>
-  <si>
     <t>User45</t>
   </si>
   <si>
@@ -661,9 +517,6 @@
     <t>user45@example.com</t>
   </si>
   <si>
-    <t>A046</t>
-  </si>
-  <si>
     <t>User46</t>
   </si>
   <si>
@@ -673,9 +526,6 @@
     <t>user46@example.com</t>
   </si>
   <si>
-    <t>N047</t>
-  </si>
-  <si>
     <t>User47</t>
   </si>
   <si>
@@ -685,9 +535,6 @@
     <t>user47@example.com</t>
   </si>
   <si>
-    <t>P048</t>
-  </si>
-  <si>
     <t>User48</t>
   </si>
   <si>
@@ -697,9 +544,6 @@
     <t>user48@example.com</t>
   </si>
   <si>
-    <t>D049</t>
-  </si>
-  <si>
     <t>User49</t>
   </si>
   <si>
@@ -709,9 +553,6 @@
     <t>user49@example.com</t>
   </si>
   <si>
-    <t>P050</t>
-  </si>
-  <si>
     <t>User50</t>
   </si>
   <si>
@@ -721,9 +562,6 @@
     <t>user50@example.com</t>
   </si>
   <si>
-    <t>S051</t>
-  </si>
-  <si>
     <t>User51</t>
   </si>
   <si>
@@ -733,9 +571,6 @@
     <t>user51@example.com</t>
   </si>
   <si>
-    <t>S052</t>
-  </si>
-  <si>
     <t>User52</t>
   </si>
   <si>
@@ -745,9 +580,6 @@
     <t>user52@example.com</t>
   </si>
   <si>
-    <t>S053</t>
-  </si>
-  <si>
     <t>User53</t>
   </si>
   <si>
@@ -757,9 +589,6 @@
     <t>user53@example.com</t>
   </si>
   <si>
-    <t>S054</t>
-  </si>
-  <si>
     <t>User54</t>
   </si>
   <si>
@@ -769,9 +598,6 @@
     <t>user54@example.com</t>
   </si>
   <si>
-    <t>P055</t>
-  </si>
-  <si>
     <t>User55</t>
   </si>
   <si>
@@ -781,9 +607,6 @@
     <t>user55@example.com</t>
   </si>
   <si>
-    <t>D056</t>
-  </si>
-  <si>
     <t>User56</t>
   </si>
   <si>
@@ -793,9 +616,6 @@
     <t>user56@example.com</t>
   </si>
   <si>
-    <t>J057</t>
-  </si>
-  <si>
     <t>User57</t>
   </si>
   <si>
@@ -805,9 +625,6 @@
     <t>user57@example.com</t>
   </si>
   <si>
-    <t>J058</t>
-  </si>
-  <si>
     <t>User58</t>
   </si>
   <si>
@@ -817,9 +634,6 @@
     <t>user58@example.com</t>
   </si>
   <si>
-    <t>A059</t>
-  </si>
-  <si>
     <t>User59</t>
   </si>
   <si>
@@ -829,9 +643,6 @@
     <t>user59@example.com</t>
   </si>
   <si>
-    <t>J060</t>
-  </si>
-  <si>
     <t>User60</t>
   </si>
   <si>
@@ -841,9 +652,6 @@
     <t>user60@example.com</t>
   </si>
   <si>
-    <t>P061</t>
-  </si>
-  <si>
     <t>User61</t>
   </si>
   <si>
@@ -853,9 +661,6 @@
     <t>user61@example.com</t>
   </si>
   <si>
-    <t>S062</t>
-  </si>
-  <si>
     <t>User62</t>
   </si>
   <si>
@@ -865,9 +670,6 @@
     <t>user62@example.com</t>
   </si>
   <si>
-    <t>S063</t>
-  </si>
-  <si>
     <t>User63</t>
   </si>
   <si>
@@ -877,9 +679,6 @@
     <t>user63@example.com</t>
   </si>
   <si>
-    <t>N064</t>
-  </si>
-  <si>
     <t>User64</t>
   </si>
   <si>
@@ -889,9 +688,6 @@
     <t>user64@example.com</t>
   </si>
   <si>
-    <t>D065</t>
-  </si>
-  <si>
     <t>User65</t>
   </si>
   <si>
@@ -901,9 +697,6 @@
     <t>user65@example.com</t>
   </si>
   <si>
-    <t>J066</t>
-  </si>
-  <si>
     <t>User66</t>
   </si>
   <si>
@@ -913,9 +706,6 @@
     <t>user66@example.com</t>
   </si>
   <si>
-    <t>S067</t>
-  </si>
-  <si>
     <t>User67</t>
   </si>
   <si>
@@ -925,9 +715,6 @@
     <t>user67@example.com</t>
   </si>
   <si>
-    <t>P068</t>
-  </si>
-  <si>
     <t>User68</t>
   </si>
   <si>
@@ -937,9 +724,6 @@
     <t>user68@example.com</t>
   </si>
   <si>
-    <t>D069</t>
-  </si>
-  <si>
     <t>User69</t>
   </si>
   <si>
@@ -949,9 +733,6 @@
     <t>user69@example.com</t>
   </si>
   <si>
-    <t>P070</t>
-  </si>
-  <si>
     <t>User70</t>
   </si>
   <si>
@@ -961,9 +742,6 @@
     <t>user70@example.com</t>
   </si>
   <si>
-    <t>S071</t>
-  </si>
-  <si>
     <t>User71</t>
   </si>
   <si>
@@ -973,9 +751,6 @@
     <t>user71@example.com</t>
   </si>
   <si>
-    <t>J072</t>
-  </si>
-  <si>
     <t>User72</t>
   </si>
   <si>
@@ -985,9 +760,6 @@
     <t>user72@example.com</t>
   </si>
   <si>
-    <t>P073</t>
-  </si>
-  <si>
     <t>User73</t>
   </si>
   <si>
@@ -997,9 +769,6 @@
     <t>user73@example.com</t>
   </si>
   <si>
-    <t>P074</t>
-  </si>
-  <si>
     <t>User74</t>
   </si>
   <si>
@@ -1009,9 +778,6 @@
     <t>user74@example.com</t>
   </si>
   <si>
-    <t>J075</t>
-  </si>
-  <si>
     <t>User75</t>
   </si>
   <si>
@@ -1021,9 +787,6 @@
     <t>user75@example.com</t>
   </si>
   <si>
-    <t>A076</t>
-  </si>
-  <si>
     <t>User76</t>
   </si>
   <si>
@@ -1033,9 +796,6 @@
     <t>user76@example.com</t>
   </si>
   <si>
-    <t>N077</t>
-  </si>
-  <si>
     <t>User77</t>
   </si>
   <si>
@@ -1045,9 +805,6 @@
     <t>user77@example.com</t>
   </si>
   <si>
-    <t>P078</t>
-  </si>
-  <si>
     <t>User78</t>
   </si>
   <si>
@@ -1057,9 +814,6 @@
     <t>user78@example.com</t>
   </si>
   <si>
-    <t>P079</t>
-  </si>
-  <si>
     <t>User79</t>
   </si>
   <si>
@@ -1069,9 +823,6 @@
     <t>user79@example.com</t>
   </si>
   <si>
-    <t>P080</t>
-  </si>
-  <si>
     <t>User80</t>
   </si>
   <si>
@@ -1081,9 +832,6 @@
     <t>user80@example.com</t>
   </si>
   <si>
-    <t>N081</t>
-  </si>
-  <si>
     <t>User81</t>
   </si>
   <si>
@@ -1093,9 +841,6 @@
     <t>user81@example.com</t>
   </si>
   <si>
-    <t>A082</t>
-  </si>
-  <si>
     <t>User82</t>
   </si>
   <si>
@@ -1105,9 +850,6 @@
     <t>user82@example.com</t>
   </si>
   <si>
-    <t>P083</t>
-  </si>
-  <si>
     <t>User83</t>
   </si>
   <si>
@@ -1117,9 +859,6 @@
     <t>user83@example.com</t>
   </si>
   <si>
-    <t>J084</t>
-  </si>
-  <si>
     <t>User84</t>
   </si>
   <si>
@@ -1129,9 +868,6 @@
     <t>user84@example.com</t>
   </si>
   <si>
-    <t>J085</t>
-  </si>
-  <si>
     <t>User85</t>
   </si>
   <si>
@@ -1141,9 +877,6 @@
     <t>user85@example.com</t>
   </si>
   <si>
-    <t>S086</t>
-  </si>
-  <si>
     <t>User86</t>
   </si>
   <si>
@@ -1153,9 +886,6 @@
     <t>user86@example.com</t>
   </si>
   <si>
-    <t>N087</t>
-  </si>
-  <si>
     <t>User87</t>
   </si>
   <si>
@@ -1165,9 +895,6 @@
     <t>user87@example.com</t>
   </si>
   <si>
-    <t>D088</t>
-  </si>
-  <si>
     <t>User88</t>
   </si>
   <si>
@@ -1177,9 +904,6 @@
     <t>user88@example.com</t>
   </si>
   <si>
-    <t>N089</t>
-  </si>
-  <si>
     <t>User89</t>
   </si>
   <si>
@@ -1189,9 +913,6 @@
     <t>user89@example.com</t>
   </si>
   <si>
-    <t>J090</t>
-  </si>
-  <si>
     <t>User90</t>
   </si>
   <si>
@@ -1201,9 +922,6 @@
     <t>user90@example.com</t>
   </si>
   <si>
-    <t>S091</t>
-  </si>
-  <si>
     <t>User91</t>
   </si>
   <si>
@@ -1213,9 +931,6 @@
     <t>user91@example.com</t>
   </si>
   <si>
-    <t>N092</t>
-  </si>
-  <si>
     <t>User92</t>
   </si>
   <si>
@@ -1225,9 +940,6 @@
     <t>user92@example.com</t>
   </si>
   <si>
-    <t>S093</t>
-  </si>
-  <si>
     <t>User93</t>
   </si>
   <si>
@@ -1237,9 +949,6 @@
     <t>user93@example.com</t>
   </si>
   <si>
-    <t>S094</t>
-  </si>
-  <si>
     <t>User94</t>
   </si>
   <si>
@@ -1249,9 +958,6 @@
     <t>user94@example.com</t>
   </si>
   <si>
-    <t>A095</t>
-  </si>
-  <si>
     <t>User95</t>
   </si>
   <si>
@@ -1261,9 +967,6 @@
     <t>user95@example.com</t>
   </si>
   <si>
-    <t>D096</t>
-  </si>
-  <si>
     <t>User96</t>
   </si>
   <si>
@@ -1273,9 +976,6 @@
     <t>user96@example.com</t>
   </si>
   <si>
-    <t>P097</t>
-  </si>
-  <si>
     <t>User97</t>
   </si>
   <si>
@@ -1285,9 +985,6 @@
     <t>user97@example.com</t>
   </si>
   <si>
-    <t>P098</t>
-  </si>
-  <si>
     <t>User98</t>
   </si>
   <si>
@@ -1297,9 +994,6 @@
     <t>user98@example.com</t>
   </si>
   <si>
-    <t>P099</t>
-  </si>
-  <si>
     <t>User99</t>
   </si>
   <si>
@@ -1309,9 +1003,6 @@
     <t>user99@example.com</t>
   </si>
   <si>
-    <t>A100</t>
-  </si>
-  <si>
     <t>User100</t>
   </si>
   <si>
@@ -1327,9 +1018,6 @@
     <t>HospitalID</t>
   </si>
   <si>
-    <t>TEST111</t>
-  </si>
-  <si>
     <t>TESTING</t>
   </si>
   <si>
@@ -1343,6 +1031,336 @@
   </si>
   <si>
     <t>Pwd124</t>
+  </si>
+  <si>
+    <t>H001</t>
+  </si>
+  <si>
+    <t>H002</t>
+  </si>
+  <si>
+    <t>H003</t>
+  </si>
+  <si>
+    <t>H004</t>
+  </si>
+  <si>
+    <t>H005</t>
+  </si>
+  <si>
+    <t>H006</t>
+  </si>
+  <si>
+    <t>H007</t>
+  </si>
+  <si>
+    <t>H008</t>
+  </si>
+  <si>
+    <t>H009</t>
+  </si>
+  <si>
+    <t>H010</t>
+  </si>
+  <si>
+    <t>H011</t>
+  </si>
+  <si>
+    <t>H012</t>
+  </si>
+  <si>
+    <t>H013</t>
+  </si>
+  <si>
+    <t>H014</t>
+  </si>
+  <si>
+    <t>H015</t>
+  </si>
+  <si>
+    <t>H016</t>
+  </si>
+  <si>
+    <t>H017</t>
+  </si>
+  <si>
+    <t>H018</t>
+  </si>
+  <si>
+    <t>H019</t>
+  </si>
+  <si>
+    <t>H020</t>
+  </si>
+  <si>
+    <t>H021</t>
+  </si>
+  <si>
+    <t>H022</t>
+  </si>
+  <si>
+    <t>H023</t>
+  </si>
+  <si>
+    <t>H024</t>
+  </si>
+  <si>
+    <t>H025</t>
+  </si>
+  <si>
+    <t>H026</t>
+  </si>
+  <si>
+    <t>H027</t>
+  </si>
+  <si>
+    <t>H028</t>
+  </si>
+  <si>
+    <t>H029</t>
+  </si>
+  <si>
+    <t>H030</t>
+  </si>
+  <si>
+    <t>H031</t>
+  </si>
+  <si>
+    <t>H032</t>
+  </si>
+  <si>
+    <t>H033</t>
+  </si>
+  <si>
+    <t>H034</t>
+  </si>
+  <si>
+    <t>H035</t>
+  </si>
+  <si>
+    <t>H036</t>
+  </si>
+  <si>
+    <t>H037</t>
+  </si>
+  <si>
+    <t>H038</t>
+  </si>
+  <si>
+    <t>H039</t>
+  </si>
+  <si>
+    <t>H040</t>
+  </si>
+  <si>
+    <t>H041</t>
+  </si>
+  <si>
+    <t>H042</t>
+  </si>
+  <si>
+    <t>H043</t>
+  </si>
+  <si>
+    <t>H044</t>
+  </si>
+  <si>
+    <t>H045</t>
+  </si>
+  <si>
+    <t>H046</t>
+  </si>
+  <si>
+    <t>H047</t>
+  </si>
+  <si>
+    <t>H048</t>
+  </si>
+  <si>
+    <t>H049</t>
+  </si>
+  <si>
+    <t>H050</t>
+  </si>
+  <si>
+    <t>H051</t>
+  </si>
+  <si>
+    <t>H052</t>
+  </si>
+  <si>
+    <t>H053</t>
+  </si>
+  <si>
+    <t>H054</t>
+  </si>
+  <si>
+    <t>H055</t>
+  </si>
+  <si>
+    <t>H056</t>
+  </si>
+  <si>
+    <t>H057</t>
+  </si>
+  <si>
+    <t>H058</t>
+  </si>
+  <si>
+    <t>H059</t>
+  </si>
+  <si>
+    <t>H060</t>
+  </si>
+  <si>
+    <t>H061</t>
+  </si>
+  <si>
+    <t>H062</t>
+  </si>
+  <si>
+    <t>H063</t>
+  </si>
+  <si>
+    <t>H064</t>
+  </si>
+  <si>
+    <t>H065</t>
+  </si>
+  <si>
+    <t>H066</t>
+  </si>
+  <si>
+    <t>H067</t>
+  </si>
+  <si>
+    <t>H068</t>
+  </si>
+  <si>
+    <t>H069</t>
+  </si>
+  <si>
+    <t>H070</t>
+  </si>
+  <si>
+    <t>H071</t>
+  </si>
+  <si>
+    <t>H072</t>
+  </si>
+  <si>
+    <t>H073</t>
+  </si>
+  <si>
+    <t>H074</t>
+  </si>
+  <si>
+    <t>H075</t>
+  </si>
+  <si>
+    <t>H076</t>
+  </si>
+  <si>
+    <t>H077</t>
+  </si>
+  <si>
+    <t>H078</t>
+  </si>
+  <si>
+    <t>H079</t>
+  </si>
+  <si>
+    <t>H080</t>
+  </si>
+  <si>
+    <t>H081</t>
+  </si>
+  <si>
+    <t>H082</t>
+  </si>
+  <si>
+    <t>H083</t>
+  </si>
+  <si>
+    <t>H084</t>
+  </si>
+  <si>
+    <t>H085</t>
+  </si>
+  <si>
+    <t>H086</t>
+  </si>
+  <si>
+    <t>H087</t>
+  </si>
+  <si>
+    <t>H088</t>
+  </si>
+  <si>
+    <t>H089</t>
+  </si>
+  <si>
+    <t>H090</t>
+  </si>
+  <si>
+    <t>H091</t>
+  </si>
+  <si>
+    <t>H092</t>
+  </si>
+  <si>
+    <t>H093</t>
+  </si>
+  <si>
+    <t>H094</t>
+  </si>
+  <si>
+    <t>H095</t>
+  </si>
+  <si>
+    <t>H096</t>
+  </si>
+  <si>
+    <t>H097</t>
+  </si>
+  <si>
+    <t>H098</t>
+  </si>
+  <si>
+    <t>H099</t>
+  </si>
+  <si>
+    <t>H100</t>
+  </si>
+  <si>
+    <t>H101</t>
+  </si>
+  <si>
+    <t>H102</t>
+  </si>
+  <si>
+    <t>H103</t>
+  </si>
+  <si>
+    <t>H104</t>
+  </si>
+  <si>
+    <t>H105</t>
+  </si>
+  <si>
+    <t>H106</t>
+  </si>
+  <si>
+    <t>Luke Skywalker</t>
+  </si>
+  <si>
+    <t>DrSkywalker</t>
+  </si>
+  <si>
+    <t>starwars</t>
+  </si>
+  <si>
+    <t>sky@walking.com</t>
   </si>
 </sst>
 </file>
@@ -1350,7 +1368,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1370,6 +1388,12 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1722,10 +1746,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I106"/>
+  <dimension ref="A1:I107"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B103" sqref="B103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1740,7 +1764,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>434</v>
+        <v>331</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1755,42 +1779,42 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s" s="0">
+        <v>337</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B2" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>8</v>
-      </c>
       <c r="D2" t="s" s="0">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E2" s="0">
         <v>45</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G2" t="s" s="0">
-        <v>433</v>
+        <v>330</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I2" s="0">
         <v>12345678</v>
@@ -1798,28 +1822,28 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s" s="0">
-        <v>5</v>
+        <v>338</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E3" s="0">
         <v>38</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G3" t="s" s="0">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I3" s="0">
         <v>12345679</v>
@@ -1827,28 +1851,28 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s" s="0">
-        <v>6</v>
+        <v>339</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E4" s="0">
         <v>29</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G4" t="s" s="0">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I4" s="0">
         <v>12345680</v>
@@ -1856,28 +1880,28 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s" s="0">
-        <v>7</v>
+        <v>340</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E5" s="0">
         <v>40</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G5" t="s" s="0">
-        <v>440</v>
+        <v>336</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I5" s="0">
         <v>12345681</v>
@@ -1885,28 +1909,28 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s" s="0">
-        <v>6</v>
+        <v>341</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E6" s="0">
         <v>65</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G6" t="s" s="0">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H6" t="s" s="0">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I6" s="0">
         <v>9458008</v>
@@ -1914,28 +1938,28 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s" s="0">
-        <v>34</v>
+        <v>342</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E7" s="0">
         <v>57</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G7" t="s" s="0">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H7" t="s" s="0">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="I7" s="0">
         <v>5406679</v>
@@ -1943,28 +1967,28 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s" s="0">
-        <v>38</v>
+        <v>343</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E8" s="0">
         <v>39</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G8" t="s" s="0">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H8" t="s" s="0">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="I8" s="0">
         <v>8020791</v>
@@ -1972,28 +1996,28 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s" s="0">
-        <v>42</v>
+        <v>344</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E9" s="0">
         <v>32</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G9" t="s" s="0">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H9" t="s" s="0">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="I9" s="0">
         <v>5720360</v>
@@ -2001,28 +2025,28 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s" s="0">
-        <v>46</v>
+        <v>345</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E10" s="0">
         <v>45</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G10" t="s" s="0">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H10" t="s" s="0">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="I10" s="0">
         <v>9507728</v>
@@ -2030,28 +2054,28 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s" s="0">
-        <v>50</v>
+        <v>346</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E11" s="0">
         <v>56</v>
       </c>
       <c r="F11" t="s" s="0">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G11" t="s" s="0">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H11" t="s" s="0">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="I11" s="0">
         <v>6810352</v>
@@ -2059,28 +2083,28 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s" s="0">
-        <v>54</v>
+        <v>347</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E12" s="0">
         <v>27</v>
       </c>
       <c r="F12" t="s" s="0">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="G12" t="s" s="0">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H12" t="s" s="0">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="I12" s="0">
         <v>5980041</v>
@@ -2088,28 +2112,28 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s" s="0">
-        <v>58</v>
+        <v>348</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E13" s="0">
         <v>29</v>
       </c>
       <c r="F13" t="s" s="0">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="G13" t="s" s="0">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H13" t="s" s="0">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="I13" s="0">
         <v>5130769</v>
@@ -2117,28 +2141,28 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s" s="0">
-        <v>63</v>
+        <v>349</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E14" s="0">
         <v>34</v>
       </c>
       <c r="F14" t="s" s="0">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="G14" t="s" s="0">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H14" t="s" s="0">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="I14" s="0">
         <v>4446176</v>
@@ -2146,28 +2170,28 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s" s="0">
-        <v>67</v>
+        <v>350</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E15" s="0">
         <v>52</v>
       </c>
       <c r="F15" t="s" s="0">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="G15" t="s" s="0">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H15" t="s" s="0">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="I15" s="0">
         <v>3504139</v>
@@ -2175,28 +2199,28 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s" s="0">
-        <v>72</v>
+        <v>351</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E16" s="0">
         <v>43</v>
       </c>
       <c r="F16" t="s" s="0">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="G16" t="s" s="0">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H16" t="s" s="0">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="I16" s="0">
         <v>3882465</v>
@@ -2204,28 +2228,28 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s" s="0">
-        <v>76</v>
+        <v>352</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E17" s="0">
         <v>38</v>
       </c>
       <c r="F17" t="s" s="0">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="G17" t="s" s="0">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H17" t="s" s="0">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="I17" s="0">
         <v>6209898</v>
@@ -2233,28 +2257,28 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s" s="0">
-        <v>80</v>
+        <v>353</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E18" s="0">
         <v>55</v>
       </c>
       <c r="F18" t="s" s="0">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="G18" t="s" s="0">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H18" t="s" s="0">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="I18" s="0">
         <v>9214791</v>
@@ -2262,28 +2286,28 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s" s="0">
-        <v>84</v>
+        <v>354</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E19" s="0">
         <v>53</v>
       </c>
       <c r="F19" t="s" s="0">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="G19" t="s" s="0">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H19" t="s" s="0">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="I19" s="0">
         <v>8179935</v>
@@ -2291,28 +2315,28 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s" s="0">
-        <v>88</v>
+        <v>355</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E20" s="0">
         <v>25</v>
       </c>
       <c r="F20" t="s" s="0">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="G20" t="s" s="0">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H20" t="s" s="0">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="I20" s="0">
         <v>3023232</v>
@@ -2320,28 +2344,28 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s" s="0">
-        <v>92</v>
+        <v>356</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E21" s="0">
         <v>58</v>
       </c>
       <c r="F21" t="s" s="0">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="G21" t="s" s="0">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H21" t="s" s="0">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="I21" s="0">
         <v>6607521</v>
@@ -2349,28 +2373,28 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s" s="0">
-        <v>96</v>
+        <v>357</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E22" s="0">
         <v>47</v>
       </c>
       <c r="F22" t="s" s="0">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="G22" t="s" s="0">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H22" t="s" s="0">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="I22" s="0">
         <v>4855587</v>
@@ -2378,28 +2402,28 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s" s="0">
-        <v>100</v>
+        <v>358</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E23" s="0">
         <v>27</v>
       </c>
       <c r="F23" t="s" s="0">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="G23" t="s" s="0">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H23" t="s" s="0">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="I23" s="0">
         <v>5043744</v>
@@ -2407,28 +2431,28 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s" s="0">
-        <v>104</v>
+        <v>359</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E24" s="0">
         <v>23</v>
       </c>
       <c r="F24" t="s" s="0">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="G24" t="s" s="0">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H24" t="s" s="0">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="I24" s="0">
         <v>6914894</v>
@@ -2436,28 +2460,28 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s" s="0">
-        <v>108</v>
+        <v>360</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E25" s="0">
         <v>65</v>
       </c>
       <c r="F25" t="s" s="0">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="G25" t="s" s="0">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H25" t="s" s="0">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="I25" s="0">
         <v>5176574</v>
@@ -2465,28 +2489,28 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s" s="0">
-        <v>112</v>
+        <v>361</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E26" s="0">
         <v>38</v>
       </c>
       <c r="F26" t="s" s="0">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="G26" t="s" s="0">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H26" t="s" s="0">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="I26" s="0">
         <v>5994982</v>
@@ -2494,28 +2518,28 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s" s="0">
-        <v>116</v>
+        <v>362</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>117</v>
+        <v>92</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="D27" t="s" s="0">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E27" s="0">
         <v>29</v>
       </c>
       <c r="F27" t="s" s="0">
-        <v>119</v>
+        <v>94</v>
       </c>
       <c r="G27" t="s" s="0">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H27" t="s" s="0">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="I27" s="0">
         <v>2026262</v>
@@ -2523,28 +2547,28 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s" s="0">
-        <v>121</v>
+        <v>363</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D28" t="s" s="0">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E28" s="0">
         <v>28</v>
       </c>
       <c r="F28" t="s" s="0">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="G28" t="s" s="0">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H28" t="s" s="0">
-        <v>124</v>
+        <v>98</v>
       </c>
       <c r="I28" s="0">
         <v>5788254</v>
@@ -2552,28 +2576,28 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s" s="0">
-        <v>125</v>
+        <v>364</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>126</v>
+        <v>99</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="D29" t="s" s="0">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E29" s="0">
         <v>54</v>
       </c>
       <c r="F29" t="s" s="0">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="G29" t="s" s="0">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H29" t="s" s="0">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="I29" s="0">
         <v>3073034</v>
@@ -2581,28 +2605,28 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s" s="0">
-        <v>129</v>
+        <v>365</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D30" t="s" s="0">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E30" s="0">
         <v>22</v>
       </c>
       <c r="F30" t="s" s="0">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="G30" t="s" s="0">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H30" t="s" s="0">
-        <v>132</v>
+        <v>104</v>
       </c>
       <c r="I30" s="0">
         <v>3512882</v>
@@ -2610,28 +2634,28 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s" s="0">
-        <v>133</v>
+        <v>366</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>134</v>
+        <v>105</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="D31" t="s" s="0">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E31" s="0">
         <v>31</v>
       </c>
       <c r="F31" t="s" s="0">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="G31" t="s" s="0">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H31" t="s" s="0">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="I31" s="0">
         <v>3869738</v>
@@ -2639,28 +2663,28 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s" s="0">
-        <v>137</v>
+        <v>367</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>138</v>
+        <v>108</v>
       </c>
       <c r="C32" t="s" s="0">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D32" t="s" s="0">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E32" s="0">
         <v>28</v>
       </c>
       <c r="F32" t="s" s="0">
-        <v>139</v>
+        <v>109</v>
       </c>
       <c r="G32" t="s" s="0">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H32" t="s" s="0">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="I32" s="0">
         <v>1222647</v>
@@ -2668,28 +2692,28 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s" s="0">
-        <v>141</v>
+        <v>368</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>142</v>
+        <v>111</v>
       </c>
       <c r="C33" t="s" s="0">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D33" t="s" s="0">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E33" s="0">
         <v>60</v>
       </c>
       <c r="F33" t="s" s="0">
-        <v>143</v>
+        <v>112</v>
       </c>
       <c r="G33" t="s" s="0">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H33" t="s" s="0">
-        <v>144</v>
+        <v>113</v>
       </c>
       <c r="I33" s="0">
         <v>7437675</v>
@@ -2697,28 +2721,28 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s" s="0">
-        <v>145</v>
+        <v>369</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>146</v>
+        <v>114</v>
       </c>
       <c r="C34" t="s" s="0">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="D34" t="s" s="0">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E34" s="0">
         <v>51</v>
       </c>
       <c r="F34" t="s" s="0">
-        <v>147</v>
+        <v>115</v>
       </c>
       <c r="G34" t="s" s="0">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H34" t="s" s="0">
-        <v>148</v>
+        <v>116</v>
       </c>
       <c r="I34" s="0">
         <v>5991621</v>
@@ -2726,28 +2750,28 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s" s="0">
-        <v>149</v>
+        <v>370</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>150</v>
+        <v>117</v>
       </c>
       <c r="C35" t="s" s="0">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D35" t="s" s="0">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E35" s="0">
         <v>57</v>
       </c>
       <c r="F35" t="s" s="0">
-        <v>151</v>
+        <v>118</v>
       </c>
       <c r="G35" t="s" s="0">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H35" t="s" s="0">
-        <v>152</v>
+        <v>119</v>
       </c>
       <c r="I35" s="0">
         <v>2673449</v>
@@ -2755,28 +2779,28 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s" s="0">
-        <v>153</v>
+        <v>371</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>154</v>
+        <v>120</v>
       </c>
       <c r="C36" t="s" s="0">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D36" t="s" s="0">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E36" s="0">
         <v>41</v>
       </c>
       <c r="F36" t="s" s="0">
-        <v>155</v>
+        <v>121</v>
       </c>
       <c r="G36" t="s" s="0">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H36" t="s" s="0">
-        <v>156</v>
+        <v>122</v>
       </c>
       <c r="I36" s="0">
         <v>5414099</v>
@@ -2784,28 +2808,28 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s" s="0">
-        <v>157</v>
+        <v>372</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>158</v>
+        <v>123</v>
       </c>
       <c r="C37" t="s" s="0">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D37" t="s" s="0">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E37" s="0">
         <v>65</v>
       </c>
       <c r="F37" t="s" s="0">
-        <v>159</v>
+        <v>124</v>
       </c>
       <c r="G37" t="s" s="0">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H37" t="s" s="0">
-        <v>160</v>
+        <v>125</v>
       </c>
       <c r="I37" s="0">
         <v>1591806</v>
@@ -2813,28 +2837,28 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s" s="0">
-        <v>161</v>
+        <v>373</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>162</v>
+        <v>126</v>
       </c>
       <c r="C38" t="s" s="0">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D38" t="s" s="0">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E38" s="0">
         <v>34</v>
       </c>
       <c r="F38" t="s" s="0">
-        <v>163</v>
+        <v>127</v>
       </c>
       <c r="G38" t="s" s="0">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H38" t="s" s="0">
-        <v>164</v>
+        <v>128</v>
       </c>
       <c r="I38" s="0">
         <v>5440842</v>
@@ -2842,28 +2866,28 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s" s="0">
-        <v>165</v>
+        <v>374</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>166</v>
+        <v>129</v>
       </c>
       <c r="C39" t="s" s="0">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="D39" t="s" s="0">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E39" s="0">
         <v>39</v>
       </c>
       <c r="F39" t="s" s="0">
-        <v>167</v>
+        <v>130</v>
       </c>
       <c r="G39" t="s" s="0">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H39" t="s" s="0">
-        <v>168</v>
+        <v>131</v>
       </c>
       <c r="I39" s="0">
         <v>5123903</v>
@@ -2871,28 +2895,28 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s" s="0">
-        <v>169</v>
+        <v>375</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>170</v>
+        <v>132</v>
       </c>
       <c r="C40" t="s" s="0">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="D40" t="s" s="0">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E40" s="0">
         <v>30</v>
       </c>
       <c r="F40" t="s" s="0">
-        <v>171</v>
+        <v>133</v>
       </c>
       <c r="G40" t="s" s="0">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H40" t="s" s="0">
-        <v>172</v>
+        <v>134</v>
       </c>
       <c r="I40" s="0">
         <v>8419913</v>
@@ -2900,28 +2924,28 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s" s="0">
-        <v>173</v>
+        <v>376</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>174</v>
+        <v>135</v>
       </c>
       <c r="C41" t="s" s="0">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D41" t="s" s="0">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E41" s="0">
         <v>53</v>
       </c>
       <c r="F41" t="s" s="0">
-        <v>175</v>
+        <v>136</v>
       </c>
       <c r="G41" t="s" s="0">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H41" t="s" s="0">
-        <v>176</v>
+        <v>137</v>
       </c>
       <c r="I41" s="0">
         <v>2541769</v>
@@ -2929,28 +2953,28 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s" s="0">
-        <v>177</v>
+        <v>377</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>178</v>
+        <v>138</v>
       </c>
       <c r="C42" t="s" s="0">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="D42" t="s" s="0">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E42" s="0">
         <v>42</v>
       </c>
       <c r="F42" t="s" s="0">
-        <v>179</v>
+        <v>139</v>
       </c>
       <c r="G42" t="s" s="0">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H42" t="s" s="0">
-        <v>180</v>
+        <v>140</v>
       </c>
       <c r="I42" s="0">
         <v>3301311</v>
@@ -2958,28 +2982,28 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s" s="0">
-        <v>181</v>
+        <v>378</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>182</v>
+        <v>141</v>
       </c>
       <c r="C43" t="s" s="0">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="D43" t="s" s="0">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E43" s="0">
         <v>61</v>
       </c>
       <c r="F43" t="s" s="0">
-        <v>183</v>
+        <v>142</v>
       </c>
       <c r="G43" t="s" s="0">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H43" t="s" s="0">
-        <v>184</v>
+        <v>143</v>
       </c>
       <c r="I43" s="0">
         <v>3901307</v>
@@ -2987,28 +3011,28 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s" s="0">
-        <v>185</v>
+        <v>379</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>186</v>
+        <v>144</v>
       </c>
       <c r="C44" t="s" s="0">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="D44" t="s" s="0">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E44" s="0">
         <v>45</v>
       </c>
       <c r="F44" t="s" s="0">
-        <v>187</v>
+        <v>145</v>
       </c>
       <c r="G44" t="s" s="0">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H44" t="s" s="0">
-        <v>188</v>
+        <v>146</v>
       </c>
       <c r="I44" s="0">
         <v>8507627</v>
@@ -3016,28 +3040,28 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s" s="0">
-        <v>189</v>
+        <v>380</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>190</v>
+        <v>147</v>
       </c>
       <c r="C45" t="s" s="0">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D45" t="s" s="0">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E45" s="0">
         <v>22</v>
       </c>
       <c r="F45" t="s" s="0">
-        <v>191</v>
+        <v>148</v>
       </c>
       <c r="G45" t="s" s="0">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H45" t="s" s="0">
-        <v>192</v>
+        <v>149</v>
       </c>
       <c r="I45" s="0">
         <v>6247756</v>
@@ -3045,28 +3069,28 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s" s="0">
-        <v>193</v>
+        <v>381</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>194</v>
+        <v>150</v>
       </c>
       <c r="C46" t="s" s="0">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="D46" t="s" s="0">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E46" s="0">
         <v>62</v>
       </c>
       <c r="F46" t="s" s="0">
-        <v>195</v>
+        <v>151</v>
       </c>
       <c r="G46" t="s" s="0">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H46" t="s" s="0">
-        <v>196</v>
+        <v>152</v>
       </c>
       <c r="I46" s="0">
         <v>7799558</v>
@@ -3074,28 +3098,28 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s" s="0">
-        <v>197</v>
+        <v>382</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>198</v>
+        <v>153</v>
       </c>
       <c r="C47" t="s" s="0">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="D47" t="s" s="0">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E47" s="0">
         <v>57</v>
       </c>
       <c r="F47" t="s" s="0">
-        <v>199</v>
+        <v>154</v>
       </c>
       <c r="G47" t="s" s="0">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H47" t="s" s="0">
-        <v>200</v>
+        <v>155</v>
       </c>
       <c r="I47" s="0">
         <v>6846085</v>
@@ -3103,28 +3127,28 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s" s="0">
-        <v>201</v>
+        <v>383</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>202</v>
+        <v>156</v>
       </c>
       <c r="C48" t="s" s="0">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D48" t="s" s="0">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E48" s="0">
         <v>64</v>
       </c>
       <c r="F48" t="s" s="0">
-        <v>203</v>
+        <v>157</v>
       </c>
       <c r="G48" t="s" s="0">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H48" t="s" s="0">
-        <v>204</v>
+        <v>158</v>
       </c>
       <c r="I48" s="0">
         <v>3002894</v>
@@ -3132,28 +3156,28 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s" s="0">
-        <v>205</v>
+        <v>384</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>206</v>
+        <v>159</v>
       </c>
       <c r="C49" t="s" s="0">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D49" t="s" s="0">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E49" s="0">
         <v>65</v>
       </c>
       <c r="F49" t="s" s="0">
-        <v>207</v>
+        <v>160</v>
       </c>
       <c r="G49" t="s" s="0">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H49" t="s" s="0">
-        <v>208</v>
+        <v>161</v>
       </c>
       <c r="I49" s="0">
         <v>8576374</v>
@@ -3161,28 +3185,28 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s" s="0">
-        <v>209</v>
+        <v>385</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>210</v>
+        <v>162</v>
       </c>
       <c r="C50" t="s" s="0">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="D50" t="s" s="0">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E50" s="0">
         <v>50</v>
       </c>
       <c r="F50" t="s" s="0">
-        <v>211</v>
+        <v>163</v>
       </c>
       <c r="G50" t="s" s="0">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H50" t="s" s="0">
-        <v>212</v>
+        <v>164</v>
       </c>
       <c r="I50" s="0">
         <v>6839229</v>
@@ -3190,28 +3214,28 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s" s="0">
-        <v>213</v>
+        <v>386</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>214</v>
+        <v>165</v>
       </c>
       <c r="C51" t="s" s="0">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D51" t="s" s="0">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E51" s="0">
         <v>46</v>
       </c>
       <c r="F51" t="s" s="0">
-        <v>215</v>
+        <v>166</v>
       </c>
       <c r="G51" t="s" s="0">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H51" t="s" s="0">
-        <v>216</v>
+        <v>167</v>
       </c>
       <c r="I51" s="0">
         <v>1833341</v>
@@ -3219,28 +3243,28 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s" s="0">
-        <v>217</v>
+        <v>387</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>218</v>
+        <v>168</v>
       </c>
       <c r="C52" t="s" s="0">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="D52" t="s" s="0">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E52" s="0">
         <v>52</v>
       </c>
       <c r="F52" t="s" s="0">
-        <v>219</v>
+        <v>169</v>
       </c>
       <c r="G52" t="s" s="0">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H52" t="s" s="0">
-        <v>220</v>
+        <v>170</v>
       </c>
       <c r="I52" s="0">
         <v>5945914</v>
@@ -3248,28 +3272,28 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s" s="0">
-        <v>221</v>
+        <v>388</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>222</v>
+        <v>171</v>
       </c>
       <c r="C53" t="s" s="0">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D53" t="s" s="0">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E53" s="0">
         <v>44</v>
       </c>
       <c r="F53" t="s" s="0">
-        <v>223</v>
+        <v>172</v>
       </c>
       <c r="G53" t="s" s="0">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H53" t="s" s="0">
-        <v>224</v>
+        <v>173</v>
       </c>
       <c r="I53" s="0">
         <v>3101456</v>
@@ -3277,28 +3301,28 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s" s="0">
-        <v>225</v>
+        <v>389</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>226</v>
+        <v>174</v>
       </c>
       <c r="C54" t="s" s="0">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D54" t="s" s="0">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E54" s="0">
         <v>59</v>
       </c>
       <c r="F54" t="s" s="0">
-        <v>227</v>
+        <v>175</v>
       </c>
       <c r="G54" t="s" s="0">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H54" t="s" s="0">
-        <v>228</v>
+        <v>176</v>
       </c>
       <c r="I54" s="0">
         <v>8790582</v>
@@ -3306,28 +3330,28 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s" s="0">
-        <v>229</v>
+        <v>390</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>230</v>
+        <v>177</v>
       </c>
       <c r="C55" t="s" s="0">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D55" t="s" s="0">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E55" s="0">
         <v>41</v>
       </c>
       <c r="F55" t="s" s="0">
-        <v>231</v>
+        <v>178</v>
       </c>
       <c r="G55" t="s" s="0">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H55" t="s" s="0">
-        <v>232</v>
+        <v>179</v>
       </c>
       <c r="I55" s="0">
         <v>7076399</v>
@@ -3335,28 +3359,28 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s" s="0">
-        <v>233</v>
+        <v>391</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>234</v>
+        <v>180</v>
       </c>
       <c r="C56" t="s" s="0">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="D56" t="s" s="0">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E56" s="0">
         <v>23</v>
       </c>
       <c r="F56" t="s" s="0">
-        <v>235</v>
+        <v>181</v>
       </c>
       <c r="G56" t="s" s="0">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H56" t="s" s="0">
-        <v>236</v>
+        <v>182</v>
       </c>
       <c r="I56" s="0">
         <v>5581452</v>
@@ -3364,28 +3388,28 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s" s="0">
-        <v>237</v>
+        <v>392</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>238</v>
+        <v>183</v>
       </c>
       <c r="C57" t="s" s="0">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="D57" t="s" s="0">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E57" s="0">
         <v>22</v>
       </c>
       <c r="F57" t="s" s="0">
-        <v>239</v>
+        <v>184</v>
       </c>
       <c r="G57" t="s" s="0">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H57" t="s" s="0">
-        <v>240</v>
+        <v>185</v>
       </c>
       <c r="I57" s="0">
         <v>3474559</v>
@@ -3393,28 +3417,28 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s" s="0">
-        <v>241</v>
+        <v>393</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>242</v>
+        <v>186</v>
       </c>
       <c r="C58" t="s" s="0">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="D58" t="s" s="0">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E58" s="0">
         <v>28</v>
       </c>
       <c r="F58" t="s" s="0">
-        <v>243</v>
+        <v>187</v>
       </c>
       <c r="G58" t="s" s="0">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H58" t="s" s="0">
-        <v>244</v>
+        <v>188</v>
       </c>
       <c r="I58" s="0">
         <v>3873886</v>
@@ -3422,28 +3446,28 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s" s="0">
-        <v>245</v>
+        <v>394</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>246</v>
+        <v>189</v>
       </c>
       <c r="C59" t="s" s="0">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="D59" t="s" s="0">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E59" s="0">
         <v>30</v>
       </c>
       <c r="F59" t="s" s="0">
-        <v>247</v>
+        <v>190</v>
       </c>
       <c r="G59" t="s" s="0">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H59" t="s" s="0">
-        <v>248</v>
+        <v>191</v>
       </c>
       <c r="I59" s="0">
         <v>3607945</v>
@@ -3451,28 +3475,28 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s" s="0">
-        <v>249</v>
+        <v>395</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>250</v>
+        <v>192</v>
       </c>
       <c r="C60" t="s" s="0">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D60" t="s" s="0">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E60" s="0">
         <v>55</v>
       </c>
       <c r="F60" t="s" s="0">
-        <v>251</v>
+        <v>193</v>
       </c>
       <c r="G60" t="s" s="0">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H60" t="s" s="0">
-        <v>252</v>
+        <v>194</v>
       </c>
       <c r="I60" s="0">
         <v>5903486</v>
@@ -3480,28 +3504,28 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s" s="0">
-        <v>253</v>
+        <v>396</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>254</v>
+        <v>195</v>
       </c>
       <c r="C61" t="s" s="0">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D61" t="s" s="0">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E61" s="0">
         <v>31</v>
       </c>
       <c r="F61" t="s" s="0">
-        <v>255</v>
+        <v>196</v>
       </c>
       <c r="G61" t="s" s="0">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H61" t="s" s="0">
-        <v>256</v>
+        <v>197</v>
       </c>
       <c r="I61" s="0">
         <v>6280079</v>
@@ -3509,28 +3533,28 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s" s="0">
-        <v>257</v>
+        <v>397</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>258</v>
+        <v>198</v>
       </c>
       <c r="C62" t="s" s="0">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="D62" t="s" s="0">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E62" s="0">
         <v>34</v>
       </c>
       <c r="F62" t="s" s="0">
-        <v>259</v>
+        <v>199</v>
       </c>
       <c r="G62" t="s" s="0">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H62" t="s" s="0">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="I62" s="0">
         <v>9217628</v>
@@ -3538,28 +3562,28 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s" s="0">
-        <v>261</v>
+        <v>398</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>262</v>
+        <v>201</v>
       </c>
       <c r="C63" t="s" s="0">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="D63" t="s" s="0">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E63" s="0">
         <v>55</v>
       </c>
       <c r="F63" t="s" s="0">
-        <v>263</v>
+        <v>202</v>
       </c>
       <c r="G63" t="s" s="0">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H63" t="s" s="0">
-        <v>264</v>
+        <v>203</v>
       </c>
       <c r="I63" s="0">
         <v>1894489</v>
@@ -3567,28 +3591,28 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s" s="0">
-        <v>265</v>
+        <v>399</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>266</v>
+        <v>204</v>
       </c>
       <c r="C64" t="s" s="0">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D64" t="s" s="0">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E64" s="0">
         <v>65</v>
       </c>
       <c r="F64" t="s" s="0">
-        <v>267</v>
+        <v>205</v>
       </c>
       <c r="G64" t="s" s="0">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H64" t="s" s="0">
-        <v>268</v>
+        <v>206</v>
       </c>
       <c r="I64" s="0">
         <v>7076473</v>
@@ -3596,28 +3620,28 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s" s="0">
-        <v>269</v>
+        <v>400</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>270</v>
+        <v>207</v>
       </c>
       <c r="C65" t="s" s="0">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="D65" t="s" s="0">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E65" s="0">
         <v>56</v>
       </c>
       <c r="F65" t="s" s="0">
-        <v>271</v>
+        <v>208</v>
       </c>
       <c r="G65" t="s" s="0">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H65" t="s" s="0">
-        <v>272</v>
+        <v>209</v>
       </c>
       <c r="I65" s="0">
         <v>8890120</v>
@@ -3625,28 +3649,28 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s" s="0">
-        <v>273</v>
+        <v>401</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>274</v>
+        <v>210</v>
       </c>
       <c r="C66" t="s" s="0">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D66" t="s" s="0">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E66" s="0">
         <v>34</v>
       </c>
       <c r="F66" t="s" s="0">
-        <v>275</v>
+        <v>211</v>
       </c>
       <c r="G66" t="s" s="0">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H66" t="s" s="0">
-        <v>276</v>
+        <v>212</v>
       </c>
       <c r="I66" s="0">
         <v>1822054</v>
@@ -3654,28 +3678,28 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s" s="0">
-        <v>277</v>
+        <v>402</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>278</v>
+        <v>213</v>
       </c>
       <c r="C67" t="s" s="0">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="D67" t="s" s="0">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E67" s="0">
         <v>63</v>
       </c>
       <c r="F67" t="s" s="0">
-        <v>279</v>
+        <v>214</v>
       </c>
       <c r="G67" t="s" s="0">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H67" t="s" s="0">
-        <v>280</v>
+        <v>215</v>
       </c>
       <c r="I67" s="0">
         <v>3713226</v>
@@ -3683,28 +3707,28 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s" s="0">
-        <v>281</v>
+        <v>403</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>282</v>
+        <v>216</v>
       </c>
       <c r="C68" t="s" s="0">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="D68" t="s" s="0">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E68" s="0">
         <v>49</v>
       </c>
       <c r="F68" t="s" s="0">
-        <v>283</v>
+        <v>217</v>
       </c>
       <c r="G68" t="s" s="0">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H68" t="s" s="0">
-        <v>284</v>
+        <v>218</v>
       </c>
       <c r="I68" s="0">
         <v>4900839</v>
@@ -3712,28 +3736,28 @@
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s" s="0">
-        <v>285</v>
+        <v>404</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>286</v>
+        <v>219</v>
       </c>
       <c r="C69" t="s" s="0">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="D69" t="s" s="0">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E69" s="0">
         <v>22</v>
       </c>
       <c r="F69" t="s" s="0">
-        <v>287</v>
+        <v>220</v>
       </c>
       <c r="G69" t="s" s="0">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H69" t="s" s="0">
-        <v>288</v>
+        <v>221</v>
       </c>
       <c r="I69" s="0">
         <v>8613278</v>
@@ -3741,28 +3765,28 @@
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s" s="0">
-        <v>289</v>
+        <v>405</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>290</v>
+        <v>222</v>
       </c>
       <c r="C70" t="s" s="0">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D70" t="s" s="0">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E70" s="0">
         <v>57</v>
       </c>
       <c r="F70" t="s" s="0">
-        <v>291</v>
+        <v>223</v>
       </c>
       <c r="G70" t="s" s="0">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H70" t="s" s="0">
-        <v>292</v>
+        <v>224</v>
       </c>
       <c r="I70" s="0">
         <v>1890269</v>
@@ -3770,28 +3794,28 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s" s="0">
-        <v>293</v>
+        <v>406</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>294</v>
+        <v>225</v>
       </c>
       <c r="C71" t="s" s="0">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="D71" t="s" s="0">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E71" s="0">
         <v>29</v>
       </c>
       <c r="F71" t="s" s="0">
-        <v>295</v>
+        <v>226</v>
       </c>
       <c r="G71" t="s" s="0">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H71" t="s" s="0">
-        <v>296</v>
+        <v>227</v>
       </c>
       <c r="I71" s="0">
         <v>2552925</v>
@@ -3799,28 +3823,28 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s" s="0">
-        <v>297</v>
+        <v>407</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>298</v>
+        <v>228</v>
       </c>
       <c r="C72" t="s" s="0">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="D72" t="s" s="0">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E72" s="0">
         <v>60</v>
       </c>
       <c r="F72" t="s" s="0">
-        <v>299</v>
+        <v>229</v>
       </c>
       <c r="G72" t="s" s="0">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H72" t="s" s="0">
-        <v>300</v>
+        <v>230</v>
       </c>
       <c r="I72" s="0">
         <v>6822517</v>
@@ -3828,28 +3852,28 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s" s="0">
-        <v>301</v>
+        <v>408</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>302</v>
+        <v>231</v>
       </c>
       <c r="C73" t="s" s="0">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D73" t="s" s="0">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E73" s="0">
         <v>44</v>
       </c>
       <c r="F73" t="s" s="0">
-        <v>303</v>
+        <v>232</v>
       </c>
       <c r="G73" t="s" s="0">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H73" t="s" s="0">
-        <v>304</v>
+        <v>233</v>
       </c>
       <c r="I73" s="0">
         <v>7665699</v>
@@ -3857,28 +3881,28 @@
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s" s="0">
-        <v>305</v>
+        <v>409</v>
       </c>
       <c r="B74" t="s" s="0">
-        <v>306</v>
+        <v>234</v>
       </c>
       <c r="C74" t="s" s="0">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D74" t="s" s="0">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E74" s="0">
         <v>43</v>
       </c>
       <c r="F74" t="s" s="0">
-        <v>307</v>
+        <v>235</v>
       </c>
       <c r="G74" t="s" s="0">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H74" t="s" s="0">
-        <v>308</v>
+        <v>236</v>
       </c>
       <c r="I74" s="0">
         <v>5533098</v>
@@ -3886,28 +3910,28 @@
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s" s="0">
-        <v>309</v>
+        <v>410</v>
       </c>
       <c r="B75" t="s" s="0">
-        <v>310</v>
+        <v>237</v>
       </c>
       <c r="C75" t="s" s="0">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D75" t="s" s="0">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E75" s="0">
         <v>48</v>
       </c>
       <c r="F75" t="s" s="0">
-        <v>311</v>
+        <v>238</v>
       </c>
       <c r="G75" t="s" s="0">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H75" t="s" s="0">
-        <v>312</v>
+        <v>239</v>
       </c>
       <c r="I75" s="0">
         <v>2818715</v>
@@ -3915,28 +3939,28 @@
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s" s="0">
-        <v>313</v>
+        <v>411</v>
       </c>
       <c r="B76" t="s" s="0">
-        <v>314</v>
+        <v>240</v>
       </c>
       <c r="C76" t="s" s="0">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="D76" t="s" s="0">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E76" s="0">
         <v>55</v>
       </c>
       <c r="F76" t="s" s="0">
-        <v>315</v>
+        <v>241</v>
       </c>
       <c r="G76" t="s" s="0">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H76" t="s" s="0">
-        <v>316</v>
+        <v>242</v>
       </c>
       <c r="I76" s="0">
         <v>6021521</v>
@@ -3944,28 +3968,28 @@
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s" s="0">
-        <v>317</v>
+        <v>412</v>
       </c>
       <c r="B77" t="s" s="0">
-        <v>318</v>
+        <v>243</v>
       </c>
       <c r="C77" t="s" s="0">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="D77" t="s" s="0">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E77" s="0">
         <v>62</v>
       </c>
       <c r="F77" t="s" s="0">
-        <v>319</v>
+        <v>244</v>
       </c>
       <c r="G77" t="s" s="0">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H77" t="s" s="0">
-        <v>320</v>
+        <v>245</v>
       </c>
       <c r="I77" s="0">
         <v>6574157</v>
@@ -3973,28 +3997,28 @@
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s" s="0">
-        <v>321</v>
+        <v>413</v>
       </c>
       <c r="B78" t="s" s="0">
-        <v>322</v>
+        <v>246</v>
       </c>
       <c r="C78" t="s" s="0">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D78" t="s" s="0">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E78" s="0">
         <v>50</v>
       </c>
       <c r="F78" t="s" s="0">
-        <v>323</v>
+        <v>247</v>
       </c>
       <c r="G78" t="s" s="0">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H78" t="s" s="0">
-        <v>324</v>
+        <v>248</v>
       </c>
       <c r="I78" s="0">
         <v>2683176</v>
@@ -4002,28 +4026,28 @@
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s" s="0">
-        <v>325</v>
+        <v>414</v>
       </c>
       <c r="B79" t="s" s="0">
-        <v>326</v>
+        <v>249</v>
       </c>
       <c r="C79" t="s" s="0">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D79" t="s" s="0">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E79" s="0">
         <v>22</v>
       </c>
       <c r="F79" t="s" s="0">
-        <v>327</v>
+        <v>250</v>
       </c>
       <c r="G79" t="s" s="0">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H79" t="s" s="0">
-        <v>328</v>
+        <v>251</v>
       </c>
       <c r="I79" s="0">
         <v>7083693</v>
@@ -4031,28 +4055,28 @@
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s" s="0">
-        <v>329</v>
+        <v>415</v>
       </c>
       <c r="B80" t="s" s="0">
-        <v>330</v>
+        <v>252</v>
       </c>
       <c r="C80" t="s" s="0">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="D80" t="s" s="0">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E80" s="0">
         <v>46</v>
       </c>
       <c r="F80" t="s" s="0">
-        <v>331</v>
+        <v>253</v>
       </c>
       <c r="G80" t="s" s="0">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H80" t="s" s="0">
-        <v>332</v>
+        <v>254</v>
       </c>
       <c r="I80" s="0">
         <v>5228382</v>
@@ -4060,28 +4084,28 @@
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s" s="0">
-        <v>333</v>
+        <v>416</v>
       </c>
       <c r="B81" t="s" s="0">
-        <v>334</v>
+        <v>255</v>
       </c>
       <c r="C81" t="s" s="0">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D81" t="s" s="0">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E81" s="0">
         <v>40</v>
       </c>
       <c r="F81" t="s" s="0">
-        <v>335</v>
+        <v>256</v>
       </c>
       <c r="G81" t="s" s="0">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H81" t="s" s="0">
-        <v>336</v>
+        <v>257</v>
       </c>
       <c r="I81" s="0">
         <v>2740643</v>
@@ -4089,28 +4113,28 @@
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s" s="0">
-        <v>337</v>
+        <v>417</v>
       </c>
       <c r="B82" t="s" s="0">
-        <v>338</v>
+        <v>258</v>
       </c>
       <c r="C82" t="s" s="0">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="D82" t="s" s="0">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E82" s="0">
         <v>54</v>
       </c>
       <c r="F82" t="s" s="0">
-        <v>339</v>
+        <v>259</v>
       </c>
       <c r="G82" t="s" s="0">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H82" t="s" s="0">
-        <v>340</v>
+        <v>260</v>
       </c>
       <c r="I82" s="0">
         <v>7961296</v>
@@ -4118,28 +4142,28 @@
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s" s="0">
-        <v>341</v>
+        <v>418</v>
       </c>
       <c r="B83" t="s" s="0">
-        <v>342</v>
+        <v>261</v>
       </c>
       <c r="C83" t="s" s="0">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D83" t="s" s="0">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E83" s="0">
         <v>33</v>
       </c>
       <c r="F83" t="s" s="0">
-        <v>343</v>
+        <v>262</v>
       </c>
       <c r="G83" t="s" s="0">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H83" t="s" s="0">
-        <v>344</v>
+        <v>263</v>
       </c>
       <c r="I83" s="0">
         <v>9737290</v>
@@ -4147,28 +4171,28 @@
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" t="s" s="0">
-        <v>345</v>
+        <v>419</v>
       </c>
       <c r="B84" t="s" s="0">
-        <v>346</v>
+        <v>264</v>
       </c>
       <c r="C84" t="s" s="0">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D84" t="s" s="0">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E84" s="0">
         <v>28</v>
       </c>
       <c r="F84" t="s" s="0">
-        <v>347</v>
+        <v>265</v>
       </c>
       <c r="G84" t="s" s="0">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H84" t="s" s="0">
-        <v>348</v>
+        <v>266</v>
       </c>
       <c r="I84" s="0">
         <v>3253337</v>
@@ -4176,28 +4200,28 @@
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="s" s="0">
-        <v>349</v>
+        <v>420</v>
       </c>
       <c r="B85" t="s" s="0">
-        <v>350</v>
+        <v>267</v>
       </c>
       <c r="C85" t="s" s="0">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D85" t="s" s="0">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E85" s="0">
         <v>57</v>
       </c>
       <c r="F85" t="s" s="0">
-        <v>351</v>
+        <v>268</v>
       </c>
       <c r="G85" t="s" s="0">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H85" t="s" s="0">
-        <v>352</v>
+        <v>269</v>
       </c>
       <c r="I85" s="0">
         <v>3477827</v>
@@ -4205,28 +4229,28 @@
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="s" s="0">
-        <v>353</v>
+        <v>421</v>
       </c>
       <c r="B86" t="s" s="0">
-        <v>354</v>
+        <v>270</v>
       </c>
       <c r="C86" t="s" s="0">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="D86" t="s" s="0">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E86" s="0">
         <v>23</v>
       </c>
       <c r="F86" t="s" s="0">
-        <v>355</v>
+        <v>271</v>
       </c>
       <c r="G86" t="s" s="0">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H86" t="s" s="0">
-        <v>356</v>
+        <v>272</v>
       </c>
       <c r="I86" s="0">
         <v>6484201</v>
@@ -4234,28 +4258,28 @@
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s" s="0">
-        <v>357</v>
+        <v>422</v>
       </c>
       <c r="B87" t="s" s="0">
-        <v>358</v>
+        <v>273</v>
       </c>
       <c r="C87" t="s" s="0">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D87" t="s" s="0">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E87" s="0">
         <v>26</v>
       </c>
       <c r="F87" t="s" s="0">
-        <v>359</v>
+        <v>274</v>
       </c>
       <c r="G87" t="s" s="0">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H87" t="s" s="0">
-        <v>360</v>
+        <v>275</v>
       </c>
       <c r="I87" s="0">
         <v>2137184</v>
@@ -4263,28 +4287,28 @@
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s" s="0">
-        <v>361</v>
+        <v>423</v>
       </c>
       <c r="B88" t="s" s="0">
-        <v>362</v>
+        <v>276</v>
       </c>
       <c r="C88" t="s" s="0">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="D88" t="s" s="0">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E88" s="0">
         <v>43</v>
       </c>
       <c r="F88" t="s" s="0">
-        <v>363</v>
+        <v>277</v>
       </c>
       <c r="G88" t="s" s="0">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H88" t="s" s="0">
-        <v>364</v>
+        <v>278</v>
       </c>
       <c r="I88" s="0">
         <v>5828649</v>
@@ -4292,28 +4316,28 @@
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s" s="0">
-        <v>365</v>
+        <v>424</v>
       </c>
       <c r="B89" t="s" s="0">
-        <v>366</v>
+        <v>279</v>
       </c>
       <c r="C89" t="s" s="0">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="D89" t="s" s="0">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E89" s="0">
         <v>35</v>
       </c>
       <c r="F89" t="s" s="0">
-        <v>367</v>
+        <v>280</v>
       </c>
       <c r="G89" t="s" s="0">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H89" t="s" s="0">
-        <v>368</v>
+        <v>281</v>
       </c>
       <c r="I89" s="0">
         <v>9314586</v>
@@ -4321,28 +4345,28 @@
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" t="s" s="0">
-        <v>369</v>
+        <v>425</v>
       </c>
       <c r="B90" t="s" s="0">
-        <v>370</v>
+        <v>282</v>
       </c>
       <c r="C90" t="s" s="0">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="D90" t="s" s="0">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E90" s="0">
         <v>52</v>
       </c>
       <c r="F90" t="s" s="0">
-        <v>371</v>
+        <v>283</v>
       </c>
       <c r="G90" t="s" s="0">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H90" t="s" s="0">
-        <v>372</v>
+        <v>284</v>
       </c>
       <c r="I90" s="0">
         <v>5930324</v>
@@ -4350,28 +4374,28 @@
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" t="s" s="0">
-        <v>373</v>
+        <v>426</v>
       </c>
       <c r="B91" t="s" s="0">
-        <v>374</v>
+        <v>285</v>
       </c>
       <c r="C91" t="s" s="0">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="D91" t="s" s="0">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E91" s="0">
         <v>42</v>
       </c>
       <c r="F91" t="s" s="0">
-        <v>375</v>
+        <v>286</v>
       </c>
       <c r="G91" t="s" s="0">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H91" t="s" s="0">
-        <v>376</v>
+        <v>287</v>
       </c>
       <c r="I91" s="0">
         <v>4353913</v>
@@ -4379,28 +4403,28 @@
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" t="s" s="0">
-        <v>377</v>
+        <v>427</v>
       </c>
       <c r="B92" t="s" s="0">
-        <v>378</v>
+        <v>288</v>
       </c>
       <c r="C92" t="s" s="0">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="D92" t="s" s="0">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E92" s="0">
         <v>37</v>
       </c>
       <c r="F92" t="s" s="0">
-        <v>379</v>
+        <v>289</v>
       </c>
       <c r="G92" t="s" s="0">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H92" t="s" s="0">
-        <v>380</v>
+        <v>290</v>
       </c>
       <c r="I92" s="0">
         <v>3044136</v>
@@ -4408,28 +4432,28 @@
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" t="s" s="0">
-        <v>381</v>
+        <v>428</v>
       </c>
       <c r="B93" t="s" s="0">
-        <v>382</v>
+        <v>291</v>
       </c>
       <c r="C93" t="s" s="0">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D93" t="s" s="0">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E93" s="0">
         <v>39</v>
       </c>
       <c r="F93" t="s" s="0">
-        <v>383</v>
+        <v>292</v>
       </c>
       <c r="G93" t="s" s="0">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H93" t="s" s="0">
-        <v>384</v>
+        <v>293</v>
       </c>
       <c r="I93" s="0">
         <v>5228200</v>
@@ -4437,28 +4461,28 @@
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s" s="0">
-        <v>385</v>
+        <v>429</v>
       </c>
       <c r="B94" t="s" s="0">
-        <v>386</v>
+        <v>294</v>
       </c>
       <c r="C94" t="s" s="0">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="D94" t="s" s="0">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E94" s="0">
         <v>21</v>
       </c>
       <c r="F94" t="s" s="0">
-        <v>387</v>
+        <v>295</v>
       </c>
       <c r="G94" t="s" s="0">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H94" t="s" s="0">
-        <v>388</v>
+        <v>296</v>
       </c>
       <c r="I94" s="0">
         <v>9912130</v>
@@ -4466,28 +4490,28 @@
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" t="s" s="0">
-        <v>389</v>
+        <v>430</v>
       </c>
       <c r="B95" t="s" s="0">
-        <v>390</v>
+        <v>297</v>
       </c>
       <c r="C95" t="s" s="0">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="D95" t="s" s="0">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E95" s="0">
         <v>61</v>
       </c>
       <c r="F95" t="s" s="0">
-        <v>391</v>
+        <v>298</v>
       </c>
       <c r="G95" t="s" s="0">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H95" t="s" s="0">
-        <v>392</v>
+        <v>299</v>
       </c>
       <c r="I95" s="0">
         <v>7542700</v>
@@ -4495,28 +4519,28 @@
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" t="s" s="0">
-        <v>393</v>
+        <v>431</v>
       </c>
       <c r="B96" t="s" s="0">
-        <v>394</v>
+        <v>300</v>
       </c>
       <c r="C96" t="s" s="0">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="D96" t="s" s="0">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E96" s="0">
         <v>62</v>
       </c>
       <c r="F96" t="s" s="0">
-        <v>395</v>
+        <v>301</v>
       </c>
       <c r="G96" t="s" s="0">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H96" t="s" s="0">
-        <v>396</v>
+        <v>302</v>
       </c>
       <c r="I96" s="0">
         <v>8296226</v>
@@ -4524,28 +4548,28 @@
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s" s="0">
-        <v>397</v>
+        <v>432</v>
       </c>
       <c r="B97" t="s" s="0">
-        <v>398</v>
+        <v>303</v>
       </c>
       <c r="C97" t="s" s="0">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="D97" t="s" s="0">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E97" s="0">
         <v>51</v>
       </c>
       <c r="F97" t="s" s="0">
-        <v>399</v>
+        <v>304</v>
       </c>
       <c r="G97" t="s" s="0">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H97" t="s" s="0">
-        <v>400</v>
+        <v>305</v>
       </c>
       <c r="I97" s="0">
         <v>3368363</v>
@@ -4553,28 +4577,28 @@
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s" s="0">
-        <v>401</v>
+        <v>433</v>
       </c>
       <c r="B98" t="s" s="0">
-        <v>402</v>
+        <v>306</v>
       </c>
       <c r="C98" t="s" s="0">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="D98" t="s" s="0">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E98" s="0">
         <v>37</v>
       </c>
       <c r="F98" t="s" s="0">
-        <v>403</v>
+        <v>307</v>
       </c>
       <c r="G98" t="s" s="0">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H98" t="s" s="0">
-        <v>404</v>
+        <v>308</v>
       </c>
       <c r="I98" s="0">
         <v>8573375</v>
@@ -4582,28 +4606,28 @@
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s" s="0">
-        <v>405</v>
+        <v>434</v>
       </c>
       <c r="B99" t="s" s="0">
-        <v>406</v>
+        <v>309</v>
       </c>
       <c r="C99" t="s" s="0">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="D99" t="s" s="0">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E99" s="0">
         <v>56</v>
       </c>
       <c r="F99" t="s" s="0">
-        <v>407</v>
+        <v>310</v>
       </c>
       <c r="G99" t="s" s="0">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H99" t="s" s="0">
-        <v>408</v>
+        <v>311</v>
       </c>
       <c r="I99" s="0">
         <v>6580060</v>
@@ -4611,28 +4635,28 @@
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s" s="0">
-        <v>409</v>
+        <v>435</v>
       </c>
       <c r="B100" t="s" s="0">
-        <v>410</v>
+        <v>312</v>
       </c>
       <c r="C100" t="s" s="0">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D100" t="s" s="0">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E100" s="0">
         <v>52</v>
       </c>
       <c r="F100" t="s" s="0">
-        <v>411</v>
+        <v>313</v>
       </c>
       <c r="G100" t="s" s="0">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H100" t="s" s="0">
-        <v>412</v>
+        <v>314</v>
       </c>
       <c r="I100" s="0">
         <v>2209714</v>
@@ -4640,28 +4664,28 @@
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s" s="0">
-        <v>413</v>
+        <v>436</v>
       </c>
       <c r="B101" t="s" s="0">
-        <v>414</v>
+        <v>315</v>
       </c>
       <c r="C101" t="s" s="0">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D101" t="s" s="0">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E101" s="0">
         <v>51</v>
       </c>
       <c r="F101" t="s" s="0">
-        <v>415</v>
+        <v>316</v>
       </c>
       <c r="G101" t="s" s="0">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H101" t="s" s="0">
-        <v>416</v>
+        <v>317</v>
       </c>
       <c r="I101" s="0">
         <v>9295610</v>
@@ -4669,28 +4693,28 @@
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s" s="0">
-        <v>417</v>
+        <v>437</v>
       </c>
       <c r="B102" t="s" s="0">
-        <v>418</v>
+        <v>318</v>
       </c>
       <c r="C102" t="s" s="0">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D102" t="s" s="0">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E102" s="0">
         <v>27</v>
       </c>
       <c r="F102" t="s" s="0">
-        <v>419</v>
+        <v>319</v>
       </c>
       <c r="G102" t="s" s="0">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H102" t="s" s="0">
-        <v>420</v>
+        <v>320</v>
       </c>
       <c r="I102" s="0">
         <v>5821986</v>
@@ -4698,28 +4722,28 @@
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s" s="0">
-        <v>421</v>
+        <v>438</v>
       </c>
       <c r="B103" t="s" s="0">
-        <v>422</v>
+        <v>321</v>
       </c>
       <c r="C103" t="s" s="0">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D103" t="s" s="0">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E103" s="0">
         <v>58</v>
       </c>
       <c r="F103" t="s" s="0">
-        <v>423</v>
+        <v>322</v>
       </c>
       <c r="G103" t="s" s="0">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H103" t="s" s="0">
-        <v>424</v>
+        <v>323</v>
       </c>
       <c r="I103" s="0">
         <v>8124730</v>
@@ -4727,28 +4751,28 @@
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s" s="0">
-        <v>425</v>
+        <v>439</v>
       </c>
       <c r="B104" t="s" s="0">
-        <v>426</v>
+        <v>324</v>
       </c>
       <c r="C104" t="s" s="0">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D104" t="s" s="0">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E104" s="0">
         <v>29</v>
       </c>
       <c r="F104" t="s" s="0">
-        <v>427</v>
+        <v>325</v>
       </c>
       <c r="G104" t="s" s="0">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H104" t="s" s="0">
-        <v>428</v>
+        <v>326</v>
       </c>
       <c r="I104" s="0">
         <v>9429253</v>
@@ -4756,63 +4780,93 @@
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s" s="0">
-        <v>429</v>
+        <v>440</v>
       </c>
       <c r="B105" t="s" s="0">
-        <v>430</v>
+        <v>327</v>
       </c>
       <c r="C105" t="s" s="0">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D105" t="s" s="0">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E105" s="0">
         <v>57</v>
       </c>
       <c r="F105" t="s" s="0">
-        <v>431</v>
+        <v>328</v>
       </c>
       <c r="G105" t="s" s="0">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H105" t="s" s="0">
-        <v>432</v>
+        <v>329</v>
       </c>
       <c r="I105" s="0">
         <v>7085811</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s" s="0">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="B106" t="s" s="0">
-        <v>436</v>
+        <v>332</v>
       </c>
       <c r="C106" t="s" s="0">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D106" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="E106" t="n" s="0">
-        <v>21.0</v>
+        <v>8</v>
+      </c>
+      <c r="E106" s="0">
+        <v>21</v>
       </c>
       <c r="F106" t="s" s="0">
-        <v>437</v>
+        <v>333</v>
       </c>
       <c r="G106" t="s" s="0">
-        <v>438</v>
+        <v>334</v>
       </c>
       <c r="H106" t="s" s="0">
-        <v>439</v>
-      </c>
-      <c r="I106" t="n" s="0">
+        <v>335</v>
+      </c>
+      <c r="I106" s="0">
+        <v>12341234</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s" s="0">
+        <v>442</v>
+      </c>
+      <c r="B107" t="s" s="0">
+        <v>443</v>
+      </c>
+      <c r="C107" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="D107" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="E107" t="n" s="0">
+        <v>24.0</v>
+      </c>
+      <c r="F107" t="s" s="0">
+        <v>444</v>
+      </c>
+      <c r="G107" t="s" s="0">
+        <v>445</v>
+      </c>
+      <c r="H107" t="s" s="0">
+        <v>446</v>
+      </c>
+      <c r="I107" t="n" s="0">
         <v>1.2341234E7</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="H2" r:id="rId1" xr:uid="{C8F108FA-B1AD-4669-9489-72F141DD5175}"/>
     <hyperlink ref="H3:H5" r:id="rId2" display="JohnSmith@testEmail.com" xr:uid="{84F17D34-B1F7-4141-ABB6-16F305B6432E}"/>

--- a/data/UserList.xlsx
+++ b/data/UserList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Part Time Studies\OOP_Proj\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e2dc85ffdfb189c0/Desktop/School Projects/SC2002 - OBJECT ORIENTIATED DESIGN ^0 PROGRAMMING/OOP_Proj/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC6C19D8-6339-434D-9E95-7203550289BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28695" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="447">
   <si>
     <t>Name</t>
   </si>
@@ -1367,7 +1367,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1748,21 +1747,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I107"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B103" sqref="B103"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="10.42578125"/>
-    <col min="2" max="2" customWidth="true" width="24.7109375"/>
-    <col min="3" max="3" customWidth="true" width="30.42578125"/>
-    <col min="6" max="6" customWidth="true" width="16.42578125"/>
-    <col min="7" max="7" customWidth="true" width="15.85546875"/>
-    <col min="8" max="8" customWidth="true" width="35.42578125"/>
+    <col min="1" max="1" width="10.453125" customWidth="1"/>
+    <col min="2" max="2" width="24.7265625" customWidth="1"/>
+    <col min="3" max="3" width="30.453125" customWidth="1"/>
+    <col min="6" max="6" width="16.453125" customWidth="1"/>
+    <col min="7" max="7" width="15.81640625" customWidth="1"/>
+    <col min="8" max="8" width="35.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>331</v>
       </c>
@@ -1791,3078 +1790,3078 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s" s="0">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>337</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s" s="0">
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s" s="0">
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="0">
+      <c r="E2">
         <v>45</v>
       </c>
-      <c r="F2" t="s" s="0">
+      <c r="F2" t="s">
         <v>16</v>
       </c>
-      <c r="G2" t="s" s="0">
+      <c r="G2" t="s">
         <v>330</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="0">
+      <c r="I2">
         <v>12345678</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s" s="0">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>338</v>
       </c>
-      <c r="B3" t="s" s="0">
+      <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="0">
+      <c r="C3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E3" s="0">
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3">
         <v>38</v>
       </c>
-      <c r="F3" t="s" s="0">
+      <c r="F3" t="s">
         <v>19</v>
       </c>
-      <c r="G3" t="s" s="0">
+      <c r="G3" t="s">
         <v>17</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="0">
+      <c r="I3">
         <v>12345679</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s" s="0">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>339</v>
       </c>
-      <c r="B4" t="s" s="0">
+      <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" t="s" s="0">
+      <c r="C4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" t="s" s="0">
+      <c r="D4" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="0">
+      <c r="E4">
         <v>29</v>
       </c>
-      <c r="F4" t="s" s="0">
+      <c r="F4" t="s">
         <v>21</v>
       </c>
-      <c r="G4" t="s" s="0">
+      <c r="G4" t="s">
         <v>17</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="0">
+      <c r="I4">
         <v>12345680</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s" s="0">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>340</v>
       </c>
-      <c r="B5" t="s" s="0">
+      <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" t="s" s="0">
+      <c r="C5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E5" s="0">
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5">
         <v>40</v>
       </c>
-      <c r="F5" t="s" s="0">
+      <c r="F5" t="s">
         <v>23</v>
       </c>
-      <c r="G5" t="s" s="0">
+      <c r="G5" t="s">
         <v>336</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="0">
+      <c r="I5">
         <v>12345681</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s" s="0">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>341</v>
       </c>
-      <c r="B6" t="s" s="0">
+      <c r="B6" t="s">
         <v>26</v>
       </c>
-      <c r="C6" t="s" s="0">
+      <c r="C6" t="s">
         <v>27</v>
       </c>
-      <c r="D6" t="s" s="0">
+      <c r="D6" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="0">
+      <c r="E6">
         <v>65</v>
       </c>
-      <c r="F6" t="s" s="0">
+      <c r="F6" t="s">
         <v>28</v>
       </c>
-      <c r="G6" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H6" t="s" s="0">
+      <c r="G6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="0">
+      <c r="I6">
         <v>9458008</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" t="s" s="0">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>342</v>
       </c>
-      <c r="B7" t="s" s="0">
+      <c r="B7" t="s">
         <v>30</v>
       </c>
-      <c r="C7" t="s" s="0">
+      <c r="C7" t="s">
         <v>5</v>
       </c>
-      <c r="D7" t="s" s="0">
+      <c r="D7" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="0">
+      <c r="E7">
         <v>57</v>
       </c>
-      <c r="F7" t="s" s="0">
+      <c r="F7" t="s">
         <v>31</v>
       </c>
-      <c r="G7" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H7" t="s" s="0">
+      <c r="G7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" t="s">
         <v>32</v>
       </c>
-      <c r="I7" s="0">
+      <c r="I7">
         <v>5406679</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" t="s" s="0">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>343</v>
       </c>
-      <c r="B8" t="s" s="0">
+      <c r="B8" t="s">
         <v>33</v>
       </c>
-      <c r="C8" t="s" s="0">
+      <c r="C8" t="s">
         <v>6</v>
       </c>
-      <c r="D8" t="s" s="0">
+      <c r="D8" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="0">
+      <c r="E8">
         <v>39</v>
       </c>
-      <c r="F8" t="s" s="0">
+      <c r="F8" t="s">
         <v>34</v>
       </c>
-      <c r="G8" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H8" t="s" s="0">
+      <c r="G8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" t="s">
         <v>35</v>
       </c>
-      <c r="I8" s="0">
+      <c r="I8">
         <v>8020791</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" t="s" s="0">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>344</v>
       </c>
-      <c r="B9" t="s" s="0">
+      <c r="B9" t="s">
         <v>36</v>
       </c>
-      <c r="C9" t="s" s="0">
+      <c r="C9" t="s">
         <v>5</v>
       </c>
-      <c r="D9" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E9" s="0">
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9">
         <v>32</v>
       </c>
-      <c r="F9" t="s" s="0">
+      <c r="F9" t="s">
         <v>37</v>
       </c>
-      <c r="G9" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H9" t="s" s="0">
+      <c r="G9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" t="s">
         <v>38</v>
       </c>
-      <c r="I9" s="0">
+      <c r="I9">
         <v>5720360</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" t="s" s="0">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>345</v>
       </c>
-      <c r="B10" t="s" s="0">
+      <c r="B10" t="s">
         <v>39</v>
       </c>
-      <c r="C10" t="s" s="0">
+      <c r="C10" t="s">
         <v>5</v>
       </c>
-      <c r="D10" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E10" s="0">
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10">
         <v>45</v>
       </c>
-      <c r="F10" t="s" s="0">
+      <c r="F10" t="s">
         <v>40</v>
       </c>
-      <c r="G10" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H10" t="s" s="0">
+      <c r="G10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" t="s">
         <v>41</v>
       </c>
-      <c r="I10" s="0">
+      <c r="I10">
         <v>9507728</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" t="s" s="0">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
         <v>346</v>
       </c>
-      <c r="B11" t="s" s="0">
+      <c r="B11" t="s">
         <v>42</v>
       </c>
-      <c r="C11" t="s" s="0">
+      <c r="C11" t="s">
         <v>4</v>
       </c>
-      <c r="D11" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E11" s="0">
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11">
         <v>56</v>
       </c>
-      <c r="F11" t="s" s="0">
+      <c r="F11" t="s">
         <v>43</v>
       </c>
-      <c r="G11" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H11" t="s" s="0">
+      <c r="G11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" t="s">
         <v>44</v>
       </c>
-      <c r="I11" s="0">
+      <c r="I11">
         <v>6810352</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" t="s" s="0">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
         <v>347</v>
       </c>
-      <c r="B12" t="s" s="0">
+      <c r="B12" t="s">
         <v>45</v>
       </c>
-      <c r="C12" t="s" s="0">
+      <c r="C12" t="s">
         <v>6</v>
       </c>
-      <c r="D12" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E12" s="0">
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12">
         <v>27</v>
       </c>
-      <c r="F12" t="s" s="0">
+      <c r="F12" t="s">
         <v>46</v>
       </c>
-      <c r="G12" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H12" t="s" s="0">
+      <c r="G12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" t="s">
         <v>47</v>
       </c>
-      <c r="I12" s="0">
+      <c r="I12">
         <v>5980041</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" t="s" s="0">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
         <v>348</v>
       </c>
-      <c r="B13" t="s" s="0">
+      <c r="B13" t="s">
         <v>48</v>
       </c>
-      <c r="C13" t="s" s="0">
+      <c r="C13" t="s">
         <v>49</v>
       </c>
-      <c r="D13" t="s" s="0">
+      <c r="D13" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="0">
+      <c r="E13">
         <v>29</v>
       </c>
-      <c r="F13" t="s" s="0">
+      <c r="F13" t="s">
         <v>50</v>
       </c>
-      <c r="G13" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H13" t="s" s="0">
+      <c r="G13" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" t="s">
         <v>51</v>
       </c>
-      <c r="I13" s="0">
+      <c r="I13">
         <v>5130769</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" t="s" s="0">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
         <v>349</v>
       </c>
-      <c r="B14" t="s" s="0">
+      <c r="B14" t="s">
         <v>52</v>
       </c>
-      <c r="C14" t="s" s="0">
+      <c r="C14" t="s">
         <v>5</v>
       </c>
-      <c r="D14" t="s" s="0">
+      <c r="D14" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="0">
+      <c r="E14">
         <v>34</v>
       </c>
-      <c r="F14" t="s" s="0">
+      <c r="F14" t="s">
         <v>53</v>
       </c>
-      <c r="G14" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H14" t="s" s="0">
+      <c r="G14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" t="s">
         <v>54</v>
       </c>
-      <c r="I14" s="0">
+      <c r="I14">
         <v>4446176</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" t="s" s="0">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
         <v>350</v>
       </c>
-      <c r="B15" t="s" s="0">
+      <c r="B15" t="s">
         <v>55</v>
       </c>
-      <c r="C15" t="s" s="0">
+      <c r="C15" t="s">
         <v>56</v>
       </c>
-      <c r="D15" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E15" s="0">
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15">
         <v>52</v>
       </c>
-      <c r="F15" t="s" s="0">
+      <c r="F15" t="s">
         <v>57</v>
       </c>
-      <c r="G15" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H15" t="s" s="0">
+      <c r="G15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" t="s">
         <v>58</v>
       </c>
-      <c r="I15" s="0">
+      <c r="I15">
         <v>3504139</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" t="s" s="0">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
         <v>351</v>
       </c>
-      <c r="B16" t="s" s="0">
+      <c r="B16" t="s">
         <v>59</v>
       </c>
-      <c r="C16" t="s" s="0">
+      <c r="C16" t="s">
         <v>56</v>
       </c>
-      <c r="D16" t="s" s="0">
+      <c r="D16" t="s">
         <v>7</v>
       </c>
-      <c r="E16" s="0">
+      <c r="E16">
         <v>43</v>
       </c>
-      <c r="F16" t="s" s="0">
+      <c r="F16" t="s">
         <v>60</v>
       </c>
-      <c r="G16" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H16" t="s" s="0">
+      <c r="G16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" t="s">
         <v>61</v>
       </c>
-      <c r="I16" s="0">
+      <c r="I16">
         <v>3882465</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" t="s" s="0">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
         <v>352</v>
       </c>
-      <c r="B17" t="s" s="0">
+      <c r="B17" t="s">
         <v>62</v>
       </c>
-      <c r="C17" t="s" s="0">
+      <c r="C17" t="s">
         <v>4</v>
       </c>
-      <c r="D17" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E17" s="0">
+      <c r="D17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17">
         <v>38</v>
       </c>
-      <c r="F17" t="s" s="0">
+      <c r="F17" t="s">
         <v>63</v>
       </c>
-      <c r="G17" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H17" t="s" s="0">
+      <c r="G17" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" t="s">
         <v>64</v>
       </c>
-      <c r="I17" s="0">
+      <c r="I17">
         <v>6209898</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" t="s" s="0">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
         <v>353</v>
       </c>
-      <c r="B18" t="s" s="0">
+      <c r="B18" t="s">
         <v>65</v>
       </c>
-      <c r="C18" t="s" s="0">
+      <c r="C18" t="s">
         <v>5</v>
       </c>
-      <c r="D18" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E18" s="0">
+      <c r="D18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18">
         <v>55</v>
       </c>
-      <c r="F18" t="s" s="0">
+      <c r="F18" t="s">
         <v>66</v>
       </c>
-      <c r="G18" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H18" t="s" s="0">
+      <c r="G18" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" t="s">
         <v>67</v>
       </c>
-      <c r="I18" s="0">
+      <c r="I18">
         <v>9214791</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" t="s" s="0">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
         <v>354</v>
       </c>
-      <c r="B19" t="s" s="0">
+      <c r="B19" t="s">
         <v>68</v>
       </c>
-      <c r="C19" t="s" s="0">
+      <c r="C19" t="s">
         <v>5</v>
       </c>
-      <c r="D19" t="s" s="0">
+      <c r="D19" t="s">
         <v>7</v>
       </c>
-      <c r="E19" s="0">
+      <c r="E19">
         <v>53</v>
       </c>
-      <c r="F19" t="s" s="0">
+      <c r="F19" t="s">
         <v>69</v>
       </c>
-      <c r="G19" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H19" t="s" s="0">
+      <c r="G19" t="s">
+        <v>17</v>
+      </c>
+      <c r="H19" t="s">
         <v>70</v>
       </c>
-      <c r="I19" s="0">
+      <c r="I19">
         <v>8179935</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" t="s" s="0">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
         <v>355</v>
       </c>
-      <c r="B20" t="s" s="0">
+      <c r="B20" t="s">
         <v>71</v>
       </c>
-      <c r="C20" t="s" s="0">
+      <c r="C20" t="s">
         <v>4</v>
       </c>
-      <c r="D20" t="s" s="0">
+      <c r="D20" t="s">
         <v>7</v>
       </c>
-      <c r="E20" s="0">
+      <c r="E20">
         <v>25</v>
       </c>
-      <c r="F20" t="s" s="0">
+      <c r="F20" t="s">
         <v>72</v>
       </c>
-      <c r="G20" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H20" t="s" s="0">
+      <c r="G20" t="s">
+        <v>17</v>
+      </c>
+      <c r="H20" t="s">
         <v>73</v>
       </c>
-      <c r="I20" s="0">
+      <c r="I20">
         <v>3023232</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" t="s" s="0">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
         <v>356</v>
       </c>
-      <c r="B21" t="s" s="0">
+      <c r="B21" t="s">
         <v>74</v>
       </c>
-      <c r="C21" t="s" s="0">
+      <c r="C21" t="s">
         <v>56</v>
       </c>
-      <c r="D21" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E21" s="0">
+      <c r="D21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21">
         <v>58</v>
       </c>
-      <c r="F21" t="s" s="0">
+      <c r="F21" t="s">
         <v>75</v>
       </c>
-      <c r="G21" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H21" t="s" s="0">
+      <c r="G21" t="s">
+        <v>17</v>
+      </c>
+      <c r="H21" t="s">
         <v>76</v>
       </c>
-      <c r="I21" s="0">
+      <c r="I21">
         <v>6607521</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" t="s" s="0">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
         <v>357</v>
       </c>
-      <c r="B22" t="s" s="0">
+      <c r="B22" t="s">
         <v>77</v>
       </c>
-      <c r="C22" t="s" s="0">
+      <c r="C22" t="s">
         <v>49</v>
       </c>
-      <c r="D22" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E22" s="0">
+      <c r="D22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22">
         <v>47</v>
       </c>
-      <c r="F22" t="s" s="0">
+      <c r="F22" t="s">
         <v>78</v>
       </c>
-      <c r="G22" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H22" t="s" s="0">
+      <c r="G22" t="s">
+        <v>17</v>
+      </c>
+      <c r="H22" t="s">
         <v>79</v>
       </c>
-      <c r="I22" s="0">
+      <c r="I22">
         <v>4855587</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" t="s" s="0">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
         <v>358</v>
       </c>
-      <c r="B23" t="s" s="0">
+      <c r="B23" t="s">
         <v>80</v>
       </c>
-      <c r="C23" t="s" s="0">
+      <c r="C23" t="s">
         <v>6</v>
       </c>
-      <c r="D23" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E23" s="0">
+      <c r="D23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23">
         <v>27</v>
       </c>
-      <c r="F23" t="s" s="0">
+      <c r="F23" t="s">
         <v>81</v>
       </c>
-      <c r="G23" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H23" t="s" s="0">
+      <c r="G23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H23" t="s">
         <v>82</v>
       </c>
-      <c r="I23" s="0">
+      <c r="I23">
         <v>5043744</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" t="s" s="0">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
         <v>359</v>
       </c>
-      <c r="B24" t="s" s="0">
+      <c r="B24" t="s">
         <v>83</v>
       </c>
-      <c r="C24" t="s" s="0">
+      <c r="C24" t="s">
         <v>5</v>
       </c>
-      <c r="D24" t="s" s="0">
+      <c r="D24" t="s">
         <v>7</v>
       </c>
-      <c r="E24" s="0">
+      <c r="E24">
         <v>23</v>
       </c>
-      <c r="F24" t="s" s="0">
+      <c r="F24" t="s">
         <v>84</v>
       </c>
-      <c r="G24" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H24" t="s" s="0">
+      <c r="G24" t="s">
+        <v>17</v>
+      </c>
+      <c r="H24" t="s">
         <v>85</v>
       </c>
-      <c r="I24" s="0">
+      <c r="I24">
         <v>6914894</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" t="s" s="0">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
         <v>360</v>
       </c>
-      <c r="B25" t="s" s="0">
+      <c r="B25" t="s">
         <v>86</v>
       </c>
-      <c r="C25" t="s" s="0">
+      <c r="C25" t="s">
         <v>5</v>
       </c>
-      <c r="D25" t="s" s="0">
+      <c r="D25" t="s">
         <v>7</v>
       </c>
-      <c r="E25" s="0">
+      <c r="E25">
         <v>65</v>
       </c>
-      <c r="F25" t="s" s="0">
+      <c r="F25" t="s">
         <v>87</v>
       </c>
-      <c r="G25" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H25" t="s" s="0">
+      <c r="G25" t="s">
+        <v>17</v>
+      </c>
+      <c r="H25" t="s">
         <v>88</v>
       </c>
-      <c r="I25" s="0">
+      <c r="I25">
         <v>5176574</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" t="s" s="0">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
         <v>361</v>
       </c>
-      <c r="B26" t="s" s="0">
+      <c r="B26" t="s">
         <v>89</v>
       </c>
-      <c r="C26" t="s" s="0">
+      <c r="C26" t="s">
         <v>27</v>
       </c>
-      <c r="D26" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E26" s="0">
+      <c r="D26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26">
         <v>38</v>
       </c>
-      <c r="F26" t="s" s="0">
+      <c r="F26" t="s">
         <v>90</v>
       </c>
-      <c r="G26" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H26" t="s" s="0">
+      <c r="G26" t="s">
+        <v>17</v>
+      </c>
+      <c r="H26" t="s">
         <v>91</v>
       </c>
-      <c r="I26" s="0">
+      <c r="I26">
         <v>5994982</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" t="s" s="0">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
         <v>362</v>
       </c>
-      <c r="B27" t="s" s="0">
+      <c r="B27" t="s">
         <v>92</v>
       </c>
-      <c r="C27" t="s" s="0">
+      <c r="C27" t="s">
         <v>93</v>
       </c>
-      <c r="D27" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E27" s="0">
+      <c r="D27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27">
         <v>29</v>
       </c>
-      <c r="F27" t="s" s="0">
+      <c r="F27" t="s">
         <v>94</v>
       </c>
-      <c r="G27" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H27" t="s" s="0">
+      <c r="G27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H27" t="s">
         <v>95</v>
       </c>
-      <c r="I27" s="0">
+      <c r="I27">
         <v>2026262</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" t="s" s="0">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
         <v>363</v>
       </c>
-      <c r="B28" t="s" s="0">
+      <c r="B28" t="s">
         <v>96</v>
       </c>
-      <c r="C28" t="s" s="0">
+      <c r="C28" t="s">
         <v>5</v>
       </c>
-      <c r="D28" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E28" s="0">
+      <c r="D28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28">
         <v>28</v>
       </c>
-      <c r="F28" t="s" s="0">
+      <c r="F28" t="s">
         <v>97</v>
       </c>
-      <c r="G28" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H28" t="s" s="0">
+      <c r="G28" t="s">
+        <v>17</v>
+      </c>
+      <c r="H28" t="s">
         <v>98</v>
       </c>
-      <c r="I28" s="0">
+      <c r="I28">
         <v>5788254</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" t="s" s="0">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
         <v>364</v>
       </c>
-      <c r="B29" t="s" s="0">
+      <c r="B29" t="s">
         <v>99</v>
       </c>
-      <c r="C29" t="s" s="0">
+      <c r="C29" t="s">
         <v>49</v>
       </c>
-      <c r="D29" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E29" s="0">
+      <c r="D29" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29">
         <v>54</v>
       </c>
-      <c r="F29" t="s" s="0">
+      <c r="F29" t="s">
         <v>100</v>
       </c>
-      <c r="G29" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H29" t="s" s="0">
+      <c r="G29" t="s">
+        <v>17</v>
+      </c>
+      <c r="H29" t="s">
         <v>101</v>
       </c>
-      <c r="I29" s="0">
+      <c r="I29">
         <v>3073034</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" t="s" s="0">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
         <v>365</v>
       </c>
-      <c r="B30" t="s" s="0">
+      <c r="B30" t="s">
         <v>102</v>
       </c>
-      <c r="C30" t="s" s="0">
+      <c r="C30" t="s">
         <v>5</v>
       </c>
-      <c r="D30" t="s" s="0">
+      <c r="D30" t="s">
         <v>7</v>
       </c>
-      <c r="E30" s="0">
+      <c r="E30">
         <v>22</v>
       </c>
-      <c r="F30" t="s" s="0">
+      <c r="F30" t="s">
         <v>103</v>
       </c>
-      <c r="G30" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H30" t="s" s="0">
+      <c r="G30" t="s">
+        <v>17</v>
+      </c>
+      <c r="H30" t="s">
         <v>104</v>
       </c>
-      <c r="I30" s="0">
+      <c r="I30">
         <v>3512882</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" t="s" s="0">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
         <v>366</v>
       </c>
-      <c r="B31" t="s" s="0">
+      <c r="B31" t="s">
         <v>105</v>
       </c>
-      <c r="C31" t="s" s="0">
+      <c r="C31" t="s">
         <v>49</v>
       </c>
-      <c r="D31" t="s" s="0">
+      <c r="D31" t="s">
         <v>7</v>
       </c>
-      <c r="E31" s="0">
+      <c r="E31">
         <v>31</v>
       </c>
-      <c r="F31" t="s" s="0">
+      <c r="F31" t="s">
         <v>106</v>
       </c>
-      <c r="G31" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H31" t="s" s="0">
+      <c r="G31" t="s">
+        <v>17</v>
+      </c>
+      <c r="H31" t="s">
         <v>107</v>
       </c>
-      <c r="I31" s="0">
+      <c r="I31">
         <v>3869738</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" t="s" s="0">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
         <v>367</v>
       </c>
-      <c r="B32" t="s" s="0">
+      <c r="B32" t="s">
         <v>108</v>
       </c>
-      <c r="C32" t="s" s="0">
+      <c r="C32" t="s">
         <v>4</v>
       </c>
-      <c r="D32" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E32" s="0">
+      <c r="D32" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32">
         <v>28</v>
       </c>
-      <c r="F32" t="s" s="0">
+      <c r="F32" t="s">
         <v>109</v>
       </c>
-      <c r="G32" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H32" t="s" s="0">
+      <c r="G32" t="s">
+        <v>17</v>
+      </c>
+      <c r="H32" t="s">
         <v>110</v>
       </c>
-      <c r="I32" s="0">
+      <c r="I32">
         <v>1222647</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" t="s" s="0">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
         <v>368</v>
       </c>
-      <c r="B33" t="s" s="0">
+      <c r="B33" t="s">
         <v>111</v>
       </c>
-      <c r="C33" t="s" s="0">
+      <c r="C33" t="s">
         <v>6</v>
       </c>
-      <c r="D33" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E33" s="0">
+      <c r="D33" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33">
         <v>60</v>
       </c>
-      <c r="F33" t="s" s="0">
+      <c r="F33" t="s">
         <v>112</v>
       </c>
-      <c r="G33" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H33" t="s" s="0">
+      <c r="G33" t="s">
+        <v>17</v>
+      </c>
+      <c r="H33" t="s">
         <v>113</v>
       </c>
-      <c r="I33" s="0">
+      <c r="I33">
         <v>7437675</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" t="s" s="0">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
         <v>369</v>
       </c>
-      <c r="B34" t="s" s="0">
+      <c r="B34" t="s">
         <v>114</v>
       </c>
-      <c r="C34" t="s" s="0">
+      <c r="C34" t="s">
         <v>93</v>
       </c>
-      <c r="D34" t="s" s="0">
+      <c r="D34" t="s">
         <v>7</v>
       </c>
-      <c r="E34" s="0">
+      <c r="E34">
         <v>51</v>
       </c>
-      <c r="F34" t="s" s="0">
+      <c r="F34" t="s">
         <v>115</v>
       </c>
-      <c r="G34" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H34" t="s" s="0">
+      <c r="G34" t="s">
+        <v>17</v>
+      </c>
+      <c r="H34" t="s">
         <v>116</v>
       </c>
-      <c r="I34" s="0">
+      <c r="I34">
         <v>5991621</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" t="s" s="0">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
         <v>370</v>
       </c>
-      <c r="B35" t="s" s="0">
+      <c r="B35" t="s">
         <v>117</v>
       </c>
-      <c r="C35" t="s" s="0">
+      <c r="C35" t="s">
         <v>5</v>
       </c>
-      <c r="D35" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E35" s="0">
+      <c r="D35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35">
         <v>57</v>
       </c>
-      <c r="F35" t="s" s="0">
+      <c r="F35" t="s">
         <v>118</v>
       </c>
-      <c r="G35" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H35" t="s" s="0">
+      <c r="G35" t="s">
+        <v>17</v>
+      </c>
+      <c r="H35" t="s">
         <v>119</v>
       </c>
-      <c r="I35" s="0">
+      <c r="I35">
         <v>2673449</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" t="s" s="0">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
         <v>371</v>
       </c>
-      <c r="B36" t="s" s="0">
+      <c r="B36" t="s">
         <v>120</v>
       </c>
-      <c r="C36" t="s" s="0">
+      <c r="C36" t="s">
         <v>6</v>
       </c>
-      <c r="D36" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E36" s="0">
+      <c r="D36" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36">
         <v>41</v>
       </c>
-      <c r="F36" t="s" s="0">
+      <c r="F36" t="s">
         <v>121</v>
       </c>
-      <c r="G36" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H36" t="s" s="0">
+      <c r="G36" t="s">
+        <v>17</v>
+      </c>
+      <c r="H36" t="s">
         <v>122</v>
       </c>
-      <c r="I36" s="0">
+      <c r="I36">
         <v>5414099</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" t="s" s="0">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
         <v>372</v>
       </c>
-      <c r="B37" t="s" s="0">
+      <c r="B37" t="s">
         <v>123</v>
       </c>
-      <c r="C37" t="s" s="0">
+      <c r="C37" t="s">
         <v>27</v>
       </c>
-      <c r="D37" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E37" s="0">
+      <c r="D37" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37">
         <v>65</v>
       </c>
-      <c r="F37" t="s" s="0">
+      <c r="F37" t="s">
         <v>124</v>
       </c>
-      <c r="G37" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H37" t="s" s="0">
+      <c r="G37" t="s">
+        <v>17</v>
+      </c>
+      <c r="H37" t="s">
         <v>125</v>
       </c>
-      <c r="I37" s="0">
+      <c r="I37">
         <v>1591806</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" t="s" s="0">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
         <v>373</v>
       </c>
-      <c r="B38" t="s" s="0">
+      <c r="B38" t="s">
         <v>126</v>
       </c>
-      <c r="C38" t="s" s="0">
+      <c r="C38" t="s">
         <v>5</v>
       </c>
-      <c r="D38" t="s" s="0">
+      <c r="D38" t="s">
         <v>7</v>
       </c>
-      <c r="E38" s="0">
+      <c r="E38">
         <v>34</v>
       </c>
-      <c r="F38" t="s" s="0">
+      <c r="F38" t="s">
         <v>127</v>
       </c>
-      <c r="G38" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H38" t="s" s="0">
+      <c r="G38" t="s">
+        <v>17</v>
+      </c>
+      <c r="H38" t="s">
         <v>128</v>
       </c>
-      <c r="I38" s="0">
+      <c r="I38">
         <v>5440842</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" t="s" s="0">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
         <v>374</v>
       </c>
-      <c r="B39" t="s" s="0">
+      <c r="B39" t="s">
         <v>129</v>
       </c>
-      <c r="C39" t="s" s="0">
+      <c r="C39" t="s">
         <v>93</v>
       </c>
-      <c r="D39" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E39" s="0">
+      <c r="D39" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39">
         <v>39</v>
       </c>
-      <c r="F39" t="s" s="0">
+      <c r="F39" t="s">
         <v>130</v>
       </c>
-      <c r="G39" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H39" t="s" s="0">
+      <c r="G39" t="s">
+        <v>17</v>
+      </c>
+      <c r="H39" t="s">
         <v>131</v>
       </c>
-      <c r="I39" s="0">
+      <c r="I39">
         <v>5123903</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" t="s" s="0">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
         <v>375</v>
       </c>
-      <c r="B40" t="s" s="0">
+      <c r="B40" t="s">
         <v>132</v>
       </c>
-      <c r="C40" t="s" s="0">
+      <c r="C40" t="s">
         <v>93</v>
       </c>
-      <c r="D40" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E40" s="0">
+      <c r="D40" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40">
         <v>30</v>
       </c>
-      <c r="F40" t="s" s="0">
+      <c r="F40" t="s">
         <v>133</v>
       </c>
-      <c r="G40" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H40" t="s" s="0">
+      <c r="G40" t="s">
+        <v>17</v>
+      </c>
+      <c r="H40" t="s">
         <v>134</v>
       </c>
-      <c r="I40" s="0">
+      <c r="I40">
         <v>8419913</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" t="s" s="0">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
         <v>376</v>
       </c>
-      <c r="B41" t="s" s="0">
+      <c r="B41" t="s">
         <v>135</v>
       </c>
-      <c r="C41" t="s" s="0">
+      <c r="C41" t="s">
         <v>6</v>
       </c>
-      <c r="D41" t="s" s="0">
+      <c r="D41" t="s">
         <v>7</v>
       </c>
-      <c r="E41" s="0">
+      <c r="E41">
         <v>53</v>
       </c>
-      <c r="F41" t="s" s="0">
+      <c r="F41" t="s">
         <v>136</v>
       </c>
-      <c r="G41" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H41" t="s" s="0">
+      <c r="G41" t="s">
+        <v>17</v>
+      </c>
+      <c r="H41" t="s">
         <v>137</v>
       </c>
-      <c r="I41" s="0">
+      <c r="I41">
         <v>2541769</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" t="s" s="0">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
         <v>377</v>
       </c>
-      <c r="B42" t="s" s="0">
+      <c r="B42" t="s">
         <v>138</v>
       </c>
-      <c r="C42" t="s" s="0">
+      <c r="C42" t="s">
         <v>93</v>
       </c>
-      <c r="D42" t="s" s="0">
+      <c r="D42" t="s">
         <v>7</v>
       </c>
-      <c r="E42" s="0">
+      <c r="E42">
         <v>42</v>
       </c>
-      <c r="F42" t="s" s="0">
+      <c r="F42" t="s">
         <v>139</v>
       </c>
-      <c r="G42" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H42" t="s" s="0">
+      <c r="G42" t="s">
+        <v>17</v>
+      </c>
+      <c r="H42" t="s">
         <v>140</v>
       </c>
-      <c r="I42" s="0">
+      <c r="I42">
         <v>3301311</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" t="s" s="0">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
         <v>378</v>
       </c>
-      <c r="B43" t="s" s="0">
+      <c r="B43" t="s">
         <v>141</v>
       </c>
-      <c r="C43" t="s" s="0">
+      <c r="C43" t="s">
         <v>56</v>
       </c>
-      <c r="D43" t="s" s="0">
+      <c r="D43" t="s">
         <v>7</v>
       </c>
-      <c r="E43" s="0">
+      <c r="E43">
         <v>61</v>
       </c>
-      <c r="F43" t="s" s="0">
+      <c r="F43" t="s">
         <v>142</v>
       </c>
-      <c r="G43" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H43" t="s" s="0">
+      <c r="G43" t="s">
+        <v>17</v>
+      </c>
+      <c r="H43" t="s">
         <v>143</v>
       </c>
-      <c r="I43" s="0">
+      <c r="I43">
         <v>3901307</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" t="s" s="0">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
         <v>379</v>
       </c>
-      <c r="B44" t="s" s="0">
+      <c r="B44" t="s">
         <v>144</v>
       </c>
-      <c r="C44" t="s" s="0">
+      <c r="C44" t="s">
         <v>56</v>
       </c>
-      <c r="D44" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E44" s="0">
+      <c r="D44" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44">
         <v>45</v>
       </c>
-      <c r="F44" t="s" s="0">
+      <c r="F44" t="s">
         <v>145</v>
       </c>
-      <c r="G44" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H44" t="s" s="0">
+      <c r="G44" t="s">
+        <v>17</v>
+      </c>
+      <c r="H44" t="s">
         <v>146</v>
       </c>
-      <c r="I44" s="0">
+      <c r="I44">
         <v>8507627</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" t="s" s="0">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
         <v>380</v>
       </c>
-      <c r="B45" t="s" s="0">
+      <c r="B45" t="s">
         <v>147</v>
       </c>
-      <c r="C45" t="s" s="0">
+      <c r="C45" t="s">
         <v>5</v>
       </c>
-      <c r="D45" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E45" s="0">
+      <c r="D45" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45">
         <v>22</v>
       </c>
-      <c r="F45" t="s" s="0">
+      <c r="F45" t="s">
         <v>148</v>
       </c>
-      <c r="G45" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H45" t="s" s="0">
+      <c r="G45" t="s">
+        <v>17</v>
+      </c>
+      <c r="H45" t="s">
         <v>149</v>
       </c>
-      <c r="I45" s="0">
+      <c r="I45">
         <v>6247756</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" t="s" s="0">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
         <v>381</v>
       </c>
-      <c r="B46" t="s" s="0">
+      <c r="B46" t="s">
         <v>150</v>
       </c>
-      <c r="C46" t="s" s="0">
+      <c r="C46" t="s">
         <v>93</v>
       </c>
-      <c r="D46" t="s" s="0">
+      <c r="D46" t="s">
         <v>7</v>
       </c>
-      <c r="E46" s="0">
+      <c r="E46">
         <v>62</v>
       </c>
-      <c r="F46" t="s" s="0">
+      <c r="F46" t="s">
         <v>151</v>
       </c>
-      <c r="G46" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H46" t="s" s="0">
+      <c r="G46" t="s">
+        <v>17</v>
+      </c>
+      <c r="H46" t="s">
         <v>152</v>
       </c>
-      <c r="I46" s="0">
+      <c r="I46">
         <v>7799558</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" t="s" s="0">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
         <v>382</v>
       </c>
-      <c r="B47" t="s" s="0">
+      <c r="B47" t="s">
         <v>153</v>
       </c>
-      <c r="C47" t="s" s="0">
+      <c r="C47" t="s">
         <v>93</v>
       </c>
-      <c r="D47" t="s" s="0">
+      <c r="D47" t="s">
         <v>7</v>
       </c>
-      <c r="E47" s="0">
+      <c r="E47">
         <v>57</v>
       </c>
-      <c r="F47" t="s" s="0">
+      <c r="F47" t="s">
         <v>154</v>
       </c>
-      <c r="G47" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H47" t="s" s="0">
+      <c r="G47" t="s">
+        <v>17</v>
+      </c>
+      <c r="H47" t="s">
         <v>155</v>
       </c>
-      <c r="I47" s="0">
+      <c r="I47">
         <v>6846085</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" t="s" s="0">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
         <v>383</v>
       </c>
-      <c r="B48" t="s" s="0">
+      <c r="B48" t="s">
         <v>156</v>
       </c>
-      <c r="C48" t="s" s="0">
+      <c r="C48" t="s">
         <v>6</v>
       </c>
-      <c r="D48" t="s" s="0">
+      <c r="D48" t="s">
         <v>7</v>
       </c>
-      <c r="E48" s="0">
+      <c r="E48">
         <v>64</v>
       </c>
-      <c r="F48" t="s" s="0">
+      <c r="F48" t="s">
         <v>157</v>
       </c>
-      <c r="G48" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H48" t="s" s="0">
+      <c r="G48" t="s">
+        <v>17</v>
+      </c>
+      <c r="H48" t="s">
         <v>158</v>
       </c>
-      <c r="I48" s="0">
+      <c r="I48">
         <v>3002894</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" t="s" s="0">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
         <v>384</v>
       </c>
-      <c r="B49" t="s" s="0">
+      <c r="B49" t="s">
         <v>159</v>
       </c>
-      <c r="C49" t="s" s="0">
+      <c r="C49" t="s">
         <v>4</v>
       </c>
-      <c r="D49" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E49" s="0">
+      <c r="D49" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49">
         <v>65</v>
       </c>
-      <c r="F49" t="s" s="0">
+      <c r="F49" t="s">
         <v>160</v>
       </c>
-      <c r="G49" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H49" t="s" s="0">
+      <c r="G49" t="s">
+        <v>17</v>
+      </c>
+      <c r="H49" t="s">
         <v>161</v>
       </c>
-      <c r="I49" s="0">
+      <c r="I49">
         <v>8576374</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" t="s" s="0">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
         <v>385</v>
       </c>
-      <c r="B50" t="s" s="0">
+      <c r="B50" t="s">
         <v>162</v>
       </c>
-      <c r="C50" t="s" s="0">
+      <c r="C50" t="s">
         <v>93</v>
       </c>
-      <c r="D50" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E50" s="0">
+      <c r="D50" t="s">
+        <v>8</v>
+      </c>
+      <c r="E50">
         <v>50</v>
       </c>
-      <c r="F50" t="s" s="0">
+      <c r="F50" t="s">
         <v>163</v>
       </c>
-      <c r="G50" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H50" t="s" s="0">
+      <c r="G50" t="s">
+        <v>17</v>
+      </c>
+      <c r="H50" t="s">
         <v>164</v>
       </c>
-      <c r="I50" s="0">
+      <c r="I50">
         <v>6839229</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" t="s" s="0">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
         <v>386</v>
       </c>
-      <c r="B51" t="s" s="0">
+      <c r="B51" t="s">
         <v>165</v>
       </c>
-      <c r="C51" t="s" s="0">
+      <c r="C51" t="s">
         <v>6</v>
       </c>
-      <c r="D51" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E51" s="0">
+      <c r="D51" t="s">
+        <v>8</v>
+      </c>
+      <c r="E51">
         <v>46</v>
       </c>
-      <c r="F51" t="s" s="0">
+      <c r="F51" t="s">
         <v>166</v>
       </c>
-      <c r="G51" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H51" t="s" s="0">
+      <c r="G51" t="s">
+        <v>17</v>
+      </c>
+      <c r="H51" t="s">
         <v>167</v>
       </c>
-      <c r="I51" s="0">
+      <c r="I51">
         <v>1833341</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" t="s" s="0">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
         <v>387</v>
       </c>
-      <c r="B52" t="s" s="0">
+      <c r="B52" t="s">
         <v>168</v>
       </c>
-      <c r="C52" t="s" s="0">
+      <c r="C52" t="s">
         <v>93</v>
       </c>
-      <c r="D52" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E52" s="0">
+      <c r="D52" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52">
         <v>52</v>
       </c>
-      <c r="F52" t="s" s="0">
+      <c r="F52" t="s">
         <v>169</v>
       </c>
-      <c r="G52" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H52" t="s" s="0">
+      <c r="G52" t="s">
+        <v>17</v>
+      </c>
+      <c r="H52" t="s">
         <v>170</v>
       </c>
-      <c r="I52" s="0">
+      <c r="I52">
         <v>5945914</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" t="s" s="0">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
         <v>388</v>
       </c>
-      <c r="B53" t="s" s="0">
+      <c r="B53" t="s">
         <v>171</v>
       </c>
-      <c r="C53" t="s" s="0">
+      <c r="C53" t="s">
         <v>27</v>
       </c>
-      <c r="D53" t="s" s="0">
+      <c r="D53" t="s">
         <v>7</v>
       </c>
-      <c r="E53" s="0">
+      <c r="E53">
         <v>44</v>
       </c>
-      <c r="F53" t="s" s="0">
+      <c r="F53" t="s">
         <v>172</v>
       </c>
-      <c r="G53" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H53" t="s" s="0">
+      <c r="G53" t="s">
+        <v>17</v>
+      </c>
+      <c r="H53" t="s">
         <v>173</v>
       </c>
-      <c r="I53" s="0">
+      <c r="I53">
         <v>3101456</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" t="s" s="0">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
         <v>389</v>
       </c>
-      <c r="B54" t="s" s="0">
+      <c r="B54" t="s">
         <v>174</v>
       </c>
-      <c r="C54" t="s" s="0">
+      <c r="C54" t="s">
         <v>4</v>
       </c>
-      <c r="D54" t="s" s="0">
+      <c r="D54" t="s">
         <v>7</v>
       </c>
-      <c r="E54" s="0">
+      <c r="E54">
         <v>59</v>
       </c>
-      <c r="F54" t="s" s="0">
+      <c r="F54" t="s">
         <v>175</v>
       </c>
-      <c r="G54" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H54" t="s" s="0">
+      <c r="G54" t="s">
+        <v>17</v>
+      </c>
+      <c r="H54" t="s">
         <v>176</v>
       </c>
-      <c r="I54" s="0">
+      <c r="I54">
         <v>8790582</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" t="s" s="0">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
         <v>390</v>
       </c>
-      <c r="B55" t="s" s="0">
+      <c r="B55" t="s">
         <v>177</v>
       </c>
-      <c r="C55" t="s" s="0">
+      <c r="C55" t="s">
         <v>5</v>
       </c>
-      <c r="D55" t="s" s="0">
+      <c r="D55" t="s">
         <v>7</v>
       </c>
-      <c r="E55" s="0">
+      <c r="E55">
         <v>41</v>
       </c>
-      <c r="F55" t="s" s="0">
+      <c r="F55" t="s">
         <v>178</v>
       </c>
-      <c r="G55" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H55" t="s" s="0">
+      <c r="G55" t="s">
+        <v>17</v>
+      </c>
+      <c r="H55" t="s">
         <v>179</v>
       </c>
-      <c r="I55" s="0">
+      <c r="I55">
         <v>7076399</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" t="s" s="0">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
         <v>391</v>
       </c>
-      <c r="B56" t="s" s="0">
+      <c r="B56" t="s">
         <v>180</v>
       </c>
-      <c r="C56" t="s" s="0">
+      <c r="C56" t="s">
         <v>56</v>
       </c>
-      <c r="D56" t="s" s="0">
+      <c r="D56" t="s">
         <v>7</v>
       </c>
-      <c r="E56" s="0">
+      <c r="E56">
         <v>23</v>
       </c>
-      <c r="F56" t="s" s="0">
+      <c r="F56" t="s">
         <v>181</v>
       </c>
-      <c r="G56" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H56" t="s" s="0">
+      <c r="G56" t="s">
+        <v>17</v>
+      </c>
+      <c r="H56" t="s">
         <v>182</v>
       </c>
-      <c r="I56" s="0">
+      <c r="I56">
         <v>5581452</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" t="s" s="0">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
         <v>392</v>
       </c>
-      <c r="B57" t="s" s="0">
+      <c r="B57" t="s">
         <v>183</v>
       </c>
-      <c r="C57" t="s" s="0">
+      <c r="C57" t="s">
         <v>56</v>
       </c>
-      <c r="D57" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E57" s="0">
+      <c r="D57" t="s">
+        <v>8</v>
+      </c>
+      <c r="E57">
         <v>22</v>
       </c>
-      <c r="F57" t="s" s="0">
+      <c r="F57" t="s">
         <v>184</v>
       </c>
-      <c r="G57" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H57" t="s" s="0">
+      <c r="G57" t="s">
+        <v>17</v>
+      </c>
+      <c r="H57" t="s">
         <v>185</v>
       </c>
-      <c r="I57" s="0">
+      <c r="I57">
         <v>3474559</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" t="s" s="0">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
         <v>393</v>
       </c>
-      <c r="B58" t="s" s="0">
+      <c r="B58" t="s">
         <v>186</v>
       </c>
-      <c r="C58" t="s" s="0">
+      <c r="C58" t="s">
         <v>56</v>
       </c>
-      <c r="D58" t="s" s="0">
+      <c r="D58" t="s">
         <v>7</v>
       </c>
-      <c r="E58" s="0">
+      <c r="E58">
         <v>28</v>
       </c>
-      <c r="F58" t="s" s="0">
+      <c r="F58" t="s">
         <v>187</v>
       </c>
-      <c r="G58" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H58" t="s" s="0">
+      <c r="G58" t="s">
+        <v>17</v>
+      </c>
+      <c r="H58" t="s">
         <v>188</v>
       </c>
-      <c r="I58" s="0">
+      <c r="I58">
         <v>3873886</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" t="s" s="0">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
         <v>394</v>
       </c>
-      <c r="B59" t="s" s="0">
+      <c r="B59" t="s">
         <v>189</v>
       </c>
-      <c r="C59" t="s" s="0">
+      <c r="C59" t="s">
         <v>56</v>
       </c>
-      <c r="D59" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E59" s="0">
+      <c r="D59" t="s">
+        <v>8</v>
+      </c>
+      <c r="E59">
         <v>30</v>
       </c>
-      <c r="F59" t="s" s="0">
+      <c r="F59" t="s">
         <v>190</v>
       </c>
-      <c r="G59" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H59" t="s" s="0">
+      <c r="G59" t="s">
+        <v>17</v>
+      </c>
+      <c r="H59" t="s">
         <v>191</v>
       </c>
-      <c r="I59" s="0">
+      <c r="I59">
         <v>3607945</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" t="s" s="0">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
         <v>395</v>
       </c>
-      <c r="B60" t="s" s="0">
+      <c r="B60" t="s">
         <v>192</v>
       </c>
-      <c r="C60" t="s" s="0">
+      <c r="C60" t="s">
         <v>5</v>
       </c>
-      <c r="D60" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E60" s="0">
+      <c r="D60" t="s">
+        <v>8</v>
+      </c>
+      <c r="E60">
         <v>55</v>
       </c>
-      <c r="F60" t="s" s="0">
+      <c r="F60" t="s">
         <v>193</v>
       </c>
-      <c r="G60" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H60" t="s" s="0">
+      <c r="G60" t="s">
+        <v>17</v>
+      </c>
+      <c r="H60" t="s">
         <v>194</v>
       </c>
-      <c r="I60" s="0">
+      <c r="I60">
         <v>5903486</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" t="s" s="0">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
         <v>396</v>
       </c>
-      <c r="B61" t="s" s="0">
+      <c r="B61" t="s">
         <v>195</v>
       </c>
-      <c r="C61" t="s" s="0">
+      <c r="C61" t="s">
         <v>4</v>
       </c>
-      <c r="D61" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E61" s="0">
+      <c r="D61" t="s">
+        <v>8</v>
+      </c>
+      <c r="E61">
         <v>31</v>
       </c>
-      <c r="F61" t="s" s="0">
+      <c r="F61" t="s">
         <v>196</v>
       </c>
-      <c r="G61" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H61" t="s" s="0">
+      <c r="G61" t="s">
+        <v>17</v>
+      </c>
+      <c r="H61" t="s">
         <v>197</v>
       </c>
-      <c r="I61" s="0">
+      <c r="I61">
         <v>6280079</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" t="s" s="0">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
         <v>397</v>
       </c>
-      <c r="B62" t="s" s="0">
+      <c r="B62" t="s">
         <v>198</v>
       </c>
-      <c r="C62" t="s" s="0">
+      <c r="C62" t="s">
         <v>49</v>
       </c>
-      <c r="D62" t="s" s="0">
+      <c r="D62" t="s">
         <v>7</v>
       </c>
-      <c r="E62" s="0">
+      <c r="E62">
         <v>34</v>
       </c>
-      <c r="F62" t="s" s="0">
+      <c r="F62" t="s">
         <v>199</v>
       </c>
-      <c r="G62" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H62" t="s" s="0">
+      <c r="G62" t="s">
+        <v>17</v>
+      </c>
+      <c r="H62" t="s">
         <v>200</v>
       </c>
-      <c r="I62" s="0">
+      <c r="I62">
         <v>9217628</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" t="s" s="0">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
         <v>398</v>
       </c>
-      <c r="B63" t="s" s="0">
+      <c r="B63" t="s">
         <v>201</v>
       </c>
-      <c r="C63" t="s" s="0">
+      <c r="C63" t="s">
         <v>49</v>
       </c>
-      <c r="D63" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E63" s="0">
+      <c r="D63" t="s">
+        <v>8</v>
+      </c>
+      <c r="E63">
         <v>55</v>
       </c>
-      <c r="F63" t="s" s="0">
+      <c r="F63" t="s">
         <v>202</v>
       </c>
-      <c r="G63" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H63" t="s" s="0">
+      <c r="G63" t="s">
+        <v>17</v>
+      </c>
+      <c r="H63" t="s">
         <v>203</v>
       </c>
-      <c r="I63" s="0">
+      <c r="I63">
         <v>1894489</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" t="s" s="0">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
         <v>399</v>
       </c>
-      <c r="B64" t="s" s="0">
+      <c r="B64" t="s">
         <v>204</v>
       </c>
-      <c r="C64" t="s" s="0">
+      <c r="C64" t="s">
         <v>6</v>
       </c>
-      <c r="D64" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E64" s="0">
+      <c r="D64" t="s">
+        <v>8</v>
+      </c>
+      <c r="E64">
         <v>65</v>
       </c>
-      <c r="F64" t="s" s="0">
+      <c r="F64" t="s">
         <v>205</v>
       </c>
-      <c r="G64" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H64" t="s" s="0">
+      <c r="G64" t="s">
+        <v>17</v>
+      </c>
+      <c r="H64" t="s">
         <v>206</v>
       </c>
-      <c r="I64" s="0">
+      <c r="I64">
         <v>7076473</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" t="s" s="0">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
         <v>400</v>
       </c>
-      <c r="B65" t="s" s="0">
+      <c r="B65" t="s">
         <v>207</v>
       </c>
-      <c r="C65" t="s" s="0">
+      <c r="C65" t="s">
         <v>49</v>
       </c>
-      <c r="D65" t="s" s="0">
+      <c r="D65" t="s">
         <v>7</v>
       </c>
-      <c r="E65" s="0">
+      <c r="E65">
         <v>56</v>
       </c>
-      <c r="F65" t="s" s="0">
+      <c r="F65" t="s">
         <v>208</v>
       </c>
-      <c r="G65" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H65" t="s" s="0">
+      <c r="G65" t="s">
+        <v>17</v>
+      </c>
+      <c r="H65" t="s">
         <v>209</v>
       </c>
-      <c r="I65" s="0">
+      <c r="I65">
         <v>8890120</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" t="s" s="0">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
         <v>401</v>
       </c>
-      <c r="B66" t="s" s="0">
+      <c r="B66" t="s">
         <v>210</v>
       </c>
-      <c r="C66" t="s" s="0">
+      <c r="C66" t="s">
         <v>27</v>
       </c>
-      <c r="D66" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E66" s="0">
+      <c r="D66" t="s">
+        <v>8</v>
+      </c>
+      <c r="E66">
         <v>34</v>
       </c>
-      <c r="F66" t="s" s="0">
+      <c r="F66" t="s">
         <v>211</v>
       </c>
-      <c r="G66" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H66" t="s" s="0">
+      <c r="G66" t="s">
+        <v>17</v>
+      </c>
+      <c r="H66" t="s">
         <v>212</v>
       </c>
-      <c r="I66" s="0">
+      <c r="I66">
         <v>1822054</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" t="s" s="0">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
         <v>402</v>
       </c>
-      <c r="B67" t="s" s="0">
+      <c r="B67" t="s">
         <v>213</v>
       </c>
-      <c r="C67" t="s" s="0">
+      <c r="C67" t="s">
         <v>56</v>
       </c>
-      <c r="D67" t="s" s="0">
+      <c r="D67" t="s">
         <v>7</v>
       </c>
-      <c r="E67" s="0">
+      <c r="E67">
         <v>63</v>
       </c>
-      <c r="F67" t="s" s="0">
+      <c r="F67" t="s">
         <v>214</v>
       </c>
-      <c r="G67" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H67" t="s" s="0">
+      <c r="G67" t="s">
+        <v>17</v>
+      </c>
+      <c r="H67" t="s">
         <v>215</v>
       </c>
-      <c r="I67" s="0">
+      <c r="I67">
         <v>3713226</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" t="s" s="0">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
         <v>403</v>
       </c>
-      <c r="B68" t="s" s="0">
+      <c r="B68" t="s">
         <v>216</v>
       </c>
-      <c r="C68" t="s" s="0">
+      <c r="C68" t="s">
         <v>56</v>
       </c>
-      <c r="D68" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E68" s="0">
+      <c r="D68" t="s">
+        <v>8</v>
+      </c>
+      <c r="E68">
         <v>49</v>
       </c>
-      <c r="F68" t="s" s="0">
+      <c r="F68" t="s">
         <v>217</v>
       </c>
-      <c r="G68" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H68" t="s" s="0">
+      <c r="G68" t="s">
+        <v>17</v>
+      </c>
+      <c r="H68" t="s">
         <v>218</v>
       </c>
-      <c r="I68" s="0">
+      <c r="I68">
         <v>4900839</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" t="s" s="0">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
         <v>404</v>
       </c>
-      <c r="B69" t="s" s="0">
+      <c r="B69" t="s">
         <v>219</v>
       </c>
-      <c r="C69" t="s" s="0">
+      <c r="C69" t="s">
         <v>93</v>
       </c>
-      <c r="D69" t="s" s="0">
+      <c r="D69" t="s">
         <v>7</v>
       </c>
-      <c r="E69" s="0">
+      <c r="E69">
         <v>22</v>
       </c>
-      <c r="F69" t="s" s="0">
+      <c r="F69" t="s">
         <v>220</v>
       </c>
-      <c r="G69" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H69" t="s" s="0">
+      <c r="G69" t="s">
+        <v>17</v>
+      </c>
+      <c r="H69" t="s">
         <v>221</v>
       </c>
-      <c r="I69" s="0">
+      <c r="I69">
         <v>8613278</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" t="s" s="0">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
         <v>405</v>
       </c>
-      <c r="B70" t="s" s="0">
+      <c r="B70" t="s">
         <v>222</v>
       </c>
-      <c r="C70" t="s" s="0">
+      <c r="C70" t="s">
         <v>4</v>
       </c>
-      <c r="D70" t="s" s="0">
+      <c r="D70" t="s">
         <v>7</v>
       </c>
-      <c r="E70" s="0">
+      <c r="E70">
         <v>57</v>
       </c>
-      <c r="F70" t="s" s="0">
+      <c r="F70" t="s">
         <v>223</v>
       </c>
-      <c r="G70" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H70" t="s" s="0">
+      <c r="G70" t="s">
+        <v>17</v>
+      </c>
+      <c r="H70" t="s">
         <v>224</v>
       </c>
-      <c r="I70" s="0">
+      <c r="I70">
         <v>1890269</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" t="s" s="0">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
         <v>406</v>
       </c>
-      <c r="B71" t="s" s="0">
+      <c r="B71" t="s">
         <v>225</v>
       </c>
-      <c r="C71" t="s" s="0">
+      <c r="C71" t="s">
         <v>49</v>
       </c>
-      <c r="D71" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E71" s="0">
+      <c r="D71" t="s">
+        <v>8</v>
+      </c>
+      <c r="E71">
         <v>29</v>
       </c>
-      <c r="F71" t="s" s="0">
+      <c r="F71" t="s">
         <v>226</v>
       </c>
-      <c r="G71" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H71" t="s" s="0">
+      <c r="G71" t="s">
+        <v>17</v>
+      </c>
+      <c r="H71" t="s">
         <v>227</v>
       </c>
-      <c r="I71" s="0">
+      <c r="I71">
         <v>2552925</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" t="s" s="0">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
         <v>407</v>
       </c>
-      <c r="B72" t="s" s="0">
+      <c r="B72" t="s">
         <v>228</v>
       </c>
-      <c r="C72" t="s" s="0">
+      <c r="C72" t="s">
         <v>56</v>
       </c>
-      <c r="D72" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E72" s="0">
+      <c r="D72" t="s">
+        <v>8</v>
+      </c>
+      <c r="E72">
         <v>60</v>
       </c>
-      <c r="F72" t="s" s="0">
+      <c r="F72" t="s">
         <v>229</v>
       </c>
-      <c r="G72" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H72" t="s" s="0">
+      <c r="G72" t="s">
+        <v>17</v>
+      </c>
+      <c r="H72" t="s">
         <v>230</v>
       </c>
-      <c r="I72" s="0">
+      <c r="I72">
         <v>6822517</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73" t="s" s="0">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
         <v>408</v>
       </c>
-      <c r="B73" t="s" s="0">
+      <c r="B73" t="s">
         <v>231</v>
       </c>
-      <c r="C73" t="s" s="0">
+      <c r="C73" t="s">
         <v>5</v>
       </c>
-      <c r="D73" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E73" s="0">
+      <c r="D73" t="s">
+        <v>8</v>
+      </c>
+      <c r="E73">
         <v>44</v>
       </c>
-      <c r="F73" t="s" s="0">
+      <c r="F73" t="s">
         <v>232</v>
       </c>
-      <c r="G73" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H73" t="s" s="0">
+      <c r="G73" t="s">
+        <v>17</v>
+      </c>
+      <c r="H73" t="s">
         <v>233</v>
       </c>
-      <c r="I73" s="0">
+      <c r="I73">
         <v>7665699</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" t="s" s="0">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
         <v>409</v>
       </c>
-      <c r="B74" t="s" s="0">
+      <c r="B74" t="s">
         <v>234</v>
       </c>
-      <c r="C74" t="s" s="0">
+      <c r="C74" t="s">
         <v>4</v>
       </c>
-      <c r="D74" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E74" s="0">
+      <c r="D74" t="s">
+        <v>8</v>
+      </c>
+      <c r="E74">
         <v>43</v>
       </c>
-      <c r="F74" t="s" s="0">
+      <c r="F74" t="s">
         <v>235</v>
       </c>
-      <c r="G74" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H74" t="s" s="0">
+      <c r="G74" t="s">
+        <v>17</v>
+      </c>
+      <c r="H74" t="s">
         <v>236</v>
       </c>
-      <c r="I74" s="0">
+      <c r="I74">
         <v>5533098</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75" t="s" s="0">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
         <v>410</v>
       </c>
-      <c r="B75" t="s" s="0">
+      <c r="B75" t="s">
         <v>237</v>
       </c>
-      <c r="C75" t="s" s="0">
+      <c r="C75" t="s">
         <v>5</v>
       </c>
-      <c r="D75" t="s" s="0">
+      <c r="D75" t="s">
         <v>7</v>
       </c>
-      <c r="E75" s="0">
+      <c r="E75">
         <v>48</v>
       </c>
-      <c r="F75" t="s" s="0">
+      <c r="F75" t="s">
         <v>238</v>
       </c>
-      <c r="G75" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H75" t="s" s="0">
+      <c r="G75" t="s">
+        <v>17</v>
+      </c>
+      <c r="H75" t="s">
         <v>239</v>
       </c>
-      <c r="I75" s="0">
+      <c r="I75">
         <v>2818715</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76" t="s" s="0">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
         <v>411</v>
       </c>
-      <c r="B76" t="s" s="0">
+      <c r="B76" t="s">
         <v>240</v>
       </c>
-      <c r="C76" t="s" s="0">
+      <c r="C76" t="s">
         <v>56</v>
       </c>
-      <c r="D76" t="s" s="0">
+      <c r="D76" t="s">
         <v>7</v>
       </c>
-      <c r="E76" s="0">
+      <c r="E76">
         <v>55</v>
       </c>
-      <c r="F76" t="s" s="0">
+      <c r="F76" t="s">
         <v>241</v>
       </c>
-      <c r="G76" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H76" t="s" s="0">
+      <c r="G76" t="s">
+        <v>17</v>
+      </c>
+      <c r="H76" t="s">
         <v>242</v>
       </c>
-      <c r="I76" s="0">
+      <c r="I76">
         <v>6021521</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77" t="s" s="0">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
         <v>412</v>
       </c>
-      <c r="B77" t="s" s="0">
+      <c r="B77" t="s">
         <v>243</v>
       </c>
-      <c r="C77" t="s" s="0">
+      <c r="C77" t="s">
         <v>49</v>
       </c>
-      <c r="D77" t="s" s="0">
+      <c r="D77" t="s">
         <v>7</v>
       </c>
-      <c r="E77" s="0">
+      <c r="E77">
         <v>62</v>
       </c>
-      <c r="F77" t="s" s="0">
+      <c r="F77" t="s">
         <v>244</v>
       </c>
-      <c r="G77" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H77" t="s" s="0">
+      <c r="G77" t="s">
+        <v>17</v>
+      </c>
+      <c r="H77" t="s">
         <v>245</v>
       </c>
-      <c r="I77" s="0">
+      <c r="I77">
         <v>6574157</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A78" t="s" s="0">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
         <v>413</v>
       </c>
-      <c r="B78" t="s" s="0">
+      <c r="B78" t="s">
         <v>246</v>
       </c>
-      <c r="C78" t="s" s="0">
+      <c r="C78" t="s">
         <v>27</v>
       </c>
-      <c r="D78" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E78" s="0">
+      <c r="D78" t="s">
+        <v>8</v>
+      </c>
+      <c r="E78">
         <v>50</v>
       </c>
-      <c r="F78" t="s" s="0">
+      <c r="F78" t="s">
         <v>247</v>
       </c>
-      <c r="G78" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H78" t="s" s="0">
+      <c r="G78" t="s">
+        <v>17</v>
+      </c>
+      <c r="H78" t="s">
         <v>248</v>
       </c>
-      <c r="I78" s="0">
+      <c r="I78">
         <v>2683176</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79" t="s" s="0">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
         <v>414</v>
       </c>
-      <c r="B79" t="s" s="0">
+      <c r="B79" t="s">
         <v>249</v>
       </c>
-      <c r="C79" t="s" s="0">
+      <c r="C79" t="s">
         <v>5</v>
       </c>
-      <c r="D79" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E79" s="0">
+      <c r="D79" t="s">
+        <v>8</v>
+      </c>
+      <c r="E79">
         <v>22</v>
       </c>
-      <c r="F79" t="s" s="0">
+      <c r="F79" t="s">
         <v>250</v>
       </c>
-      <c r="G79" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H79" t="s" s="0">
+      <c r="G79" t="s">
+        <v>17</v>
+      </c>
+      <c r="H79" t="s">
         <v>251</v>
       </c>
-      <c r="I79" s="0">
+      <c r="I79">
         <v>7083693</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A80" t="s" s="0">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
         <v>415</v>
       </c>
-      <c r="B80" t="s" s="0">
+      <c r="B80" t="s">
         <v>252</v>
       </c>
-      <c r="C80" t="s" s="0">
+      <c r="C80" t="s">
         <v>49</v>
       </c>
-      <c r="D80" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E80" s="0">
+      <c r="D80" t="s">
+        <v>8</v>
+      </c>
+      <c r="E80">
         <v>46</v>
       </c>
-      <c r="F80" t="s" s="0">
+      <c r="F80" t="s">
         <v>253</v>
       </c>
-      <c r="G80" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H80" t="s" s="0">
+      <c r="G80" t="s">
+        <v>17</v>
+      </c>
+      <c r="H80" t="s">
         <v>254</v>
       </c>
-      <c r="I80" s="0">
+      <c r="I80">
         <v>5228382</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81" t="s" s="0">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
         <v>416</v>
       </c>
-      <c r="B81" t="s" s="0">
+      <c r="B81" t="s">
         <v>255</v>
       </c>
-      <c r="C81" t="s" s="0">
+      <c r="C81" t="s">
         <v>6</v>
       </c>
-      <c r="D81" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E81" s="0">
+      <c r="D81" t="s">
+        <v>8</v>
+      </c>
+      <c r="E81">
         <v>40</v>
       </c>
-      <c r="F81" t="s" s="0">
+      <c r="F81" t="s">
         <v>256</v>
       </c>
-      <c r="G81" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H81" t="s" s="0">
+      <c r="G81" t="s">
+        <v>17</v>
+      </c>
+      <c r="H81" t="s">
         <v>257</v>
       </c>
-      <c r="I81" s="0">
+      <c r="I81">
         <v>2740643</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A82" t="s" s="0">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
         <v>417</v>
       </c>
-      <c r="B82" t="s" s="0">
+      <c r="B82" t="s">
         <v>258</v>
       </c>
-      <c r="C82" t="s" s="0">
+      <c r="C82" t="s">
         <v>93</v>
       </c>
-      <c r="D82" t="s" s="0">
+      <c r="D82" t="s">
         <v>7</v>
       </c>
-      <c r="E82" s="0">
+      <c r="E82">
         <v>54</v>
       </c>
-      <c r="F82" t="s" s="0">
+      <c r="F82" t="s">
         <v>259</v>
       </c>
-      <c r="G82" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H82" t="s" s="0">
+      <c r="G82" t="s">
+        <v>17</v>
+      </c>
+      <c r="H82" t="s">
         <v>260</v>
       </c>
-      <c r="I82" s="0">
+      <c r="I82">
         <v>7961296</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" t="s" s="0">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
         <v>418</v>
       </c>
-      <c r="B83" t="s" s="0">
+      <c r="B83" t="s">
         <v>261</v>
       </c>
-      <c r="C83" t="s" s="0">
+      <c r="C83" t="s">
         <v>5</v>
       </c>
-      <c r="D83" t="s" s="0">
+      <c r="D83" t="s">
         <v>7</v>
       </c>
-      <c r="E83" s="0">
+      <c r="E83">
         <v>33</v>
       </c>
-      <c r="F83" t="s" s="0">
+      <c r="F83" t="s">
         <v>262</v>
       </c>
-      <c r="G83" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H83" t="s" s="0">
+      <c r="G83" t="s">
+        <v>17</v>
+      </c>
+      <c r="H83" t="s">
         <v>263</v>
       </c>
-      <c r="I83" s="0">
+      <c r="I83">
         <v>9737290</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" t="s" s="0">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
         <v>419</v>
       </c>
-      <c r="B84" t="s" s="0">
+      <c r="B84" t="s">
         <v>264</v>
       </c>
-      <c r="C84" t="s" s="0">
+      <c r="C84" t="s">
         <v>5</v>
       </c>
-      <c r="D84" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E84" s="0">
+      <c r="D84" t="s">
+        <v>8</v>
+      </c>
+      <c r="E84">
         <v>28</v>
       </c>
-      <c r="F84" t="s" s="0">
+      <c r="F84" t="s">
         <v>265</v>
       </c>
-      <c r="G84" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H84" t="s" s="0">
+      <c r="G84" t="s">
+        <v>17</v>
+      </c>
+      <c r="H84" t="s">
         <v>266</v>
       </c>
-      <c r="I84" s="0">
+      <c r="I84">
         <v>3253337</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A85" t="s" s="0">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
         <v>420</v>
       </c>
-      <c r="B85" t="s" s="0">
+      <c r="B85" t="s">
         <v>267</v>
       </c>
-      <c r="C85" t="s" s="0">
+      <c r="C85" t="s">
         <v>5</v>
       </c>
-      <c r="D85" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E85" s="0">
+      <c r="D85" t="s">
+        <v>8</v>
+      </c>
+      <c r="E85">
         <v>57</v>
       </c>
-      <c r="F85" t="s" s="0">
+      <c r="F85" t="s">
         <v>268</v>
       </c>
-      <c r="G85" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H85" t="s" s="0">
+      <c r="G85" t="s">
+        <v>17</v>
+      </c>
+      <c r="H85" t="s">
         <v>269</v>
       </c>
-      <c r="I85" s="0">
+      <c r="I85">
         <v>3477827</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A86" t="s" s="0">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
         <v>421</v>
       </c>
-      <c r="B86" t="s" s="0">
+      <c r="B86" t="s">
         <v>270</v>
       </c>
-      <c r="C86" t="s" s="0">
+      <c r="C86" t="s">
         <v>93</v>
       </c>
-      <c r="D86" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E86" s="0">
+      <c r="D86" t="s">
+        <v>8</v>
+      </c>
+      <c r="E86">
         <v>23</v>
       </c>
-      <c r="F86" t="s" s="0">
+      <c r="F86" t="s">
         <v>271</v>
       </c>
-      <c r="G86" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H86" t="s" s="0">
+      <c r="G86" t="s">
+        <v>17</v>
+      </c>
+      <c r="H86" t="s">
         <v>272</v>
       </c>
-      <c r="I86" s="0">
+      <c r="I86">
         <v>6484201</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87" t="s" s="0">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
         <v>422</v>
       </c>
-      <c r="B87" t="s" s="0">
+      <c r="B87" t="s">
         <v>273</v>
       </c>
-      <c r="C87" t="s" s="0">
+      <c r="C87" t="s">
         <v>6</v>
       </c>
-      <c r="D87" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E87" s="0">
+      <c r="D87" t="s">
+        <v>8</v>
+      </c>
+      <c r="E87">
         <v>26</v>
       </c>
-      <c r="F87" t="s" s="0">
+      <c r="F87" t="s">
         <v>274</v>
       </c>
-      <c r="G87" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H87" t="s" s="0">
+      <c r="G87" t="s">
+        <v>17</v>
+      </c>
+      <c r="H87" t="s">
         <v>275</v>
       </c>
-      <c r="I87" s="0">
+      <c r="I87">
         <v>2137184</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A88" t="s" s="0">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
         <v>423</v>
       </c>
-      <c r="B88" t="s" s="0">
+      <c r="B88" t="s">
         <v>276</v>
       </c>
-      <c r="C88" t="s" s="0">
+      <c r="C88" t="s">
         <v>49</v>
       </c>
-      <c r="D88" t="s" s="0">
+      <c r="D88" t="s">
         <v>7</v>
       </c>
-      <c r="E88" s="0">
+      <c r="E88">
         <v>43</v>
       </c>
-      <c r="F88" t="s" s="0">
+      <c r="F88" t="s">
         <v>277</v>
       </c>
-      <c r="G88" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H88" t="s" s="0">
+      <c r="G88" t="s">
+        <v>17</v>
+      </c>
+      <c r="H88" t="s">
         <v>278</v>
       </c>
-      <c r="I88" s="0">
+      <c r="I88">
         <v>5828649</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A89" t="s" s="0">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
         <v>424</v>
       </c>
-      <c r="B89" t="s" s="0">
+      <c r="B89" t="s">
         <v>279</v>
       </c>
-      <c r="C89" t="s" s="0">
+      <c r="C89" t="s">
         <v>49</v>
       </c>
-      <c r="D89" t="s" s="0">
+      <c r="D89" t="s">
         <v>7</v>
       </c>
-      <c r="E89" s="0">
+      <c r="E89">
         <v>35</v>
       </c>
-      <c r="F89" t="s" s="0">
+      <c r="F89" t="s">
         <v>280</v>
       </c>
-      <c r="G89" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H89" t="s" s="0">
+      <c r="G89" t="s">
+        <v>17</v>
+      </c>
+      <c r="H89" t="s">
         <v>281</v>
       </c>
-      <c r="I89" s="0">
+      <c r="I89">
         <v>9314586</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A90" t="s" s="0">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
         <v>425</v>
       </c>
-      <c r="B90" t="s" s="0">
+      <c r="B90" t="s">
         <v>282</v>
       </c>
-      <c r="C90" t="s" s="0">
+      <c r="C90" t="s">
         <v>49</v>
       </c>
-      <c r="D90" t="s" s="0">
+      <c r="D90" t="s">
         <v>7</v>
       </c>
-      <c r="E90" s="0">
+      <c r="E90">
         <v>52</v>
       </c>
-      <c r="F90" t="s" s="0">
+      <c r="F90" t="s">
         <v>283</v>
       </c>
-      <c r="G90" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H90" t="s" s="0">
+      <c r="G90" t="s">
+        <v>17</v>
+      </c>
+      <c r="H90" t="s">
         <v>284</v>
       </c>
-      <c r="I90" s="0">
+      <c r="I90">
         <v>5930324</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A91" t="s" s="0">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
         <v>426</v>
       </c>
-      <c r="B91" t="s" s="0">
+      <c r="B91" t="s">
         <v>285</v>
       </c>
-      <c r="C91" t="s" s="0">
+      <c r="C91" t="s">
         <v>56</v>
       </c>
-      <c r="D91" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E91" s="0">
+      <c r="D91" t="s">
+        <v>8</v>
+      </c>
+      <c r="E91">
         <v>42</v>
       </c>
-      <c r="F91" t="s" s="0">
+      <c r="F91" t="s">
         <v>286</v>
       </c>
-      <c r="G91" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H91" t="s" s="0">
+      <c r="G91" t="s">
+        <v>17</v>
+      </c>
+      <c r="H91" t="s">
         <v>287</v>
       </c>
-      <c r="I91" s="0">
+      <c r="I91">
         <v>4353913</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A92" t="s" s="0">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
         <v>427</v>
       </c>
-      <c r="B92" t="s" s="0">
+      <c r="B92" t="s">
         <v>288</v>
       </c>
-      <c r="C92" t="s" s="0">
+      <c r="C92" t="s">
         <v>93</v>
       </c>
-      <c r="D92" t="s" s="0">
+      <c r="D92" t="s">
         <v>7</v>
       </c>
-      <c r="E92" s="0">
+      <c r="E92">
         <v>37</v>
       </c>
-      <c r="F92" t="s" s="0">
+      <c r="F92" t="s">
         <v>289</v>
       </c>
-      <c r="G92" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H92" t="s" s="0">
+      <c r="G92" t="s">
+        <v>17</v>
+      </c>
+      <c r="H92" t="s">
         <v>290</v>
       </c>
-      <c r="I92" s="0">
+      <c r="I92">
         <v>3044136</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A93" t="s" s="0">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
         <v>428</v>
       </c>
-      <c r="B93" t="s" s="0">
+      <c r="B93" t="s">
         <v>291</v>
       </c>
-      <c r="C93" t="s" s="0">
+      <c r="C93" t="s">
         <v>4</v>
       </c>
-      <c r="D93" t="s" s="0">
+      <c r="D93" t="s">
         <v>7</v>
       </c>
-      <c r="E93" s="0">
+      <c r="E93">
         <v>39</v>
       </c>
-      <c r="F93" t="s" s="0">
+      <c r="F93" t="s">
         <v>292</v>
       </c>
-      <c r="G93" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H93" t="s" s="0">
+      <c r="G93" t="s">
+        <v>17</v>
+      </c>
+      <c r="H93" t="s">
         <v>293</v>
       </c>
-      <c r="I93" s="0">
+      <c r="I93">
         <v>5228200</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A94" t="s" s="0">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
         <v>429</v>
       </c>
-      <c r="B94" t="s" s="0">
+      <c r="B94" t="s">
         <v>294</v>
       </c>
-      <c r="C94" t="s" s="0">
+      <c r="C94" t="s">
         <v>93</v>
       </c>
-      <c r="D94" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E94" s="0">
+      <c r="D94" t="s">
+        <v>8</v>
+      </c>
+      <c r="E94">
         <v>21</v>
       </c>
-      <c r="F94" t="s" s="0">
+      <c r="F94" t="s">
         <v>295</v>
       </c>
-      <c r="G94" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H94" t="s" s="0">
+      <c r="G94" t="s">
+        <v>17</v>
+      </c>
+      <c r="H94" t="s">
         <v>296</v>
       </c>
-      <c r="I94" s="0">
+      <c r="I94">
         <v>9912130</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A95" t="s" s="0">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
         <v>430</v>
       </c>
-      <c r="B95" t="s" s="0">
+      <c r="B95" t="s">
         <v>297</v>
       </c>
-      <c r="C95" t="s" s="0">
+      <c r="C95" t="s">
         <v>49</v>
       </c>
-      <c r="D95" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E95" s="0">
+      <c r="D95" t="s">
+        <v>8</v>
+      </c>
+      <c r="E95">
         <v>61</v>
       </c>
-      <c r="F95" t="s" s="0">
+      <c r="F95" t="s">
         <v>298</v>
       </c>
-      <c r="G95" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H95" t="s" s="0">
+      <c r="G95" t="s">
+        <v>17</v>
+      </c>
+      <c r="H95" t="s">
         <v>299</v>
       </c>
-      <c r="I95" s="0">
+      <c r="I95">
         <v>7542700</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A96" t="s" s="0">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
         <v>431</v>
       </c>
-      <c r="B96" t="s" s="0">
+      <c r="B96" t="s">
         <v>300</v>
       </c>
-      <c r="C96" t="s" s="0">
+      <c r="C96" t="s">
         <v>56</v>
       </c>
-      <c r="D96" t="s" s="0">
+      <c r="D96" t="s">
         <v>7</v>
       </c>
-      <c r="E96" s="0">
+      <c r="E96">
         <v>62</v>
       </c>
-      <c r="F96" t="s" s="0">
+      <c r="F96" t="s">
         <v>301</v>
       </c>
-      <c r="G96" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H96" t="s" s="0">
+      <c r="G96" t="s">
+        <v>17</v>
+      </c>
+      <c r="H96" t="s">
         <v>302</v>
       </c>
-      <c r="I96" s="0">
+      <c r="I96">
         <v>8296226</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A97" t="s" s="0">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
         <v>432</v>
       </c>
-      <c r="B97" t="s" s="0">
+      <c r="B97" t="s">
         <v>303</v>
       </c>
-      <c r="C97" t="s" s="0">
+      <c r="C97" t="s">
         <v>93</v>
       </c>
-      <c r="D97" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E97" s="0">
+      <c r="D97" t="s">
+        <v>8</v>
+      </c>
+      <c r="E97">
         <v>51</v>
       </c>
-      <c r="F97" t="s" s="0">
+      <c r="F97" t="s">
         <v>304</v>
       </c>
-      <c r="G97" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H97" t="s" s="0">
+      <c r="G97" t="s">
+        <v>17</v>
+      </c>
+      <c r="H97" t="s">
         <v>305</v>
       </c>
-      <c r="I97" s="0">
+      <c r="I97">
         <v>3368363</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A98" t="s" s="0">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
         <v>433</v>
       </c>
-      <c r="B98" t="s" s="0">
+      <c r="B98" t="s">
         <v>306</v>
       </c>
-      <c r="C98" t="s" s="0">
+      <c r="C98" t="s">
         <v>56</v>
       </c>
-      <c r="D98" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E98" s="0">
+      <c r="D98" t="s">
+        <v>8</v>
+      </c>
+      <c r="E98">
         <v>37</v>
       </c>
-      <c r="F98" t="s" s="0">
+      <c r="F98" t="s">
         <v>307</v>
       </c>
-      <c r="G98" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H98" t="s" s="0">
+      <c r="G98" t="s">
+        <v>17</v>
+      </c>
+      <c r="H98" t="s">
         <v>308</v>
       </c>
-      <c r="I98" s="0">
+      <c r="I98">
         <v>8573375</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A99" t="s" s="0">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
         <v>434</v>
       </c>
-      <c r="B99" t="s" s="0">
+      <c r="B99" t="s">
         <v>309</v>
       </c>
-      <c r="C99" t="s" s="0">
+      <c r="C99" t="s">
         <v>56</v>
       </c>
-      <c r="D99" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E99" s="0">
+      <c r="D99" t="s">
+        <v>8</v>
+      </c>
+      <c r="E99">
         <v>56</v>
       </c>
-      <c r="F99" t="s" s="0">
+      <c r="F99" t="s">
         <v>310</v>
       </c>
-      <c r="G99" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H99" t="s" s="0">
+      <c r="G99" t="s">
+        <v>17</v>
+      </c>
+      <c r="H99" t="s">
         <v>311</v>
       </c>
-      <c r="I99" s="0">
+      <c r="I99">
         <v>6580060</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A100" t="s" s="0">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
         <v>435</v>
       </c>
-      <c r="B100" t="s" s="0">
+      <c r="B100" t="s">
         <v>312</v>
       </c>
-      <c r="C100" t="s" s="0">
+      <c r="C100" t="s">
         <v>6</v>
       </c>
-      <c r="D100" t="s" s="0">
+      <c r="D100" t="s">
         <v>7</v>
       </c>
-      <c r="E100" s="0">
+      <c r="E100">
         <v>52</v>
       </c>
-      <c r="F100" t="s" s="0">
+      <c r="F100" t="s">
         <v>313</v>
       </c>
-      <c r="G100" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H100" t="s" s="0">
+      <c r="G100" t="s">
+        <v>17</v>
+      </c>
+      <c r="H100" t="s">
         <v>314</v>
       </c>
-      <c r="I100" s="0">
+      <c r="I100">
         <v>2209714</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A101" t="s" s="0">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
         <v>436</v>
       </c>
-      <c r="B101" t="s" s="0">
+      <c r="B101" t="s">
         <v>315</v>
       </c>
-      <c r="C101" t="s" s="0">
+      <c r="C101" t="s">
         <v>4</v>
       </c>
-      <c r="D101" t="s" s="0">
+      <c r="D101" t="s">
         <v>7</v>
       </c>
-      <c r="E101" s="0">
+      <c r="E101">
         <v>51</v>
       </c>
-      <c r="F101" t="s" s="0">
+      <c r="F101" t="s">
         <v>316</v>
       </c>
-      <c r="G101" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H101" t="s" s="0">
+      <c r="G101" t="s">
+        <v>17</v>
+      </c>
+      <c r="H101" t="s">
         <v>317</v>
       </c>
-      <c r="I101" s="0">
+      <c r="I101">
         <v>9295610</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A102" t="s" s="0">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
         <v>437</v>
       </c>
-      <c r="B102" t="s" s="0">
+      <c r="B102" t="s">
         <v>318</v>
       </c>
-      <c r="C102" t="s" s="0">
+      <c r="C102" t="s">
         <v>27</v>
       </c>
-      <c r="D102" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E102" s="0">
+      <c r="D102" t="s">
+        <v>8</v>
+      </c>
+      <c r="E102">
         <v>27</v>
       </c>
-      <c r="F102" t="s" s="0">
+      <c r="F102" t="s">
         <v>319</v>
       </c>
-      <c r="G102" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H102" t="s" s="0">
+      <c r="G102" t="s">
+        <v>17</v>
+      </c>
+      <c r="H102" t="s">
         <v>320</v>
       </c>
-      <c r="I102" s="0">
+      <c r="I102">
         <v>5821986</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A103" t="s" s="0">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
         <v>438</v>
       </c>
-      <c r="B103" t="s" s="0">
+      <c r="B103" t="s">
         <v>321</v>
       </c>
-      <c r="C103" t="s" s="0">
+      <c r="C103" t="s">
         <v>5</v>
       </c>
-      <c r="D103" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E103" s="0">
+      <c r="D103" t="s">
+        <v>8</v>
+      </c>
+      <c r="E103">
         <v>58</v>
       </c>
-      <c r="F103" t="s" s="0">
+      <c r="F103" t="s">
         <v>322</v>
       </c>
-      <c r="G103" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H103" t="s" s="0">
+      <c r="G103" t="s">
+        <v>17</v>
+      </c>
+      <c r="H103" t="s">
         <v>323</v>
       </c>
-      <c r="I103" s="0">
+      <c r="I103">
         <v>8124730</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A104" t="s" s="0">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
         <v>439</v>
       </c>
-      <c r="B104" t="s" s="0">
+      <c r="B104" t="s">
         <v>324</v>
       </c>
-      <c r="C104" t="s" s="0">
+      <c r="C104" t="s">
         <v>27</v>
       </c>
-      <c r="D104" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E104" s="0">
+      <c r="D104" t="s">
+        <v>8</v>
+      </c>
+      <c r="E104">
         <v>29</v>
       </c>
-      <c r="F104" t="s" s="0">
+      <c r="F104" t="s">
         <v>325</v>
       </c>
-      <c r="G104" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H104" t="s" s="0">
+      <c r="G104" t="s">
+        <v>17</v>
+      </c>
+      <c r="H104" t="s">
         <v>326</v>
       </c>
-      <c r="I104" s="0">
+      <c r="I104">
         <v>9429253</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A105" t="s" s="0">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
         <v>440</v>
       </c>
-      <c r="B105" t="s" s="0">
+      <c r="B105" t="s">
         <v>327</v>
       </c>
-      <c r="C105" t="s" s="0">
+      <c r="C105" t="s">
         <v>6</v>
       </c>
-      <c r="D105" t="s" s="0">
+      <c r="D105" t="s">
         <v>7</v>
       </c>
-      <c r="E105" s="0">
+      <c r="E105">
         <v>57</v>
       </c>
-      <c r="F105" t="s" s="0">
+      <c r="F105" t="s">
         <v>328</v>
       </c>
-      <c r="G105" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H105" t="s" s="0">
+      <c r="G105" t="s">
+        <v>17</v>
+      </c>
+      <c r="H105" t="s">
         <v>329</v>
       </c>
-      <c r="I105" s="0">
+      <c r="I105">
         <v>7085811</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A106" t="s" s="0">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
         <v>441</v>
       </c>
-      <c r="B106" t="s" s="0">
+      <c r="B106" t="s">
         <v>332</v>
       </c>
-      <c r="C106" t="s" s="0">
+      <c r="C106" t="s">
         <v>6</v>
       </c>
-      <c r="D106" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E106" s="0">
+      <c r="D106" t="s">
+        <v>8</v>
+      </c>
+      <c r="E106">
         <v>21</v>
       </c>
-      <c r="F106" t="s" s="0">
+      <c r="F106" t="s">
         <v>333</v>
       </c>
-      <c r="G106" t="s" s="0">
+      <c r="G106" t="s">
         <v>334</v>
       </c>
-      <c r="H106" t="s" s="0">
+      <c r="H106" t="s">
         <v>335</v>
       </c>
-      <c r="I106" s="0">
+      <c r="I106">
         <v>12341234</v>
       </c>
     </row>
-    <row r="107">
-      <c r="A107" t="s" s="0">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
         <v>442</v>
       </c>
-      <c r="B107" t="s" s="0">
+      <c r="B107" t="s">
         <v>443</v>
       </c>
-      <c r="C107" t="s" s="0">
+      <c r="C107" t="s">
         <v>4</v>
       </c>
-      <c r="D107" t="s" s="0">
+      <c r="D107" t="s">
         <v>7</v>
       </c>
-      <c r="E107" t="n" s="0">
-        <v>24.0</v>
-      </c>
-      <c r="F107" t="s" s="0">
+      <c r="E107">
+        <v>24</v>
+      </c>
+      <c r="F107" t="s">
         <v>444</v>
       </c>
-      <c r="G107" t="s" s="0">
+      <c r="G107" t="s">
         <v>445</v>
       </c>
-      <c r="H107" t="s" s="0">
+      <c r="H107" t="s">
         <v>446</v>
       </c>
-      <c r="I107" t="n" s="0">
-        <v>1.2341234E7</v>
+      <c r="I107">
+        <v>12341234</v>
       </c>
     </row>
   </sheetData>

--- a/data/UserList.xlsx
+++ b/data/UserList.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e2dc85ffdfb189c0/Desktop/School Projects/SC2002 - OBJECT ORIENTIATED DESIGN ^0 PROGRAMMING/OOP_Proj/data/"/>
     </mc:Choice>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="448">
   <si>
     <t>Name</t>
   </si>
@@ -1361,12 +1361,16 @@
   </si>
   <si>
     <t>sky@walking.com</t>
+  </si>
+  <si>
+    <t>Pwd1234</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1753,12 +1757,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.453125" customWidth="1"/>
-    <col min="2" max="2" width="24.7265625" customWidth="1"/>
-    <col min="3" max="3" width="30.453125" customWidth="1"/>
-    <col min="6" max="6" width="16.453125" customWidth="1"/>
-    <col min="7" max="7" width="15.81640625" customWidth="1"/>
-    <col min="8" max="8" width="35.453125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="10.453125"/>
+    <col min="2" max="2" customWidth="true" width="24.7265625"/>
+    <col min="3" max="3" customWidth="true" width="30.453125"/>
+    <col min="6" max="6" customWidth="true" width="16.453125"/>
+    <col min="7" max="7" customWidth="true" width="15.81640625"/>
+    <col min="8" max="8" customWidth="true" width="35.453125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
@@ -1791,3076 +1795,3076 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>337</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="0">
         <v>45</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s" s="0">
         <v>330</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="0">
         <v>12345678</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>338</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3">
+      <c r="D3" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E3" s="0">
         <v>38</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" t="s" s="0">
         <v>17</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="0">
         <v>12345679</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>339</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="0">
         <v>29</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" t="s" s="0">
         <v>17</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="0">
         <v>12345680</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>340</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="D5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5">
+      <c r="D5" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E5" s="0">
         <v>40</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" t="s" s="0">
         <v>336</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="0">
         <v>12345681</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>341</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="0">
         <v>65</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="G6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="G6" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H6" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="0">
         <v>9458008</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>342</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="0">
         <v>57</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="G7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="G7" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H7" t="s" s="0">
         <v>32</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="0">
         <v>5406679</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>343</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" t="s" s="0">
         <v>33</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="0">
         <v>39</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="G8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" t="s">
+      <c r="G8" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H8" t="s" s="0">
         <v>35</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="0">
         <v>8020791</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>344</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" t="s" s="0">
         <v>36</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="D9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9">
+      <c r="D9" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E9" s="0">
         <v>32</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" t="s" s="0">
         <v>37</v>
       </c>
-      <c r="G9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="G9" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H9" t="s" s="0">
         <v>38</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="0">
         <v>5720360</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>345</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="D10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10">
+      <c r="D10" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E10" s="0">
         <v>45</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" t="s" s="0">
         <v>40</v>
       </c>
-      <c r="G10" t="s">
-        <v>17</v>
-      </c>
-      <c r="H10" t="s">
+      <c r="G10" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H10" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="0">
         <v>9507728</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>346</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" t="s" s="0">
         <v>42</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="D11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11">
+      <c r="D11" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E11" s="0">
         <v>56</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" t="s" s="0">
         <v>43</v>
       </c>
-      <c r="G11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" t="s">
+      <c r="G11" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H11" t="s" s="0">
         <v>44</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="0">
         <v>6810352</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+      <c r="A12" t="s" s="0">
         <v>347</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" t="s" s="0">
         <v>45</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="D12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12">
+      <c r="D12" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E12" s="0">
         <v>27</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" t="s" s="0">
         <v>46</v>
       </c>
-      <c r="G12" t="s">
-        <v>17</v>
-      </c>
-      <c r="H12" t="s">
+      <c r="G12" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H12" t="s" s="0">
         <v>47</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="0">
         <v>5980041</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+      <c r="A13" t="s" s="0">
         <v>348</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="0">
         <v>29</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="G13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H13" t="s">
+      <c r="G13" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H13" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="0">
         <v>5130769</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+      <c r="A14" t="s" s="0">
         <v>349</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="0">
         <v>34</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" t="s" s="0">
         <v>53</v>
       </c>
-      <c r="G14" t="s">
-        <v>17</v>
-      </c>
-      <c r="H14" t="s">
+      <c r="G14" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H14" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="0">
         <v>4446176</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+      <c r="A15" t="s" s="0">
         <v>350</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="D15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15">
+      <c r="D15" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E15" s="0">
         <v>52</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="G15" t="s">
-        <v>17</v>
-      </c>
-      <c r="H15" t="s">
+      <c r="G15" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H15" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="0">
         <v>3504139</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+      <c r="A16" t="s" s="0">
         <v>351</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" t="s" s="0">
         <v>59</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="0">
         <v>43</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" t="s" s="0">
         <v>60</v>
       </c>
-      <c r="G16" t="s">
-        <v>17</v>
-      </c>
-      <c r="H16" t="s">
+      <c r="G16" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H16" t="s" s="0">
         <v>61</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="0">
         <v>3882465</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+      <c r="A17" t="s" s="0">
         <v>352</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" t="s" s="0">
         <v>62</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="D17" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17">
+      <c r="D17" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E17" s="0">
         <v>38</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" t="s" s="0">
         <v>63</v>
       </c>
-      <c r="G17" t="s">
-        <v>17</v>
-      </c>
-      <c r="H17" t="s">
+      <c r="G17" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H17" t="s" s="0">
         <v>64</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="0">
         <v>6209898</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+      <c r="A18" t="s" s="0">
         <v>353</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" t="s" s="0">
         <v>65</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="D18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18">
+      <c r="D18" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E18" s="0">
         <v>55</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" t="s" s="0">
         <v>66</v>
       </c>
-      <c r="G18" t="s">
-        <v>17</v>
-      </c>
-      <c r="H18" t="s">
+      <c r="G18" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H18" t="s" s="0">
         <v>67</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="0">
         <v>9214791</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+      <c r="A19" t="s" s="0">
         <v>354</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" t="s" s="0">
         <v>68</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="0">
         <v>53</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" t="s" s="0">
         <v>69</v>
       </c>
-      <c r="G19" t="s">
-        <v>17</v>
-      </c>
-      <c r="H19" t="s">
+      <c r="G19" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H19" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="0">
         <v>8179935</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+      <c r="A20" t="s" s="0">
         <v>355</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" t="s" s="0">
         <v>71</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="0">
         <v>25</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" t="s" s="0">
         <v>72</v>
       </c>
-      <c r="G20" t="s">
-        <v>17</v>
-      </c>
-      <c r="H20" t="s">
+      <c r="G20" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H20" t="s" s="0">
         <v>73</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="0">
         <v>3023232</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+      <c r="A21" t="s" s="0">
         <v>356</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" t="s" s="0">
         <v>74</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="D21" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21">
+      <c r="D21" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E21" s="0">
         <v>58</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" t="s" s="0">
         <v>75</v>
       </c>
-      <c r="G21" t="s">
-        <v>17</v>
-      </c>
-      <c r="H21" t="s">
+      <c r="G21" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H21" t="s" s="0">
         <v>76</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="0">
         <v>6607521</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
+      <c r="A22" t="s" s="0">
         <v>357</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" t="s" s="0">
         <v>77</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="D22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22">
+      <c r="D22" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E22" s="0">
         <v>47</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" t="s" s="0">
         <v>78</v>
       </c>
-      <c r="G22" t="s">
-        <v>17</v>
-      </c>
-      <c r="H22" t="s">
+      <c r="G22" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H22" t="s" s="0">
         <v>79</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="0">
         <v>4855587</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
+      <c r="A23" t="s" s="0">
         <v>358</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" t="s" s="0">
         <v>80</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="D23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23">
+      <c r="D23" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E23" s="0">
         <v>27</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" t="s" s="0">
         <v>81</v>
       </c>
-      <c r="G23" t="s">
-        <v>17</v>
-      </c>
-      <c r="H23" t="s">
+      <c r="G23" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H23" t="s" s="0">
         <v>82</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="0">
         <v>5043744</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
+      <c r="A24" t="s" s="0">
         <v>359</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" t="s" s="0">
         <v>83</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="0">
         <v>23</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" t="s" s="0">
         <v>84</v>
       </c>
-      <c r="G24" t="s">
-        <v>17</v>
-      </c>
-      <c r="H24" t="s">
+      <c r="G24" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H24" t="s" s="0">
         <v>85</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="0">
         <v>6914894</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
+      <c r="A25" t="s" s="0">
         <v>360</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" t="s" s="0">
         <v>86</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="0">
         <v>65</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" t="s" s="0">
         <v>87</v>
       </c>
-      <c r="G25" t="s">
-        <v>17</v>
-      </c>
-      <c r="H25" t="s">
+      <c r="G25" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H25" t="s" s="0">
         <v>88</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="0">
         <v>5176574</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
+      <c r="A26" t="s" s="0">
         <v>361</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" t="s" s="0">
         <v>89</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="D26" t="s">
-        <v>8</v>
-      </c>
-      <c r="E26">
+      <c r="D26" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E26" s="0">
         <v>38</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" t="s" s="0">
         <v>90</v>
       </c>
-      <c r="G26" t="s">
-        <v>17</v>
-      </c>
-      <c r="H26" t="s">
+      <c r="G26" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H26" t="s" s="0">
         <v>91</v>
       </c>
-      <c r="I26">
+      <c r="I26" s="0">
         <v>5994982</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
+      <c r="A27" t="s" s="0">
         <v>362</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" t="s" s="0">
         <v>92</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="D27" t="s">
-        <v>8</v>
-      </c>
-      <c r="E27">
+      <c r="D27" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E27" s="0">
         <v>29</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" t="s" s="0">
         <v>94</v>
       </c>
-      <c r="G27" t="s">
-        <v>17</v>
-      </c>
-      <c r="H27" t="s">
+      <c r="G27" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H27" t="s" s="0">
         <v>95</v>
       </c>
-      <c r="I27">
+      <c r="I27" s="0">
         <v>2026262</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
+      <c r="A28" t="s" s="0">
         <v>363</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" t="s" s="0">
         <v>96</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="D28" t="s">
-        <v>8</v>
-      </c>
-      <c r="E28">
+      <c r="D28" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E28" s="0">
         <v>28</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" t="s" s="0">
         <v>97</v>
       </c>
-      <c r="G28" t="s">
-        <v>17</v>
-      </c>
-      <c r="H28" t="s">
+      <c r="G28" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H28" t="s" s="0">
         <v>98</v>
       </c>
-      <c r="I28">
+      <c r="I28" s="0">
         <v>5788254</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
+      <c r="A29" t="s" s="0">
         <v>364</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" t="s" s="0">
         <v>99</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="D29" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29">
+      <c r="D29" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E29" s="0">
         <v>54</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" t="s" s="0">
         <v>100</v>
       </c>
-      <c r="G29" t="s">
-        <v>17</v>
-      </c>
-      <c r="H29" t="s">
+      <c r="G29" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H29" t="s" s="0">
         <v>101</v>
       </c>
-      <c r="I29">
+      <c r="I29" s="0">
         <v>3073034</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
+      <c r="A30" t="s" s="0">
         <v>365</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" t="s" s="0">
         <v>102</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="0">
         <v>22</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" t="s" s="0">
         <v>103</v>
       </c>
-      <c r="G30" t="s">
-        <v>17</v>
-      </c>
-      <c r="H30" t="s">
+      <c r="G30" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H30" t="s" s="0">
         <v>104</v>
       </c>
-      <c r="I30">
+      <c r="I30" s="0">
         <v>3512882</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
+      <c r="A31" t="s" s="0">
         <v>366</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" t="s" s="0">
         <v>105</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="0">
         <v>31</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" t="s" s="0">
         <v>106</v>
       </c>
-      <c r="G31" t="s">
-        <v>17</v>
-      </c>
-      <c r="H31" t="s">
+      <c r="G31" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H31" t="s" s="0">
         <v>107</v>
       </c>
-      <c r="I31">
+      <c r="I31" s="0">
         <v>3869738</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
+      <c r="A32" t="s" s="0">
         <v>367</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" t="s" s="0">
         <v>108</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="D32" t="s">
-        <v>8</v>
-      </c>
-      <c r="E32">
+      <c r="D32" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E32" s="0">
         <v>28</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" t="s" s="0">
         <v>109</v>
       </c>
-      <c r="G32" t="s">
-        <v>17</v>
-      </c>
-      <c r="H32" t="s">
+      <c r="G32" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H32" t="s" s="0">
         <v>110</v>
       </c>
-      <c r="I32">
+      <c r="I32" s="0">
         <v>1222647</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
+      <c r="A33" t="s" s="0">
         <v>368</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" t="s" s="0">
         <v>111</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="D33" t="s">
-        <v>8</v>
-      </c>
-      <c r="E33">
+      <c r="D33" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E33" s="0">
         <v>60</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33" t="s" s="0">
         <v>112</v>
       </c>
-      <c r="G33" t="s">
-        <v>17</v>
-      </c>
-      <c r="H33" t="s">
+      <c r="G33" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H33" t="s" s="0">
         <v>113</v>
       </c>
-      <c r="I33">
+      <c r="I33" s="0">
         <v>7437675</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
+      <c r="A34" t="s" s="0">
         <v>369</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" t="s" s="0">
         <v>114</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="0">
         <v>51</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F34" t="s" s="0">
         <v>115</v>
       </c>
-      <c r="G34" t="s">
-        <v>17</v>
-      </c>
-      <c r="H34" t="s">
+      <c r="G34" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H34" t="s" s="0">
         <v>116</v>
       </c>
-      <c r="I34">
+      <c r="I34" s="0">
         <v>5991621</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
+      <c r="A35" t="s" s="0">
         <v>370</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" t="s" s="0">
         <v>117</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="D35" t="s">
-        <v>8</v>
-      </c>
-      <c r="E35">
+      <c r="D35" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E35" s="0">
         <v>57</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F35" t="s" s="0">
         <v>118</v>
       </c>
-      <c r="G35" t="s">
-        <v>17</v>
-      </c>
-      <c r="H35" t="s">
+      <c r="G35" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H35" t="s" s="0">
         <v>119</v>
       </c>
-      <c r="I35">
+      <c r="I35" s="0">
         <v>2673449</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
+      <c r="A36" t="s" s="0">
         <v>371</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" t="s" s="0">
         <v>120</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="D36" t="s">
-        <v>8</v>
-      </c>
-      <c r="E36">
+      <c r="D36" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E36" s="0">
         <v>41</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F36" t="s" s="0">
         <v>121</v>
       </c>
-      <c r="G36" t="s">
-        <v>17</v>
-      </c>
-      <c r="H36" t="s">
+      <c r="G36" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H36" t="s" s="0">
         <v>122</v>
       </c>
-      <c r="I36">
+      <c r="I36" s="0">
         <v>5414099</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
+      <c r="A37" t="s" s="0">
         <v>372</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" t="s" s="0">
         <v>123</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="D37" t="s">
-        <v>8</v>
-      </c>
-      <c r="E37">
+      <c r="D37" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E37" s="0">
         <v>65</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F37" t="s" s="0">
         <v>124</v>
       </c>
-      <c r="G37" t="s">
-        <v>17</v>
-      </c>
-      <c r="H37" t="s">
+      <c r="G37" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H37" t="s" s="0">
         <v>125</v>
       </c>
-      <c r="I37">
+      <c r="I37" s="0">
         <v>1591806</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
+      <c r="A38" t="s" s="0">
         <v>373</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" t="s" s="0">
         <v>126</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="0">
         <v>34</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F38" t="s" s="0">
         <v>127</v>
       </c>
-      <c r="G38" t="s">
-        <v>17</v>
-      </c>
-      <c r="H38" t="s">
+      <c r="G38" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H38" t="s" s="0">
         <v>128</v>
       </c>
-      <c r="I38">
+      <c r="I38" s="0">
         <v>5440842</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
+      <c r="A39" t="s" s="0">
         <v>374</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" t="s" s="0">
         <v>129</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="D39" t="s">
-        <v>8</v>
-      </c>
-      <c r="E39">
+      <c r="D39" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E39" s="0">
         <v>39</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F39" t="s" s="0">
         <v>130</v>
       </c>
-      <c r="G39" t="s">
-        <v>17</v>
-      </c>
-      <c r="H39" t="s">
+      <c r="G39" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H39" t="s" s="0">
         <v>131</v>
       </c>
-      <c r="I39">
+      <c r="I39" s="0">
         <v>5123903</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
+      <c r="A40" t="s" s="0">
         <v>375</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" t="s" s="0">
         <v>132</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="D40" t="s">
-        <v>8</v>
-      </c>
-      <c r="E40">
+      <c r="D40" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E40" s="0">
         <v>30</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F40" t="s" s="0">
         <v>133</v>
       </c>
-      <c r="G40" t="s">
-        <v>17</v>
-      </c>
-      <c r="H40" t="s">
+      <c r="G40" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H40" t="s" s="0">
         <v>134</v>
       </c>
-      <c r="I40">
+      <c r="I40" s="0">
         <v>8419913</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
+      <c r="A41" t="s" s="0">
         <v>376</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" t="s" s="0">
         <v>135</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="0">
         <v>53</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F41" t="s" s="0">
         <v>136</v>
       </c>
-      <c r="G41" t="s">
-        <v>17</v>
-      </c>
-      <c r="H41" t="s">
+      <c r="G41" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H41" t="s" s="0">
         <v>137</v>
       </c>
-      <c r="I41">
+      <c r="I41" s="0">
         <v>2541769</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
+      <c r="A42" t="s" s="0">
         <v>377</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" t="s" s="0">
         <v>138</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="0">
         <v>42</v>
       </c>
-      <c r="F42" t="s">
+      <c r="F42" t="s" s="0">
         <v>139</v>
       </c>
-      <c r="G42" t="s">
-        <v>17</v>
-      </c>
-      <c r="H42" t="s">
+      <c r="G42" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H42" t="s" s="0">
         <v>140</v>
       </c>
-      <c r="I42">
+      <c r="I42" s="0">
         <v>3301311</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
+      <c r="A43" t="s" s="0">
         <v>378</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" t="s" s="0">
         <v>141</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="0">
         <v>61</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F43" t="s" s="0">
         <v>142</v>
       </c>
-      <c r="G43" t="s">
-        <v>17</v>
-      </c>
-      <c r="H43" t="s">
+      <c r="G43" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H43" t="s" s="0">
         <v>143</v>
       </c>
-      <c r="I43">
+      <c r="I43" s="0">
         <v>3901307</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
+      <c r="A44" t="s" s="0">
         <v>379</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" t="s" s="0">
         <v>144</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="D44" t="s">
-        <v>8</v>
-      </c>
-      <c r="E44">
+      <c r="D44" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E44" s="0">
         <v>45</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F44" t="s" s="0">
         <v>145</v>
       </c>
-      <c r="G44" t="s">
-        <v>17</v>
-      </c>
-      <c r="H44" t="s">
+      <c r="G44" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H44" t="s" s="0">
         <v>146</v>
       </c>
-      <c r="I44">
+      <c r="I44" s="0">
         <v>8507627</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
+      <c r="A45" t="s" s="0">
         <v>380</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" t="s" s="0">
         <v>147</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="D45" t="s">
-        <v>8</v>
-      </c>
-      <c r="E45">
+      <c r="D45" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E45" s="0">
         <v>22</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F45" t="s" s="0">
         <v>148</v>
       </c>
-      <c r="G45" t="s">
-        <v>17</v>
-      </c>
-      <c r="H45" t="s">
+      <c r="G45" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H45" t="s" s="0">
         <v>149</v>
       </c>
-      <c r="I45">
+      <c r="I45" s="0">
         <v>6247756</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
+      <c r="A46" t="s" s="0">
         <v>381</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" t="s" s="0">
         <v>150</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="0">
         <v>62</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F46" t="s" s="0">
         <v>151</v>
       </c>
-      <c r="G46" t="s">
-        <v>17</v>
-      </c>
-      <c r="H46" t="s">
+      <c r="G46" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H46" t="s" s="0">
         <v>152</v>
       </c>
-      <c r="I46">
+      <c r="I46" s="0">
         <v>7799558</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
+      <c r="A47" t="s" s="0">
         <v>382</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" t="s" s="0">
         <v>153</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="0">
         <v>57</v>
       </c>
-      <c r="F47" t="s">
+      <c r="F47" t="s" s="0">
         <v>154</v>
       </c>
-      <c r="G47" t="s">
-        <v>17</v>
-      </c>
-      <c r="H47" t="s">
+      <c r="G47" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H47" t="s" s="0">
         <v>155</v>
       </c>
-      <c r="I47">
+      <c r="I47" s="0">
         <v>6846085</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
+      <c r="A48" t="s" s="0">
         <v>383</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" t="s" s="0">
         <v>156</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="E48">
+      <c r="E48" s="0">
         <v>64</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F48" t="s" s="0">
         <v>157</v>
       </c>
-      <c r="G48" t="s">
-        <v>17</v>
-      </c>
-      <c r="H48" t="s">
+      <c r="G48" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H48" t="s" s="0">
         <v>158</v>
       </c>
-      <c r="I48">
+      <c r="I48" s="0">
         <v>3002894</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
+      <c r="A49" t="s" s="0">
         <v>384</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" t="s" s="0">
         <v>159</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="D49" t="s">
-        <v>8</v>
-      </c>
-      <c r="E49">
+      <c r="D49" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E49" s="0">
         <v>65</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F49" t="s" s="0">
         <v>160</v>
       </c>
-      <c r="G49" t="s">
-        <v>17</v>
-      </c>
-      <c r="H49" t="s">
+      <c r="G49" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H49" t="s" s="0">
         <v>161</v>
       </c>
-      <c r="I49">
+      <c r="I49" s="0">
         <v>8576374</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
+      <c r="A50" t="s" s="0">
         <v>385</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" t="s" s="0">
         <v>162</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="D50" t="s">
-        <v>8</v>
-      </c>
-      <c r="E50">
+      <c r="D50" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E50" s="0">
         <v>50</v>
       </c>
-      <c r="F50" t="s">
+      <c r="F50" t="s" s="0">
         <v>163</v>
       </c>
-      <c r="G50" t="s">
-        <v>17</v>
-      </c>
-      <c r="H50" t="s">
+      <c r="G50" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H50" t="s" s="0">
         <v>164</v>
       </c>
-      <c r="I50">
+      <c r="I50" s="0">
         <v>6839229</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
+      <c r="A51" t="s" s="0">
         <v>386</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" t="s" s="0">
         <v>165</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="D51" t="s">
-        <v>8</v>
-      </c>
-      <c r="E51">
+      <c r="D51" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E51" s="0">
         <v>46</v>
       </c>
-      <c r="F51" t="s">
+      <c r="F51" t="s" s="0">
         <v>166</v>
       </c>
-      <c r="G51" t="s">
-        <v>17</v>
-      </c>
-      <c r="H51" t="s">
+      <c r="G51" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H51" t="s" s="0">
         <v>167</v>
       </c>
-      <c r="I51">
+      <c r="I51" s="0">
         <v>1833341</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
+      <c r="A52" t="s" s="0">
         <v>387</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" t="s" s="0">
         <v>168</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="D52" t="s">
-        <v>8</v>
-      </c>
-      <c r="E52">
+      <c r="D52" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E52" s="0">
         <v>52</v>
       </c>
-      <c r="F52" t="s">
+      <c r="F52" t="s" s="0">
         <v>169</v>
       </c>
-      <c r="G52" t="s">
-        <v>17</v>
-      </c>
-      <c r="H52" t="s">
+      <c r="G52" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H52" t="s" s="0">
         <v>170</v>
       </c>
-      <c r="I52">
+      <c r="I52" s="0">
         <v>5945914</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
+      <c r="A53" t="s" s="0">
         <v>388</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" t="s" s="0">
         <v>171</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="E53">
+      <c r="E53" s="0">
         <v>44</v>
       </c>
-      <c r="F53" t="s">
+      <c r="F53" t="s" s="0">
         <v>172</v>
       </c>
-      <c r="G53" t="s">
-        <v>17</v>
-      </c>
-      <c r="H53" t="s">
+      <c r="G53" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H53" t="s" s="0">
         <v>173</v>
       </c>
-      <c r="I53">
+      <c r="I53" s="0">
         <v>3101456</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
+      <c r="A54" t="s" s="0">
         <v>389</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" t="s" s="0">
         <v>174</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D54" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="E54">
+      <c r="E54" s="0">
         <v>59</v>
       </c>
-      <c r="F54" t="s">
+      <c r="F54" t="s" s="0">
         <v>175</v>
       </c>
-      <c r="G54" t="s">
-        <v>17</v>
-      </c>
-      <c r="H54" t="s">
+      <c r="G54" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H54" t="s" s="0">
         <v>176</v>
       </c>
-      <c r="I54">
+      <c r="I54" s="0">
         <v>8790582</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
+      <c r="A55" t="s" s="0">
         <v>390</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" t="s" s="0">
         <v>177</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D55" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="E55">
+      <c r="E55" s="0">
         <v>41</v>
       </c>
-      <c r="F55" t="s">
+      <c r="F55" t="s" s="0">
         <v>178</v>
       </c>
-      <c r="G55" t="s">
-        <v>17</v>
-      </c>
-      <c r="H55" t="s">
+      <c r="G55" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H55" t="s" s="0">
         <v>179</v>
       </c>
-      <c r="I55">
+      <c r="I55" s="0">
         <v>7076399</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
+      <c r="A56" t="s" s="0">
         <v>391</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" t="s" s="0">
         <v>180</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D56" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="E56">
+      <c r="E56" s="0">
         <v>23</v>
       </c>
-      <c r="F56" t="s">
+      <c r="F56" t="s" s="0">
         <v>181</v>
       </c>
-      <c r="G56" t="s">
-        <v>17</v>
-      </c>
-      <c r="H56" t="s">
+      <c r="G56" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H56" t="s" s="0">
         <v>182</v>
       </c>
-      <c r="I56">
+      <c r="I56" s="0">
         <v>5581452</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
+      <c r="A57" t="s" s="0">
         <v>392</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" t="s" s="0">
         <v>183</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="D57" t="s">
-        <v>8</v>
-      </c>
-      <c r="E57">
+      <c r="D57" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E57" s="0">
         <v>22</v>
       </c>
-      <c r="F57" t="s">
+      <c r="F57" t="s" s="0">
         <v>184</v>
       </c>
-      <c r="G57" t="s">
-        <v>17</v>
-      </c>
-      <c r="H57" t="s">
+      <c r="G57" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H57" t="s" s="0">
         <v>185</v>
       </c>
-      <c r="I57">
+      <c r="I57" s="0">
         <v>3474559</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
+      <c r="A58" t="s" s="0">
         <v>393</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" t="s" s="0">
         <v>186</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D58" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="E58">
+      <c r="E58" s="0">
         <v>28</v>
       </c>
-      <c r="F58" t="s">
+      <c r="F58" t="s" s="0">
         <v>187</v>
       </c>
-      <c r="G58" t="s">
-        <v>17</v>
-      </c>
-      <c r="H58" t="s">
+      <c r="G58" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H58" t="s" s="0">
         <v>188</v>
       </c>
-      <c r="I58">
+      <c r="I58" s="0">
         <v>3873886</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
+      <c r="A59" t="s" s="0">
         <v>394</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" t="s" s="0">
         <v>189</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="D59" t="s">
-        <v>8</v>
-      </c>
-      <c r="E59">
+      <c r="D59" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E59" s="0">
         <v>30</v>
       </c>
-      <c r="F59" t="s">
+      <c r="F59" t="s" s="0">
         <v>190</v>
       </c>
-      <c r="G59" t="s">
-        <v>17</v>
-      </c>
-      <c r="H59" t="s">
+      <c r="G59" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H59" t="s" s="0">
         <v>191</v>
       </c>
-      <c r="I59">
+      <c r="I59" s="0">
         <v>3607945</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
+      <c r="A60" t="s" s="0">
         <v>395</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" t="s" s="0">
         <v>192</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="D60" t="s">
-        <v>8</v>
-      </c>
-      <c r="E60">
+      <c r="D60" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E60" s="0">
         <v>55</v>
       </c>
-      <c r="F60" t="s">
+      <c r="F60" t="s" s="0">
         <v>193</v>
       </c>
-      <c r="G60" t="s">
-        <v>17</v>
-      </c>
-      <c r="H60" t="s">
+      <c r="G60" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H60" t="s" s="0">
         <v>194</v>
       </c>
-      <c r="I60">
+      <c r="I60" s="0">
         <v>5903486</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
+      <c r="A61" t="s" s="0">
         <v>396</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" t="s" s="0">
         <v>195</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="D61" t="s">
-        <v>8</v>
-      </c>
-      <c r="E61">
+      <c r="D61" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E61" s="0">
         <v>31</v>
       </c>
-      <c r="F61" t="s">
+      <c r="F61" t="s" s="0">
         <v>196</v>
       </c>
-      <c r="G61" t="s">
-        <v>17</v>
-      </c>
-      <c r="H61" t="s">
+      <c r="G61" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H61" t="s" s="0">
         <v>197</v>
       </c>
-      <c r="I61">
+      <c r="I61" s="0">
         <v>6280079</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
+      <c r="A62" t="s" s="0">
         <v>397</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" t="s" s="0">
         <v>198</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D62" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="E62">
+      <c r="E62" s="0">
         <v>34</v>
       </c>
-      <c r="F62" t="s">
+      <c r="F62" t="s" s="0">
         <v>199</v>
       </c>
-      <c r="G62" t="s">
-        <v>17</v>
-      </c>
-      <c r="H62" t="s">
+      <c r="G62" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H62" t="s" s="0">
         <v>200</v>
       </c>
-      <c r="I62">
+      <c r="I62" s="0">
         <v>9217628</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
+      <c r="A63" t="s" s="0">
         <v>398</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" t="s" s="0">
         <v>201</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="D63" t="s">
-        <v>8</v>
-      </c>
-      <c r="E63">
+      <c r="D63" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E63" s="0">
         <v>55</v>
       </c>
-      <c r="F63" t="s">
+      <c r="F63" t="s" s="0">
         <v>202</v>
       </c>
-      <c r="G63" t="s">
-        <v>17</v>
-      </c>
-      <c r="H63" t="s">
+      <c r="G63" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H63" t="s" s="0">
         <v>203</v>
       </c>
-      <c r="I63">
+      <c r="I63" s="0">
         <v>1894489</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
+      <c r="A64" t="s" s="0">
         <v>399</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" t="s" s="0">
         <v>204</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="D64" t="s">
-        <v>8</v>
-      </c>
-      <c r="E64">
+      <c r="D64" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E64" s="0">
         <v>65</v>
       </c>
-      <c r="F64" t="s">
+      <c r="F64" t="s" s="0">
         <v>205</v>
       </c>
-      <c r="G64" t="s">
-        <v>17</v>
-      </c>
-      <c r="H64" t="s">
+      <c r="G64" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H64" t="s" s="0">
         <v>206</v>
       </c>
-      <c r="I64">
+      <c r="I64" s="0">
         <v>7076473</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A65" t="s">
+      <c r="A65" t="s" s="0">
         <v>400</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" t="s" s="0">
         <v>207</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C65" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D65" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="E65">
+      <c r="E65" s="0">
         <v>56</v>
       </c>
-      <c r="F65" t="s">
+      <c r="F65" t="s" s="0">
         <v>208</v>
       </c>
-      <c r="G65" t="s">
-        <v>17</v>
-      </c>
-      <c r="H65" t="s">
+      <c r="G65" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H65" t="s" s="0">
         <v>209</v>
       </c>
-      <c r="I65">
+      <c r="I65" s="0">
         <v>8890120</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A66" t="s">
+      <c r="A66" t="s" s="0">
         <v>401</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" t="s" s="0">
         <v>210</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="D66" t="s">
-        <v>8</v>
-      </c>
-      <c r="E66">
+      <c r="D66" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E66" s="0">
         <v>34</v>
       </c>
-      <c r="F66" t="s">
+      <c r="F66" t="s" s="0">
         <v>211</v>
       </c>
-      <c r="G66" t="s">
-        <v>17</v>
-      </c>
-      <c r="H66" t="s">
+      <c r="G66" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H66" t="s" s="0">
         <v>212</v>
       </c>
-      <c r="I66">
+      <c r="I66" s="0">
         <v>1822054</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A67" t="s">
+      <c r="A67" t="s" s="0">
         <v>402</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" t="s" s="0">
         <v>213</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C67" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D67" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="E67">
+      <c r="E67" s="0">
         <v>63</v>
       </c>
-      <c r="F67" t="s">
+      <c r="F67" t="s" s="0">
         <v>214</v>
       </c>
-      <c r="G67" t="s">
-        <v>17</v>
-      </c>
-      <c r="H67" t="s">
+      <c r="G67" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H67" t="s" s="0">
         <v>215</v>
       </c>
-      <c r="I67">
+      <c r="I67" s="0">
         <v>3713226</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A68" t="s">
+      <c r="A68" t="s" s="0">
         <v>403</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" t="s" s="0">
         <v>216</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C68" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="D68" t="s">
-        <v>8</v>
-      </c>
-      <c r="E68">
+      <c r="D68" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E68" s="0">
         <v>49</v>
       </c>
-      <c r="F68" t="s">
+      <c r="F68" t="s" s="0">
         <v>217</v>
       </c>
-      <c r="G68" t="s">
-        <v>17</v>
-      </c>
-      <c r="H68" t="s">
+      <c r="G68" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H68" t="s" s="0">
         <v>218</v>
       </c>
-      <c r="I68">
+      <c r="I68" s="0">
         <v>4900839</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A69" t="s">
+      <c r="A69" t="s" s="0">
         <v>404</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" t="s" s="0">
         <v>219</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C69" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D69" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="E69">
+      <c r="E69" s="0">
         <v>22</v>
       </c>
-      <c r="F69" t="s">
+      <c r="F69" t="s" s="0">
         <v>220</v>
       </c>
-      <c r="G69" t="s">
-        <v>17</v>
-      </c>
-      <c r="H69" t="s">
+      <c r="G69" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H69" t="s" s="0">
         <v>221</v>
       </c>
-      <c r="I69">
+      <c r="I69" s="0">
         <v>8613278</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A70" t="s">
+      <c r="A70" t="s" s="0">
         <v>405</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" t="s" s="0">
         <v>222</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C70" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D70" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="E70">
+      <c r="E70" s="0">
         <v>57</v>
       </c>
-      <c r="F70" t="s">
+      <c r="F70" t="s" s="0">
         <v>223</v>
       </c>
-      <c r="G70" t="s">
-        <v>17</v>
-      </c>
-      <c r="H70" t="s">
+      <c r="G70" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H70" t="s" s="0">
         <v>224</v>
       </c>
-      <c r="I70">
+      <c r="I70" s="0">
         <v>1890269</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A71" t="s">
+      <c r="A71" t="s" s="0">
         <v>406</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" t="s" s="0">
         <v>225</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C71" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="D71" t="s">
-        <v>8</v>
-      </c>
-      <c r="E71">
+      <c r="D71" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E71" s="0">
         <v>29</v>
       </c>
-      <c r="F71" t="s">
+      <c r="F71" t="s" s="0">
         <v>226</v>
       </c>
-      <c r="G71" t="s">
-        <v>17</v>
-      </c>
-      <c r="H71" t="s">
+      <c r="G71" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H71" t="s" s="0">
         <v>227</v>
       </c>
-      <c r="I71">
+      <c r="I71" s="0">
         <v>2552925</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A72" t="s">
+      <c r="A72" t="s" s="0">
         <v>407</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" t="s" s="0">
         <v>228</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C72" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="D72" t="s">
-        <v>8</v>
-      </c>
-      <c r="E72">
+      <c r="D72" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E72" s="0">
         <v>60</v>
       </c>
-      <c r="F72" t="s">
+      <c r="F72" t="s" s="0">
         <v>229</v>
       </c>
-      <c r="G72" t="s">
-        <v>17</v>
-      </c>
-      <c r="H72" t="s">
+      <c r="G72" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H72" t="s" s="0">
         <v>230</v>
       </c>
-      <c r="I72">
+      <c r="I72" s="0">
         <v>6822517</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A73" t="s">
+      <c r="A73" t="s" s="0">
         <v>408</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" t="s" s="0">
         <v>231</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C73" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="D73" t="s">
-        <v>8</v>
-      </c>
-      <c r="E73">
+      <c r="D73" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E73" s="0">
         <v>44</v>
       </c>
-      <c r="F73" t="s">
+      <c r="F73" t="s" s="0">
         <v>232</v>
       </c>
-      <c r="G73" t="s">
-        <v>17</v>
-      </c>
-      <c r="H73" t="s">
+      <c r="G73" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H73" t="s" s="0">
         <v>233</v>
       </c>
-      <c r="I73">
+      <c r="I73" s="0">
         <v>7665699</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A74" t="s">
+      <c r="A74" t="s" s="0">
         <v>409</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" t="s" s="0">
         <v>234</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C74" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="D74" t="s">
-        <v>8</v>
-      </c>
-      <c r="E74">
+      <c r="D74" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E74" s="0">
         <v>43</v>
       </c>
-      <c r="F74" t="s">
+      <c r="F74" t="s" s="0">
         <v>235</v>
       </c>
-      <c r="G74" t="s">
-        <v>17</v>
-      </c>
-      <c r="H74" t="s">
+      <c r="G74" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H74" t="s" s="0">
         <v>236</v>
       </c>
-      <c r="I74">
+      <c r="I74" s="0">
         <v>5533098</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A75" t="s">
+      <c r="A75" t="s" s="0">
         <v>410</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" t="s" s="0">
         <v>237</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C75" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D75" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="E75">
+      <c r="E75" s="0">
         <v>48</v>
       </c>
-      <c r="F75" t="s">
+      <c r="F75" t="s" s="0">
         <v>238</v>
       </c>
-      <c r="G75" t="s">
-        <v>17</v>
-      </c>
-      <c r="H75" t="s">
+      <c r="G75" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H75" t="s" s="0">
         <v>239</v>
       </c>
-      <c r="I75">
+      <c r="I75" s="0">
         <v>2818715</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A76" t="s">
+      <c r="A76" t="s" s="0">
         <v>411</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" t="s" s="0">
         <v>240</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C76" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D76" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="E76">
+      <c r="E76" s="0">
         <v>55</v>
       </c>
-      <c r="F76" t="s">
+      <c r="F76" t="s" s="0">
         <v>241</v>
       </c>
-      <c r="G76" t="s">
-        <v>17</v>
-      </c>
-      <c r="H76" t="s">
+      <c r="G76" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H76" t="s" s="0">
         <v>242</v>
       </c>
-      <c r="I76">
+      <c r="I76" s="0">
         <v>6021521</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A77" t="s">
+      <c r="A77" t="s" s="0">
         <v>412</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" t="s" s="0">
         <v>243</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C77" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="D77" t="s">
+      <c r="D77" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="E77">
+      <c r="E77" s="0">
         <v>62</v>
       </c>
-      <c r="F77" t="s">
+      <c r="F77" t="s" s="0">
         <v>244</v>
       </c>
-      <c r="G77" t="s">
-        <v>17</v>
-      </c>
-      <c r="H77" t="s">
+      <c r="G77" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H77" t="s" s="0">
         <v>245</v>
       </c>
-      <c r="I77">
+      <c r="I77" s="0">
         <v>6574157</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A78" t="s">
+      <c r="A78" t="s" s="0">
         <v>413</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" t="s" s="0">
         <v>246</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C78" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="D78" t="s">
-        <v>8</v>
-      </c>
-      <c r="E78">
+      <c r="D78" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E78" s="0">
         <v>50</v>
       </c>
-      <c r="F78" t="s">
+      <c r="F78" t="s" s="0">
         <v>247</v>
       </c>
-      <c r="G78" t="s">
-        <v>17</v>
-      </c>
-      <c r="H78" t="s">
+      <c r="G78" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H78" t="s" s="0">
         <v>248</v>
       </c>
-      <c r="I78">
+      <c r="I78" s="0">
         <v>2683176</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A79" t="s">
+      <c r="A79" t="s" s="0">
         <v>414</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" t="s" s="0">
         <v>249</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C79" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="D79" t="s">
-        <v>8</v>
-      </c>
-      <c r="E79">
+      <c r="D79" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E79" s="0">
         <v>22</v>
       </c>
-      <c r="F79" t="s">
+      <c r="F79" t="s" s="0">
         <v>250</v>
       </c>
-      <c r="G79" t="s">
-        <v>17</v>
-      </c>
-      <c r="H79" t="s">
+      <c r="G79" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H79" t="s" s="0">
         <v>251</v>
       </c>
-      <c r="I79">
+      <c r="I79" s="0">
         <v>7083693</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A80" t="s">
+      <c r="A80" t="s" s="0">
         <v>415</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" t="s" s="0">
         <v>252</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C80" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="D80" t="s">
-        <v>8</v>
-      </c>
-      <c r="E80">
+      <c r="D80" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E80" s="0">
         <v>46</v>
       </c>
-      <c r="F80" t="s">
+      <c r="F80" t="s" s="0">
         <v>253</v>
       </c>
-      <c r="G80" t="s">
-        <v>17</v>
-      </c>
-      <c r="H80" t="s">
+      <c r="G80" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H80" t="s" s="0">
         <v>254</v>
       </c>
-      <c r="I80">
+      <c r="I80" s="0">
         <v>5228382</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A81" t="s">
+      <c r="A81" t="s" s="0">
         <v>416</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" t="s" s="0">
         <v>255</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C81" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="D81" t="s">
-        <v>8</v>
-      </c>
-      <c r="E81">
+      <c r="D81" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E81" s="0">
         <v>40</v>
       </c>
-      <c r="F81" t="s">
+      <c r="F81" t="s" s="0">
         <v>256</v>
       </c>
-      <c r="G81" t="s">
-        <v>17</v>
-      </c>
-      <c r="H81" t="s">
+      <c r="G81" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H81" t="s" s="0">
         <v>257</v>
       </c>
-      <c r="I81">
+      <c r="I81" s="0">
         <v>2740643</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A82" t="s">
+      <c r="A82" t="s" s="0">
         <v>417</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" t="s" s="0">
         <v>258</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C82" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="D82" t="s">
+      <c r="D82" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="E82">
+      <c r="E82" s="0">
         <v>54</v>
       </c>
-      <c r="F82" t="s">
+      <c r="F82" t="s" s="0">
         <v>259</v>
       </c>
-      <c r="G82" t="s">
-        <v>17</v>
-      </c>
-      <c r="H82" t="s">
+      <c r="G82" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H82" t="s" s="0">
         <v>260</v>
       </c>
-      <c r="I82">
+      <c r="I82" s="0">
         <v>7961296</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A83" t="s">
+      <c r="A83" t="s" s="0">
         <v>418</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" t="s" s="0">
         <v>261</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C83" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="D83" t="s">
+      <c r="D83" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="E83">
+      <c r="E83" s="0">
         <v>33</v>
       </c>
-      <c r="F83" t="s">
+      <c r="F83" t="s" s="0">
         <v>262</v>
       </c>
-      <c r="G83" t="s">
-        <v>17</v>
-      </c>
-      <c r="H83" t="s">
+      <c r="G83" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H83" t="s" s="0">
         <v>263</v>
       </c>
-      <c r="I83">
+      <c r="I83" s="0">
         <v>9737290</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A84" t="s">
+      <c r="A84" t="s" s="0">
         <v>419</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" t="s" s="0">
         <v>264</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C84" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="D84" t="s">
-        <v>8</v>
-      </c>
-      <c r="E84">
+      <c r="D84" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E84" s="0">
         <v>28</v>
       </c>
-      <c r="F84" t="s">
+      <c r="F84" t="s" s="0">
         <v>265</v>
       </c>
-      <c r="G84" t="s">
-        <v>17</v>
-      </c>
-      <c r="H84" t="s">
+      <c r="G84" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H84" t="s" s="0">
         <v>266</v>
       </c>
-      <c r="I84">
+      <c r="I84" s="0">
         <v>3253337</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A85" t="s">
+      <c r="A85" t="s" s="0">
         <v>420</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" t="s" s="0">
         <v>267</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C85" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="D85" t="s">
-        <v>8</v>
-      </c>
-      <c r="E85">
+      <c r="D85" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E85" s="0">
         <v>57</v>
       </c>
-      <c r="F85" t="s">
+      <c r="F85" t="s" s="0">
         <v>268</v>
       </c>
-      <c r="G85" t="s">
-        <v>17</v>
-      </c>
-      <c r="H85" t="s">
+      <c r="G85" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H85" t="s" s="0">
         <v>269</v>
       </c>
-      <c r="I85">
+      <c r="I85" s="0">
         <v>3477827</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A86" t="s">
+      <c r="A86" t="s" s="0">
         <v>421</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" t="s" s="0">
         <v>270</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C86" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="D86" t="s">
-        <v>8</v>
-      </c>
-      <c r="E86">
+      <c r="D86" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E86" s="0">
         <v>23</v>
       </c>
-      <c r="F86" t="s">
+      <c r="F86" t="s" s="0">
         <v>271</v>
       </c>
-      <c r="G86" t="s">
-        <v>17</v>
-      </c>
-      <c r="H86" t="s">
+      <c r="G86" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H86" t="s" s="0">
         <v>272</v>
       </c>
-      <c r="I86">
+      <c r="I86" s="0">
         <v>6484201</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A87" t="s">
+      <c r="A87" t="s" s="0">
         <v>422</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" t="s" s="0">
         <v>273</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C87" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="D87" t="s">
-        <v>8</v>
-      </c>
-      <c r="E87">
+      <c r="D87" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E87" s="0">
         <v>26</v>
       </c>
-      <c r="F87" t="s">
+      <c r="F87" t="s" s="0">
         <v>274</v>
       </c>
-      <c r="G87" t="s">
-        <v>17</v>
-      </c>
-      <c r="H87" t="s">
+      <c r="G87" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H87" t="s" s="0">
         <v>275</v>
       </c>
-      <c r="I87">
+      <c r="I87" s="0">
         <v>2137184</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A88" t="s">
+      <c r="A88" t="s" s="0">
         <v>423</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" t="s" s="0">
         <v>276</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C88" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="D88" t="s">
+      <c r="D88" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="E88">
+      <c r="E88" s="0">
         <v>43</v>
       </c>
-      <c r="F88" t="s">
+      <c r="F88" t="s" s="0">
         <v>277</v>
       </c>
-      <c r="G88" t="s">
-        <v>17</v>
-      </c>
-      <c r="H88" t="s">
+      <c r="G88" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H88" t="s" s="0">
         <v>278</v>
       </c>
-      <c r="I88">
+      <c r="I88" s="0">
         <v>5828649</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A89" t="s">
+      <c r="A89" t="s" s="0">
         <v>424</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89" t="s" s="0">
         <v>279</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C89" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="D89" t="s">
+      <c r="D89" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="E89">
+      <c r="E89" s="0">
         <v>35</v>
       </c>
-      <c r="F89" t="s">
+      <c r="F89" t="s" s="0">
         <v>280</v>
       </c>
-      <c r="G89" t="s">
-        <v>17</v>
-      </c>
-      <c r="H89" t="s">
+      <c r="G89" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H89" t="s" s="0">
         <v>281</v>
       </c>
-      <c r="I89">
+      <c r="I89" s="0">
         <v>9314586</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A90" t="s">
+      <c r="A90" t="s" s="0">
         <v>425</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90" t="s" s="0">
         <v>282</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C90" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="D90" t="s">
+      <c r="D90" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="E90">
+      <c r="E90" s="0">
         <v>52</v>
       </c>
-      <c r="F90" t="s">
+      <c r="F90" t="s" s="0">
         <v>283</v>
       </c>
-      <c r="G90" t="s">
-        <v>17</v>
-      </c>
-      <c r="H90" t="s">
+      <c r="G90" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H90" t="s" s="0">
         <v>284</v>
       </c>
-      <c r="I90">
+      <c r="I90" s="0">
         <v>5930324</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A91" t="s">
+      <c r="A91" t="s" s="0">
         <v>426</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91" t="s" s="0">
         <v>285</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C91" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="D91" t="s">
-        <v>8</v>
-      </c>
-      <c r="E91">
+      <c r="D91" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E91" s="0">
         <v>42</v>
       </c>
-      <c r="F91" t="s">
+      <c r="F91" t="s" s="0">
         <v>286</v>
       </c>
-      <c r="G91" t="s">
-        <v>17</v>
-      </c>
-      <c r="H91" t="s">
+      <c r="G91" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H91" t="s" s="0">
         <v>287</v>
       </c>
-      <c r="I91">
+      <c r="I91" s="0">
         <v>4353913</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A92" t="s">
+      <c r="A92" t="s" s="0">
         <v>427</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" t="s" s="0">
         <v>288</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C92" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="D92" t="s">
+      <c r="D92" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="E92">
+      <c r="E92" s="0">
         <v>37</v>
       </c>
-      <c r="F92" t="s">
+      <c r="F92" t="s" s="0">
         <v>289</v>
       </c>
-      <c r="G92" t="s">
-        <v>17</v>
-      </c>
-      <c r="H92" t="s">
+      <c r="G92" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H92" t="s" s="0">
         <v>290</v>
       </c>
-      <c r="I92">
+      <c r="I92" s="0">
         <v>3044136</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A93" t="s">
+      <c r="A93" t="s" s="0">
         <v>428</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" t="s" s="0">
         <v>291</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C93" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="D93" t="s">
+      <c r="D93" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="E93">
+      <c r="E93" s="0">
         <v>39</v>
       </c>
-      <c r="F93" t="s">
+      <c r="F93" t="s" s="0">
         <v>292</v>
       </c>
-      <c r="G93" t="s">
-        <v>17</v>
-      </c>
-      <c r="H93" t="s">
+      <c r="G93" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H93" t="s" s="0">
         <v>293</v>
       </c>
-      <c r="I93">
+      <c r="I93" s="0">
         <v>5228200</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A94" t="s">
+      <c r="A94" t="s" s="0">
         <v>429</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" t="s" s="0">
         <v>294</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C94" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="D94" t="s">
-        <v>8</v>
-      </c>
-      <c r="E94">
+      <c r="D94" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E94" s="0">
         <v>21</v>
       </c>
-      <c r="F94" t="s">
+      <c r="F94" t="s" s="0">
         <v>295</v>
       </c>
-      <c r="G94" t="s">
-        <v>17</v>
-      </c>
-      <c r="H94" t="s">
+      <c r="G94" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H94" t="s" s="0">
         <v>296</v>
       </c>
-      <c r="I94">
+      <c r="I94" s="0">
         <v>9912130</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A95" t="s">
+      <c r="A95" t="s" s="0">
         <v>430</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B95" t="s" s="0">
         <v>297</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C95" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="D95" t="s">
-        <v>8</v>
-      </c>
-      <c r="E95">
+      <c r="D95" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E95" s="0">
         <v>61</v>
       </c>
-      <c r="F95" t="s">
+      <c r="F95" t="s" s="0">
         <v>298</v>
       </c>
-      <c r="G95" t="s">
-        <v>17</v>
-      </c>
-      <c r="H95" t="s">
+      <c r="G95" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H95" t="s" s="0">
         <v>299</v>
       </c>
-      <c r="I95">
+      <c r="I95" s="0">
         <v>7542700</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A96" t="s">
+      <c r="A96" t="s" s="0">
         <v>431</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B96" t="s" s="0">
         <v>300</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C96" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="D96" t="s">
+      <c r="D96" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="E96">
+      <c r="E96" s="0">
         <v>62</v>
       </c>
-      <c r="F96" t="s">
+      <c r="F96" t="s" s="0">
         <v>301</v>
       </c>
-      <c r="G96" t="s">
-        <v>17</v>
-      </c>
-      <c r="H96" t="s">
+      <c r="G96" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H96" t="s" s="0">
         <v>302</v>
       </c>
-      <c r="I96">
+      <c r="I96" s="0">
         <v>8296226</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A97" t="s">
+      <c r="A97" t="s" s="0">
         <v>432</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97" t="s" s="0">
         <v>303</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C97" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="D97" t="s">
-        <v>8</v>
-      </c>
-      <c r="E97">
+      <c r="D97" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E97" s="0">
         <v>51</v>
       </c>
-      <c r="F97" t="s">
+      <c r="F97" t="s" s="0">
         <v>304</v>
       </c>
-      <c r="G97" t="s">
-        <v>17</v>
-      </c>
-      <c r="H97" t="s">
+      <c r="G97" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H97" t="s" s="0">
         <v>305</v>
       </c>
-      <c r="I97">
+      <c r="I97" s="0">
         <v>3368363</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A98" t="s">
+      <c r="A98" t="s" s="0">
         <v>433</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B98" t="s" s="0">
         <v>306</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C98" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="D98" t="s">
-        <v>8</v>
-      </c>
-      <c r="E98">
+      <c r="D98" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E98" s="0">
         <v>37</v>
       </c>
-      <c r="F98" t="s">
+      <c r="F98" t="s" s="0">
         <v>307</v>
       </c>
-      <c r="G98" t="s">
-        <v>17</v>
-      </c>
-      <c r="H98" t="s">
+      <c r="G98" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H98" t="s" s="0">
         <v>308</v>
       </c>
-      <c r="I98">
+      <c r="I98" s="0">
         <v>8573375</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A99" t="s">
+      <c r="A99" t="s" s="0">
         <v>434</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B99" t="s" s="0">
         <v>309</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C99" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="D99" t="s">
-        <v>8</v>
-      </c>
-      <c r="E99">
+      <c r="D99" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E99" s="0">
         <v>56</v>
       </c>
-      <c r="F99" t="s">
+      <c r="F99" t="s" s="0">
         <v>310</v>
       </c>
-      <c r="G99" t="s">
-        <v>17</v>
-      </c>
-      <c r="H99" t="s">
+      <c r="G99" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H99" t="s" s="0">
         <v>311</v>
       </c>
-      <c r="I99">
+      <c r="I99" s="0">
         <v>6580060</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A100" t="s">
+      <c r="A100" t="s" s="0">
         <v>435</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B100" t="s" s="0">
         <v>312</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C100" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="D100" t="s">
+      <c r="D100" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="E100">
+      <c r="E100" s="0">
         <v>52</v>
       </c>
-      <c r="F100" t="s">
+      <c r="F100" t="s" s="0">
         <v>313</v>
       </c>
-      <c r="G100" t="s">
-        <v>17</v>
-      </c>
-      <c r="H100" t="s">
+      <c r="G100" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H100" t="s" s="0">
         <v>314</v>
       </c>
-      <c r="I100">
+      <c r="I100" s="0">
         <v>2209714</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A101" t="s">
+      <c r="A101" t="s" s="0">
         <v>436</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B101" t="s" s="0">
         <v>315</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C101" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="D101" t="s">
+      <c r="D101" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="E101">
+      <c r="E101" s="0">
         <v>51</v>
       </c>
-      <c r="F101" t="s">
+      <c r="F101" t="s" s="0">
         <v>316</v>
       </c>
-      <c r="G101" t="s">
-        <v>17</v>
-      </c>
-      <c r="H101" t="s">
+      <c r="G101" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H101" t="s" s="0">
         <v>317</v>
       </c>
-      <c r="I101">
+      <c r="I101" s="0">
         <v>9295610</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A102" t="s">
+      <c r="A102" t="s" s="0">
         <v>437</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B102" t="s" s="0">
         <v>318</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C102" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="D102" t="s">
-        <v>8</v>
-      </c>
-      <c r="E102">
+      <c r="D102" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E102" s="0">
         <v>27</v>
       </c>
-      <c r="F102" t="s">
+      <c r="F102" t="s" s="0">
         <v>319</v>
       </c>
-      <c r="G102" t="s">
-        <v>17</v>
-      </c>
-      <c r="H102" t="s">
+      <c r="G102" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H102" t="s" s="0">
         <v>320</v>
       </c>
-      <c r="I102">
+      <c r="I102" s="0">
         <v>5821986</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A103" t="s">
+      <c r="A103" t="s" s="0">
         <v>438</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B103" t="s" s="0">
         <v>321</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C103" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="D103" t="s">
-        <v>8</v>
-      </c>
-      <c r="E103">
+      <c r="D103" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E103" s="0">
         <v>58</v>
       </c>
-      <c r="F103" t="s">
+      <c r="F103" t="s" s="0">
         <v>322</v>
       </c>
-      <c r="G103" t="s">
-        <v>17</v>
-      </c>
-      <c r="H103" t="s">
+      <c r="G103" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H103" t="s" s="0">
         <v>323</v>
       </c>
-      <c r="I103">
+      <c r="I103" s="0">
         <v>8124730</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A104" t="s">
+      <c r="A104" t="s" s="0">
         <v>439</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B104" t="s" s="0">
         <v>324</v>
       </c>
-      <c r="C104" t="s">
+      <c r="C104" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="D104" t="s">
-        <v>8</v>
-      </c>
-      <c r="E104">
+      <c r="D104" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E104" s="0">
         <v>29</v>
       </c>
-      <c r="F104" t="s">
+      <c r="F104" t="s" s="0">
         <v>325</v>
       </c>
-      <c r="G104" t="s">
-        <v>17</v>
-      </c>
-      <c r="H104" t="s">
+      <c r="G104" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H104" t="s" s="0">
         <v>326</v>
       </c>
-      <c r="I104">
+      <c r="I104" s="0">
         <v>9429253</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A105" t="s">
+      <c r="A105" t="s" s="0">
         <v>440</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B105" t="s" s="0">
         <v>327</v>
       </c>
-      <c r="C105" t="s">
+      <c r="C105" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="D105" t="s">
+      <c r="D105" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="E105">
+      <c r="E105" s="0">
         <v>57</v>
       </c>
-      <c r="F105" t="s">
+      <c r="F105" t="s" s="0">
         <v>328</v>
       </c>
-      <c r="G105" t="s">
-        <v>17</v>
-      </c>
-      <c r="H105" t="s">
+      <c r="G105" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H105" t="s" s="0">
         <v>329</v>
       </c>
-      <c r="I105">
+      <c r="I105" s="0">
         <v>7085811</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A106" t="s">
+      <c r="A106" t="s" s="0">
         <v>441</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B106" t="s" s="0">
         <v>332</v>
       </c>
-      <c r="C106" t="s">
+      <c r="C106" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="D106" t="s">
-        <v>8</v>
-      </c>
-      <c r="E106">
+      <c r="D106" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E106" s="0">
         <v>21</v>
       </c>
-      <c r="F106" t="s">
+      <c r="F106" t="s" s="0">
         <v>333</v>
       </c>
-      <c r="G106" t="s">
+      <c r="G106" t="s" s="0">
         <v>334</v>
       </c>
-      <c r="H106" t="s">
+      <c r="H106" t="s" s="0">
         <v>335</v>
       </c>
-      <c r="I106">
+      <c r="I106" s="0">
         <v>12341234</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A107" t="s">
+      <c r="A107" t="s" s="0">
         <v>442</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B107" t="s" s="0">
         <v>443</v>
       </c>
-      <c r="C107" t="s">
+      <c r="C107" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="D107" t="s">
+      <c r="D107" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="E107">
+      <c r="E107" s="0">
         <v>24</v>
       </c>
-      <c r="F107" t="s">
+      <c r="F107" t="s" s="0">
         <v>444</v>
       </c>
-      <c r="G107" t="s">
+      <c r="G107" t="s" s="0">
         <v>445</v>
       </c>
-      <c r="H107" t="s">
+      <c r="H107" t="s" s="0">
         <v>446</v>
       </c>
-      <c r="I107">
+      <c r="I107" s="0">
         <v>12341234</v>
       </c>
     </row>

--- a/data/UserList.xlsx
+++ b/data/UserList.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e2dc85ffdfb189c0/Desktop/School Projects/SC2002 - OBJECT ORIENTIATED DESIGN ^0 PROGRAMMING/OOP_Proj/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Part Time Studies\OOP_Proj\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC6C19D8-6339-434D-9E95-7203550289BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7625C67-0F67-4088-9E1C-57E27684EC1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28695" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="16305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="452">
   <si>
     <t>Name</t>
   </si>
@@ -1363,14 +1363,25 @@
     <t>sky@walking.com</t>
   </si>
   <si>
-    <t>Pwd1234</t>
+    <t>H107</t>
+  </si>
+  <si>
+    <t>NewAdminPedro</t>
+  </si>
+  <si>
+    <t>PedroTheAdmin</t>
+  </si>
+  <si>
+    <t>pedro</t>
+  </si>
+  <si>
+    <t>pedro@admin.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1749,23 +1760,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I107"/>
+  <dimension ref="A1:I108"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="10.453125"/>
-    <col min="2" max="2" customWidth="true" width="24.7265625"/>
-    <col min="3" max="3" customWidth="true" width="30.453125"/>
-    <col min="6" max="6" customWidth="true" width="16.453125"/>
-    <col min="7" max="7" customWidth="true" width="15.81640625"/>
-    <col min="8" max="8" customWidth="true" width="35.453125"/>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" customWidth="1"/>
+    <col min="3" max="3" width="30.42578125" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" customWidth="1"/>
+    <col min="8" max="8" width="35.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>331</v>
       </c>
@@ -1794,3077 +1805,3106 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" t="s" s="0">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>337</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s" s="0">
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s" s="0">
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="0">
+      <c r="E2">
         <v>45</v>
       </c>
-      <c r="F2" t="s" s="0">
+      <c r="F2" t="s">
         <v>16</v>
       </c>
-      <c r="G2" t="s" s="0">
+      <c r="G2" t="s">
         <v>330</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="0">
+      <c r="I2">
         <v>12345678</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" t="s" s="0">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>338</v>
       </c>
-      <c r="B3" t="s" s="0">
+      <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="0">
+      <c r="C3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E3" s="0">
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3">
         <v>38</v>
       </c>
-      <c r="F3" t="s" s="0">
+      <c r="F3" t="s">
         <v>19</v>
       </c>
-      <c r="G3" t="s" s="0">
+      <c r="G3" t="s">
         <v>17</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="0">
+      <c r="I3">
         <v>12345679</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" t="s" s="0">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>339</v>
       </c>
-      <c r="B4" t="s" s="0">
+      <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" t="s" s="0">
+      <c r="C4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" t="s" s="0">
+      <c r="D4" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="0">
+      <c r="E4">
         <v>29</v>
       </c>
-      <c r="F4" t="s" s="0">
+      <c r="F4" t="s">
         <v>21</v>
       </c>
-      <c r="G4" t="s" s="0">
+      <c r="G4" t="s">
         <v>17</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="0">
+      <c r="I4">
         <v>12345680</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" t="s" s="0">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>340</v>
       </c>
-      <c r="B5" t="s" s="0">
+      <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" t="s" s="0">
+      <c r="C5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E5" s="0">
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5">
         <v>40</v>
       </c>
-      <c r="F5" t="s" s="0">
+      <c r="F5" t="s">
         <v>23</v>
       </c>
-      <c r="G5" t="s" s="0">
+      <c r="G5" t="s">
         <v>336</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="0">
+      <c r="I5">
         <v>12345681</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" t="s" s="0">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>341</v>
       </c>
-      <c r="B6" t="s" s="0">
+      <c r="B6" t="s">
         <v>26</v>
       </c>
-      <c r="C6" t="s" s="0">
+      <c r="C6" t="s">
         <v>27</v>
       </c>
-      <c r="D6" t="s" s="0">
+      <c r="D6" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="0">
+      <c r="E6">
         <v>65</v>
       </c>
-      <c r="F6" t="s" s="0">
+      <c r="F6" t="s">
         <v>28</v>
       </c>
-      <c r="G6" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H6" t="s" s="0">
+      <c r="G6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="0">
+      <c r="I6">
         <v>9458008</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" t="s" s="0">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>342</v>
       </c>
-      <c r="B7" t="s" s="0">
+      <c r="B7" t="s">
         <v>30</v>
       </c>
-      <c r="C7" t="s" s="0">
+      <c r="C7" t="s">
         <v>5</v>
       </c>
-      <c r="D7" t="s" s="0">
+      <c r="D7" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="0">
+      <c r="E7">
         <v>57</v>
       </c>
-      <c r="F7" t="s" s="0">
+      <c r="F7" t="s">
         <v>31</v>
       </c>
-      <c r="G7" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H7" t="s" s="0">
+      <c r="G7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" t="s">
         <v>32</v>
       </c>
-      <c r="I7" s="0">
+      <c r="I7">
         <v>5406679</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" t="s" s="0">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>343</v>
       </c>
-      <c r="B8" t="s" s="0">
+      <c r="B8" t="s">
         <v>33</v>
       </c>
-      <c r="C8" t="s" s="0">
+      <c r="C8" t="s">
         <v>6</v>
       </c>
-      <c r="D8" t="s" s="0">
+      <c r="D8" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="0">
+      <c r="E8">
         <v>39</v>
       </c>
-      <c r="F8" t="s" s="0">
+      <c r="F8" t="s">
         <v>34</v>
       </c>
-      <c r="G8" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H8" t="s" s="0">
+      <c r="G8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" t="s">
         <v>35</v>
       </c>
-      <c r="I8" s="0">
+      <c r="I8">
         <v>8020791</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" t="s" s="0">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>344</v>
       </c>
-      <c r="B9" t="s" s="0">
+      <c r="B9" t="s">
         <v>36</v>
       </c>
-      <c r="C9" t="s" s="0">
+      <c r="C9" t="s">
         <v>5</v>
       </c>
-      <c r="D9" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E9" s="0">
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9">
         <v>32</v>
       </c>
-      <c r="F9" t="s" s="0">
+      <c r="F9" t="s">
         <v>37</v>
       </c>
-      <c r="G9" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H9" t="s" s="0">
+      <c r="G9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" t="s">
         <v>38</v>
       </c>
-      <c r="I9" s="0">
+      <c r="I9">
         <v>5720360</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" t="s" s="0">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>345</v>
       </c>
-      <c r="B10" t="s" s="0">
+      <c r="B10" t="s">
         <v>39</v>
       </c>
-      <c r="C10" t="s" s="0">
+      <c r="C10" t="s">
         <v>5</v>
       </c>
-      <c r="D10" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E10" s="0">
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10">
         <v>45</v>
       </c>
-      <c r="F10" t="s" s="0">
+      <c r="F10" t="s">
         <v>40</v>
       </c>
-      <c r="G10" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H10" t="s" s="0">
+      <c r="G10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" t="s">
         <v>41</v>
       </c>
-      <c r="I10" s="0">
+      <c r="I10">
         <v>9507728</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" t="s" s="0">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>346</v>
       </c>
-      <c r="B11" t="s" s="0">
+      <c r="B11" t="s">
         <v>42</v>
       </c>
-      <c r="C11" t="s" s="0">
+      <c r="C11" t="s">
         <v>4</v>
       </c>
-      <c r="D11" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E11" s="0">
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11">
         <v>56</v>
       </c>
-      <c r="F11" t="s" s="0">
+      <c r="F11" t="s">
         <v>43</v>
       </c>
-      <c r="G11" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H11" t="s" s="0">
+      <c r="G11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" t="s">
         <v>44</v>
       </c>
-      <c r="I11" s="0">
+      <c r="I11">
         <v>6810352</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" t="s" s="0">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>347</v>
       </c>
-      <c r="B12" t="s" s="0">
+      <c r="B12" t="s">
         <v>45</v>
       </c>
-      <c r="C12" t="s" s="0">
+      <c r="C12" t="s">
         <v>6</v>
       </c>
-      <c r="D12" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E12" s="0">
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12">
         <v>27</v>
       </c>
-      <c r="F12" t="s" s="0">
+      <c r="F12" t="s">
         <v>46</v>
       </c>
-      <c r="G12" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H12" t="s" s="0">
+      <c r="G12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" t="s">
         <v>47</v>
       </c>
-      <c r="I12" s="0">
+      <c r="I12">
         <v>5980041</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" t="s" s="0">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>348</v>
       </c>
-      <c r="B13" t="s" s="0">
+      <c r="B13" t="s">
         <v>48</v>
       </c>
-      <c r="C13" t="s" s="0">
+      <c r="C13" t="s">
         <v>49</v>
       </c>
-      <c r="D13" t="s" s="0">
+      <c r="D13" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="0">
+      <c r="E13">
         <v>29</v>
       </c>
-      <c r="F13" t="s" s="0">
+      <c r="F13" t="s">
         <v>50</v>
       </c>
-      <c r="G13" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H13" t="s" s="0">
+      <c r="G13" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" t="s">
         <v>51</v>
       </c>
-      <c r="I13" s="0">
+      <c r="I13">
         <v>5130769</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" t="s" s="0">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>349</v>
       </c>
-      <c r="B14" t="s" s="0">
+      <c r="B14" t="s">
         <v>52</v>
       </c>
-      <c r="C14" t="s" s="0">
+      <c r="C14" t="s">
         <v>5</v>
       </c>
-      <c r="D14" t="s" s="0">
+      <c r="D14" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="0">
+      <c r="E14">
         <v>34</v>
       </c>
-      <c r="F14" t="s" s="0">
+      <c r="F14" t="s">
         <v>53</v>
       </c>
-      <c r="G14" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H14" t="s" s="0">
+      <c r="G14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" t="s">
         <v>54</v>
       </c>
-      <c r="I14" s="0">
+      <c r="I14">
         <v>4446176</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15" t="s" s="0">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>350</v>
       </c>
-      <c r="B15" t="s" s="0">
+      <c r="B15" t="s">
         <v>55</v>
       </c>
-      <c r="C15" t="s" s="0">
+      <c r="C15" t="s">
         <v>56</v>
       </c>
-      <c r="D15" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E15" s="0">
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15">
         <v>52</v>
       </c>
-      <c r="F15" t="s" s="0">
+      <c r="F15" t="s">
         <v>57</v>
       </c>
-      <c r="G15" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H15" t="s" s="0">
+      <c r="G15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" t="s">
         <v>58</v>
       </c>
-      <c r="I15" s="0">
+      <c r="I15">
         <v>3504139</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16" t="s" s="0">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>351</v>
       </c>
-      <c r="B16" t="s" s="0">
+      <c r="B16" t="s">
         <v>59</v>
       </c>
-      <c r="C16" t="s" s="0">
+      <c r="C16" t="s">
         <v>56</v>
       </c>
-      <c r="D16" t="s" s="0">
+      <c r="D16" t="s">
         <v>7</v>
       </c>
-      <c r="E16" s="0">
+      <c r="E16">
         <v>43</v>
       </c>
-      <c r="F16" t="s" s="0">
+      <c r="F16" t="s">
         <v>60</v>
       </c>
-      <c r="G16" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H16" t="s" s="0">
+      <c r="G16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" t="s">
         <v>61</v>
       </c>
-      <c r="I16" s="0">
+      <c r="I16">
         <v>3882465</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" t="s" s="0">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>352</v>
       </c>
-      <c r="B17" t="s" s="0">
+      <c r="B17" t="s">
         <v>62</v>
       </c>
-      <c r="C17" t="s" s="0">
+      <c r="C17" t="s">
         <v>4</v>
       </c>
-      <c r="D17" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E17" s="0">
+      <c r="D17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17">
         <v>38</v>
       </c>
-      <c r="F17" t="s" s="0">
+      <c r="F17" t="s">
         <v>63</v>
       </c>
-      <c r="G17" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H17" t="s" s="0">
+      <c r="G17" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" t="s">
         <v>64</v>
       </c>
-      <c r="I17" s="0">
+      <c r="I17">
         <v>6209898</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18" t="s" s="0">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>353</v>
       </c>
-      <c r="B18" t="s" s="0">
+      <c r="B18" t="s">
         <v>65</v>
       </c>
-      <c r="C18" t="s" s="0">
+      <c r="C18" t="s">
         <v>5</v>
       </c>
-      <c r="D18" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E18" s="0">
+      <c r="D18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18">
         <v>55</v>
       </c>
-      <c r="F18" t="s" s="0">
+      <c r="F18" t="s">
         <v>66</v>
       </c>
-      <c r="G18" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H18" t="s" s="0">
+      <c r="G18" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" t="s">
         <v>67</v>
       </c>
-      <c r="I18" s="0">
+      <c r="I18">
         <v>9214791</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A19" t="s" s="0">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>354</v>
       </c>
-      <c r="B19" t="s" s="0">
+      <c r="B19" t="s">
         <v>68</v>
       </c>
-      <c r="C19" t="s" s="0">
+      <c r="C19" t="s">
         <v>5</v>
       </c>
-      <c r="D19" t="s" s="0">
+      <c r="D19" t="s">
         <v>7</v>
       </c>
-      <c r="E19" s="0">
+      <c r="E19">
         <v>53</v>
       </c>
-      <c r="F19" t="s" s="0">
+      <c r="F19" t="s">
         <v>69</v>
       </c>
-      <c r="G19" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H19" t="s" s="0">
+      <c r="G19" t="s">
+        <v>17</v>
+      </c>
+      <c r="H19" t="s">
         <v>70</v>
       </c>
-      <c r="I19" s="0">
+      <c r="I19">
         <v>8179935</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A20" t="s" s="0">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>355</v>
       </c>
-      <c r="B20" t="s" s="0">
+      <c r="B20" t="s">
         <v>71</v>
       </c>
-      <c r="C20" t="s" s="0">
+      <c r="C20" t="s">
         <v>4</v>
       </c>
-      <c r="D20" t="s" s="0">
+      <c r="D20" t="s">
         <v>7</v>
       </c>
-      <c r="E20" s="0">
+      <c r="E20">
         <v>25</v>
       </c>
-      <c r="F20" t="s" s="0">
+      <c r="F20" t="s">
         <v>72</v>
       </c>
-      <c r="G20" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H20" t="s" s="0">
+      <c r="G20" t="s">
+        <v>17</v>
+      </c>
+      <c r="H20" t="s">
         <v>73</v>
       </c>
-      <c r="I20" s="0">
+      <c r="I20">
         <v>3023232</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A21" t="s" s="0">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>356</v>
       </c>
-      <c r="B21" t="s" s="0">
+      <c r="B21" t="s">
         <v>74</v>
       </c>
-      <c r="C21" t="s" s="0">
+      <c r="C21" t="s">
         <v>56</v>
       </c>
-      <c r="D21" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E21" s="0">
+      <c r="D21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21">
         <v>58</v>
       </c>
-      <c r="F21" t="s" s="0">
+      <c r="F21" t="s">
         <v>75</v>
       </c>
-      <c r="G21" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H21" t="s" s="0">
+      <c r="G21" t="s">
+        <v>17</v>
+      </c>
+      <c r="H21" t="s">
         <v>76</v>
       </c>
-      <c r="I21" s="0">
+      <c r="I21">
         <v>6607521</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A22" t="s" s="0">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>357</v>
       </c>
-      <c r="B22" t="s" s="0">
+      <c r="B22" t="s">
         <v>77</v>
       </c>
-      <c r="C22" t="s" s="0">
+      <c r="C22" t="s">
         <v>49</v>
       </c>
-      <c r="D22" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E22" s="0">
+      <c r="D22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22">
         <v>47</v>
       </c>
-      <c r="F22" t="s" s="0">
+      <c r="F22" t="s">
         <v>78</v>
       </c>
-      <c r="G22" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H22" t="s" s="0">
+      <c r="G22" t="s">
+        <v>17</v>
+      </c>
+      <c r="H22" t="s">
         <v>79</v>
       </c>
-      <c r="I22" s="0">
+      <c r="I22">
         <v>4855587</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A23" t="s" s="0">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>358</v>
       </c>
-      <c r="B23" t="s" s="0">
+      <c r="B23" t="s">
         <v>80</v>
       </c>
-      <c r="C23" t="s" s="0">
+      <c r="C23" t="s">
         <v>6</v>
       </c>
-      <c r="D23" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E23" s="0">
+      <c r="D23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23">
         <v>27</v>
       </c>
-      <c r="F23" t="s" s="0">
+      <c r="F23" t="s">
         <v>81</v>
       </c>
-      <c r="G23" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H23" t="s" s="0">
+      <c r="G23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H23" t="s">
         <v>82</v>
       </c>
-      <c r="I23" s="0">
+      <c r="I23">
         <v>5043744</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A24" t="s" s="0">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>359</v>
       </c>
-      <c r="B24" t="s" s="0">
+      <c r="B24" t="s">
         <v>83</v>
       </c>
-      <c r="C24" t="s" s="0">
+      <c r="C24" t="s">
         <v>5</v>
       </c>
-      <c r="D24" t="s" s="0">
+      <c r="D24" t="s">
         <v>7</v>
       </c>
-      <c r="E24" s="0">
+      <c r="E24">
         <v>23</v>
       </c>
-      <c r="F24" t="s" s="0">
+      <c r="F24" t="s">
         <v>84</v>
       </c>
-      <c r="G24" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H24" t="s" s="0">
+      <c r="G24" t="s">
+        <v>17</v>
+      </c>
+      <c r="H24" t="s">
         <v>85</v>
       </c>
-      <c r="I24" s="0">
+      <c r="I24">
         <v>6914894</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A25" t="s" s="0">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>360</v>
       </c>
-      <c r="B25" t="s" s="0">
+      <c r="B25" t="s">
         <v>86</v>
       </c>
-      <c r="C25" t="s" s="0">
+      <c r="C25" t="s">
         <v>5</v>
       </c>
-      <c r="D25" t="s" s="0">
+      <c r="D25" t="s">
         <v>7</v>
       </c>
-      <c r="E25" s="0">
+      <c r="E25">
         <v>65</v>
       </c>
-      <c r="F25" t="s" s="0">
+      <c r="F25" t="s">
         <v>87</v>
       </c>
-      <c r="G25" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H25" t="s" s="0">
+      <c r="G25" t="s">
+        <v>17</v>
+      </c>
+      <c r="H25" t="s">
         <v>88</v>
       </c>
-      <c r="I25" s="0">
+      <c r="I25">
         <v>5176574</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A26" t="s" s="0">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>361</v>
       </c>
-      <c r="B26" t="s" s="0">
+      <c r="B26" t="s">
         <v>89</v>
       </c>
-      <c r="C26" t="s" s="0">
+      <c r="C26" t="s">
         <v>27</v>
       </c>
-      <c r="D26" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E26" s="0">
+      <c r="D26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26">
         <v>38</v>
       </c>
-      <c r="F26" t="s" s="0">
+      <c r="F26" t="s">
         <v>90</v>
       </c>
-      <c r="G26" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H26" t="s" s="0">
+      <c r="G26" t="s">
+        <v>17</v>
+      </c>
+      <c r="H26" t="s">
         <v>91</v>
       </c>
-      <c r="I26" s="0">
+      <c r="I26">
         <v>5994982</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A27" t="s" s="0">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>362</v>
       </c>
-      <c r="B27" t="s" s="0">
+      <c r="B27" t="s">
         <v>92</v>
       </c>
-      <c r="C27" t="s" s="0">
+      <c r="C27" t="s">
         <v>93</v>
       </c>
-      <c r="D27" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E27" s="0">
+      <c r="D27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27">
         <v>29</v>
       </c>
-      <c r="F27" t="s" s="0">
+      <c r="F27" t="s">
         <v>94</v>
       </c>
-      <c r="G27" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H27" t="s" s="0">
+      <c r="G27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H27" t="s">
         <v>95</v>
       </c>
-      <c r="I27" s="0">
+      <c r="I27">
         <v>2026262</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A28" t="s" s="0">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>363</v>
       </c>
-      <c r="B28" t="s" s="0">
+      <c r="B28" t="s">
         <v>96</v>
       </c>
-      <c r="C28" t="s" s="0">
+      <c r="C28" t="s">
         <v>5</v>
       </c>
-      <c r="D28" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E28" s="0">
+      <c r="D28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28">
         <v>28</v>
       </c>
-      <c r="F28" t="s" s="0">
+      <c r="F28" t="s">
         <v>97</v>
       </c>
-      <c r="G28" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H28" t="s" s="0">
+      <c r="G28" t="s">
+        <v>17</v>
+      </c>
+      <c r="H28" t="s">
         <v>98</v>
       </c>
-      <c r="I28" s="0">
+      <c r="I28">
         <v>5788254</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A29" t="s" s="0">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>364</v>
       </c>
-      <c r="B29" t="s" s="0">
+      <c r="B29" t="s">
         <v>99</v>
       </c>
-      <c r="C29" t="s" s="0">
+      <c r="C29" t="s">
         <v>49</v>
       </c>
-      <c r="D29" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E29" s="0">
+      <c r="D29" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29">
         <v>54</v>
       </c>
-      <c r="F29" t="s" s="0">
+      <c r="F29" t="s">
         <v>100</v>
       </c>
-      <c r="G29" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H29" t="s" s="0">
+      <c r="G29" t="s">
+        <v>17</v>
+      </c>
+      <c r="H29" t="s">
         <v>101</v>
       </c>
-      <c r="I29" s="0">
+      <c r="I29">
         <v>3073034</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A30" t="s" s="0">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>365</v>
       </c>
-      <c r="B30" t="s" s="0">
+      <c r="B30" t="s">
         <v>102</v>
       </c>
-      <c r="C30" t="s" s="0">
+      <c r="C30" t="s">
         <v>5</v>
       </c>
-      <c r="D30" t="s" s="0">
+      <c r="D30" t="s">
         <v>7</v>
       </c>
-      <c r="E30" s="0">
+      <c r="E30">
         <v>22</v>
       </c>
-      <c r="F30" t="s" s="0">
+      <c r="F30" t="s">
         <v>103</v>
       </c>
-      <c r="G30" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H30" t="s" s="0">
+      <c r="G30" t="s">
+        <v>17</v>
+      </c>
+      <c r="H30" t="s">
         <v>104</v>
       </c>
-      <c r="I30" s="0">
+      <c r="I30">
         <v>3512882</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A31" t="s" s="0">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>366</v>
       </c>
-      <c r="B31" t="s" s="0">
+      <c r="B31" t="s">
         <v>105</v>
       </c>
-      <c r="C31" t="s" s="0">
+      <c r="C31" t="s">
         <v>49</v>
       </c>
-      <c r="D31" t="s" s="0">
+      <c r="D31" t="s">
         <v>7</v>
       </c>
-      <c r="E31" s="0">
+      <c r="E31">
         <v>31</v>
       </c>
-      <c r="F31" t="s" s="0">
+      <c r="F31" t="s">
         <v>106</v>
       </c>
-      <c r="G31" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H31" t="s" s="0">
+      <c r="G31" t="s">
+        <v>17</v>
+      </c>
+      <c r="H31" t="s">
         <v>107</v>
       </c>
-      <c r="I31" s="0">
+      <c r="I31">
         <v>3869738</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A32" t="s" s="0">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>367</v>
       </c>
-      <c r="B32" t="s" s="0">
+      <c r="B32" t="s">
         <v>108</v>
       </c>
-      <c r="C32" t="s" s="0">
+      <c r="C32" t="s">
         <v>4</v>
       </c>
-      <c r="D32" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E32" s="0">
+      <c r="D32" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32">
         <v>28</v>
       </c>
-      <c r="F32" t="s" s="0">
+      <c r="F32" t="s">
         <v>109</v>
       </c>
-      <c r="G32" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H32" t="s" s="0">
+      <c r="G32" t="s">
+        <v>17</v>
+      </c>
+      <c r="H32" t="s">
         <v>110</v>
       </c>
-      <c r="I32" s="0">
+      <c r="I32">
         <v>1222647</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A33" t="s" s="0">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>368</v>
       </c>
-      <c r="B33" t="s" s="0">
+      <c r="B33" t="s">
         <v>111</v>
       </c>
-      <c r="C33" t="s" s="0">
+      <c r="C33" t="s">
         <v>6</v>
       </c>
-      <c r="D33" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E33" s="0">
+      <c r="D33" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33">
         <v>60</v>
       </c>
-      <c r="F33" t="s" s="0">
+      <c r="F33" t="s">
         <v>112</v>
       </c>
-      <c r="G33" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H33" t="s" s="0">
+      <c r="G33" t="s">
+        <v>17</v>
+      </c>
+      <c r="H33" t="s">
         <v>113</v>
       </c>
-      <c r="I33" s="0">
+      <c r="I33">
         <v>7437675</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A34" t="s" s="0">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>369</v>
       </c>
-      <c r="B34" t="s" s="0">
+      <c r="B34" t="s">
         <v>114</v>
       </c>
-      <c r="C34" t="s" s="0">
+      <c r="C34" t="s">
         <v>93</v>
       </c>
-      <c r="D34" t="s" s="0">
+      <c r="D34" t="s">
         <v>7</v>
       </c>
-      <c r="E34" s="0">
+      <c r="E34">
         <v>51</v>
       </c>
-      <c r="F34" t="s" s="0">
+      <c r="F34" t="s">
         <v>115</v>
       </c>
-      <c r="G34" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H34" t="s" s="0">
+      <c r="G34" t="s">
+        <v>17</v>
+      </c>
+      <c r="H34" t="s">
         <v>116</v>
       </c>
-      <c r="I34" s="0">
+      <c r="I34">
         <v>5991621</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A35" t="s" s="0">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>370</v>
       </c>
-      <c r="B35" t="s" s="0">
+      <c r="B35" t="s">
         <v>117</v>
       </c>
-      <c r="C35" t="s" s="0">
+      <c r="C35" t="s">
         <v>5</v>
       </c>
-      <c r="D35" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E35" s="0">
+      <c r="D35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35">
         <v>57</v>
       </c>
-      <c r="F35" t="s" s="0">
+      <c r="F35" t="s">
         <v>118</v>
       </c>
-      <c r="G35" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H35" t="s" s="0">
+      <c r="G35" t="s">
+        <v>17</v>
+      </c>
+      <c r="H35" t="s">
         <v>119</v>
       </c>
-      <c r="I35" s="0">
+      <c r="I35">
         <v>2673449</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A36" t="s" s="0">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>371</v>
       </c>
-      <c r="B36" t="s" s="0">
+      <c r="B36" t="s">
         <v>120</v>
       </c>
-      <c r="C36" t="s" s="0">
+      <c r="C36" t="s">
         <v>6</v>
       </c>
-      <c r="D36" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E36" s="0">
+      <c r="D36" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36">
         <v>41</v>
       </c>
-      <c r="F36" t="s" s="0">
+      <c r="F36" t="s">
         <v>121</v>
       </c>
-      <c r="G36" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H36" t="s" s="0">
+      <c r="G36" t="s">
+        <v>17</v>
+      </c>
+      <c r="H36" t="s">
         <v>122</v>
       </c>
-      <c r="I36" s="0">
+      <c r="I36">
         <v>5414099</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A37" t="s" s="0">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>372</v>
       </c>
-      <c r="B37" t="s" s="0">
+      <c r="B37" t="s">
         <v>123</v>
       </c>
-      <c r="C37" t="s" s="0">
+      <c r="C37" t="s">
         <v>27</v>
       </c>
-      <c r="D37" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E37" s="0">
+      <c r="D37" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37">
         <v>65</v>
       </c>
-      <c r="F37" t="s" s="0">
+      <c r="F37" t="s">
         <v>124</v>
       </c>
-      <c r="G37" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H37" t="s" s="0">
+      <c r="G37" t="s">
+        <v>17</v>
+      </c>
+      <c r="H37" t="s">
         <v>125</v>
       </c>
-      <c r="I37" s="0">
+      <c r="I37">
         <v>1591806</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A38" t="s" s="0">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>373</v>
       </c>
-      <c r="B38" t="s" s="0">
+      <c r="B38" t="s">
         <v>126</v>
       </c>
-      <c r="C38" t="s" s="0">
+      <c r="C38" t="s">
         <v>5</v>
       </c>
-      <c r="D38" t="s" s="0">
+      <c r="D38" t="s">
         <v>7</v>
       </c>
-      <c r="E38" s="0">
+      <c r="E38">
         <v>34</v>
       </c>
-      <c r="F38" t="s" s="0">
+      <c r="F38" t="s">
         <v>127</v>
       </c>
-      <c r="G38" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H38" t="s" s="0">
+      <c r="G38" t="s">
+        <v>17</v>
+      </c>
+      <c r="H38" t="s">
         <v>128</v>
       </c>
-      <c r="I38" s="0">
+      <c r="I38">
         <v>5440842</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A39" t="s" s="0">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>374</v>
       </c>
-      <c r="B39" t="s" s="0">
+      <c r="B39" t="s">
         <v>129</v>
       </c>
-      <c r="C39" t="s" s="0">
+      <c r="C39" t="s">
         <v>93</v>
       </c>
-      <c r="D39" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E39" s="0">
+      <c r="D39" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39">
         <v>39</v>
       </c>
-      <c r="F39" t="s" s="0">
+      <c r="F39" t="s">
         <v>130</v>
       </c>
-      <c r="G39" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H39" t="s" s="0">
+      <c r="G39" t="s">
+        <v>17</v>
+      </c>
+      <c r="H39" t="s">
         <v>131</v>
       </c>
-      <c r="I39" s="0">
+      <c r="I39">
         <v>5123903</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A40" t="s" s="0">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>375</v>
       </c>
-      <c r="B40" t="s" s="0">
+      <c r="B40" t="s">
         <v>132</v>
       </c>
-      <c r="C40" t="s" s="0">
+      <c r="C40" t="s">
         <v>93</v>
       </c>
-      <c r="D40" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E40" s="0">
+      <c r="D40" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40">
         <v>30</v>
       </c>
-      <c r="F40" t="s" s="0">
+      <c r="F40" t="s">
         <v>133</v>
       </c>
-      <c r="G40" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H40" t="s" s="0">
+      <c r="G40" t="s">
+        <v>17</v>
+      </c>
+      <c r="H40" t="s">
         <v>134</v>
       </c>
-      <c r="I40" s="0">
+      <c r="I40">
         <v>8419913</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A41" t="s" s="0">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>376</v>
       </c>
-      <c r="B41" t="s" s="0">
+      <c r="B41" t="s">
         <v>135</v>
       </c>
-      <c r="C41" t="s" s="0">
+      <c r="C41" t="s">
         <v>6</v>
       </c>
-      <c r="D41" t="s" s="0">
+      <c r="D41" t="s">
         <v>7</v>
       </c>
-      <c r="E41" s="0">
+      <c r="E41">
         <v>53</v>
       </c>
-      <c r="F41" t="s" s="0">
+      <c r="F41" t="s">
         <v>136</v>
       </c>
-      <c r="G41" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H41" t="s" s="0">
+      <c r="G41" t="s">
+        <v>17</v>
+      </c>
+      <c r="H41" t="s">
         <v>137</v>
       </c>
-      <c r="I41" s="0">
+      <c r="I41">
         <v>2541769</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A42" t="s" s="0">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>377</v>
       </c>
-      <c r="B42" t="s" s="0">
+      <c r="B42" t="s">
         <v>138</v>
       </c>
-      <c r="C42" t="s" s="0">
+      <c r="C42" t="s">
         <v>93</v>
       </c>
-      <c r="D42" t="s" s="0">
+      <c r="D42" t="s">
         <v>7</v>
       </c>
-      <c r="E42" s="0">
+      <c r="E42">
         <v>42</v>
       </c>
-      <c r="F42" t="s" s="0">
+      <c r="F42" t="s">
         <v>139</v>
       </c>
-      <c r="G42" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H42" t="s" s="0">
+      <c r="G42" t="s">
+        <v>17</v>
+      </c>
+      <c r="H42" t="s">
         <v>140</v>
       </c>
-      <c r="I42" s="0">
+      <c r="I42">
         <v>3301311</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A43" t="s" s="0">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>378</v>
       </c>
-      <c r="B43" t="s" s="0">
+      <c r="B43" t="s">
         <v>141</v>
       </c>
-      <c r="C43" t="s" s="0">
+      <c r="C43" t="s">
         <v>56</v>
       </c>
-      <c r="D43" t="s" s="0">
+      <c r="D43" t="s">
         <v>7</v>
       </c>
-      <c r="E43" s="0">
+      <c r="E43">
         <v>61</v>
       </c>
-      <c r="F43" t="s" s="0">
+      <c r="F43" t="s">
         <v>142</v>
       </c>
-      <c r="G43" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H43" t="s" s="0">
+      <c r="G43" t="s">
+        <v>17</v>
+      </c>
+      <c r="H43" t="s">
         <v>143</v>
       </c>
-      <c r="I43" s="0">
+      <c r="I43">
         <v>3901307</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A44" t="s" s="0">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>379</v>
       </c>
-      <c r="B44" t="s" s="0">
+      <c r="B44" t="s">
         <v>144</v>
       </c>
-      <c r="C44" t="s" s="0">
+      <c r="C44" t="s">
         <v>56</v>
       </c>
-      <c r="D44" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E44" s="0">
+      <c r="D44" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44">
         <v>45</v>
       </c>
-      <c r="F44" t="s" s="0">
+      <c r="F44" t="s">
         <v>145</v>
       </c>
-      <c r="G44" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H44" t="s" s="0">
+      <c r="G44" t="s">
+        <v>17</v>
+      </c>
+      <c r="H44" t="s">
         <v>146</v>
       </c>
-      <c r="I44" s="0">
+      <c r="I44">
         <v>8507627</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A45" t="s" s="0">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>380</v>
       </c>
-      <c r="B45" t="s" s="0">
+      <c r="B45" t="s">
         <v>147</v>
       </c>
-      <c r="C45" t="s" s="0">
+      <c r="C45" t="s">
         <v>5</v>
       </c>
-      <c r="D45" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E45" s="0">
+      <c r="D45" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45">
         <v>22</v>
       </c>
-      <c r="F45" t="s" s="0">
+      <c r="F45" t="s">
         <v>148</v>
       </c>
-      <c r="G45" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H45" t="s" s="0">
+      <c r="G45" t="s">
+        <v>17</v>
+      </c>
+      <c r="H45" t="s">
         <v>149</v>
       </c>
-      <c r="I45" s="0">
+      <c r="I45">
         <v>6247756</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A46" t="s" s="0">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>381</v>
       </c>
-      <c r="B46" t="s" s="0">
+      <c r="B46" t="s">
         <v>150</v>
       </c>
-      <c r="C46" t="s" s="0">
+      <c r="C46" t="s">
         <v>93</v>
       </c>
-      <c r="D46" t="s" s="0">
+      <c r="D46" t="s">
         <v>7</v>
       </c>
-      <c r="E46" s="0">
+      <c r="E46">
         <v>62</v>
       </c>
-      <c r="F46" t="s" s="0">
+      <c r="F46" t="s">
         <v>151</v>
       </c>
-      <c r="G46" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H46" t="s" s="0">
+      <c r="G46" t="s">
+        <v>17</v>
+      </c>
+      <c r="H46" t="s">
         <v>152</v>
       </c>
-      <c r="I46" s="0">
+      <c r="I46">
         <v>7799558</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A47" t="s" s="0">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>382</v>
       </c>
-      <c r="B47" t="s" s="0">
+      <c r="B47" t="s">
         <v>153</v>
       </c>
-      <c r="C47" t="s" s="0">
+      <c r="C47" t="s">
         <v>93</v>
       </c>
-      <c r="D47" t="s" s="0">
+      <c r="D47" t="s">
         <v>7</v>
       </c>
-      <c r="E47" s="0">
+      <c r="E47">
         <v>57</v>
       </c>
-      <c r="F47" t="s" s="0">
+      <c r="F47" t="s">
         <v>154</v>
       </c>
-      <c r="G47" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H47" t="s" s="0">
+      <c r="G47" t="s">
+        <v>17</v>
+      </c>
+      <c r="H47" t="s">
         <v>155</v>
       </c>
-      <c r="I47" s="0">
+      <c r="I47">
         <v>6846085</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A48" t="s" s="0">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>383</v>
       </c>
-      <c r="B48" t="s" s="0">
+      <c r="B48" t="s">
         <v>156</v>
       </c>
-      <c r="C48" t="s" s="0">
+      <c r="C48" t="s">
         <v>6</v>
       </c>
-      <c r="D48" t="s" s="0">
+      <c r="D48" t="s">
         <v>7</v>
       </c>
-      <c r="E48" s="0">
+      <c r="E48">
         <v>64</v>
       </c>
-      <c r="F48" t="s" s="0">
+      <c r="F48" t="s">
         <v>157</v>
       </c>
-      <c r="G48" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H48" t="s" s="0">
+      <c r="G48" t="s">
+        <v>17</v>
+      </c>
+      <c r="H48" t="s">
         <v>158</v>
       </c>
-      <c r="I48" s="0">
+      <c r="I48">
         <v>3002894</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A49" t="s" s="0">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>384</v>
       </c>
-      <c r="B49" t="s" s="0">
+      <c r="B49" t="s">
         <v>159</v>
       </c>
-      <c r="C49" t="s" s="0">
+      <c r="C49" t="s">
         <v>4</v>
       </c>
-      <c r="D49" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E49" s="0">
+      <c r="D49" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49">
         <v>65</v>
       </c>
-      <c r="F49" t="s" s="0">
+      <c r="F49" t="s">
         <v>160</v>
       </c>
-      <c r="G49" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H49" t="s" s="0">
+      <c r="G49" t="s">
+        <v>17</v>
+      </c>
+      <c r="H49" t="s">
         <v>161</v>
       </c>
-      <c r="I49" s="0">
+      <c r="I49">
         <v>8576374</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A50" t="s" s="0">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>385</v>
       </c>
-      <c r="B50" t="s" s="0">
+      <c r="B50" t="s">
         <v>162</v>
       </c>
-      <c r="C50" t="s" s="0">
+      <c r="C50" t="s">
         <v>93</v>
       </c>
-      <c r="D50" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E50" s="0">
+      <c r="D50" t="s">
+        <v>8</v>
+      </c>
+      <c r="E50">
         <v>50</v>
       </c>
-      <c r="F50" t="s" s="0">
+      <c r="F50" t="s">
         <v>163</v>
       </c>
-      <c r="G50" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H50" t="s" s="0">
+      <c r="G50" t="s">
+        <v>17</v>
+      </c>
+      <c r="H50" t="s">
         <v>164</v>
       </c>
-      <c r="I50" s="0">
+      <c r="I50">
         <v>6839229</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A51" t="s" s="0">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>386</v>
       </c>
-      <c r="B51" t="s" s="0">
+      <c r="B51" t="s">
         <v>165</v>
       </c>
-      <c r="C51" t="s" s="0">
+      <c r="C51" t="s">
         <v>6</v>
       </c>
-      <c r="D51" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E51" s="0">
+      <c r="D51" t="s">
+        <v>8</v>
+      </c>
+      <c r="E51">
         <v>46</v>
       </c>
-      <c r="F51" t="s" s="0">
+      <c r="F51" t="s">
         <v>166</v>
       </c>
-      <c r="G51" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H51" t="s" s="0">
+      <c r="G51" t="s">
+        <v>17</v>
+      </c>
+      <c r="H51" t="s">
         <v>167</v>
       </c>
-      <c r="I51" s="0">
+      <c r="I51">
         <v>1833341</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A52" t="s" s="0">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>387</v>
       </c>
-      <c r="B52" t="s" s="0">
+      <c r="B52" t="s">
         <v>168</v>
       </c>
-      <c r="C52" t="s" s="0">
+      <c r="C52" t="s">
         <v>93</v>
       </c>
-      <c r="D52" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E52" s="0">
+      <c r="D52" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52">
         <v>52</v>
       </c>
-      <c r="F52" t="s" s="0">
+      <c r="F52" t="s">
         <v>169</v>
       </c>
-      <c r="G52" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H52" t="s" s="0">
+      <c r="G52" t="s">
+        <v>17</v>
+      </c>
+      <c r="H52" t="s">
         <v>170</v>
       </c>
-      <c r="I52" s="0">
+      <c r="I52">
         <v>5945914</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A53" t="s" s="0">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>388</v>
       </c>
-      <c r="B53" t="s" s="0">
+      <c r="B53" t="s">
         <v>171</v>
       </c>
-      <c r="C53" t="s" s="0">
+      <c r="C53" t="s">
         <v>27</v>
       </c>
-      <c r="D53" t="s" s="0">
+      <c r="D53" t="s">
         <v>7</v>
       </c>
-      <c r="E53" s="0">
+      <c r="E53">
         <v>44</v>
       </c>
-      <c r="F53" t="s" s="0">
+      <c r="F53" t="s">
         <v>172</v>
       </c>
-      <c r="G53" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H53" t="s" s="0">
+      <c r="G53" t="s">
+        <v>17</v>
+      </c>
+      <c r="H53" t="s">
         <v>173</v>
       </c>
-      <c r="I53" s="0">
+      <c r="I53">
         <v>3101456</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A54" t="s" s="0">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>389</v>
       </c>
-      <c r="B54" t="s" s="0">
+      <c r="B54" t="s">
         <v>174</v>
       </c>
-      <c r="C54" t="s" s="0">
+      <c r="C54" t="s">
         <v>4</v>
       </c>
-      <c r="D54" t="s" s="0">
+      <c r="D54" t="s">
         <v>7</v>
       </c>
-      <c r="E54" s="0">
+      <c r="E54">
         <v>59</v>
       </c>
-      <c r="F54" t="s" s="0">
+      <c r="F54" t="s">
         <v>175</v>
       </c>
-      <c r="G54" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H54" t="s" s="0">
+      <c r="G54" t="s">
+        <v>17</v>
+      </c>
+      <c r="H54" t="s">
         <v>176</v>
       </c>
-      <c r="I54" s="0">
+      <c r="I54">
         <v>8790582</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A55" t="s" s="0">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>390</v>
       </c>
-      <c r="B55" t="s" s="0">
+      <c r="B55" t="s">
         <v>177</v>
       </c>
-      <c r="C55" t="s" s="0">
+      <c r="C55" t="s">
         <v>5</v>
       </c>
-      <c r="D55" t="s" s="0">
+      <c r="D55" t="s">
         <v>7</v>
       </c>
-      <c r="E55" s="0">
+      <c r="E55">
         <v>41</v>
       </c>
-      <c r="F55" t="s" s="0">
+      <c r="F55" t="s">
         <v>178</v>
       </c>
-      <c r="G55" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H55" t="s" s="0">
+      <c r="G55" t="s">
+        <v>17</v>
+      </c>
+      <c r="H55" t="s">
         <v>179</v>
       </c>
-      <c r="I55" s="0">
+      <c r="I55">
         <v>7076399</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A56" t="s" s="0">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>391</v>
       </c>
-      <c r="B56" t="s" s="0">
+      <c r="B56" t="s">
         <v>180</v>
       </c>
-      <c r="C56" t="s" s="0">
+      <c r="C56" t="s">
         <v>56</v>
       </c>
-      <c r="D56" t="s" s="0">
+      <c r="D56" t="s">
         <v>7</v>
       </c>
-      <c r="E56" s="0">
+      <c r="E56">
         <v>23</v>
       </c>
-      <c r="F56" t="s" s="0">
+      <c r="F56" t="s">
         <v>181</v>
       </c>
-      <c r="G56" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H56" t="s" s="0">
+      <c r="G56" t="s">
+        <v>17</v>
+      </c>
+      <c r="H56" t="s">
         <v>182</v>
       </c>
-      <c r="I56" s="0">
+      <c r="I56">
         <v>5581452</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A57" t="s" s="0">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>392</v>
       </c>
-      <c r="B57" t="s" s="0">
+      <c r="B57" t="s">
         <v>183</v>
       </c>
-      <c r="C57" t="s" s="0">
+      <c r="C57" t="s">
         <v>56</v>
       </c>
-      <c r="D57" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E57" s="0">
+      <c r="D57" t="s">
+        <v>8</v>
+      </c>
+      <c r="E57">
         <v>22</v>
       </c>
-      <c r="F57" t="s" s="0">
+      <c r="F57" t="s">
         <v>184</v>
       </c>
-      <c r="G57" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H57" t="s" s="0">
+      <c r="G57" t="s">
+        <v>17</v>
+      </c>
+      <c r="H57" t="s">
         <v>185</v>
       </c>
-      <c r="I57" s="0">
+      <c r="I57">
         <v>3474559</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A58" t="s" s="0">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>393</v>
       </c>
-      <c r="B58" t="s" s="0">
+      <c r="B58" t="s">
         <v>186</v>
       </c>
-      <c r="C58" t="s" s="0">
+      <c r="C58" t="s">
         <v>56</v>
       </c>
-      <c r="D58" t="s" s="0">
+      <c r="D58" t="s">
         <v>7</v>
       </c>
-      <c r="E58" s="0">
+      <c r="E58">
         <v>28</v>
       </c>
-      <c r="F58" t="s" s="0">
+      <c r="F58" t="s">
         <v>187</v>
       </c>
-      <c r="G58" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H58" t="s" s="0">
+      <c r="G58" t="s">
+        <v>17</v>
+      </c>
+      <c r="H58" t="s">
         <v>188</v>
       </c>
-      <c r="I58" s="0">
+      <c r="I58">
         <v>3873886</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A59" t="s" s="0">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>394</v>
       </c>
-      <c r="B59" t="s" s="0">
+      <c r="B59" t="s">
         <v>189</v>
       </c>
-      <c r="C59" t="s" s="0">
+      <c r="C59" t="s">
         <v>56</v>
       </c>
-      <c r="D59" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E59" s="0">
+      <c r="D59" t="s">
+        <v>8</v>
+      </c>
+      <c r="E59">
         <v>30</v>
       </c>
-      <c r="F59" t="s" s="0">
+      <c r="F59" t="s">
         <v>190</v>
       </c>
-      <c r="G59" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H59" t="s" s="0">
+      <c r="G59" t="s">
+        <v>17</v>
+      </c>
+      <c r="H59" t="s">
         <v>191</v>
       </c>
-      <c r="I59" s="0">
+      <c r="I59">
         <v>3607945</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A60" t="s" s="0">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>395</v>
       </c>
-      <c r="B60" t="s" s="0">
+      <c r="B60" t="s">
         <v>192</v>
       </c>
-      <c r="C60" t="s" s="0">
+      <c r="C60" t="s">
         <v>5</v>
       </c>
-      <c r="D60" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E60" s="0">
+      <c r="D60" t="s">
+        <v>8</v>
+      </c>
+      <c r="E60">
         <v>55</v>
       </c>
-      <c r="F60" t="s" s="0">
+      <c r="F60" t="s">
         <v>193</v>
       </c>
-      <c r="G60" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H60" t="s" s="0">
+      <c r="G60" t="s">
+        <v>17</v>
+      </c>
+      <c r="H60" t="s">
         <v>194</v>
       </c>
-      <c r="I60" s="0">
+      <c r="I60">
         <v>5903486</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A61" t="s" s="0">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>396</v>
       </c>
-      <c r="B61" t="s" s="0">
+      <c r="B61" t="s">
         <v>195</v>
       </c>
-      <c r="C61" t="s" s="0">
+      <c r="C61" t="s">
         <v>4</v>
       </c>
-      <c r="D61" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E61" s="0">
+      <c r="D61" t="s">
+        <v>8</v>
+      </c>
+      <c r="E61">
         <v>31</v>
       </c>
-      <c r="F61" t="s" s="0">
+      <c r="F61" t="s">
         <v>196</v>
       </c>
-      <c r="G61" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H61" t="s" s="0">
+      <c r="G61" t="s">
+        <v>17</v>
+      </c>
+      <c r="H61" t="s">
         <v>197</v>
       </c>
-      <c r="I61" s="0">
+      <c r="I61">
         <v>6280079</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A62" t="s" s="0">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
         <v>397</v>
       </c>
-      <c r="B62" t="s" s="0">
+      <c r="B62" t="s">
         <v>198</v>
       </c>
-      <c r="C62" t="s" s="0">
+      <c r="C62" t="s">
         <v>49</v>
       </c>
-      <c r="D62" t="s" s="0">
+      <c r="D62" t="s">
         <v>7</v>
       </c>
-      <c r="E62" s="0">
+      <c r="E62">
         <v>34</v>
       </c>
-      <c r="F62" t="s" s="0">
+      <c r="F62" t="s">
         <v>199</v>
       </c>
-      <c r="G62" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H62" t="s" s="0">
+      <c r="G62" t="s">
+        <v>17</v>
+      </c>
+      <c r="H62" t="s">
         <v>200</v>
       </c>
-      <c r="I62" s="0">
+      <c r="I62">
         <v>9217628</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A63" t="s" s="0">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>398</v>
       </c>
-      <c r="B63" t="s" s="0">
+      <c r="B63" t="s">
         <v>201</v>
       </c>
-      <c r="C63" t="s" s="0">
+      <c r="C63" t="s">
         <v>49</v>
       </c>
-      <c r="D63" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E63" s="0">
+      <c r="D63" t="s">
+        <v>8</v>
+      </c>
+      <c r="E63">
         <v>55</v>
       </c>
-      <c r="F63" t="s" s="0">
+      <c r="F63" t="s">
         <v>202</v>
       </c>
-      <c r="G63" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H63" t="s" s="0">
+      <c r="G63" t="s">
+        <v>17</v>
+      </c>
+      <c r="H63" t="s">
         <v>203</v>
       </c>
-      <c r="I63" s="0">
+      <c r="I63">
         <v>1894489</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A64" t="s" s="0">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>399</v>
       </c>
-      <c r="B64" t="s" s="0">
+      <c r="B64" t="s">
         <v>204</v>
       </c>
-      <c r="C64" t="s" s="0">
+      <c r="C64" t="s">
         <v>6</v>
       </c>
-      <c r="D64" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E64" s="0">
+      <c r="D64" t="s">
+        <v>8</v>
+      </c>
+      <c r="E64">
         <v>65</v>
       </c>
-      <c r="F64" t="s" s="0">
+      <c r="F64" t="s">
         <v>205</v>
       </c>
-      <c r="G64" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H64" t="s" s="0">
+      <c r="G64" t="s">
+        <v>17</v>
+      </c>
+      <c r="H64" t="s">
         <v>206</v>
       </c>
-      <c r="I64" s="0">
+      <c r="I64">
         <v>7076473</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A65" t="s" s="0">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>400</v>
       </c>
-      <c r="B65" t="s" s="0">
+      <c r="B65" t="s">
         <v>207</v>
       </c>
-      <c r="C65" t="s" s="0">
+      <c r="C65" t="s">
         <v>49</v>
       </c>
-      <c r="D65" t="s" s="0">
+      <c r="D65" t="s">
         <v>7</v>
       </c>
-      <c r="E65" s="0">
+      <c r="E65">
         <v>56</v>
       </c>
-      <c r="F65" t="s" s="0">
+      <c r="F65" t="s">
         <v>208</v>
       </c>
-      <c r="G65" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H65" t="s" s="0">
+      <c r="G65" t="s">
+        <v>17</v>
+      </c>
+      <c r="H65" t="s">
         <v>209</v>
       </c>
-      <c r="I65" s="0">
+      <c r="I65">
         <v>8890120</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A66" t="s" s="0">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>401</v>
       </c>
-      <c r="B66" t="s" s="0">
+      <c r="B66" t="s">
         <v>210</v>
       </c>
-      <c r="C66" t="s" s="0">
+      <c r="C66" t="s">
         <v>27</v>
       </c>
-      <c r="D66" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E66" s="0">
+      <c r="D66" t="s">
+        <v>8</v>
+      </c>
+      <c r="E66">
         <v>34</v>
       </c>
-      <c r="F66" t="s" s="0">
+      <c r="F66" t="s">
         <v>211</v>
       </c>
-      <c r="G66" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H66" t="s" s="0">
+      <c r="G66" t="s">
+        <v>17</v>
+      </c>
+      <c r="H66" t="s">
         <v>212</v>
       </c>
-      <c r="I66" s="0">
+      <c r="I66">
         <v>1822054</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A67" t="s" s="0">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
         <v>402</v>
       </c>
-      <c r="B67" t="s" s="0">
+      <c r="B67" t="s">
         <v>213</v>
       </c>
-      <c r="C67" t="s" s="0">
+      <c r="C67" t="s">
         <v>56</v>
       </c>
-      <c r="D67" t="s" s="0">
+      <c r="D67" t="s">
         <v>7</v>
       </c>
-      <c r="E67" s="0">
+      <c r="E67">
         <v>63</v>
       </c>
-      <c r="F67" t="s" s="0">
+      <c r="F67" t="s">
         <v>214</v>
       </c>
-      <c r="G67" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H67" t="s" s="0">
+      <c r="G67" t="s">
+        <v>17</v>
+      </c>
+      <c r="H67" t="s">
         <v>215</v>
       </c>
-      <c r="I67" s="0">
+      <c r="I67">
         <v>3713226</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A68" t="s" s="0">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>403</v>
       </c>
-      <c r="B68" t="s" s="0">
+      <c r="B68" t="s">
         <v>216</v>
       </c>
-      <c r="C68" t="s" s="0">
+      <c r="C68" t="s">
         <v>56</v>
       </c>
-      <c r="D68" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E68" s="0">
+      <c r="D68" t="s">
+        <v>8</v>
+      </c>
+      <c r="E68">
         <v>49</v>
       </c>
-      <c r="F68" t="s" s="0">
+      <c r="F68" t="s">
         <v>217</v>
       </c>
-      <c r="G68" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H68" t="s" s="0">
+      <c r="G68" t="s">
+        <v>17</v>
+      </c>
+      <c r="H68" t="s">
         <v>218</v>
       </c>
-      <c r="I68" s="0">
+      <c r="I68">
         <v>4900839</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A69" t="s" s="0">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
         <v>404</v>
       </c>
-      <c r="B69" t="s" s="0">
+      <c r="B69" t="s">
         <v>219</v>
       </c>
-      <c r="C69" t="s" s="0">
+      <c r="C69" t="s">
         <v>93</v>
       </c>
-      <c r="D69" t="s" s="0">
+      <c r="D69" t="s">
         <v>7</v>
       </c>
-      <c r="E69" s="0">
+      <c r="E69">
         <v>22</v>
       </c>
-      <c r="F69" t="s" s="0">
+      <c r="F69" t="s">
         <v>220</v>
       </c>
-      <c r="G69" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H69" t="s" s="0">
+      <c r="G69" t="s">
+        <v>17</v>
+      </c>
+      <c r="H69" t="s">
         <v>221</v>
       </c>
-      <c r="I69" s="0">
+      <c r="I69">
         <v>8613278</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A70" t="s" s="0">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
         <v>405</v>
       </c>
-      <c r="B70" t="s" s="0">
+      <c r="B70" t="s">
         <v>222</v>
       </c>
-      <c r="C70" t="s" s="0">
+      <c r="C70" t="s">
         <v>4</v>
       </c>
-      <c r="D70" t="s" s="0">
+      <c r="D70" t="s">
         <v>7</v>
       </c>
-      <c r="E70" s="0">
+      <c r="E70">
         <v>57</v>
       </c>
-      <c r="F70" t="s" s="0">
+      <c r="F70" t="s">
         <v>223</v>
       </c>
-      <c r="G70" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H70" t="s" s="0">
+      <c r="G70" t="s">
+        <v>17</v>
+      </c>
+      <c r="H70" t="s">
         <v>224</v>
       </c>
-      <c r="I70" s="0">
+      <c r="I70">
         <v>1890269</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A71" t="s" s="0">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
         <v>406</v>
       </c>
-      <c r="B71" t="s" s="0">
+      <c r="B71" t="s">
         <v>225</v>
       </c>
-      <c r="C71" t="s" s="0">
+      <c r="C71" t="s">
         <v>49</v>
       </c>
-      <c r="D71" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E71" s="0">
+      <c r="D71" t="s">
+        <v>8</v>
+      </c>
+      <c r="E71">
         <v>29</v>
       </c>
-      <c r="F71" t="s" s="0">
+      <c r="F71" t="s">
         <v>226</v>
       </c>
-      <c r="G71" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H71" t="s" s="0">
+      <c r="G71" t="s">
+        <v>17</v>
+      </c>
+      <c r="H71" t="s">
         <v>227</v>
       </c>
-      <c r="I71" s="0">
+      <c r="I71">
         <v>2552925</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A72" t="s" s="0">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
         <v>407</v>
       </c>
-      <c r="B72" t="s" s="0">
+      <c r="B72" t="s">
         <v>228</v>
       </c>
-      <c r="C72" t="s" s="0">
+      <c r="C72" t="s">
         <v>56</v>
       </c>
-      <c r="D72" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E72" s="0">
+      <c r="D72" t="s">
+        <v>8</v>
+      </c>
+      <c r="E72">
         <v>60</v>
       </c>
-      <c r="F72" t="s" s="0">
+      <c r="F72" t="s">
         <v>229</v>
       </c>
-      <c r="G72" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H72" t="s" s="0">
+      <c r="G72" t="s">
+        <v>17</v>
+      </c>
+      <c r="H72" t="s">
         <v>230</v>
       </c>
-      <c r="I72" s="0">
+      <c r="I72">
         <v>6822517</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A73" t="s" s="0">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
         <v>408</v>
       </c>
-      <c r="B73" t="s" s="0">
+      <c r="B73" t="s">
         <v>231</v>
       </c>
-      <c r="C73" t="s" s="0">
+      <c r="C73" t="s">
         <v>5</v>
       </c>
-      <c r="D73" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E73" s="0">
+      <c r="D73" t="s">
+        <v>8</v>
+      </c>
+      <c r="E73">
         <v>44</v>
       </c>
-      <c r="F73" t="s" s="0">
+      <c r="F73" t="s">
         <v>232</v>
       </c>
-      <c r="G73" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H73" t="s" s="0">
+      <c r="G73" t="s">
+        <v>17</v>
+      </c>
+      <c r="H73" t="s">
         <v>233</v>
       </c>
-      <c r="I73" s="0">
+      <c r="I73">
         <v>7665699</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A74" t="s" s="0">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
         <v>409</v>
       </c>
-      <c r="B74" t="s" s="0">
+      <c r="B74" t="s">
         <v>234</v>
       </c>
-      <c r="C74" t="s" s="0">
+      <c r="C74" t="s">
         <v>4</v>
       </c>
-      <c r="D74" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E74" s="0">
+      <c r="D74" t="s">
+        <v>8</v>
+      </c>
+      <c r="E74">
         <v>43</v>
       </c>
-      <c r="F74" t="s" s="0">
+      <c r="F74" t="s">
         <v>235</v>
       </c>
-      <c r="G74" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H74" t="s" s="0">
+      <c r="G74" t="s">
+        <v>17</v>
+      </c>
+      <c r="H74" t="s">
         <v>236</v>
       </c>
-      <c r="I74" s="0">
+      <c r="I74">
         <v>5533098</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A75" t="s" s="0">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
         <v>410</v>
       </c>
-      <c r="B75" t="s" s="0">
+      <c r="B75" t="s">
         <v>237</v>
       </c>
-      <c r="C75" t="s" s="0">
+      <c r="C75" t="s">
         <v>5</v>
       </c>
-      <c r="D75" t="s" s="0">
+      <c r="D75" t="s">
         <v>7</v>
       </c>
-      <c r="E75" s="0">
+      <c r="E75">
         <v>48</v>
       </c>
-      <c r="F75" t="s" s="0">
+      <c r="F75" t="s">
         <v>238</v>
       </c>
-      <c r="G75" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H75" t="s" s="0">
+      <c r="G75" t="s">
+        <v>17</v>
+      </c>
+      <c r="H75" t="s">
         <v>239</v>
       </c>
-      <c r="I75" s="0">
+      <c r="I75">
         <v>2818715</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A76" t="s" s="0">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
         <v>411</v>
       </c>
-      <c r="B76" t="s" s="0">
+      <c r="B76" t="s">
         <v>240</v>
       </c>
-      <c r="C76" t="s" s="0">
+      <c r="C76" t="s">
         <v>56</v>
       </c>
-      <c r="D76" t="s" s="0">
+      <c r="D76" t="s">
         <v>7</v>
       </c>
-      <c r="E76" s="0">
+      <c r="E76">
         <v>55</v>
       </c>
-      <c r="F76" t="s" s="0">
+      <c r="F76" t="s">
         <v>241</v>
       </c>
-      <c r="G76" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H76" t="s" s="0">
+      <c r="G76" t="s">
+        <v>17</v>
+      </c>
+      <c r="H76" t="s">
         <v>242</v>
       </c>
-      <c r="I76" s="0">
+      <c r="I76">
         <v>6021521</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A77" t="s" s="0">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
         <v>412</v>
       </c>
-      <c r="B77" t="s" s="0">
+      <c r="B77" t="s">
         <v>243</v>
       </c>
-      <c r="C77" t="s" s="0">
+      <c r="C77" t="s">
         <v>49</v>
       </c>
-      <c r="D77" t="s" s="0">
+      <c r="D77" t="s">
         <v>7</v>
       </c>
-      <c r="E77" s="0">
+      <c r="E77">
         <v>62</v>
       </c>
-      <c r="F77" t="s" s="0">
+      <c r="F77" t="s">
         <v>244</v>
       </c>
-      <c r="G77" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H77" t="s" s="0">
+      <c r="G77" t="s">
+        <v>17</v>
+      </c>
+      <c r="H77" t="s">
         <v>245</v>
       </c>
-      <c r="I77" s="0">
+      <c r="I77">
         <v>6574157</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A78" t="s" s="0">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
         <v>413</v>
       </c>
-      <c r="B78" t="s" s="0">
+      <c r="B78" t="s">
         <v>246</v>
       </c>
-      <c r="C78" t="s" s="0">
+      <c r="C78" t="s">
+        <v>5</v>
+      </c>
+      <c r="D78" t="s">
+        <v>8</v>
+      </c>
+      <c r="E78">
+        <v>50</v>
+      </c>
+      <c r="F78" t="s">
+        <v>247</v>
+      </c>
+      <c r="G78" t="s">
+        <v>17</v>
+      </c>
+      <c r="H78" t="s">
+        <v>248</v>
+      </c>
+      <c r="I78">
+        <v>2683176</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>414</v>
+      </c>
+      <c r="B79" t="s">
+        <v>249</v>
+      </c>
+      <c r="C79" t="s">
+        <v>5</v>
+      </c>
+      <c r="D79" t="s">
+        <v>8</v>
+      </c>
+      <c r="E79">
+        <v>22</v>
+      </c>
+      <c r="F79" t="s">
+        <v>250</v>
+      </c>
+      <c r="G79" t="s">
+        <v>17</v>
+      </c>
+      <c r="H79" t="s">
+        <v>251</v>
+      </c>
+      <c r="I79">
+        <v>7083693</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>415</v>
+      </c>
+      <c r="B80" t="s">
+        <v>252</v>
+      </c>
+      <c r="C80" t="s">
+        <v>49</v>
+      </c>
+      <c r="D80" t="s">
+        <v>8</v>
+      </c>
+      <c r="E80">
+        <v>46</v>
+      </c>
+      <c r="F80" t="s">
+        <v>253</v>
+      </c>
+      <c r="G80" t="s">
+        <v>17</v>
+      </c>
+      <c r="H80" t="s">
+        <v>254</v>
+      </c>
+      <c r="I80">
+        <v>5228382</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>416</v>
+      </c>
+      <c r="B81" t="s">
+        <v>255</v>
+      </c>
+      <c r="C81" t="s">
+        <v>6</v>
+      </c>
+      <c r="D81" t="s">
+        <v>8</v>
+      </c>
+      <c r="E81">
+        <v>40</v>
+      </c>
+      <c r="F81" t="s">
+        <v>256</v>
+      </c>
+      <c r="G81" t="s">
+        <v>17</v>
+      </c>
+      <c r="H81" t="s">
+        <v>257</v>
+      </c>
+      <c r="I81">
+        <v>2740643</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>417</v>
+      </c>
+      <c r="B82" t="s">
+        <v>258</v>
+      </c>
+      <c r="C82" t="s">
+        <v>93</v>
+      </c>
+      <c r="D82" t="s">
+        <v>7</v>
+      </c>
+      <c r="E82">
+        <v>54</v>
+      </c>
+      <c r="F82" t="s">
+        <v>259</v>
+      </c>
+      <c r="G82" t="s">
+        <v>17</v>
+      </c>
+      <c r="H82" t="s">
+        <v>260</v>
+      </c>
+      <c r="I82">
+        <v>7961296</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>418</v>
+      </c>
+      <c r="B83" t="s">
+        <v>261</v>
+      </c>
+      <c r="C83" t="s">
+        <v>5</v>
+      </c>
+      <c r="D83" t="s">
+        <v>7</v>
+      </c>
+      <c r="E83">
+        <v>33</v>
+      </c>
+      <c r="F83" t="s">
+        <v>262</v>
+      </c>
+      <c r="G83" t="s">
+        <v>17</v>
+      </c>
+      <c r="H83" t="s">
+        <v>263</v>
+      </c>
+      <c r="I83">
+        <v>9737290</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>419</v>
+      </c>
+      <c r="B84" t="s">
+        <v>264</v>
+      </c>
+      <c r="C84" t="s">
+        <v>5</v>
+      </c>
+      <c r="D84" t="s">
+        <v>8</v>
+      </c>
+      <c r="E84">
+        <v>28</v>
+      </c>
+      <c r="F84" t="s">
+        <v>265</v>
+      </c>
+      <c r="G84" t="s">
+        <v>17</v>
+      </c>
+      <c r="H84" t="s">
+        <v>266</v>
+      </c>
+      <c r="I84">
+        <v>3253337</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>420</v>
+      </c>
+      <c r="B85" t="s">
+        <v>267</v>
+      </c>
+      <c r="C85" t="s">
+        <v>5</v>
+      </c>
+      <c r="D85" t="s">
+        <v>8</v>
+      </c>
+      <c r="E85">
+        <v>57</v>
+      </c>
+      <c r="F85" t="s">
+        <v>268</v>
+      </c>
+      <c r="G85" t="s">
+        <v>17</v>
+      </c>
+      <c r="H85" t="s">
+        <v>269</v>
+      </c>
+      <c r="I85">
+        <v>3477827</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>421</v>
+      </c>
+      <c r="B86" t="s">
+        <v>270</v>
+      </c>
+      <c r="C86" t="s">
+        <v>93</v>
+      </c>
+      <c r="D86" t="s">
+        <v>8</v>
+      </c>
+      <c r="E86">
+        <v>23</v>
+      </c>
+      <c r="F86" t="s">
+        <v>271</v>
+      </c>
+      <c r="G86" t="s">
+        <v>17</v>
+      </c>
+      <c r="H86" t="s">
+        <v>272</v>
+      </c>
+      <c r="I86">
+        <v>6484201</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>422</v>
+      </c>
+      <c r="B87" t="s">
+        <v>273</v>
+      </c>
+      <c r="C87" t="s">
+        <v>6</v>
+      </c>
+      <c r="D87" t="s">
+        <v>8</v>
+      </c>
+      <c r="E87">
+        <v>26</v>
+      </c>
+      <c r="F87" t="s">
+        <v>274</v>
+      </c>
+      <c r="G87" t="s">
+        <v>17</v>
+      </c>
+      <c r="H87" t="s">
+        <v>275</v>
+      </c>
+      <c r="I87">
+        <v>2137184</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>423</v>
+      </c>
+      <c r="B88" t="s">
+        <v>276</v>
+      </c>
+      <c r="C88" t="s">
+        <v>49</v>
+      </c>
+      <c r="D88" t="s">
+        <v>7</v>
+      </c>
+      <c r="E88">
+        <v>43</v>
+      </c>
+      <c r="F88" t="s">
+        <v>277</v>
+      </c>
+      <c r="G88" t="s">
+        <v>17</v>
+      </c>
+      <c r="H88" t="s">
+        <v>278</v>
+      </c>
+      <c r="I88">
+        <v>5828649</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>424</v>
+      </c>
+      <c r="B89" t="s">
+        <v>279</v>
+      </c>
+      <c r="C89" t="s">
+        <v>49</v>
+      </c>
+      <c r="D89" t="s">
+        <v>7</v>
+      </c>
+      <c r="E89">
+        <v>35</v>
+      </c>
+      <c r="F89" t="s">
+        <v>280</v>
+      </c>
+      <c r="G89" t="s">
+        <v>17</v>
+      </c>
+      <c r="H89" t="s">
+        <v>281</v>
+      </c>
+      <c r="I89">
+        <v>9314586</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>425</v>
+      </c>
+      <c r="B90" t="s">
+        <v>282</v>
+      </c>
+      <c r="C90" t="s">
+        <v>49</v>
+      </c>
+      <c r="D90" t="s">
+        <v>7</v>
+      </c>
+      <c r="E90">
+        <v>52</v>
+      </c>
+      <c r="F90" t="s">
+        <v>283</v>
+      </c>
+      <c r="G90" t="s">
+        <v>17</v>
+      </c>
+      <c r="H90" t="s">
+        <v>284</v>
+      </c>
+      <c r="I90">
+        <v>5930324</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>426</v>
+      </c>
+      <c r="B91" t="s">
+        <v>285</v>
+      </c>
+      <c r="C91" t="s">
+        <v>56</v>
+      </c>
+      <c r="D91" t="s">
+        <v>8</v>
+      </c>
+      <c r="E91">
+        <v>42</v>
+      </c>
+      <c r="F91" t="s">
+        <v>286</v>
+      </c>
+      <c r="G91" t="s">
+        <v>17</v>
+      </c>
+      <c r="H91" t="s">
+        <v>287</v>
+      </c>
+      <c r="I91">
+        <v>4353913</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>427</v>
+      </c>
+      <c r="B92" t="s">
+        <v>288</v>
+      </c>
+      <c r="C92" t="s">
+        <v>93</v>
+      </c>
+      <c r="D92" t="s">
+        <v>7</v>
+      </c>
+      <c r="E92">
+        <v>37</v>
+      </c>
+      <c r="F92" t="s">
+        <v>289</v>
+      </c>
+      <c r="G92" t="s">
+        <v>17</v>
+      </c>
+      <c r="H92" t="s">
+        <v>290</v>
+      </c>
+      <c r="I92">
+        <v>3044136</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>428</v>
+      </c>
+      <c r="B93" t="s">
+        <v>291</v>
+      </c>
+      <c r="C93" t="s">
+        <v>4</v>
+      </c>
+      <c r="D93" t="s">
+        <v>7</v>
+      </c>
+      <c r="E93">
+        <v>39</v>
+      </c>
+      <c r="F93" t="s">
+        <v>292</v>
+      </c>
+      <c r="G93" t="s">
+        <v>17</v>
+      </c>
+      <c r="H93" t="s">
+        <v>293</v>
+      </c>
+      <c r="I93">
+        <v>5228200</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>429</v>
+      </c>
+      <c r="B94" t="s">
+        <v>294</v>
+      </c>
+      <c r="C94" t="s">
+        <v>93</v>
+      </c>
+      <c r="D94" t="s">
+        <v>8</v>
+      </c>
+      <c r="E94">
+        <v>21</v>
+      </c>
+      <c r="F94" t="s">
+        <v>295</v>
+      </c>
+      <c r="G94" t="s">
+        <v>17</v>
+      </c>
+      <c r="H94" t="s">
+        <v>296</v>
+      </c>
+      <c r="I94">
+        <v>9912130</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>430</v>
+      </c>
+      <c r="B95" t="s">
+        <v>297</v>
+      </c>
+      <c r="C95" t="s">
+        <v>49</v>
+      </c>
+      <c r="D95" t="s">
+        <v>8</v>
+      </c>
+      <c r="E95">
+        <v>61</v>
+      </c>
+      <c r="F95" t="s">
+        <v>298</v>
+      </c>
+      <c r="G95" t="s">
+        <v>17</v>
+      </c>
+      <c r="H95" t="s">
+        <v>299</v>
+      </c>
+      <c r="I95">
+        <v>7542700</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>431</v>
+      </c>
+      <c r="B96" t="s">
+        <v>300</v>
+      </c>
+      <c r="C96" t="s">
+        <v>56</v>
+      </c>
+      <c r="D96" t="s">
+        <v>7</v>
+      </c>
+      <c r="E96">
+        <v>62</v>
+      </c>
+      <c r="F96" t="s">
+        <v>301</v>
+      </c>
+      <c r="G96" t="s">
+        <v>17</v>
+      </c>
+      <c r="H96" t="s">
+        <v>302</v>
+      </c>
+      <c r="I96">
+        <v>8296226</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>432</v>
+      </c>
+      <c r="B97" t="s">
+        <v>303</v>
+      </c>
+      <c r="C97" t="s">
+        <v>93</v>
+      </c>
+      <c r="D97" t="s">
+        <v>8</v>
+      </c>
+      <c r="E97">
+        <v>51</v>
+      </c>
+      <c r="F97" t="s">
+        <v>304</v>
+      </c>
+      <c r="G97" t="s">
+        <v>17</v>
+      </c>
+      <c r="H97" t="s">
+        <v>305</v>
+      </c>
+      <c r="I97">
+        <v>3368363</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>433</v>
+      </c>
+      <c r="B98" t="s">
+        <v>306</v>
+      </c>
+      <c r="C98" t="s">
+        <v>56</v>
+      </c>
+      <c r="D98" t="s">
+        <v>8</v>
+      </c>
+      <c r="E98">
+        <v>37</v>
+      </c>
+      <c r="F98" t="s">
+        <v>307</v>
+      </c>
+      <c r="G98" t="s">
+        <v>17</v>
+      </c>
+      <c r="H98" t="s">
+        <v>308</v>
+      </c>
+      <c r="I98">
+        <v>8573375</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>434</v>
+      </c>
+      <c r="B99" t="s">
+        <v>309</v>
+      </c>
+      <c r="C99" t="s">
+        <v>56</v>
+      </c>
+      <c r="D99" t="s">
+        <v>8</v>
+      </c>
+      <c r="E99">
+        <v>56</v>
+      </c>
+      <c r="F99" t="s">
+        <v>310</v>
+      </c>
+      <c r="G99" t="s">
+        <v>17</v>
+      </c>
+      <c r="H99" t="s">
+        <v>311</v>
+      </c>
+      <c r="I99">
+        <v>6580060</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>435</v>
+      </c>
+      <c r="B100" t="s">
+        <v>312</v>
+      </c>
+      <c r="C100" t="s">
+        <v>6</v>
+      </c>
+      <c r="D100" t="s">
+        <v>7</v>
+      </c>
+      <c r="E100">
+        <v>52</v>
+      </c>
+      <c r="F100" t="s">
+        <v>313</v>
+      </c>
+      <c r="G100" t="s">
+        <v>17</v>
+      </c>
+      <c r="H100" t="s">
+        <v>314</v>
+      </c>
+      <c r="I100">
+        <v>2209714</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>436</v>
+      </c>
+      <c r="B101" t="s">
+        <v>315</v>
+      </c>
+      <c r="C101" t="s">
+        <v>4</v>
+      </c>
+      <c r="D101" t="s">
+        <v>7</v>
+      </c>
+      <c r="E101">
+        <v>51</v>
+      </c>
+      <c r="F101" t="s">
+        <v>316</v>
+      </c>
+      <c r="G101" t="s">
+        <v>17</v>
+      </c>
+      <c r="H101" t="s">
+        <v>317</v>
+      </c>
+      <c r="I101">
+        <v>9295610</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>437</v>
+      </c>
+      <c r="B102" t="s">
+        <v>318</v>
+      </c>
+      <c r="C102" t="s">
         <v>27</v>
       </c>
-      <c r="D78" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E78" s="0">
-        <v>50</v>
-      </c>
-      <c r="F78" t="s" s="0">
-        <v>247</v>
-      </c>
-      <c r="G78" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H78" t="s" s="0">
-        <v>248</v>
-      </c>
-      <c r="I78" s="0">
-        <v>2683176</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A79" t="s" s="0">
-        <v>414</v>
-      </c>
-      <c r="B79" t="s" s="0">
-        <v>249</v>
-      </c>
-      <c r="C79" t="s" s="0">
+      <c r="D102" t="s">
+        <v>8</v>
+      </c>
+      <c r="E102">
+        <v>27</v>
+      </c>
+      <c r="F102" t="s">
+        <v>319</v>
+      </c>
+      <c r="G102" t="s">
+        <v>17</v>
+      </c>
+      <c r="H102" t="s">
+        <v>320</v>
+      </c>
+      <c r="I102">
+        <v>5821986</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>438</v>
+      </c>
+      <c r="B103" t="s">
+        <v>321</v>
+      </c>
+      <c r="C103" t="s">
         <v>5</v>
       </c>
-      <c r="D79" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E79" s="0">
-        <v>22</v>
-      </c>
-      <c r="F79" t="s" s="0">
-        <v>250</v>
-      </c>
-      <c r="G79" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H79" t="s" s="0">
-        <v>251</v>
-      </c>
-      <c r="I79" s="0">
-        <v>7083693</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A80" t="s" s="0">
-        <v>415</v>
-      </c>
-      <c r="B80" t="s" s="0">
-        <v>252</v>
-      </c>
-      <c r="C80" t="s" s="0">
-        <v>49</v>
-      </c>
-      <c r="D80" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E80" s="0">
-        <v>46</v>
-      </c>
-      <c r="F80" t="s" s="0">
-        <v>253</v>
-      </c>
-      <c r="G80" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H80" t="s" s="0">
-        <v>254</v>
-      </c>
-      <c r="I80" s="0">
-        <v>5228382</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A81" t="s" s="0">
-        <v>416</v>
-      </c>
-      <c r="B81" t="s" s="0">
-        <v>255</v>
-      </c>
-      <c r="C81" t="s" s="0">
+      <c r="D103" t="s">
+        <v>8</v>
+      </c>
+      <c r="E103">
+        <v>58</v>
+      </c>
+      <c r="F103" t="s">
+        <v>322</v>
+      </c>
+      <c r="G103" t="s">
+        <v>17</v>
+      </c>
+      <c r="H103" t="s">
+        <v>323</v>
+      </c>
+      <c r="I103">
+        <v>8124730</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>439</v>
+      </c>
+      <c r="B104" t="s">
+        <v>324</v>
+      </c>
+      <c r="C104" t="s">
+        <v>27</v>
+      </c>
+      <c r="D104" t="s">
+        <v>8</v>
+      </c>
+      <c r="E104">
+        <v>29</v>
+      </c>
+      <c r="F104" t="s">
+        <v>325</v>
+      </c>
+      <c r="G104" t="s">
+        <v>17</v>
+      </c>
+      <c r="H104" t="s">
+        <v>326</v>
+      </c>
+      <c r="I104">
+        <v>9429253</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>440</v>
+      </c>
+      <c r="B105" t="s">
+        <v>327</v>
+      </c>
+      <c r="C105" t="s">
         <v>6</v>
       </c>
-      <c r="D81" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E81" s="0">
-        <v>40</v>
-      </c>
-      <c r="F81" t="s" s="0">
-        <v>256</v>
-      </c>
-      <c r="G81" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H81" t="s" s="0">
-        <v>257</v>
-      </c>
-      <c r="I81" s="0">
-        <v>2740643</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A82" t="s" s="0">
-        <v>417</v>
-      </c>
-      <c r="B82" t="s" s="0">
-        <v>258</v>
-      </c>
-      <c r="C82" t="s" s="0">
-        <v>93</v>
-      </c>
-      <c r="D82" t="s" s="0">
+      <c r="D105" t="s">
         <v>7</v>
       </c>
-      <c r="E82" s="0">
-        <v>54</v>
-      </c>
-      <c r="F82" t="s" s="0">
-        <v>259</v>
-      </c>
-      <c r="G82" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H82" t="s" s="0">
-        <v>260</v>
-      </c>
-      <c r="I82" s="0">
-        <v>7961296</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A83" t="s" s="0">
-        <v>418</v>
-      </c>
-      <c r="B83" t="s" s="0">
-        <v>261</v>
-      </c>
-      <c r="C83" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="D83" t="s" s="0">
+      <c r="E105">
+        <v>57</v>
+      </c>
+      <c r="F105" t="s">
+        <v>328</v>
+      </c>
+      <c r="G105" t="s">
+        <v>17</v>
+      </c>
+      <c r="H105" t="s">
+        <v>329</v>
+      </c>
+      <c r="I105">
+        <v>7085811</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>441</v>
+      </c>
+      <c r="B106" t="s">
+        <v>332</v>
+      </c>
+      <c r="C106" t="s">
+        <v>6</v>
+      </c>
+      <c r="D106" t="s">
+        <v>8</v>
+      </c>
+      <c r="E106">
+        <v>21</v>
+      </c>
+      <c r="F106" t="s">
+        <v>333</v>
+      </c>
+      <c r="G106" t="s">
+        <v>334</v>
+      </c>
+      <c r="H106" t="s">
+        <v>335</v>
+      </c>
+      <c r="I106">
+        <v>12341234</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>442</v>
+      </c>
+      <c r="B107" t="s">
+        <v>443</v>
+      </c>
+      <c r="C107" t="s">
+        <v>4</v>
+      </c>
+      <c r="D107" t="s">
         <v>7</v>
       </c>
-      <c r="E83" s="0">
-        <v>33</v>
-      </c>
-      <c r="F83" t="s" s="0">
-        <v>262</v>
-      </c>
-      <c r="G83" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H83" t="s" s="0">
-        <v>263</v>
-      </c>
-      <c r="I83" s="0">
-        <v>9737290</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A84" t="s" s="0">
-        <v>419</v>
-      </c>
-      <c r="B84" t="s" s="0">
-        <v>264</v>
-      </c>
-      <c r="C84" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="D84" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E84" s="0">
-        <v>28</v>
-      </c>
-      <c r="F84" t="s" s="0">
-        <v>265</v>
-      </c>
-      <c r="G84" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H84" t="s" s="0">
-        <v>266</v>
-      </c>
-      <c r="I84" s="0">
-        <v>3253337</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A85" t="s" s="0">
-        <v>420</v>
-      </c>
-      <c r="B85" t="s" s="0">
-        <v>267</v>
-      </c>
-      <c r="C85" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="D85" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E85" s="0">
-        <v>57</v>
-      </c>
-      <c r="F85" t="s" s="0">
-        <v>268</v>
-      </c>
-      <c r="G85" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H85" t="s" s="0">
-        <v>269</v>
-      </c>
-      <c r="I85" s="0">
-        <v>3477827</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A86" t="s" s="0">
-        <v>421</v>
-      </c>
-      <c r="B86" t="s" s="0">
-        <v>270</v>
-      </c>
-      <c r="C86" t="s" s="0">
-        <v>93</v>
-      </c>
-      <c r="D86" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E86" s="0">
-        <v>23</v>
-      </c>
-      <c r="F86" t="s" s="0">
-        <v>271</v>
-      </c>
-      <c r="G86" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H86" t="s" s="0">
-        <v>272</v>
-      </c>
-      <c r="I86" s="0">
-        <v>6484201</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A87" t="s" s="0">
-        <v>422</v>
-      </c>
-      <c r="B87" t="s" s="0">
-        <v>273</v>
-      </c>
-      <c r="C87" t="s" s="0">
+      <c r="E107">
+        <v>24</v>
+      </c>
+      <c r="F107" t="s">
+        <v>444</v>
+      </c>
+      <c r="G107" t="s">
+        <v>445</v>
+      </c>
+      <c r="H107" t="s">
+        <v>446</v>
+      </c>
+      <c r="I107">
+        <v>12341234</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>447</v>
+      </c>
+      <c r="B108" t="s">
+        <v>448</v>
+      </c>
+      <c r="C108" t="s">
         <v>6</v>
       </c>
-      <c r="D87" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E87" s="0">
-        <v>26</v>
-      </c>
-      <c r="F87" t="s" s="0">
-        <v>274</v>
-      </c>
-      <c r="G87" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H87" t="s" s="0">
-        <v>275</v>
-      </c>
-      <c r="I87" s="0">
-        <v>2137184</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A88" t="s" s="0">
-        <v>423</v>
-      </c>
-      <c r="B88" t="s" s="0">
-        <v>276</v>
-      </c>
-      <c r="C88" t="s" s="0">
-        <v>49</v>
-      </c>
-      <c r="D88" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="E88" s="0">
-        <v>43</v>
-      </c>
-      <c r="F88" t="s" s="0">
-        <v>277</v>
-      </c>
-      <c r="G88" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H88" t="s" s="0">
-        <v>278</v>
-      </c>
-      <c r="I88" s="0">
-        <v>5828649</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A89" t="s" s="0">
-        <v>424</v>
-      </c>
-      <c r="B89" t="s" s="0">
-        <v>279</v>
-      </c>
-      <c r="C89" t="s" s="0">
-        <v>49</v>
-      </c>
-      <c r="D89" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="E89" s="0">
-        <v>35</v>
-      </c>
-      <c r="F89" t="s" s="0">
-        <v>280</v>
-      </c>
-      <c r="G89" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H89" t="s" s="0">
-        <v>281</v>
-      </c>
-      <c r="I89" s="0">
-        <v>9314586</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A90" t="s" s="0">
-        <v>425</v>
-      </c>
-      <c r="B90" t="s" s="0">
-        <v>282</v>
-      </c>
-      <c r="C90" t="s" s="0">
-        <v>49</v>
-      </c>
-      <c r="D90" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="E90" s="0">
-        <v>52</v>
-      </c>
-      <c r="F90" t="s" s="0">
-        <v>283</v>
-      </c>
-      <c r="G90" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H90" t="s" s="0">
-        <v>284</v>
-      </c>
-      <c r="I90" s="0">
-        <v>5930324</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A91" t="s" s="0">
-        <v>426</v>
-      </c>
-      <c r="B91" t="s" s="0">
-        <v>285</v>
-      </c>
-      <c r="C91" t="s" s="0">
-        <v>56</v>
-      </c>
-      <c r="D91" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E91" s="0">
-        <v>42</v>
-      </c>
-      <c r="F91" t="s" s="0">
-        <v>286</v>
-      </c>
-      <c r="G91" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H91" t="s" s="0">
-        <v>287</v>
-      </c>
-      <c r="I91" s="0">
-        <v>4353913</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A92" t="s" s="0">
-        <v>427</v>
-      </c>
-      <c r="B92" t="s" s="0">
-        <v>288</v>
-      </c>
-      <c r="C92" t="s" s="0">
-        <v>93</v>
-      </c>
-      <c r="D92" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="E92" s="0">
-        <v>37</v>
-      </c>
-      <c r="F92" t="s" s="0">
-        <v>289</v>
-      </c>
-      <c r="G92" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H92" t="s" s="0">
-        <v>290</v>
-      </c>
-      <c r="I92" s="0">
-        <v>3044136</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A93" t="s" s="0">
-        <v>428</v>
-      </c>
-      <c r="B93" t="s" s="0">
-        <v>291</v>
-      </c>
-      <c r="C93" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="D93" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="E93" s="0">
-        <v>39</v>
-      </c>
-      <c r="F93" t="s" s="0">
-        <v>292</v>
-      </c>
-      <c r="G93" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H93" t="s" s="0">
-        <v>293</v>
-      </c>
-      <c r="I93" s="0">
-        <v>5228200</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A94" t="s" s="0">
-        <v>429</v>
-      </c>
-      <c r="B94" t="s" s="0">
-        <v>294</v>
-      </c>
-      <c r="C94" t="s" s="0">
-        <v>93</v>
-      </c>
-      <c r="D94" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E94" s="0">
-        <v>21</v>
-      </c>
-      <c r="F94" t="s" s="0">
-        <v>295</v>
-      </c>
-      <c r="G94" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H94" t="s" s="0">
-        <v>296</v>
-      </c>
-      <c r="I94" s="0">
-        <v>9912130</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A95" t="s" s="0">
-        <v>430</v>
-      </c>
-      <c r="B95" t="s" s="0">
-        <v>297</v>
-      </c>
-      <c r="C95" t="s" s="0">
-        <v>49</v>
-      </c>
-      <c r="D95" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E95" s="0">
-        <v>61</v>
-      </c>
-      <c r="F95" t="s" s="0">
-        <v>298</v>
-      </c>
-      <c r="G95" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H95" t="s" s="0">
-        <v>299</v>
-      </c>
-      <c r="I95" s="0">
-        <v>7542700</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A96" t="s" s="0">
-        <v>431</v>
-      </c>
-      <c r="B96" t="s" s="0">
-        <v>300</v>
-      </c>
-      <c r="C96" t="s" s="0">
-        <v>56</v>
-      </c>
-      <c r="D96" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="E96" s="0">
-        <v>62</v>
-      </c>
-      <c r="F96" t="s" s="0">
-        <v>301</v>
-      </c>
-      <c r="G96" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H96" t="s" s="0">
-        <v>302</v>
-      </c>
-      <c r="I96" s="0">
-        <v>8296226</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A97" t="s" s="0">
-        <v>432</v>
-      </c>
-      <c r="B97" t="s" s="0">
-        <v>303</v>
-      </c>
-      <c r="C97" t="s" s="0">
-        <v>93</v>
-      </c>
-      <c r="D97" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E97" s="0">
-        <v>51</v>
-      </c>
-      <c r="F97" t="s" s="0">
-        <v>304</v>
-      </c>
-      <c r="G97" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H97" t="s" s="0">
-        <v>305</v>
-      </c>
-      <c r="I97" s="0">
-        <v>3368363</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A98" t="s" s="0">
-        <v>433</v>
-      </c>
-      <c r="B98" t="s" s="0">
-        <v>306</v>
-      </c>
-      <c r="C98" t="s" s="0">
-        <v>56</v>
-      </c>
-      <c r="D98" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E98" s="0">
-        <v>37</v>
-      </c>
-      <c r="F98" t="s" s="0">
-        <v>307</v>
-      </c>
-      <c r="G98" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H98" t="s" s="0">
-        <v>308</v>
-      </c>
-      <c r="I98" s="0">
-        <v>8573375</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A99" t="s" s="0">
-        <v>434</v>
-      </c>
-      <c r="B99" t="s" s="0">
-        <v>309</v>
-      </c>
-      <c r="C99" t="s" s="0">
-        <v>56</v>
-      </c>
-      <c r="D99" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E99" s="0">
-        <v>56</v>
-      </c>
-      <c r="F99" t="s" s="0">
-        <v>310</v>
-      </c>
-      <c r="G99" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H99" t="s" s="0">
-        <v>311</v>
-      </c>
-      <c r="I99" s="0">
-        <v>6580060</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A100" t="s" s="0">
-        <v>435</v>
-      </c>
-      <c r="B100" t="s" s="0">
-        <v>312</v>
-      </c>
-      <c r="C100" t="s" s="0">
+      <c r="D108" t="s">
         <v>6</v>
       </c>
-      <c r="D100" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="E100" s="0">
-        <v>52</v>
-      </c>
-      <c r="F100" t="s" s="0">
-        <v>313</v>
-      </c>
-      <c r="G100" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H100" t="s" s="0">
-        <v>314</v>
-      </c>
-      <c r="I100" s="0">
-        <v>2209714</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A101" t="s" s="0">
-        <v>436</v>
-      </c>
-      <c r="B101" t="s" s="0">
-        <v>315</v>
-      </c>
-      <c r="C101" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="D101" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="E101" s="0">
-        <v>51</v>
-      </c>
-      <c r="F101" t="s" s="0">
-        <v>316</v>
-      </c>
-      <c r="G101" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H101" t="s" s="0">
-        <v>317</v>
-      </c>
-      <c r="I101" s="0">
-        <v>9295610</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A102" t="s" s="0">
-        <v>437</v>
-      </c>
-      <c r="B102" t="s" s="0">
-        <v>318</v>
-      </c>
-      <c r="C102" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="D102" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E102" s="0">
-        <v>27</v>
-      </c>
-      <c r="F102" t="s" s="0">
-        <v>319</v>
-      </c>
-      <c r="G102" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H102" t="s" s="0">
-        <v>320</v>
-      </c>
-      <c r="I102" s="0">
-        <v>5821986</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A103" t="s" s="0">
-        <v>438</v>
-      </c>
-      <c r="B103" t="s" s="0">
-        <v>321</v>
-      </c>
-      <c r="C103" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="D103" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E103" s="0">
-        <v>58</v>
-      </c>
-      <c r="F103" t="s" s="0">
-        <v>322</v>
-      </c>
-      <c r="G103" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H103" t="s" s="0">
-        <v>323</v>
-      </c>
-      <c r="I103" s="0">
-        <v>8124730</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A104" t="s" s="0">
-        <v>439</v>
-      </c>
-      <c r="B104" t="s" s="0">
-        <v>324</v>
-      </c>
-      <c r="C104" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="D104" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E104" s="0">
-        <v>29</v>
-      </c>
-      <c r="F104" t="s" s="0">
-        <v>325</v>
-      </c>
-      <c r="G104" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H104" t="s" s="0">
-        <v>326</v>
-      </c>
-      <c r="I104" s="0">
-        <v>9429253</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A105" t="s" s="0">
-        <v>440</v>
-      </c>
-      <c r="B105" t="s" s="0">
-        <v>327</v>
-      </c>
-      <c r="C105" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="D105" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="E105" s="0">
-        <v>57</v>
-      </c>
-      <c r="F105" t="s" s="0">
-        <v>328</v>
-      </c>
-      <c r="G105" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H105" t="s" s="0">
-        <v>329</v>
-      </c>
-      <c r="I105" s="0">
-        <v>7085811</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A106" t="s" s="0">
-        <v>441</v>
-      </c>
-      <c r="B106" t="s" s="0">
-        <v>332</v>
-      </c>
-      <c r="C106" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="D106" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E106" s="0">
-        <v>21</v>
-      </c>
-      <c r="F106" t="s" s="0">
-        <v>333</v>
-      </c>
-      <c r="G106" t="s" s="0">
-        <v>334</v>
-      </c>
-      <c r="H106" t="s" s="0">
-        <v>335</v>
-      </c>
-      <c r="I106" s="0">
-        <v>12341234</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A107" t="s" s="0">
-        <v>442</v>
-      </c>
-      <c r="B107" t="s" s="0">
-        <v>443</v>
-      </c>
-      <c r="C107" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="D107" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="E107" s="0">
-        <v>24</v>
-      </c>
-      <c r="F107" t="s" s="0">
-        <v>444</v>
-      </c>
-      <c r="G107" t="s" s="0">
-        <v>445</v>
-      </c>
-      <c r="H107" t="s" s="0">
-        <v>446</v>
-      </c>
-      <c r="I107" s="0">
+      <c r="E108">
+        <v>32</v>
+      </c>
+      <c r="F108" t="s">
+        <v>449</v>
+      </c>
+      <c r="G108" t="s">
+        <v>450</v>
+      </c>
+      <c r="H108" t="s">
+        <v>451</v>
+      </c>
+      <c r="I108">
         <v>12341234</v>
       </c>
     </row>

--- a/data/UserList.xlsx
+++ b/data/UserList.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Part Time Studies\OOP_Proj\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7625C67-0F67-4088-9E1C-57E27684EC1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{030D5BA5-5E6A-4724-825C-9AF1C2DB0A8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="16305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="468">
   <si>
     <t>Name</t>
   </si>
@@ -1366,22 +1366,71 @@
     <t>H107</t>
   </si>
   <si>
-    <t>NewAdminPedro</t>
-  </si>
-  <si>
-    <t>PedroTheAdmin</t>
-  </si>
-  <si>
-    <t>pedro</t>
-  </si>
-  <si>
-    <t>pedro@admin.com</t>
+    <t>H108</t>
+  </si>
+  <si>
+    <t>DEFAULT_PASSWORD</t>
+  </si>
+  <si>
+    <t>H109</t>
+  </si>
+  <si>
+    <t>SaraHJames</t>
+  </si>
+  <si>
+    <t>sarajAdm</t>
+  </si>
+  <si>
+    <t>sarah@james.com</t>
+  </si>
+  <si>
+    <t>H110</t>
+  </si>
+  <si>
+    <t>PDiddy</t>
+  </si>
+  <si>
+    <t>ItsPdiddyLol</t>
+  </si>
+  <si>
+    <t>p@diddy.com</t>
+  </si>
+  <si>
+    <t>saraPwd</t>
+  </si>
+  <si>
+    <t>dDay</t>
+  </si>
+  <si>
+    <t>User101</t>
+  </si>
+  <si>
+    <t>User102</t>
+  </si>
+  <si>
+    <t>Pending</t>
+  </si>
+  <si>
+    <t>PendingUser101</t>
+  </si>
+  <si>
+    <t>user101@example.com</t>
+  </si>
+  <si>
+    <t>user102@example.com</t>
+  </si>
+  <si>
+    <t>PendingUser102</t>
+  </si>
+  <si>
+    <t>user11</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1760,20 +1809,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I108"/>
+  <dimension ref="A1:I111"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A80" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F108" sqref="F108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" customWidth="1"/>
-    <col min="2" max="2" width="24.7109375" customWidth="1"/>
-    <col min="3" max="3" width="30.42578125" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" customWidth="1"/>
-    <col min="8" max="8" width="35.42578125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="10.42578125"/>
+    <col min="2" max="2" customWidth="true" width="24.7109375"/>
+    <col min="3" max="3" customWidth="true" width="30.42578125"/>
+    <col min="6" max="6" customWidth="true" width="16.42578125"/>
+    <col min="7" max="7" customWidth="true" width="35.7109375"/>
+    <col min="8" max="8" customWidth="true" width="35.42578125"/>
+    <col min="9" max="9" customWidth="true" width="23.85546875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -1806,3105 +1856,3192 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>337</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="0">
         <v>45</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s" s="0">
         <v>330</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="0">
         <v>12345678</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>338</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3">
+      <c r="D3" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E3" s="0">
         <v>38</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" t="s" s="0">
         <v>17</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="0">
         <v>12345679</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>339</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="0">
         <v>29</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" t="s" s="0">
         <v>17</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="0">
         <v>12345680</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>340</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="D5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5">
+      <c r="D5" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E5" s="0">
         <v>40</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" t="s" s="0">
         <v>336</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="0">
         <v>12345681</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>341</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="0">
         <v>65</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="G6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="G6" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H6" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="0">
         <v>9458008</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>342</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="0">
         <v>57</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="G7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="G7" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H7" t="s" s="0">
         <v>32</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="0">
         <v>5406679</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>343</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" t="s" s="0">
         <v>33</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="0">
         <v>39</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="G8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" t="s">
+      <c r="G8" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H8" t="s" s="0">
         <v>35</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="0">
         <v>8020791</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>344</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" t="s" s="0">
         <v>36</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="D9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9">
+      <c r="D9" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E9" s="0">
         <v>32</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" t="s" s="0">
         <v>37</v>
       </c>
-      <c r="G9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="G9" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H9" t="s" s="0">
         <v>38</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="0">
         <v>5720360</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>345</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="D10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10">
+      <c r="D10" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E10" s="0">
         <v>45</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" t="s" s="0">
         <v>40</v>
       </c>
-      <c r="G10" t="s">
-        <v>17</v>
-      </c>
-      <c r="H10" t="s">
+      <c r="G10" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H10" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="0">
         <v>9507728</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>346</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" t="s" s="0">
         <v>42</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="D11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11">
+      <c r="D11" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E11" s="0">
         <v>56</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" t="s" s="0">
         <v>43</v>
       </c>
-      <c r="G11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" t="s">
+      <c r="G11" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H11" t="s" s="0">
         <v>44</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="0">
         <v>6810352</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" t="s" s="0">
         <v>347</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" t="s" s="0">
         <v>45</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="D12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12">
+      <c r="D12" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E12" s="0">
         <v>27</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" t="s" s="0">
         <v>46</v>
       </c>
-      <c r="G12" t="s">
-        <v>17</v>
-      </c>
-      <c r="H12" t="s">
+      <c r="G12" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H12" t="s" s="0">
         <v>47</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="0">
         <v>5980041</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" t="s" s="0">
         <v>348</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="0">
         <v>29</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="G13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H13" t="s">
+      <c r="G13" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H13" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="0">
         <v>5130769</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" t="s" s="0">
         <v>349</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="0">
         <v>34</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" t="s" s="0">
         <v>53</v>
       </c>
-      <c r="G14" t="s">
-        <v>17</v>
-      </c>
-      <c r="H14" t="s">
+      <c r="G14" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H14" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="0">
         <v>4446176</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" t="s" s="0">
         <v>350</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="D15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15">
+      <c r="D15" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E15" s="0">
         <v>52</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="G15" t="s">
-        <v>17</v>
-      </c>
-      <c r="H15" t="s">
+      <c r="G15" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H15" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="0">
         <v>3504139</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" t="s" s="0">
         <v>351</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" t="s" s="0">
         <v>59</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="0">
         <v>43</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" t="s" s="0">
         <v>60</v>
       </c>
-      <c r="G16" t="s">
-        <v>17</v>
-      </c>
-      <c r="H16" t="s">
+      <c r="G16" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H16" t="s" s="0">
         <v>61</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="0">
         <v>3882465</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" t="s" s="0">
         <v>352</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" t="s" s="0">
         <v>62</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="D17" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17">
+      <c r="D17" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E17" s="0">
         <v>38</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" t="s" s="0">
         <v>63</v>
       </c>
-      <c r="G17" t="s">
-        <v>17</v>
-      </c>
-      <c r="H17" t="s">
+      <c r="G17" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H17" t="s" s="0">
         <v>64</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="0">
         <v>6209898</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" t="s" s="0">
         <v>353</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" t="s" s="0">
         <v>65</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="D18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18">
+      <c r="D18" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E18" s="0">
         <v>55</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" t="s" s="0">
         <v>66</v>
       </c>
-      <c r="G18" t="s">
-        <v>17</v>
-      </c>
-      <c r="H18" t="s">
+      <c r="G18" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H18" t="s" s="0">
         <v>67</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="0">
         <v>9214791</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" t="s" s="0">
         <v>354</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" t="s" s="0">
         <v>68</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="0">
         <v>53</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" t="s" s="0">
         <v>69</v>
       </c>
-      <c r="G19" t="s">
-        <v>17</v>
-      </c>
-      <c r="H19" t="s">
+      <c r="G19" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H19" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="0">
         <v>8179935</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20" t="s" s="0">
         <v>355</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" t="s" s="0">
         <v>71</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="0">
         <v>25</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" t="s" s="0">
         <v>72</v>
       </c>
-      <c r="G20" t="s">
-        <v>17</v>
-      </c>
-      <c r="H20" t="s">
+      <c r="G20" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H20" t="s" s="0">
         <v>73</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="0">
         <v>3023232</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="A21" t="s" s="0">
         <v>356</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" t="s" s="0">
         <v>74</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="D21" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21">
+      <c r="D21" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E21" s="0">
         <v>58</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" t="s" s="0">
         <v>75</v>
       </c>
-      <c r="G21" t="s">
-        <v>17</v>
-      </c>
-      <c r="H21" t="s">
+      <c r="G21" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H21" t="s" s="0">
         <v>76</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="0">
         <v>6607521</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="A22" t="s" s="0">
         <v>357</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" t="s" s="0">
         <v>77</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="D22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22">
+      <c r="D22" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E22" s="0">
         <v>47</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" t="s" s="0">
         <v>78</v>
       </c>
-      <c r="G22" t="s">
-        <v>17</v>
-      </c>
-      <c r="H22" t="s">
+      <c r="G22" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H22" t="s" s="0">
         <v>79</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="0">
         <v>4855587</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="A23" t="s" s="0">
         <v>358</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" t="s" s="0">
         <v>80</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="D23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23">
+      <c r="D23" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E23" s="0">
         <v>27</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" t="s" s="0">
         <v>81</v>
       </c>
-      <c r="G23" t="s">
-        <v>17</v>
-      </c>
-      <c r="H23" t="s">
+      <c r="G23" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H23" t="s" s="0">
         <v>82</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="0">
         <v>5043744</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="A24" t="s" s="0">
         <v>359</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" t="s" s="0">
         <v>83</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="0">
         <v>23</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" t="s" s="0">
         <v>84</v>
       </c>
-      <c r="G24" t="s">
-        <v>17</v>
-      </c>
-      <c r="H24" t="s">
+      <c r="G24" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H24" t="s" s="0">
         <v>85</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="0">
         <v>6914894</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="A25" t="s" s="0">
         <v>360</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" t="s" s="0">
         <v>86</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="0">
         <v>65</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" t="s" s="0">
         <v>87</v>
       </c>
-      <c r="G25" t="s">
-        <v>17</v>
-      </c>
-      <c r="H25" t="s">
+      <c r="G25" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H25" t="s" s="0">
         <v>88</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="0">
         <v>5176574</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="A26" t="s" s="0">
         <v>361</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" t="s" s="0">
         <v>89</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="D26" t="s">
-        <v>8</v>
-      </c>
-      <c r="E26">
+      <c r="D26" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E26" s="0">
         <v>38</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" t="s" s="0">
         <v>90</v>
       </c>
-      <c r="G26" t="s">
-        <v>17</v>
-      </c>
-      <c r="H26" t="s">
+      <c r="G26" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H26" t="s" s="0">
         <v>91</v>
       </c>
-      <c r="I26">
+      <c r="I26" s="0">
         <v>5994982</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="A27" t="s" s="0">
         <v>362</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" t="s" s="0">
         <v>92</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="D27" t="s">
-        <v>8</v>
-      </c>
-      <c r="E27">
+      <c r="D27" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E27" s="0">
         <v>29</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" t="s" s="0">
         <v>94</v>
       </c>
-      <c r="G27" t="s">
-        <v>17</v>
-      </c>
-      <c r="H27" t="s">
+      <c r="G27" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H27" t="s" s="0">
         <v>95</v>
       </c>
-      <c r="I27">
+      <c r="I27" s="0">
         <v>2026262</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="A28" t="s" s="0">
         <v>363</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" t="s" s="0">
         <v>96</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="D28" t="s">
-        <v>8</v>
-      </c>
-      <c r="E28">
+      <c r="D28" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E28" s="0">
         <v>28</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" t="s" s="0">
         <v>97</v>
       </c>
-      <c r="G28" t="s">
-        <v>17</v>
-      </c>
-      <c r="H28" t="s">
+      <c r="G28" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H28" t="s" s="0">
         <v>98</v>
       </c>
-      <c r="I28">
+      <c r="I28" s="0">
         <v>5788254</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="A29" t="s" s="0">
         <v>364</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" t="s" s="0">
         <v>99</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="D29" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29">
+      <c r="D29" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E29" s="0">
         <v>54</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" t="s" s="0">
         <v>100</v>
       </c>
-      <c r="G29" t="s">
-        <v>17</v>
-      </c>
-      <c r="H29" t="s">
+      <c r="G29" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H29" t="s" s="0">
         <v>101</v>
       </c>
-      <c r="I29">
+      <c r="I29" s="0">
         <v>3073034</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="A30" t="s" s="0">
         <v>365</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" t="s" s="0">
         <v>102</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="0">
         <v>22</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" t="s" s="0">
         <v>103</v>
       </c>
-      <c r="G30" t="s">
-        <v>17</v>
-      </c>
-      <c r="H30" t="s">
+      <c r="G30" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H30" t="s" s="0">
         <v>104</v>
       </c>
-      <c r="I30">
+      <c r="I30" s="0">
         <v>3512882</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="A31" t="s" s="0">
         <v>366</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" t="s" s="0">
         <v>105</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="0">
         <v>31</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" t="s" s="0">
         <v>106</v>
       </c>
-      <c r="G31" t="s">
-        <v>17</v>
-      </c>
-      <c r="H31" t="s">
+      <c r="G31" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H31" t="s" s="0">
         <v>107</v>
       </c>
-      <c r="I31">
+      <c r="I31" s="0">
         <v>3869738</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="A32" t="s" s="0">
         <v>367</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" t="s" s="0">
         <v>108</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="D32" t="s">
-        <v>8</v>
-      </c>
-      <c r="E32">
+      <c r="D32" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E32" s="0">
         <v>28</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" t="s" s="0">
         <v>109</v>
       </c>
-      <c r="G32" t="s">
-        <v>17</v>
-      </c>
-      <c r="H32" t="s">
+      <c r="G32" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H32" t="s" s="0">
         <v>110</v>
       </c>
-      <c r="I32">
+      <c r="I32" s="0">
         <v>1222647</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="A33" t="s" s="0">
         <v>368</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" t="s" s="0">
         <v>111</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="D33" t="s">
-        <v>8</v>
-      </c>
-      <c r="E33">
+      <c r="D33" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E33" s="0">
         <v>60</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33" t="s" s="0">
         <v>112</v>
       </c>
-      <c r="G33" t="s">
-        <v>17</v>
-      </c>
-      <c r="H33" t="s">
+      <c r="G33" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H33" t="s" s="0">
         <v>113</v>
       </c>
-      <c r="I33">
+      <c r="I33" s="0">
         <v>7437675</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="A34" t="s" s="0">
         <v>369</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" t="s" s="0">
         <v>114</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="0">
         <v>51</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F34" t="s" s="0">
         <v>115</v>
       </c>
-      <c r="G34" t="s">
-        <v>17</v>
-      </c>
-      <c r="H34" t="s">
+      <c r="G34" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H34" t="s" s="0">
         <v>116</v>
       </c>
-      <c r="I34">
+      <c r="I34" s="0">
         <v>5991621</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="A35" t="s" s="0">
         <v>370</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" t="s" s="0">
         <v>117</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="D35" t="s">
-        <v>8</v>
-      </c>
-      <c r="E35">
+      <c r="D35" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E35" s="0">
         <v>57</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F35" t="s" s="0">
         <v>118</v>
       </c>
-      <c r="G35" t="s">
-        <v>17</v>
-      </c>
-      <c r="H35" t="s">
+      <c r="G35" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H35" t="s" s="0">
         <v>119</v>
       </c>
-      <c r="I35">
+      <c r="I35" s="0">
         <v>2673449</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="A36" t="s" s="0">
         <v>371</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" t="s" s="0">
         <v>120</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="D36" t="s">
-        <v>8</v>
-      </c>
-      <c r="E36">
+      <c r="D36" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E36" s="0">
         <v>41</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F36" t="s" s="0">
         <v>121</v>
       </c>
-      <c r="G36" t="s">
-        <v>17</v>
-      </c>
-      <c r="H36" t="s">
+      <c r="G36" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H36" t="s" s="0">
         <v>122</v>
       </c>
-      <c r="I36">
+      <c r="I36" s="0">
         <v>5414099</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="A37" t="s" s="0">
         <v>372</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" t="s" s="0">
         <v>123</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="D37" t="s">
-        <v>8</v>
-      </c>
-      <c r="E37">
+      <c r="D37" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E37" s="0">
         <v>65</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F37" t="s" s="0">
         <v>124</v>
       </c>
-      <c r="G37" t="s">
-        <v>17</v>
-      </c>
-      <c r="H37" t="s">
+      <c r="G37" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H37" t="s" s="0">
         <v>125</v>
       </c>
-      <c r="I37">
+      <c r="I37" s="0">
         <v>1591806</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="A38" t="s" s="0">
         <v>373</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" t="s" s="0">
         <v>126</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="0">
         <v>34</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F38" t="s" s="0">
         <v>127</v>
       </c>
-      <c r="G38" t="s">
-        <v>17</v>
-      </c>
-      <c r="H38" t="s">
+      <c r="G38" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H38" t="s" s="0">
         <v>128</v>
       </c>
-      <c r="I38">
+      <c r="I38" s="0">
         <v>5440842</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="A39" t="s" s="0">
         <v>374</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" t="s" s="0">
         <v>129</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="D39" t="s">
-        <v>8</v>
-      </c>
-      <c r="E39">
+      <c r="D39" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E39" s="0">
         <v>39</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F39" t="s" s="0">
         <v>130</v>
       </c>
-      <c r="G39" t="s">
-        <v>17</v>
-      </c>
-      <c r="H39" t="s">
+      <c r="G39" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H39" t="s" s="0">
         <v>131</v>
       </c>
-      <c r="I39">
+      <c r="I39" s="0">
         <v>5123903</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="A40" t="s" s="0">
         <v>375</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" t="s" s="0">
         <v>132</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="D40" t="s">
-        <v>8</v>
-      </c>
-      <c r="E40">
+      <c r="D40" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E40" s="0">
         <v>30</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F40" t="s" s="0">
         <v>133</v>
       </c>
-      <c r="G40" t="s">
-        <v>17</v>
-      </c>
-      <c r="H40" t="s">
+      <c r="G40" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H40" t="s" s="0">
         <v>134</v>
       </c>
-      <c r="I40">
+      <c r="I40" s="0">
         <v>8419913</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="A41" t="s" s="0">
         <v>376</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" t="s" s="0">
         <v>135</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="0">
         <v>53</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F41" t="s" s="0">
         <v>136</v>
       </c>
-      <c r="G41" t="s">
-        <v>17</v>
-      </c>
-      <c r="H41" t="s">
+      <c r="G41" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H41" t="s" s="0">
         <v>137</v>
       </c>
-      <c r="I41">
+      <c r="I41" s="0">
         <v>2541769</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="A42" t="s" s="0">
         <v>377</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" t="s" s="0">
         <v>138</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="0">
         <v>42</v>
       </c>
-      <c r="F42" t="s">
+      <c r="F42" t="s" s="0">
         <v>139</v>
       </c>
-      <c r="G42" t="s">
-        <v>17</v>
-      </c>
-      <c r="H42" t="s">
+      <c r="G42" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H42" t="s" s="0">
         <v>140</v>
       </c>
-      <c r="I42">
+      <c r="I42" s="0">
         <v>3301311</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="A43" t="s" s="0">
         <v>378</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" t="s" s="0">
         <v>141</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="0">
         <v>61</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F43" t="s" s="0">
         <v>142</v>
       </c>
-      <c r="G43" t="s">
-        <v>17</v>
-      </c>
-      <c r="H43" t="s">
+      <c r="G43" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H43" t="s" s="0">
         <v>143</v>
       </c>
-      <c r="I43">
+      <c r="I43" s="0">
         <v>3901307</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="A44" t="s" s="0">
         <v>379</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" t="s" s="0">
         <v>144</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="D44" t="s">
-        <v>8</v>
-      </c>
-      <c r="E44">
+      <c r="D44" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E44" s="0">
         <v>45</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F44" t="s" s="0">
         <v>145</v>
       </c>
-      <c r="G44" t="s">
-        <v>17</v>
-      </c>
-      <c r="H44" t="s">
+      <c r="G44" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H44" t="s" s="0">
         <v>146</v>
       </c>
-      <c r="I44">
+      <c r="I44" s="0">
         <v>8507627</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="A45" t="s" s="0">
         <v>380</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" t="s" s="0">
         <v>147</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="D45" t="s">
-        <v>8</v>
-      </c>
-      <c r="E45">
+      <c r="D45" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E45" s="0">
         <v>22</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F45" t="s" s="0">
         <v>148</v>
       </c>
-      <c r="G45" t="s">
-        <v>17</v>
-      </c>
-      <c r="H45" t="s">
+      <c r="G45" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H45" t="s" s="0">
         <v>149</v>
       </c>
-      <c r="I45">
+      <c r="I45" s="0">
         <v>6247756</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="A46" t="s" s="0">
         <v>381</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" t="s" s="0">
         <v>150</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="0">
         <v>62</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F46" t="s" s="0">
         <v>151</v>
       </c>
-      <c r="G46" t="s">
-        <v>17</v>
-      </c>
-      <c r="H46" t="s">
+      <c r="G46" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H46" t="s" s="0">
         <v>152</v>
       </c>
-      <c r="I46">
+      <c r="I46" s="0">
         <v>7799558</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="A47" t="s" s="0">
         <v>382</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" t="s" s="0">
         <v>153</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="0">
         <v>57</v>
       </c>
-      <c r="F47" t="s">
+      <c r="F47" t="s" s="0">
         <v>154</v>
       </c>
-      <c r="G47" t="s">
-        <v>17</v>
-      </c>
-      <c r="H47" t="s">
+      <c r="G47" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H47" t="s" s="0">
         <v>155</v>
       </c>
-      <c r="I47">
+      <c r="I47" s="0">
         <v>6846085</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="A48" t="s" s="0">
         <v>383</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" t="s" s="0">
         <v>156</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="E48">
+      <c r="E48" s="0">
         <v>64</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F48" t="s" s="0">
         <v>157</v>
       </c>
-      <c r="G48" t="s">
-        <v>17</v>
-      </c>
-      <c r="H48" t="s">
+      <c r="G48" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H48" t="s" s="0">
         <v>158</v>
       </c>
-      <c r="I48">
+      <c r="I48" s="0">
         <v>3002894</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="A49" t="s" s="0">
         <v>384</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" t="s" s="0">
         <v>159</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="D49" t="s">
-        <v>8</v>
-      </c>
-      <c r="E49">
+      <c r="D49" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E49" s="0">
         <v>65</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F49" t="s" s="0">
         <v>160</v>
       </c>
-      <c r="G49" t="s">
-        <v>17</v>
-      </c>
-      <c r="H49" t="s">
+      <c r="G49" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H49" t="s" s="0">
         <v>161</v>
       </c>
-      <c r="I49">
+      <c r="I49" s="0">
         <v>8576374</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="A50" t="s" s="0">
         <v>385</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" t="s" s="0">
         <v>162</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="D50" t="s">
-        <v>8</v>
-      </c>
-      <c r="E50">
+      <c r="D50" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E50" s="0">
         <v>50</v>
       </c>
-      <c r="F50" t="s">
+      <c r="F50" t="s" s="0">
         <v>163</v>
       </c>
-      <c r="G50" t="s">
-        <v>17</v>
-      </c>
-      <c r="H50" t="s">
+      <c r="G50" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H50" t="s" s="0">
         <v>164</v>
       </c>
-      <c r="I50">
+      <c r="I50" s="0">
         <v>6839229</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="A51" t="s" s="0">
         <v>386</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" t="s" s="0">
         <v>165</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="D51" t="s">
-        <v>8</v>
-      </c>
-      <c r="E51">
+      <c r="D51" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E51" s="0">
         <v>46</v>
       </c>
-      <c r="F51" t="s">
+      <c r="F51" t="s" s="0">
         <v>166</v>
       </c>
-      <c r="G51" t="s">
-        <v>17</v>
-      </c>
-      <c r="H51" t="s">
+      <c r="G51" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H51" t="s" s="0">
         <v>167</v>
       </c>
-      <c r="I51">
+      <c r="I51" s="0">
         <v>1833341</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+      <c r="A52" t="s" s="0">
         <v>387</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" t="s" s="0">
         <v>168</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="D52" t="s">
-        <v>8</v>
-      </c>
-      <c r="E52">
+      <c r="D52" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E52" s="0">
         <v>52</v>
       </c>
-      <c r="F52" t="s">
+      <c r="F52" t="s" s="0">
         <v>169</v>
       </c>
-      <c r="G52" t="s">
-        <v>17</v>
-      </c>
-      <c r="H52" t="s">
+      <c r="G52" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H52" t="s" s="0">
         <v>170</v>
       </c>
-      <c r="I52">
+      <c r="I52" s="0">
         <v>5945914</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="A53" t="s" s="0">
         <v>388</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" t="s" s="0">
         <v>171</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="E53">
+      <c r="E53" s="0">
         <v>44</v>
       </c>
-      <c r="F53" t="s">
+      <c r="F53" t="s" s="0">
         <v>172</v>
       </c>
-      <c r="G53" t="s">
-        <v>17</v>
-      </c>
-      <c r="H53" t="s">
+      <c r="G53" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H53" t="s" s="0">
         <v>173</v>
       </c>
-      <c r="I53">
+      <c r="I53" s="0">
         <v>3101456</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="A54" t="s" s="0">
         <v>389</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" t="s" s="0">
         <v>174</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D54" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="E54">
+      <c r="E54" s="0">
         <v>59</v>
       </c>
-      <c r="F54" t="s">
+      <c r="F54" t="s" s="0">
         <v>175</v>
       </c>
-      <c r="G54" t="s">
-        <v>17</v>
-      </c>
-      <c r="H54" t="s">
+      <c r="G54" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H54" t="s" s="0">
         <v>176</v>
       </c>
-      <c r="I54">
+      <c r="I54" s="0">
         <v>8790582</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+      <c r="A55" t="s" s="0">
         <v>390</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" t="s" s="0">
         <v>177</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D55" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="E55">
+      <c r="E55" s="0">
         <v>41</v>
       </c>
-      <c r="F55" t="s">
+      <c r="F55" t="s" s="0">
         <v>178</v>
       </c>
-      <c r="G55" t="s">
-        <v>17</v>
-      </c>
-      <c r="H55" t="s">
+      <c r="G55" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H55" t="s" s="0">
         <v>179</v>
       </c>
-      <c r="I55">
+      <c r="I55" s="0">
         <v>7076399</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+      <c r="A56" t="s" s="0">
         <v>391</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" t="s" s="0">
         <v>180</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D56" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="E56">
+      <c r="E56" s="0">
         <v>23</v>
       </c>
-      <c r="F56" t="s">
+      <c r="F56" t="s" s="0">
         <v>181</v>
       </c>
-      <c r="G56" t="s">
-        <v>17</v>
-      </c>
-      <c r="H56" t="s">
+      <c r="G56" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H56" t="s" s="0">
         <v>182</v>
       </c>
-      <c r="I56">
+      <c r="I56" s="0">
         <v>5581452</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+      <c r="A57" t="s" s="0">
         <v>392</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" t="s" s="0">
         <v>183</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="D57" t="s">
-        <v>8</v>
-      </c>
-      <c r="E57">
+      <c r="D57" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E57" s="0">
         <v>22</v>
       </c>
-      <c r="F57" t="s">
+      <c r="F57" t="s" s="0">
         <v>184</v>
       </c>
-      <c r="G57" t="s">
-        <v>17</v>
-      </c>
-      <c r="H57" t="s">
+      <c r="G57" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H57" t="s" s="0">
         <v>185</v>
       </c>
-      <c r="I57">
+      <c r="I57" s="0">
         <v>3474559</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+      <c r="A58" t="s" s="0">
         <v>393</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" t="s" s="0">
         <v>186</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D58" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="E58">
+      <c r="E58" s="0">
         <v>28</v>
       </c>
-      <c r="F58" t="s">
+      <c r="F58" t="s" s="0">
         <v>187</v>
       </c>
-      <c r="G58" t="s">
-        <v>17</v>
-      </c>
-      <c r="H58" t="s">
+      <c r="G58" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H58" t="s" s="0">
         <v>188</v>
       </c>
-      <c r="I58">
+      <c r="I58" s="0">
         <v>3873886</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+      <c r="A59" t="s" s="0">
         <v>394</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" t="s" s="0">
         <v>189</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="D59" t="s">
-        <v>8</v>
-      </c>
-      <c r="E59">
+      <c r="D59" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E59" s="0">
         <v>30</v>
       </c>
-      <c r="F59" t="s">
+      <c r="F59" t="s" s="0">
         <v>190</v>
       </c>
-      <c r="G59" t="s">
-        <v>17</v>
-      </c>
-      <c r="H59" t="s">
+      <c r="G59" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H59" t="s" s="0">
         <v>191</v>
       </c>
-      <c r="I59">
+      <c r="I59" s="0">
         <v>3607945</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+      <c r="A60" t="s" s="0">
         <v>395</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" t="s" s="0">
         <v>192</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="D60" t="s">
-        <v>8</v>
-      </c>
-      <c r="E60">
+      <c r="D60" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E60" s="0">
         <v>55</v>
       </c>
-      <c r="F60" t="s">
+      <c r="F60" t="s" s="0">
         <v>193</v>
       </c>
-      <c r="G60" t="s">
-        <v>17</v>
-      </c>
-      <c r="H60" t="s">
+      <c r="G60" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H60" t="s" s="0">
         <v>194</v>
       </c>
-      <c r="I60">
+      <c r="I60" s="0">
         <v>5903486</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+      <c r="A61" t="s" s="0">
         <v>396</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" t="s" s="0">
         <v>195</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="D61" t="s">
-        <v>8</v>
-      </c>
-      <c r="E61">
+      <c r="D61" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E61" s="0">
         <v>31</v>
       </c>
-      <c r="F61" t="s">
+      <c r="F61" t="s" s="0">
         <v>196</v>
       </c>
-      <c r="G61" t="s">
-        <v>17</v>
-      </c>
-      <c r="H61" t="s">
+      <c r="G61" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H61" t="s" s="0">
         <v>197</v>
       </c>
-      <c r="I61">
+      <c r="I61" s="0">
         <v>6280079</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+      <c r="A62" t="s" s="0">
         <v>397</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" t="s" s="0">
         <v>198</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D62" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="E62">
+      <c r="E62" s="0">
         <v>34</v>
       </c>
-      <c r="F62" t="s">
+      <c r="F62" t="s" s="0">
         <v>199</v>
       </c>
-      <c r="G62" t="s">
-        <v>17</v>
-      </c>
-      <c r="H62" t="s">
+      <c r="G62" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H62" t="s" s="0">
         <v>200</v>
       </c>
-      <c r="I62">
+      <c r="I62" s="0">
         <v>9217628</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+      <c r="A63" t="s" s="0">
         <v>398</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" t="s" s="0">
         <v>201</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="D63" t="s">
-        <v>8</v>
-      </c>
-      <c r="E63">
+      <c r="D63" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E63" s="0">
         <v>55</v>
       </c>
-      <c r="F63" t="s">
+      <c r="F63" t="s" s="0">
         <v>202</v>
       </c>
-      <c r="G63" t="s">
-        <v>17</v>
-      </c>
-      <c r="H63" t="s">
+      <c r="G63" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H63" t="s" s="0">
         <v>203</v>
       </c>
-      <c r="I63">
+      <c r="I63" s="0">
         <v>1894489</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+      <c r="A64" t="s" s="0">
         <v>399</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" t="s" s="0">
         <v>204</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="D64" t="s">
-        <v>8</v>
-      </c>
-      <c r="E64">
+      <c r="D64" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E64" s="0">
         <v>65</v>
       </c>
-      <c r="F64" t="s">
+      <c r="F64" t="s" s="0">
         <v>205</v>
       </c>
-      <c r="G64" t="s">
-        <v>17</v>
-      </c>
-      <c r="H64" t="s">
+      <c r="G64" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H64" t="s" s="0">
         <v>206</v>
       </c>
-      <c r="I64">
+      <c r="I64" s="0">
         <v>7076473</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+      <c r="A65" t="s" s="0">
         <v>400</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" t="s" s="0">
         <v>207</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C65" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D65" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="E65">
+      <c r="E65" s="0">
         <v>56</v>
       </c>
-      <c r="F65" t="s">
+      <c r="F65" t="s" s="0">
         <v>208</v>
       </c>
-      <c r="G65" t="s">
-        <v>17</v>
-      </c>
-      <c r="H65" t="s">
+      <c r="G65" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H65" t="s" s="0">
         <v>209</v>
       </c>
-      <c r="I65">
+      <c r="I65" s="0">
         <v>8890120</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+      <c r="A66" t="s" s="0">
         <v>401</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" t="s" s="0">
         <v>210</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="D66" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E66" s="0">
+        <v>34</v>
+      </c>
+      <c r="F66" t="s" s="0">
+        <v>211</v>
+      </c>
+      <c r="G66" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H66" t="s" s="0">
+        <v>212</v>
+      </c>
+      <c r="I66" s="0">
+        <v>1822054</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" t="s" s="0">
+        <v>402</v>
+      </c>
+      <c r="B67" t="s" s="0">
+        <v>213</v>
+      </c>
+      <c r="C67" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="D67" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="E67" s="0">
+        <v>63</v>
+      </c>
+      <c r="F67" t="s" s="0">
+        <v>214</v>
+      </c>
+      <c r="G67" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H67" t="s" s="0">
+        <v>215</v>
+      </c>
+      <c r="I67" s="0">
+        <v>3713226</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" t="s" s="0">
+        <v>403</v>
+      </c>
+      <c r="B68" t="s" s="0">
+        <v>216</v>
+      </c>
+      <c r="C68" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="D68" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E68" s="0">
+        <v>49</v>
+      </c>
+      <c r="F68" t="s" s="0">
+        <v>217</v>
+      </c>
+      <c r="G68" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H68" t="s" s="0">
+        <v>218</v>
+      </c>
+      <c r="I68" s="0">
+        <v>4900839</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" t="s" s="0">
+        <v>404</v>
+      </c>
+      <c r="B69" t="s" s="0">
+        <v>219</v>
+      </c>
+      <c r="C69" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="D69" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="E69" s="0">
+        <v>22</v>
+      </c>
+      <c r="F69" t="s" s="0">
+        <v>220</v>
+      </c>
+      <c r="G69" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H69" t="s" s="0">
+        <v>221</v>
+      </c>
+      <c r="I69" s="0">
+        <v>8613278</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" t="s" s="0">
+        <v>405</v>
+      </c>
+      <c r="B70" t="s" s="0">
+        <v>222</v>
+      </c>
+      <c r="C70" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="D70" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="E70" s="0">
+        <v>57</v>
+      </c>
+      <c r="F70" t="s" s="0">
+        <v>223</v>
+      </c>
+      <c r="G70" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H70" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="I70" s="0">
+        <v>1890269</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" t="s" s="0">
+        <v>406</v>
+      </c>
+      <c r="B71" t="s" s="0">
+        <v>225</v>
+      </c>
+      <c r="C71" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="D71" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E71" s="0">
+        <v>29</v>
+      </c>
+      <c r="F71" t="s" s="0">
+        <v>226</v>
+      </c>
+      <c r="G71" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H71" t="s" s="0">
+        <v>227</v>
+      </c>
+      <c r="I71" s="0">
+        <v>2552925</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" t="s" s="0">
+        <v>407</v>
+      </c>
+      <c r="B72" t="s" s="0">
+        <v>228</v>
+      </c>
+      <c r="C72" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="D72" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E72" s="0">
+        <v>60</v>
+      </c>
+      <c r="F72" t="s" s="0">
+        <v>229</v>
+      </c>
+      <c r="G72" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H72" t="s" s="0">
+        <v>230</v>
+      </c>
+      <c r="I72" s="0">
+        <v>6822517</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" t="s" s="0">
+        <v>408</v>
+      </c>
+      <c r="B73" t="s" s="0">
+        <v>231</v>
+      </c>
+      <c r="C73" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D73" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E73" s="0">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s" s="0">
+        <v>232</v>
+      </c>
+      <c r="G73" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H73" t="s" s="0">
+        <v>233</v>
+      </c>
+      <c r="I73" s="0">
+        <v>7665699</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" t="s" s="0">
+        <v>409</v>
+      </c>
+      <c r="B74" t="s" s="0">
+        <v>234</v>
+      </c>
+      <c r="C74" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="D74" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E74" s="0">
+        <v>43</v>
+      </c>
+      <c r="F74" t="s" s="0">
+        <v>235</v>
+      </c>
+      <c r="G74" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H74" t="s" s="0">
+        <v>236</v>
+      </c>
+      <c r="I74" s="0">
+        <v>5533098</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" t="s" s="0">
+        <v>410</v>
+      </c>
+      <c r="B75" t="s" s="0">
+        <v>237</v>
+      </c>
+      <c r="C75" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D75" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="E75" s="0">
+        <v>48</v>
+      </c>
+      <c r="F75" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="G75" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H75" t="s" s="0">
+        <v>239</v>
+      </c>
+      <c r="I75" s="0">
+        <v>2818715</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" t="s" s="0">
+        <v>411</v>
+      </c>
+      <c r="B76" t="s" s="0">
+        <v>240</v>
+      </c>
+      <c r="C76" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="D76" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="E76" s="0">
+        <v>55</v>
+      </c>
+      <c r="F76" t="s" s="0">
+        <v>241</v>
+      </c>
+      <c r="G76" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H76" t="s" s="0">
+        <v>242</v>
+      </c>
+      <c r="I76" s="0">
+        <v>6021521</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" t="s" s="0">
+        <v>412</v>
+      </c>
+      <c r="B77" t="s" s="0">
+        <v>243</v>
+      </c>
+      <c r="C77" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="D77" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="E77" s="0">
+        <v>62</v>
+      </c>
+      <c r="F77" t="s" s="0">
+        <v>244</v>
+      </c>
+      <c r="G77" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H77" t="s" s="0">
+        <v>245</v>
+      </c>
+      <c r="I77" s="0">
+        <v>6574157</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" t="s" s="0">
+        <v>413</v>
+      </c>
+      <c r="B78" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="C78" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D78" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E78" s="0">
+        <v>50</v>
+      </c>
+      <c r="F78" t="s" s="0">
+        <v>247</v>
+      </c>
+      <c r="G78" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H78" t="s" s="0">
+        <v>248</v>
+      </c>
+      <c r="I78" s="0">
+        <v>2683176</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" t="s" s="0">
+        <v>414</v>
+      </c>
+      <c r="B79" t="s" s="0">
+        <v>249</v>
+      </c>
+      <c r="C79" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D79" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E79" s="0">
+        <v>22</v>
+      </c>
+      <c r="F79" t="s" s="0">
+        <v>250</v>
+      </c>
+      <c r="G79" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H79" t="s" s="0">
+        <v>251</v>
+      </c>
+      <c r="I79" s="0">
+        <v>7083693</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" t="s" s="0">
+        <v>415</v>
+      </c>
+      <c r="B80" t="s" s="0">
+        <v>252</v>
+      </c>
+      <c r="C80" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="D80" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E80" s="0">
+        <v>46</v>
+      </c>
+      <c r="F80" t="s" s="0">
+        <v>253</v>
+      </c>
+      <c r="G80" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H80" t="s" s="0">
+        <v>254</v>
+      </c>
+      <c r="I80" s="0">
+        <v>5228382</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" t="s" s="0">
+        <v>416</v>
+      </c>
+      <c r="B81" t="s" s="0">
+        <v>255</v>
+      </c>
+      <c r="C81" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D81" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E81" s="0">
+        <v>40</v>
+      </c>
+      <c r="F81" t="s" s="0">
+        <v>256</v>
+      </c>
+      <c r="G81" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H81" t="s" s="0">
+        <v>257</v>
+      </c>
+      <c r="I81" s="0">
+        <v>2740643</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" t="s" s="0">
+        <v>417</v>
+      </c>
+      <c r="B82" t="s" s="0">
+        <v>258</v>
+      </c>
+      <c r="C82" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="D82" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="E82" s="0">
+        <v>54</v>
+      </c>
+      <c r="F82" t="s" s="0">
+        <v>259</v>
+      </c>
+      <c r="G82" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H82" t="s" s="0">
+        <v>260</v>
+      </c>
+      <c r="I82" s="0">
+        <v>7961296</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83" t="s" s="0">
+        <v>418</v>
+      </c>
+      <c r="B83" t="s" s="0">
+        <v>261</v>
+      </c>
+      <c r="C83" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D83" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="E83" s="0">
+        <v>33</v>
+      </c>
+      <c r="F83" t="s" s="0">
+        <v>262</v>
+      </c>
+      <c r="G83" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H83" t="s" s="0">
+        <v>263</v>
+      </c>
+      <c r="I83" s="0">
+        <v>9737290</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84" t="s" s="0">
+        <v>419</v>
+      </c>
+      <c r="B84" t="s" s="0">
+        <v>264</v>
+      </c>
+      <c r="C84" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D84" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E84" s="0">
+        <v>28</v>
+      </c>
+      <c r="F84" t="s" s="0">
+        <v>265</v>
+      </c>
+      <c r="G84" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H84" t="s" s="0">
+        <v>266</v>
+      </c>
+      <c r="I84" s="0">
+        <v>3253337</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85" t="s" s="0">
+        <v>420</v>
+      </c>
+      <c r="B85" t="s" s="0">
+        <v>267</v>
+      </c>
+      <c r="C85" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D85" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E85" s="0">
+        <v>57</v>
+      </c>
+      <c r="F85" t="s" s="0">
+        <v>268</v>
+      </c>
+      <c r="G85" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H85" t="s" s="0">
+        <v>269</v>
+      </c>
+      <c r="I85" s="0">
+        <v>3477827</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86" t="s" s="0">
+        <v>421</v>
+      </c>
+      <c r="B86" t="s" s="0">
+        <v>270</v>
+      </c>
+      <c r="C86" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="D86" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E86" s="0">
+        <v>23</v>
+      </c>
+      <c r="F86" t="s" s="0">
+        <v>271</v>
+      </c>
+      <c r="G86" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H86" t="s" s="0">
+        <v>272</v>
+      </c>
+      <c r="I86" s="0">
+        <v>6484201</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87" t="s" s="0">
+        <v>422</v>
+      </c>
+      <c r="B87" t="s" s="0">
+        <v>273</v>
+      </c>
+      <c r="C87" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D87" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E87" s="0">
+        <v>26</v>
+      </c>
+      <c r="F87" t="s" s="0">
+        <v>274</v>
+      </c>
+      <c r="G87" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H87" t="s" s="0">
+        <v>275</v>
+      </c>
+      <c r="I87" s="0">
+        <v>2137184</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88" t="s" s="0">
+        <v>423</v>
+      </c>
+      <c r="B88" t="s" s="0">
+        <v>276</v>
+      </c>
+      <c r="C88" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="D88" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="E88" s="0">
+        <v>43</v>
+      </c>
+      <c r="F88" t="s" s="0">
+        <v>277</v>
+      </c>
+      <c r="G88" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H88" t="s" s="0">
+        <v>278</v>
+      </c>
+      <c r="I88" s="0">
+        <v>5828649</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89" t="s" s="0">
+        <v>424</v>
+      </c>
+      <c r="B89" t="s" s="0">
+        <v>279</v>
+      </c>
+      <c r="C89" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="D89" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="E89" s="0">
+        <v>35</v>
+      </c>
+      <c r="F89" t="s" s="0">
+        <v>280</v>
+      </c>
+      <c r="G89" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H89" t="s" s="0">
+        <v>281</v>
+      </c>
+      <c r="I89" s="0">
+        <v>9314586</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90" t="s" s="0">
+        <v>425</v>
+      </c>
+      <c r="B90" t="s" s="0">
+        <v>282</v>
+      </c>
+      <c r="C90" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="D90" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="E90" s="0">
+        <v>52</v>
+      </c>
+      <c r="F90" t="s" s="0">
+        <v>283</v>
+      </c>
+      <c r="G90" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H90" t="s" s="0">
+        <v>284</v>
+      </c>
+      <c r="I90" s="0">
+        <v>5930324</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91" t="s" s="0">
+        <v>426</v>
+      </c>
+      <c r="B91" t="s" s="0">
+        <v>285</v>
+      </c>
+      <c r="C91" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="D91" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E91" s="0">
+        <v>42</v>
+      </c>
+      <c r="F91" t="s" s="0">
+        <v>286</v>
+      </c>
+      <c r="G91" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H91" t="s" s="0">
+        <v>287</v>
+      </c>
+      <c r="I91" s="0">
+        <v>4353913</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92" t="s" s="0">
+        <v>427</v>
+      </c>
+      <c r="B92" t="s" s="0">
+        <v>288</v>
+      </c>
+      <c r="C92" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="D92" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="E92" s="0">
+        <v>37</v>
+      </c>
+      <c r="F92" t="s" s="0">
+        <v>289</v>
+      </c>
+      <c r="G92" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H92" t="s" s="0">
+        <v>290</v>
+      </c>
+      <c r="I92" s="0">
+        <v>3044136</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93" t="s" s="0">
+        <v>428</v>
+      </c>
+      <c r="B93" t="s" s="0">
+        <v>291</v>
+      </c>
+      <c r="C93" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="D93" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="E93" s="0">
+        <v>39</v>
+      </c>
+      <c r="F93" t="s" s="0">
+        <v>292</v>
+      </c>
+      <c r="G93" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H93" t="s" s="0">
+        <v>293</v>
+      </c>
+      <c r="I93" s="0">
+        <v>5228200</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A94" t="s" s="0">
+        <v>429</v>
+      </c>
+      <c r="B94" t="s" s="0">
+        <v>294</v>
+      </c>
+      <c r="C94" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="D94" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E94" s="0">
+        <v>21</v>
+      </c>
+      <c r="F94" t="s" s="0">
+        <v>295</v>
+      </c>
+      <c r="G94" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H94" t="s" s="0">
+        <v>296</v>
+      </c>
+      <c r="I94" s="0">
+        <v>9912130</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A95" t="s" s="0">
+        <v>430</v>
+      </c>
+      <c r="B95" t="s" s="0">
+        <v>297</v>
+      </c>
+      <c r="C95" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="D95" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E95" s="0">
+        <v>61</v>
+      </c>
+      <c r="F95" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="G95" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H95" t="s" s="0">
+        <v>299</v>
+      </c>
+      <c r="I95" s="0">
+        <v>7542700</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96" t="s" s="0">
+        <v>431</v>
+      </c>
+      <c r="B96" t="s" s="0">
+        <v>300</v>
+      </c>
+      <c r="C96" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="D96" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="E96" s="0">
+        <v>62</v>
+      </c>
+      <c r="F96" t="s" s="0">
+        <v>301</v>
+      </c>
+      <c r="G96" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H96" t="s" s="0">
+        <v>302</v>
+      </c>
+      <c r="I96" s="0">
+        <v>8296226</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A97" t="s" s="0">
+        <v>432</v>
+      </c>
+      <c r="B97" t="s" s="0">
+        <v>303</v>
+      </c>
+      <c r="C97" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="D97" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E97" s="0">
+        <v>51</v>
+      </c>
+      <c r="F97" t="s" s="0">
+        <v>304</v>
+      </c>
+      <c r="G97" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H97" t="s" s="0">
+        <v>305</v>
+      </c>
+      <c r="I97" s="0">
+        <v>3368363</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A98" t="s" s="0">
+        <v>433</v>
+      </c>
+      <c r="B98" t="s" s="0">
+        <v>306</v>
+      </c>
+      <c r="C98" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="D98" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E98" s="0">
+        <v>37</v>
+      </c>
+      <c r="F98" t="s" s="0">
+        <v>307</v>
+      </c>
+      <c r="G98" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H98" t="s" s="0">
+        <v>308</v>
+      </c>
+      <c r="I98" s="0">
+        <v>8573375</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A99" t="s" s="0">
+        <v>434</v>
+      </c>
+      <c r="B99" t="s" s="0">
+        <v>309</v>
+      </c>
+      <c r="C99" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="D99" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E99" s="0">
+        <v>56</v>
+      </c>
+      <c r="F99" t="s" s="0">
+        <v>310</v>
+      </c>
+      <c r="G99" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H99" t="s" s="0">
+        <v>311</v>
+      </c>
+      <c r="I99" s="0">
+        <v>6580060</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A100" t="s" s="0">
+        <v>435</v>
+      </c>
+      <c r="B100" t="s" s="0">
+        <v>312</v>
+      </c>
+      <c r="C100" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D100" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="E100" s="0">
+        <v>52</v>
+      </c>
+      <c r="F100" t="s" s="0">
+        <v>313</v>
+      </c>
+      <c r="G100" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H100" t="s" s="0">
+        <v>314</v>
+      </c>
+      <c r="I100" s="0">
+        <v>2209714</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A101" t="s" s="0">
+        <v>436</v>
+      </c>
+      <c r="B101" t="s" s="0">
+        <v>315</v>
+      </c>
+      <c r="C101" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="D101" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="E101" s="0">
+        <v>51</v>
+      </c>
+      <c r="F101" t="s" s="0">
+        <v>316</v>
+      </c>
+      <c r="G101" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H101" t="s" s="0">
+        <v>317</v>
+      </c>
+      <c r="I101" s="0">
+        <v>9295610</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A102" t="s" s="0">
+        <v>437</v>
+      </c>
+      <c r="B102" t="s" s="0">
+        <v>318</v>
+      </c>
+      <c r="C102" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="D66" t="s">
-        <v>8</v>
-      </c>
-      <c r="E66">
-        <v>34</v>
-      </c>
-      <c r="F66" t="s">
-        <v>211</v>
-      </c>
-      <c r="G66" t="s">
-        <v>17</v>
-      </c>
-      <c r="H66" t="s">
-        <v>212</v>
-      </c>
-      <c r="I66">
-        <v>1822054</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>402</v>
-      </c>
-      <c r="B67" t="s">
-        <v>213</v>
-      </c>
-      <c r="C67" t="s">
+      <c r="D102" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E102" s="0">
+        <v>27</v>
+      </c>
+      <c r="F102" t="s" s="0">
+        <v>319</v>
+      </c>
+      <c r="G102" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H102" t="s" s="0">
+        <v>320</v>
+      </c>
+      <c r="I102" s="0">
+        <v>5821986</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A103" t="s" s="0">
+        <v>438</v>
+      </c>
+      <c r="B103" t="s" s="0">
+        <v>321</v>
+      </c>
+      <c r="C103" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D103" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E103" s="0">
+        <v>58</v>
+      </c>
+      <c r="F103" t="s" s="0">
+        <v>322</v>
+      </c>
+      <c r="G103" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H103" t="s" s="0">
+        <v>323</v>
+      </c>
+      <c r="I103" s="0">
+        <v>8124730</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A104" t="s" s="0">
+        <v>439</v>
+      </c>
+      <c r="B104" t="s" s="0">
+        <v>324</v>
+      </c>
+      <c r="C104" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="D104" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E104" s="0">
+        <v>29</v>
+      </c>
+      <c r="F104" t="s" s="0">
+        <v>325</v>
+      </c>
+      <c r="G104" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H104" t="s" s="0">
+        <v>326</v>
+      </c>
+      <c r="I104" s="0">
+        <v>9429253</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A105" t="s" s="0">
+        <v>440</v>
+      </c>
+      <c r="B105" t="s" s="0">
+        <v>327</v>
+      </c>
+      <c r="C105" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D105" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="E105" s="0">
+        <v>57</v>
+      </c>
+      <c r="F105" t="s" s="0">
+        <v>328</v>
+      </c>
+      <c r="G105" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H105" t="s" s="0">
+        <v>329</v>
+      </c>
+      <c r="I105" s="0">
+        <v>7085811</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A106" t="s" s="0">
+        <v>441</v>
+      </c>
+      <c r="B106" t="s" s="0">
+        <v>332</v>
+      </c>
+      <c r="C106" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D106" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E106" s="0">
+        <v>21</v>
+      </c>
+      <c r="F106" t="s" s="0">
+        <v>333</v>
+      </c>
+      <c r="G106" t="s" s="0">
+        <v>334</v>
+      </c>
+      <c r="H106" t="s" s="0">
+        <v>335</v>
+      </c>
+      <c r="I106" s="0">
+        <v>12341234</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A107" t="s" s="0">
+        <v>442</v>
+      </c>
+      <c r="B107" t="s" s="0">
+        <v>443</v>
+      </c>
+      <c r="C107" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="D107" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="E107" s="0">
+        <v>24</v>
+      </c>
+      <c r="F107" t="s" s="0">
+        <v>444</v>
+      </c>
+      <c r="G107" t="s" s="0">
+        <v>445</v>
+      </c>
+      <c r="H107" t="s" s="0">
+        <v>446</v>
+      </c>
+      <c r="I107" s="0">
+        <v>12341234</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A108" t="s" s="0">
+        <v>447</v>
+      </c>
+      <c r="B108" t="s" s="0">
+        <v>460</v>
+      </c>
+      <c r="C108" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="D108" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="E108" s="0">
+        <v>25</v>
+      </c>
+      <c r="F108" t="s" s="0">
+        <v>463</v>
+      </c>
+      <c r="G108" t="s" s="0">
+        <v>467</v>
+      </c>
+      <c r="H108" t="s" s="0">
+        <v>464</v>
+      </c>
+      <c r="I108" s="0">
+        <v>12341234</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A109" t="s" s="0">
+        <v>448</v>
+      </c>
+      <c r="B109" t="s" s="0">
+        <v>461</v>
+      </c>
+      <c r="C109" t="s" s="0">
+        <v>462</v>
+      </c>
+      <c r="D109" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E109" s="0">
+        <v>26</v>
+      </c>
+      <c r="F109" t="s" s="0">
+        <v>466</v>
+      </c>
+      <c r="G109" t="s" s="0">
+        <v>449</v>
+      </c>
+      <c r="H109" t="s" s="0">
+        <v>465</v>
+      </c>
+      <c r="I109" s="0">
+        <v>12341234</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A110" t="s" s="0">
+        <v>450</v>
+      </c>
+      <c r="B110" t="s" s="0">
+        <v>451</v>
+      </c>
+      <c r="C110" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D110" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E110" s="0">
+        <v>45</v>
+      </c>
+      <c r="F110" t="s" s="0">
+        <v>452</v>
+      </c>
+      <c r="G110" t="s" s="0">
+        <v>458</v>
+      </c>
+      <c r="H110" t="s" s="0">
+        <v>453</v>
+      </c>
+      <c r="I110" s="0">
+        <v>12341234</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A111" t="s" s="0">
+        <v>454</v>
+      </c>
+      <c r="B111" t="s" s="0">
+        <v>455</v>
+      </c>
+      <c r="C111" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="D111" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="E111" s="0">
         <v>56</v>
       </c>
-      <c r="D67" t="s">
-        <v>7</v>
-      </c>
-      <c r="E67">
-        <v>63</v>
-      </c>
-      <c r="F67" t="s">
-        <v>214</v>
-      </c>
-      <c r="G67" t="s">
-        <v>17</v>
-      </c>
-      <c r="H67" t="s">
-        <v>215</v>
-      </c>
-      <c r="I67">
-        <v>3713226</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>403</v>
-      </c>
-      <c r="B68" t="s">
-        <v>216</v>
-      </c>
-      <c r="C68" t="s">
-        <v>56</v>
-      </c>
-      <c r="D68" t="s">
-        <v>8</v>
-      </c>
-      <c r="E68">
-        <v>49</v>
-      </c>
-      <c r="F68" t="s">
-        <v>217</v>
-      </c>
-      <c r="G68" t="s">
-        <v>17</v>
-      </c>
-      <c r="H68" t="s">
-        <v>218</v>
-      </c>
-      <c r="I68">
-        <v>4900839</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>404</v>
-      </c>
-      <c r="B69" t="s">
-        <v>219</v>
-      </c>
-      <c r="C69" t="s">
-        <v>93</v>
-      </c>
-      <c r="D69" t="s">
-        <v>7</v>
-      </c>
-      <c r="E69">
-        <v>22</v>
-      </c>
-      <c r="F69" t="s">
-        <v>220</v>
-      </c>
-      <c r="G69" t="s">
-        <v>17</v>
-      </c>
-      <c r="H69" t="s">
-        <v>221</v>
-      </c>
-      <c r="I69">
-        <v>8613278</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>405</v>
-      </c>
-      <c r="B70" t="s">
-        <v>222</v>
-      </c>
-      <c r="C70" t="s">
-        <v>4</v>
-      </c>
-      <c r="D70" t="s">
-        <v>7</v>
-      </c>
-      <c r="E70">
-        <v>57</v>
-      </c>
-      <c r="F70" t="s">
-        <v>223</v>
-      </c>
-      <c r="G70" t="s">
-        <v>17</v>
-      </c>
-      <c r="H70" t="s">
-        <v>224</v>
-      </c>
-      <c r="I70">
-        <v>1890269</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>406</v>
-      </c>
-      <c r="B71" t="s">
-        <v>225</v>
-      </c>
-      <c r="C71" t="s">
-        <v>49</v>
-      </c>
-      <c r="D71" t="s">
-        <v>8</v>
-      </c>
-      <c r="E71">
-        <v>29</v>
-      </c>
-      <c r="F71" t="s">
-        <v>226</v>
-      </c>
-      <c r="G71" t="s">
-        <v>17</v>
-      </c>
-      <c r="H71" t="s">
-        <v>227</v>
-      </c>
-      <c r="I71">
-        <v>2552925</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>407</v>
-      </c>
-      <c r="B72" t="s">
-        <v>228</v>
-      </c>
-      <c r="C72" t="s">
-        <v>56</v>
-      </c>
-      <c r="D72" t="s">
-        <v>8</v>
-      </c>
-      <c r="E72">
-        <v>60</v>
-      </c>
-      <c r="F72" t="s">
-        <v>229</v>
-      </c>
-      <c r="G72" t="s">
-        <v>17</v>
-      </c>
-      <c r="H72" t="s">
-        <v>230</v>
-      </c>
-      <c r="I72">
-        <v>6822517</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>408</v>
-      </c>
-      <c r="B73" t="s">
-        <v>231</v>
-      </c>
-      <c r="C73" t="s">
-        <v>5</v>
-      </c>
-      <c r="D73" t="s">
-        <v>8</v>
-      </c>
-      <c r="E73">
-        <v>44</v>
-      </c>
-      <c r="F73" t="s">
-        <v>232</v>
-      </c>
-      <c r="G73" t="s">
-        <v>17</v>
-      </c>
-      <c r="H73" t="s">
-        <v>233</v>
-      </c>
-      <c r="I73">
-        <v>7665699</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>409</v>
-      </c>
-      <c r="B74" t="s">
-        <v>234</v>
-      </c>
-      <c r="C74" t="s">
-        <v>4</v>
-      </c>
-      <c r="D74" t="s">
-        <v>8</v>
-      </c>
-      <c r="E74">
-        <v>43</v>
-      </c>
-      <c r="F74" t="s">
-        <v>235</v>
-      </c>
-      <c r="G74" t="s">
-        <v>17</v>
-      </c>
-      <c r="H74" t="s">
-        <v>236</v>
-      </c>
-      <c r="I74">
-        <v>5533098</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>410</v>
-      </c>
-      <c r="B75" t="s">
-        <v>237</v>
-      </c>
-      <c r="C75" t="s">
-        <v>5</v>
-      </c>
-      <c r="D75" t="s">
-        <v>7</v>
-      </c>
-      <c r="E75">
-        <v>48</v>
-      </c>
-      <c r="F75" t="s">
-        <v>238</v>
-      </c>
-      <c r="G75" t="s">
-        <v>17</v>
-      </c>
-      <c r="H75" t="s">
-        <v>239</v>
-      </c>
-      <c r="I75">
-        <v>2818715</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>411</v>
-      </c>
-      <c r="B76" t="s">
-        <v>240</v>
-      </c>
-      <c r="C76" t="s">
-        <v>56</v>
-      </c>
-      <c r="D76" t="s">
-        <v>7</v>
-      </c>
-      <c r="E76">
-        <v>55</v>
-      </c>
-      <c r="F76" t="s">
-        <v>241</v>
-      </c>
-      <c r="G76" t="s">
-        <v>17</v>
-      </c>
-      <c r="H76" t="s">
-        <v>242</v>
-      </c>
-      <c r="I76">
-        <v>6021521</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>412</v>
-      </c>
-      <c r="B77" t="s">
-        <v>243</v>
-      </c>
-      <c r="C77" t="s">
-        <v>49</v>
-      </c>
-      <c r="D77" t="s">
-        <v>7</v>
-      </c>
-      <c r="E77">
-        <v>62</v>
-      </c>
-      <c r="F77" t="s">
-        <v>244</v>
-      </c>
-      <c r="G77" t="s">
-        <v>17</v>
-      </c>
-      <c r="H77" t="s">
-        <v>245</v>
-      </c>
-      <c r="I77">
-        <v>6574157</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>413</v>
-      </c>
-      <c r="B78" t="s">
-        <v>246</v>
-      </c>
-      <c r="C78" t="s">
-        <v>5</v>
-      </c>
-      <c r="D78" t="s">
-        <v>8</v>
-      </c>
-      <c r="E78">
-        <v>50</v>
-      </c>
-      <c r="F78" t="s">
-        <v>247</v>
-      </c>
-      <c r="G78" t="s">
-        <v>17</v>
-      </c>
-      <c r="H78" t="s">
-        <v>248</v>
-      </c>
-      <c r="I78">
-        <v>2683176</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>414</v>
-      </c>
-      <c r="B79" t="s">
-        <v>249</v>
-      </c>
-      <c r="C79" t="s">
-        <v>5</v>
-      </c>
-      <c r="D79" t="s">
-        <v>8</v>
-      </c>
-      <c r="E79">
-        <v>22</v>
-      </c>
-      <c r="F79" t="s">
-        <v>250</v>
-      </c>
-      <c r="G79" t="s">
-        <v>17</v>
-      </c>
-      <c r="H79" t="s">
-        <v>251</v>
-      </c>
-      <c r="I79">
-        <v>7083693</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>415</v>
-      </c>
-      <c r="B80" t="s">
-        <v>252</v>
-      </c>
-      <c r="C80" t="s">
-        <v>49</v>
-      </c>
-      <c r="D80" t="s">
-        <v>8</v>
-      </c>
-      <c r="E80">
-        <v>46</v>
-      </c>
-      <c r="F80" t="s">
-        <v>253</v>
-      </c>
-      <c r="G80" t="s">
-        <v>17</v>
-      </c>
-      <c r="H80" t="s">
-        <v>254</v>
-      </c>
-      <c r="I80">
-        <v>5228382</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>416</v>
-      </c>
-      <c r="B81" t="s">
-        <v>255</v>
-      </c>
-      <c r="C81" t="s">
-        <v>6</v>
-      </c>
-      <c r="D81" t="s">
-        <v>8</v>
-      </c>
-      <c r="E81">
-        <v>40</v>
-      </c>
-      <c r="F81" t="s">
-        <v>256</v>
-      </c>
-      <c r="G81" t="s">
-        <v>17</v>
-      </c>
-      <c r="H81" t="s">
-        <v>257</v>
-      </c>
-      <c r="I81">
-        <v>2740643</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>417</v>
-      </c>
-      <c r="B82" t="s">
-        <v>258</v>
-      </c>
-      <c r="C82" t="s">
-        <v>93</v>
-      </c>
-      <c r="D82" t="s">
-        <v>7</v>
-      </c>
-      <c r="E82">
-        <v>54</v>
-      </c>
-      <c r="F82" t="s">
-        <v>259</v>
-      </c>
-      <c r="G82" t="s">
-        <v>17</v>
-      </c>
-      <c r="H82" t="s">
-        <v>260</v>
-      </c>
-      <c r="I82">
-        <v>7961296</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>418</v>
-      </c>
-      <c r="B83" t="s">
-        <v>261</v>
-      </c>
-      <c r="C83" t="s">
-        <v>5</v>
-      </c>
-      <c r="D83" t="s">
-        <v>7</v>
-      </c>
-      <c r="E83">
-        <v>33</v>
-      </c>
-      <c r="F83" t="s">
-        <v>262</v>
-      </c>
-      <c r="G83" t="s">
-        <v>17</v>
-      </c>
-      <c r="H83" t="s">
-        <v>263</v>
-      </c>
-      <c r="I83">
-        <v>9737290</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>419</v>
-      </c>
-      <c r="B84" t="s">
-        <v>264</v>
-      </c>
-      <c r="C84" t="s">
-        <v>5</v>
-      </c>
-      <c r="D84" t="s">
-        <v>8</v>
-      </c>
-      <c r="E84">
-        <v>28</v>
-      </c>
-      <c r="F84" t="s">
-        <v>265</v>
-      </c>
-      <c r="G84" t="s">
-        <v>17</v>
-      </c>
-      <c r="H84" t="s">
-        <v>266</v>
-      </c>
-      <c r="I84">
-        <v>3253337</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>420</v>
-      </c>
-      <c r="B85" t="s">
-        <v>267</v>
-      </c>
-      <c r="C85" t="s">
-        <v>5</v>
-      </c>
-      <c r="D85" t="s">
-        <v>8</v>
-      </c>
-      <c r="E85">
-        <v>57</v>
-      </c>
-      <c r="F85" t="s">
-        <v>268</v>
-      </c>
-      <c r="G85" t="s">
-        <v>17</v>
-      </c>
-      <c r="H85" t="s">
-        <v>269</v>
-      </c>
-      <c r="I85">
-        <v>3477827</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>421</v>
-      </c>
-      <c r="B86" t="s">
-        <v>270</v>
-      </c>
-      <c r="C86" t="s">
-        <v>93</v>
-      </c>
-      <c r="D86" t="s">
-        <v>8</v>
-      </c>
-      <c r="E86">
-        <v>23</v>
-      </c>
-      <c r="F86" t="s">
-        <v>271</v>
-      </c>
-      <c r="G86" t="s">
-        <v>17</v>
-      </c>
-      <c r="H86" t="s">
-        <v>272</v>
-      </c>
-      <c r="I86">
-        <v>6484201</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>422</v>
-      </c>
-      <c r="B87" t="s">
-        <v>273</v>
-      </c>
-      <c r="C87" t="s">
-        <v>6</v>
-      </c>
-      <c r="D87" t="s">
-        <v>8</v>
-      </c>
-      <c r="E87">
-        <v>26</v>
-      </c>
-      <c r="F87" t="s">
-        <v>274</v>
-      </c>
-      <c r="G87" t="s">
-        <v>17</v>
-      </c>
-      <c r="H87" t="s">
-        <v>275</v>
-      </c>
-      <c r="I87">
-        <v>2137184</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>423</v>
-      </c>
-      <c r="B88" t="s">
-        <v>276</v>
-      </c>
-      <c r="C88" t="s">
-        <v>49</v>
-      </c>
-      <c r="D88" t="s">
-        <v>7</v>
-      </c>
-      <c r="E88">
-        <v>43</v>
-      </c>
-      <c r="F88" t="s">
-        <v>277</v>
-      </c>
-      <c r="G88" t="s">
-        <v>17</v>
-      </c>
-      <c r="H88" t="s">
-        <v>278</v>
-      </c>
-      <c r="I88">
-        <v>5828649</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>424</v>
-      </c>
-      <c r="B89" t="s">
-        <v>279</v>
-      </c>
-      <c r="C89" t="s">
-        <v>49</v>
-      </c>
-      <c r="D89" t="s">
-        <v>7</v>
-      </c>
-      <c r="E89">
-        <v>35</v>
-      </c>
-      <c r="F89" t="s">
-        <v>280</v>
-      </c>
-      <c r="G89" t="s">
-        <v>17</v>
-      </c>
-      <c r="H89" t="s">
-        <v>281</v>
-      </c>
-      <c r="I89">
-        <v>9314586</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>425</v>
-      </c>
-      <c r="B90" t="s">
-        <v>282</v>
-      </c>
-      <c r="C90" t="s">
-        <v>49</v>
-      </c>
-      <c r="D90" t="s">
-        <v>7</v>
-      </c>
-      <c r="E90">
-        <v>52</v>
-      </c>
-      <c r="F90" t="s">
-        <v>283</v>
-      </c>
-      <c r="G90" t="s">
-        <v>17</v>
-      </c>
-      <c r="H90" t="s">
-        <v>284</v>
-      </c>
-      <c r="I90">
-        <v>5930324</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>426</v>
-      </c>
-      <c r="B91" t="s">
-        <v>285</v>
-      </c>
-      <c r="C91" t="s">
-        <v>56</v>
-      </c>
-      <c r="D91" t="s">
-        <v>8</v>
-      </c>
-      <c r="E91">
-        <v>42</v>
-      </c>
-      <c r="F91" t="s">
-        <v>286</v>
-      </c>
-      <c r="G91" t="s">
-        <v>17</v>
-      </c>
-      <c r="H91" t="s">
-        <v>287</v>
-      </c>
-      <c r="I91">
-        <v>4353913</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>427</v>
-      </c>
-      <c r="B92" t="s">
-        <v>288</v>
-      </c>
-      <c r="C92" t="s">
-        <v>93</v>
-      </c>
-      <c r="D92" t="s">
-        <v>7</v>
-      </c>
-      <c r="E92">
-        <v>37</v>
-      </c>
-      <c r="F92" t="s">
-        <v>289</v>
-      </c>
-      <c r="G92" t="s">
-        <v>17</v>
-      </c>
-      <c r="H92" t="s">
-        <v>290</v>
-      </c>
-      <c r="I92">
-        <v>3044136</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>428</v>
-      </c>
-      <c r="B93" t="s">
-        <v>291</v>
-      </c>
-      <c r="C93" t="s">
-        <v>4</v>
-      </c>
-      <c r="D93" t="s">
-        <v>7</v>
-      </c>
-      <c r="E93">
-        <v>39</v>
-      </c>
-      <c r="F93" t="s">
-        <v>292</v>
-      </c>
-      <c r="G93" t="s">
-        <v>17</v>
-      </c>
-      <c r="H93" t="s">
-        <v>293</v>
-      </c>
-      <c r="I93">
-        <v>5228200</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>429</v>
-      </c>
-      <c r="B94" t="s">
-        <v>294</v>
-      </c>
-      <c r="C94" t="s">
-        <v>93</v>
-      </c>
-      <c r="D94" t="s">
-        <v>8</v>
-      </c>
-      <c r="E94">
-        <v>21</v>
-      </c>
-      <c r="F94" t="s">
-        <v>295</v>
-      </c>
-      <c r="G94" t="s">
-        <v>17</v>
-      </c>
-      <c r="H94" t="s">
-        <v>296</v>
-      </c>
-      <c r="I94">
-        <v>9912130</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>430</v>
-      </c>
-      <c r="B95" t="s">
-        <v>297</v>
-      </c>
-      <c r="C95" t="s">
-        <v>49</v>
-      </c>
-      <c r="D95" t="s">
-        <v>8</v>
-      </c>
-      <c r="E95">
-        <v>61</v>
-      </c>
-      <c r="F95" t="s">
-        <v>298</v>
-      </c>
-      <c r="G95" t="s">
-        <v>17</v>
-      </c>
-      <c r="H95" t="s">
-        <v>299</v>
-      </c>
-      <c r="I95">
-        <v>7542700</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>431</v>
-      </c>
-      <c r="B96" t="s">
-        <v>300</v>
-      </c>
-      <c r="C96" t="s">
-        <v>56</v>
-      </c>
-      <c r="D96" t="s">
-        <v>7</v>
-      </c>
-      <c r="E96">
-        <v>62</v>
-      </c>
-      <c r="F96" t="s">
-        <v>301</v>
-      </c>
-      <c r="G96" t="s">
-        <v>17</v>
-      </c>
-      <c r="H96" t="s">
-        <v>302</v>
-      </c>
-      <c r="I96">
-        <v>8296226</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>432</v>
-      </c>
-      <c r="B97" t="s">
-        <v>303</v>
-      </c>
-      <c r="C97" t="s">
-        <v>93</v>
-      </c>
-      <c r="D97" t="s">
-        <v>8</v>
-      </c>
-      <c r="E97">
-        <v>51</v>
-      </c>
-      <c r="F97" t="s">
-        <v>304</v>
-      </c>
-      <c r="G97" t="s">
-        <v>17</v>
-      </c>
-      <c r="H97" t="s">
-        <v>305</v>
-      </c>
-      <c r="I97">
-        <v>3368363</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>433</v>
-      </c>
-      <c r="B98" t="s">
-        <v>306</v>
-      </c>
-      <c r="C98" t="s">
-        <v>56</v>
-      </c>
-      <c r="D98" t="s">
-        <v>8</v>
-      </c>
-      <c r="E98">
-        <v>37</v>
-      </c>
-      <c r="F98" t="s">
-        <v>307</v>
-      </c>
-      <c r="G98" t="s">
-        <v>17</v>
-      </c>
-      <c r="H98" t="s">
-        <v>308</v>
-      </c>
-      <c r="I98">
-        <v>8573375</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>434</v>
-      </c>
-      <c r="B99" t="s">
-        <v>309</v>
-      </c>
-      <c r="C99" t="s">
-        <v>56</v>
-      </c>
-      <c r="D99" t="s">
-        <v>8</v>
-      </c>
-      <c r="E99">
-        <v>56</v>
-      </c>
-      <c r="F99" t="s">
-        <v>310</v>
-      </c>
-      <c r="G99" t="s">
-        <v>17</v>
-      </c>
-      <c r="H99" t="s">
-        <v>311</v>
-      </c>
-      <c r="I99">
-        <v>6580060</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>435</v>
-      </c>
-      <c r="B100" t="s">
-        <v>312</v>
-      </c>
-      <c r="C100" t="s">
-        <v>6</v>
-      </c>
-      <c r="D100" t="s">
-        <v>7</v>
-      </c>
-      <c r="E100">
-        <v>52</v>
-      </c>
-      <c r="F100" t="s">
-        <v>313</v>
-      </c>
-      <c r="G100" t="s">
-        <v>17</v>
-      </c>
-      <c r="H100" t="s">
-        <v>314</v>
-      </c>
-      <c r="I100">
-        <v>2209714</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>436</v>
-      </c>
-      <c r="B101" t="s">
-        <v>315</v>
-      </c>
-      <c r="C101" t="s">
-        <v>4</v>
-      </c>
-      <c r="D101" t="s">
-        <v>7</v>
-      </c>
-      <c r="E101">
-        <v>51</v>
-      </c>
-      <c r="F101" t="s">
-        <v>316</v>
-      </c>
-      <c r="G101" t="s">
-        <v>17</v>
-      </c>
-      <c r="H101" t="s">
-        <v>317</v>
-      </c>
-      <c r="I101">
-        <v>9295610</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>437</v>
-      </c>
-      <c r="B102" t="s">
-        <v>318</v>
-      </c>
-      <c r="C102" t="s">
-        <v>27</v>
-      </c>
-      <c r="D102" t="s">
-        <v>8</v>
-      </c>
-      <c r="E102">
-        <v>27</v>
-      </c>
-      <c r="F102" t="s">
-        <v>319</v>
-      </c>
-      <c r="G102" t="s">
-        <v>17</v>
-      </c>
-      <c r="H102" t="s">
-        <v>320</v>
-      </c>
-      <c r="I102">
-        <v>5821986</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>438</v>
-      </c>
-      <c r="B103" t="s">
-        <v>321</v>
-      </c>
-      <c r="C103" t="s">
-        <v>5</v>
-      </c>
-      <c r="D103" t="s">
-        <v>8</v>
-      </c>
-      <c r="E103">
-        <v>58</v>
-      </c>
-      <c r="F103" t="s">
-        <v>322</v>
-      </c>
-      <c r="G103" t="s">
-        <v>17</v>
-      </c>
-      <c r="H103" t="s">
-        <v>323</v>
-      </c>
-      <c r="I103">
-        <v>8124730</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>439</v>
-      </c>
-      <c r="B104" t="s">
-        <v>324</v>
-      </c>
-      <c r="C104" t="s">
-        <v>27</v>
-      </c>
-      <c r="D104" t="s">
-        <v>8</v>
-      </c>
-      <c r="E104">
-        <v>29</v>
-      </c>
-      <c r="F104" t="s">
-        <v>325</v>
-      </c>
-      <c r="G104" t="s">
-        <v>17</v>
-      </c>
-      <c r="H104" t="s">
-        <v>326</v>
-      </c>
-      <c r="I104">
-        <v>9429253</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>440</v>
-      </c>
-      <c r="B105" t="s">
-        <v>327</v>
-      </c>
-      <c r="C105" t="s">
-        <v>6</v>
-      </c>
-      <c r="D105" t="s">
-        <v>7</v>
-      </c>
-      <c r="E105">
-        <v>57</v>
-      </c>
-      <c r="F105" t="s">
-        <v>328</v>
-      </c>
-      <c r="G105" t="s">
-        <v>17</v>
-      </c>
-      <c r="H105" t="s">
-        <v>329</v>
-      </c>
-      <c r="I105">
-        <v>7085811</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>441</v>
-      </c>
-      <c r="B106" t="s">
-        <v>332</v>
-      </c>
-      <c r="C106" t="s">
-        <v>6</v>
-      </c>
-      <c r="D106" t="s">
-        <v>8</v>
-      </c>
-      <c r="E106">
-        <v>21</v>
-      </c>
-      <c r="F106" t="s">
-        <v>333</v>
-      </c>
-      <c r="G106" t="s">
-        <v>334</v>
-      </c>
-      <c r="H106" t="s">
-        <v>335</v>
-      </c>
-      <c r="I106">
-        <v>12341234</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>442</v>
-      </c>
-      <c r="B107" t="s">
-        <v>443</v>
-      </c>
-      <c r="C107" t="s">
-        <v>4</v>
-      </c>
-      <c r="D107" t="s">
-        <v>7</v>
-      </c>
-      <c r="E107">
-        <v>24</v>
-      </c>
-      <c r="F107" t="s">
-        <v>444</v>
-      </c>
-      <c r="G107" t="s">
-        <v>445</v>
-      </c>
-      <c r="H107" t="s">
-        <v>446</v>
-      </c>
-      <c r="I107">
-        <v>12341234</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>447</v>
-      </c>
-      <c r="B108" t="s">
-        <v>448</v>
-      </c>
-      <c r="C108" t="s">
-        <v>6</v>
-      </c>
-      <c r="D108" t="s">
-        <v>6</v>
-      </c>
-      <c r="E108">
-        <v>32</v>
-      </c>
-      <c r="F108" t="s">
-        <v>449</v>
-      </c>
-      <c r="G108" t="s">
-        <v>450</v>
-      </c>
-      <c r="H108" t="s">
-        <v>451</v>
-      </c>
-      <c r="I108">
+      <c r="F111" t="s" s="0">
+        <v>456</v>
+      </c>
+      <c r="G111" t="s" s="0">
+        <v>459</v>
+      </c>
+      <c r="H111" t="s" s="0">
+        <v>457</v>
+      </c>
+      <c r="I111" s="0">
         <v>12341234</v>
       </c>
     </row>

--- a/data/UserList.xlsx
+++ b/data/UserList.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="475">
   <si>
     <t>Name</t>
   </si>
@@ -1424,6 +1424,27 @@
   </si>
   <si>
     <t>user11</t>
+  </si>
+  <si>
+    <t>H111</t>
+  </si>
+  <si>
+    <t>NewGuy</t>
+  </si>
+  <si>
+    <t>newGuy</t>
+  </si>
+  <si>
+    <t>new@guy.com</t>
+  </si>
+  <si>
+    <t>NewUserPatient</t>
+  </si>
+  <si>
+    <t>NewPatient</t>
+  </si>
+  <si>
+    <t>new@patient.com</t>
   </si>
 </sst>
 </file>
@@ -1809,7 +1830,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I111"/>
+  <dimension ref="A1:I112"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A80" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="F108" sqref="F108"/>
@@ -5045,6 +5066,35 @@
         <v>12341234</v>
       </c>
     </row>
+    <row r="112">
+      <c r="A112" t="s" s="0">
+        <v>468</v>
+      </c>
+      <c r="B112" t="s" s="0">
+        <v>472</v>
+      </c>
+      <c r="C112" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="D112" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E112" t="n" s="0">
+        <v>45.0</v>
+      </c>
+      <c r="F112" t="s" s="0">
+        <v>473</v>
+      </c>
+      <c r="G112" t="s" s="0">
+        <v>449</v>
+      </c>
+      <c r="H112" t="s" s="0">
+        <v>474</v>
+      </c>
+      <c r="I112" t="n" s="0">
+        <v>1234.0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>

--- a/data/UserList.xlsx
+++ b/data/UserList.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="477">
   <si>
     <t>Name</t>
   </si>
@@ -1445,6 +1445,12 @@
   </si>
   <si>
     <t>new@patient.com</t>
+  </si>
+  <si>
+    <t>new123</t>
+  </si>
+  <si>
+    <t>pendingU2</t>
   </si>
 </sst>
 </file>
@@ -1983,7 +1989,7 @@
         <v>23</v>
       </c>
       <c r="G5" t="s" s="0">
-        <v>336</v>
+        <v>17</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>24</v>
@@ -4999,7 +5005,7 @@
         <v>466</v>
       </c>
       <c r="G109" t="s" s="0">
-        <v>449</v>
+        <v>476</v>
       </c>
       <c r="H109" t="s" s="0">
         <v>465</v>
@@ -5086,7 +5092,7 @@
         <v>473</v>
       </c>
       <c r="G112" t="s" s="0">
-        <v>449</v>
+        <v>475</v>
       </c>
       <c r="H112" t="s" s="0">
         <v>474</v>

--- a/data/UserList.xlsx
+++ b/data/UserList.xlsx
@@ -4869,35 +4869,6 @@
         <v>9429253</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A105" t="s" s="0">
-        <v>440</v>
-      </c>
-      <c r="B105" t="s" s="0">
-        <v>327</v>
-      </c>
-      <c r="C105" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="D105" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="E105" s="0">
-        <v>57</v>
-      </c>
-      <c r="F105" t="s" s="0">
-        <v>328</v>
-      </c>
-      <c r="G105" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H105" t="s" s="0">
-        <v>329</v>
-      </c>
-      <c r="I105" s="0">
-        <v>7085811</v>
-      </c>
-    </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s" s="0">
         <v>441</v>
@@ -4927,64 +4898,6 @@
         <v>12341234</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A107" t="s" s="0">
-        <v>442</v>
-      </c>
-      <c r="B107" t="s" s="0">
-        <v>443</v>
-      </c>
-      <c r="C107" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="D107" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="E107" s="0">
-        <v>24</v>
-      </c>
-      <c r="F107" t="s" s="0">
-        <v>444</v>
-      </c>
-      <c r="G107" t="s" s="0">
-        <v>445</v>
-      </c>
-      <c r="H107" t="s" s="0">
-        <v>446</v>
-      </c>
-      <c r="I107" s="0">
-        <v>12341234</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A108" t="s" s="0">
-        <v>447</v>
-      </c>
-      <c r="B108" t="s" s="0">
-        <v>460</v>
-      </c>
-      <c r="C108" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="D108" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="E108" s="0">
-        <v>25</v>
-      </c>
-      <c r="F108" t="s" s="0">
-        <v>463</v>
-      </c>
-      <c r="G108" t="s" s="0">
-        <v>467</v>
-      </c>
-      <c r="H108" t="s" s="0">
-        <v>464</v>
-      </c>
-      <c r="I108" s="0">
-        <v>12341234</v>
-      </c>
-    </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s" s="0">
         <v>448</v>
@@ -5011,35 +4924,6 @@
         <v>465</v>
       </c>
       <c r="I109" s="0">
-        <v>12341234</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A110" t="s" s="0">
-        <v>450</v>
-      </c>
-      <c r="B110" t="s" s="0">
-        <v>451</v>
-      </c>
-      <c r="C110" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="D110" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E110" s="0">
-        <v>45</v>
-      </c>
-      <c r="F110" t="s" s="0">
-        <v>452</v>
-      </c>
-      <c r="G110" t="s" s="0">
-        <v>458</v>
-      </c>
-      <c r="H110" t="s" s="0">
-        <v>453</v>
-      </c>
-      <c r="I110" s="0">
         <v>12341234</v>
       </c>
     </row>

--- a/data/UserList.xlsx
+++ b/data/UserList.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="480">
   <si>
     <t>Name</t>
   </si>
@@ -1451,6 +1451,15 @@
   </si>
   <si>
     <t>pendingU2</t>
+  </si>
+  <si>
+    <t>H112</t>
+  </si>
+  <si>
+    <t>TestUser</t>
+  </si>
+  <si>
+    <t>testDr</t>
   </si>
 </sst>
 </file>
@@ -4869,35 +4878,6 @@
         <v>9429253</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A106" t="s" s="0">
-        <v>441</v>
-      </c>
-      <c r="B106" t="s" s="0">
-        <v>332</v>
-      </c>
-      <c r="C106" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="D106" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E106" s="0">
-        <v>21</v>
-      </c>
-      <c r="F106" t="s" s="0">
-        <v>333</v>
-      </c>
-      <c r="G106" t="s" s="0">
-        <v>334</v>
-      </c>
-      <c r="H106" t="s" s="0">
-        <v>335</v>
-      </c>
-      <c r="I106" s="0">
-        <v>12341234</v>
-      </c>
-    </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s" s="0">
         <v>448</v>
